--- a/Team_10_Estimated_Efforts.xlsx
+++ b/Team_10_Estimated_Efforts.xlsx
@@ -6,22 +6,22 @@
     <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="Z_A7CCB814_8C17_47F4_BE35_F242CC60ACFB_.wvu.FilterData">Sheet1!$A$2:$I$66</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_47EECE23_E9D6_4E0B_8D0E_FD2754B8C001_.wvu.FilterData">Sheet1!$A$2:$I$90</definedName>
   </definedNames>
   <calcPr/>
   <customWorkbookViews>
-    <customWorkbookView activeSheetId="0" maximized="1" tabRatio="600" windowHeight="0" windowWidth="0" guid="{A7CCB814-8C17-47F4-BE35-F242CC60ACFB}" name="Filter 1"/>
+    <customWorkbookView activeSheetId="0" maximized="1" tabRatio="600" windowHeight="0" windowWidth="0" guid="{47EECE23-E9D6-4E0B-8D0E-FD2754B8C001}" name="Filter 1"/>
   </customWorkbookViews>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7miQmAkSPXi/BIkNOmy4lM2YH/GmsA=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mh5RJc4uZptFjxXVlmA7lBVkOO3cQ=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="99">
   <si>
     <t>Task Name: (Dependencies top to bottom)</t>
   </si>
@@ -131,6 +131,9 @@
     <t>Joshua</t>
   </si>
   <si>
+    <t>Risk Managment Document</t>
+  </si>
+  <si>
     <t>Requirements Document</t>
   </si>
   <si>
@@ -141,6 +144,9 @@
   </si>
   <si>
     <t>Project Manager, Developers</t>
+  </si>
+  <si>
+    <t>David, Kendal, Joshua, Alec</t>
   </si>
   <si>
     <t>Architecture Document</t>
@@ -175,7 +181,7 @@
     <t>Kendal, Joshua</t>
   </si>
   <si>
-    <t>Planning</t>
+    <t>Forming</t>
   </si>
   <si>
     <t>Development</t>
@@ -220,7 +226,7 @@
     <t>Kendal, Joshua, David</t>
   </si>
   <si>
-    <t>Coding</t>
+    <t>Planning</t>
   </si>
   <si>
     <t>Design</t>
@@ -230,6 +236,9 @@
   </si>
   <si>
     <t>Design High Level Front End Design</t>
+  </si>
+  <si>
+    <t>Developers</t>
   </si>
   <si>
     <r>
@@ -249,7 +258,7 @@
     </r>
     <r>
       <rPr/>
-      <t>Alec</t>
+      <t>Alec,David</t>
     </r>
   </si>
   <si>
@@ -261,23 +270,11 @@
     </r>
     <r>
       <rPr/>
-      <t xml:space="preserve">Joshua, </t>
+      <t>Joshua, David</t>
     </r>
   </si>
   <si>
-    <t>Implement Database Structure</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Joshua, </t>
-    </r>
-    <r>
-      <rPr/>
-      <t>David</t>
-    </r>
-  </si>
-  <si>
-    <t>Create Basic UI for Further Development</t>
+    <t>Draw Prototypes for Further Development</t>
   </si>
   <si>
     <r>
@@ -287,28 +284,11 @@
       <t>Alec</t>
     </r>
     <r>
-      <t>, Kendal</t>
+      <t>, Josh</t>
     </r>
   </si>
   <si>
-    <t>Add Unit Testing Framework</t>
-  </si>
-  <si>
-    <t>Developer, Tester</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-      </rPr>
-      <t>Kendal</t>
-    </r>
-    <r>
-      <t>, Alec</t>
-    </r>
-  </si>
-  <si>
-    <t>Implement Schedule Checking Process</t>
+    <t>Design Schedule Checking Process</t>
   </si>
   <si>
     <r>
@@ -316,23 +296,85 @@
     </r>
     <r>
       <rPr/>
-      <t>Alec</t>
+      <t>Alec, David</t>
     </r>
   </si>
   <si>
-    <t>Update UI with schedule checking</t>
+    <t>Starting Creating Technical UI</t>
+  </si>
+  <si>
+    <t>Create First Presentation for Client</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Joshua, </t>
+    </r>
+    <r>
+      <rPr/>
+      <t>David, Alec</t>
+    </r>
+  </si>
+  <si>
+    <t>Prepare for Next Iteration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kendal </t>
+  </si>
+  <si>
+    <t> 2</t>
+  </si>
+  <si>
+    <t>Implemenation</t>
+  </si>
+  <si>
+    <t>Iteration 3:</t>
+  </si>
+  <si>
+    <t>Design specific data models</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> David, </t>
+    </r>
+    <r>
+      <rPr/>
+      <t>Joshua</t>
+    </r>
+  </si>
+  <si>
+    <t>Design conflict rule model</t>
+  </si>
+  <si>
+    <r>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+      </rPr>
+      <t>Joshua,</t>
+    </r>
+    <r>
+      <t xml:space="preserve"> David, Alec</t>
+    </r>
+  </si>
+  <si>
+    <t>Create basic user interface based on design</t>
+  </si>
+  <si>
+    <t>Add unit testing framework</t>
+  </si>
+  <si>
+    <t>Alec, Kendal</t>
+  </si>
+  <si>
+    <t>Implement database connection</t>
   </si>
   <si>
     <t>Kendal, Alec</t>
   </si>
   <si>
-    <t>Prepare Iteration 2 Presentation</t>
-  </si>
-  <si>
-    <t>Testing</t>
-  </si>
-  <si>
-    <t>Iteration 3:</t>
+    <t>Implement database schemas</t>
   </si>
   <si>
     <t>System Testing</t>
@@ -344,14 +386,23 @@
     <t>Bug fix from testing results</t>
   </si>
   <si>
-    <t> Alec</t>
+    <t>Implementation/      Testing</t>
+  </si>
+  <si>
+    <t>Iteration 4:</t>
+  </si>
+  <si>
+    <t>Testing</t>
+  </si>
+  <si>
+    <t>Iteration 5:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="18">
+  <fonts count="23">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -360,10 +411,12 @@
     <font>
       <b/>
       <sz val="12.0"/>
+      <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <sz val="12.0"/>
+      <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -383,21 +436,30 @@
     </font>
     <font>
       <sz val="10.0"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10.0"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
       <sz val="12.0"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="2.0"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="2.0"/>
+      <b/>
       <name val="Arial"/>
     </font>
     <font>
       <sz val="12.0"/>
-      <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -423,7 +485,18 @@
     </font>
     <font>
       <b/>
-      <sz val="10.0"/>
+      <sz val="11.0"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12.0"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -433,12 +506,19 @@
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="2.0"/>
+      <b/>
+      <sz val="11.0"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
     </font>
     <font>
+      <b/>
       <sz val="12.0"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="2.0"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
     </font>
@@ -481,7 +561,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="26">
     <border/>
     <border>
       <left style="hair">
@@ -599,10 +679,44 @@
     </border>
     <border>
       <left/>
-      <right style="hair">
+      <right/>
+      <top/>
+    </border>
+    <border>
+      <left style="hair">
         <color rgb="FF000000"/>
-      </right>
+      </left>
+      <right/>
       <top/>
+    </border>
+    <border>
+      <left/>
+    </border>
+    <border>
+      <left style="hair">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <bottom/>
+    </border>
+    <border>
+      <left style="hair">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <bottom/>
+    </border>
+    <border>
+      <left/>
+      <top/>
+      <bottom/>
+    </border>
+    <border>
+      <left/>
       <bottom/>
     </border>
     <border>
@@ -617,11 +731,49 @@
         <color rgb="FF000000"/>
       </bottom>
     </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="127">
+  <cellXfs count="188">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -639,7 +791,8 @@
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
@@ -663,9 +816,6 @@
     <xf borderId="5" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="6" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
     <xf borderId="6" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
@@ -681,36 +831,46 @@
     <xf borderId="6" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="8" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="5" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="8" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="9" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="7" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="5" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="5" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="5" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="5" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="6" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="6" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="8" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="5" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="8" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="9" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="9" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="9" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="10" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
@@ -723,39 +883,48 @@
     <xf borderId="7" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="10" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf borderId="10" fillId="3" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="7" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
+    <xf borderId="9" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="11" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="11" fillId="4" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="8" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="11" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" shrinkToFit="0" wrapText="1"/>
+    </xf>
     <xf borderId="9" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="11" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="11" fillId="4" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="8" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="9" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="11" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="8" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="11" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="10" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="7" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf borderId="10" fillId="3" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="10" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf borderId="10" fillId="3" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="10" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="10" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="7" fillId="3" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="4" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
@@ -769,30 +938,30 @@
     <xf borderId="4" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="7" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="5" fillId="3" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="7" fillId="5" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="11" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="11" fillId="4" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="11" fillId="4" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="11" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="11" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="11" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="12" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="12" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="5" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="5" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="13" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
@@ -800,11 +969,14 @@
     <xf borderId="10" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="5" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0"/>
+    </xf>
     <xf borderId="10" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="10" fillId="5" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="10" fillId="5" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="10" fillId="5" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="10" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -814,38 +986,28 @@
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="10" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="10" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="10" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="5" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="5" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="12" fillId="5" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="4" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="6" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="6" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="5" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="10" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="7" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="10" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="10" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
@@ -853,16 +1015,17 @@
     <xf borderId="7" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="7" fillId="5" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="12" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="12" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="9" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="8" fillId="4" fontId="13" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="8" fillId="4" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="9" fillId="4" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="8" fillId="4" fontId="15" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="11" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="8" fillId="4" fontId="16" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="9" fillId="4" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="12" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
@@ -870,25 +1033,54 @@
     <xf borderId="10" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
+    <xf borderId="7" fillId="3" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="7" fillId="3" fontId="11" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="7" fillId="3" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="10" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="10" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="10" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="10" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="5" fillId="3" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="3" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="4" fillId="3" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="12" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="8" fillId="4" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="9" fillId="4" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="9" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="13" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="13" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="3" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="5" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="13" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="7" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="14" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="15" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="13" fillId="3" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="5" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="10" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf borderId="16" fillId="3" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="7" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
@@ -896,25 +1088,71 @@
     <xf borderId="7" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="5" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="5" fillId="3" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
+    <xf borderId="5" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="5" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="5" fillId="3" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="12" fillId="5" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="8" fillId="4" fontId="17" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="12" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="6" fillId="4" fontId="14" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="7" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="10" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
+    <xf borderId="10" fillId="5" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="10" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="10" fillId="5" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" shrinkToFit="0" wrapText="1"/>
+    </xf>
     <xf borderId="1" fillId="5" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="10" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="7" fillId="5" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="5" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
     <xf borderId="5" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="5" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="5" fillId="5" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="5" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="10" fillId="5" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="10" fillId="5" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="10" fillId="5" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="5" fillId="5" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="4" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="5" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="10" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="10" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="10" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -923,11 +1161,27 @@
     <xf borderId="7" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="13" fillId="4" fontId="14" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="4" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="4" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="4" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="10" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="3" fillId="4" fontId="17" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="4" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="12" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="17" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="18" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="19" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="17" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="20" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="2" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -936,21 +1190,86 @@
     <xf borderId="2" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
+    <xf borderId="2" fillId="5" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
     <xf borderId="1" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="14" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="21" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="5" fillId="5" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="5" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="6" fontId="15" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="5" fillId="6" fontId="15" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="6" fillId="6" fontId="15" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="8" fillId="6" fontId="16" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="10" fillId="3" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="7" fillId="3" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="5" fillId="3" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="3" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="3" fontId="11" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="7" fillId="3" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="10" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="6" fillId="4" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="10" fillId="5" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="10" fillId="5" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="7" fillId="5" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="5" fontId="11" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="7" fillId="5" fontId="11" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="4" fillId="5" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="5" fontId="11" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="22" fillId="4" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="12" fillId="5" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="21" fillId="5" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="14" fillId="6" fontId="19" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
+    <xf borderId="4" fillId="6" fontId="19" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="5" fillId="6" fontId="19" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="6" fillId="6" fontId="19" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="5" fillId="6" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf borderId="8" fillId="6" fontId="20" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="9" fillId="6" fontId="21" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="23" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="9" fillId="6" fontId="17" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="24" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="25" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="8" fillId="6" fontId="22" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -1168,7 +1487,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="18.88"/>
-    <col customWidth="1" min="2" max="2" width="14.75"/>
+    <col customWidth="1" min="2" max="2" width="16.63"/>
     <col customWidth="1" min="3" max="3" width="47.63"/>
     <col customWidth="1" min="4" max="4" width="32.88"/>
     <col customWidth="1" min="5" max="5" width="38.25"/>
@@ -1223,19 +1542,19 @@
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
-      <c r="M2" s="6" t="s">
+      <c r="M2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="N2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="O2" s="6" t="s">
+      <c r="O2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="P2" s="6" t="s">
+      <c r="P2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" s="7" t="s">
+      <c r="Q2" s="8" t="s">
         <v>5</v>
       </c>
       <c r="R2" s="4"/>
@@ -1249,49 +1568,49 @@
       <c r="Z2" s="4"/>
     </row>
     <row r="3" ht="15.0" customHeight="1">
-      <c r="A3" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="10" t="s">
+      <c r="A3" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="I3" s="12" t="s">
         <v>11</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
-      <c r="M3" s="8" t="s">
+      <c r="M3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="N3" s="8" t="s">
+      <c r="N3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="O3" s="8" t="s">
+      <c r="O3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="P3" s="8" t="s">
+      <c r="P3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="Q3" s="8" t="s">
+      <c r="Q3" s="9" t="s">
         <v>6</v>
       </c>
       <c r="R3" s="4"/>
@@ -1305,28 +1624,28 @@
       <c r="Z3" s="4"/>
     </row>
     <row r="4" ht="15.0" customHeight="1">
-      <c r="A4" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="15" t="s">
+      <c r="A4" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="14" t="s">
         <v>13</v>
       </c>
       <c r="G4" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="H4" s="14" t="s">
         <v>13</v>
       </c>
       <c r="I4" s="16" t="s">
@@ -1335,19 +1654,19 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
-      <c r="M4" s="12" t="s">
+      <c r="M4" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="N4" s="12" t="s">
+      <c r="N4" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="O4" s="12" t="s">
+      <c r="O4" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="P4" s="12" t="s">
+      <c r="P4" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="Q4" s="12" t="s">
+      <c r="Q4" s="13" t="s">
         <v>6</v>
       </c>
       <c r="R4" s="4"/>
@@ -1382,28 +1701,28 @@
       <c r="G5" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="I5" s="21" t="s">
+      <c r="H5" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="I5" s="22" t="s">
         <v>6</v>
       </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
-      <c r="M5" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="N5" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="O5" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="P5" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q5" s="22" t="s">
+      <c r="M5" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="N5" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="O5" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="P5" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q5" s="23" t="s">
         <v>6</v>
       </c>
       <c r="R5" s="4"/>
@@ -1417,58 +1736,58 @@
       <c r="Z5" s="4"/>
     </row>
     <row r="6" ht="15.0" customHeight="1">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6" s="26"/>
-      <c r="G6" s="27">
+      <c r="C6" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="28"/>
+      <c r="G6" s="29">
         <v>4.0</v>
       </c>
-      <c r="H6" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="I6" s="28">
+      <c r="H6" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="I6" s="31">
         <v>4.0</v>
       </c>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="N6" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="O6" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="P6" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q6" s="30">
+      <c r="J6" s="32"/>
+      <c r="K6" s="32"/>
+      <c r="L6" s="32"/>
+      <c r="M6" s="33">
+        <v>1.0</v>
+      </c>
+      <c r="N6" s="33">
+        <v>1.0</v>
+      </c>
+      <c r="O6" s="33">
+        <v>1.0</v>
+      </c>
+      <c r="P6" s="33">
+        <v>1.0</v>
+      </c>
+      <c r="Q6" s="33">
         <v>4.0</v>
       </c>
-      <c r="R6" s="4"/>
-      <c r="S6" s="4"/>
-      <c r="T6" s="4"/>
-      <c r="U6" s="4"/>
-      <c r="V6" s="4"/>
-      <c r="W6" s="4"/>
-      <c r="X6" s="4"/>
-      <c r="Y6" s="4"/>
-      <c r="Z6" s="4"/>
+      <c r="R6" s="34"/>
+      <c r="S6" s="34"/>
+      <c r="T6" s="34"/>
+      <c r="U6" s="34"/>
+      <c r="V6" s="34"/>
+      <c r="W6" s="34"/>
+      <c r="X6" s="34"/>
+      <c r="Y6" s="34"/>
+      <c r="Z6" s="34"/>
     </row>
     <row r="7" ht="15.0" customHeight="1">
       <c r="A7" s="17" t="s">
@@ -1477,43 +1796,43 @@
       <c r="B7" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="31" t="s">
+      <c r="C7" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="32" t="s">
+      <c r="D7" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="33" t="s">
+      <c r="E7" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="34">
+      <c r="F7" s="38">
         <v>4.0</v>
       </c>
-      <c r="G7" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="H7" s="35">
+      <c r="G7" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" s="39">
         <v>4.0</v>
       </c>
-      <c r="I7" s="33" t="s">
+      <c r="I7" s="37" t="s">
         <v>6</v>
       </c>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
-      <c r="M7" s="36">
+      <c r="M7" s="40">
         <v>1.0</v>
       </c>
-      <c r="N7" s="36">
+      <c r="N7" s="40">
         <v>1.0</v>
       </c>
-      <c r="O7" s="36">
+      <c r="O7" s="40">
         <v>1.0</v>
       </c>
-      <c r="P7" s="36">
+      <c r="P7" s="40">
         <v>1.0</v>
       </c>
-      <c r="Q7" s="36">
+      <c r="Q7" s="40">
         <v>4.0</v>
       </c>
       <c r="R7" s="4"/>
@@ -1527,62 +1846,62 @@
       <c r="Z7" s="4"/>
     </row>
     <row r="8" ht="15.0" customHeight="1">
-      <c r="A8" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="37" t="s">
+      <c r="A8" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="F8" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="G8" s="40">
+      <c r="C8" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" s="44">
         <f>SUM(F9:F12)</f>
         <v>9</v>
       </c>
-      <c r="H8" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="I8" s="28">
+      <c r="H8" s="45" t="s">
+        <v>6</v>
+      </c>
+      <c r="I8" s="31">
         <v>9.0</v>
       </c>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="N8" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="O8" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="P8" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q8" s="41">
+      <c r="J8" s="32"/>
+      <c r="K8" s="32"/>
+      <c r="L8" s="32"/>
+      <c r="M8" s="33">
+        <v>2.25</v>
+      </c>
+      <c r="N8" s="33">
+        <v>2.25</v>
+      </c>
+      <c r="O8" s="33">
+        <v>2.25</v>
+      </c>
+      <c r="P8" s="33">
+        <v>2.25</v>
+      </c>
+      <c r="Q8" s="46">
         <f>SUM(Q9:Q12)</f>
         <v>9</v>
       </c>
-      <c r="R8" s="4"/>
-      <c r="S8" s="4"/>
-      <c r="T8" s="4"/>
-      <c r="U8" s="4"/>
-      <c r="V8" s="4"/>
-      <c r="W8" s="4"/>
-      <c r="X8" s="4"/>
-      <c r="Y8" s="4"/>
-      <c r="Z8" s="4"/>
+      <c r="R8" s="34"/>
+      <c r="S8" s="34"/>
+      <c r="T8" s="34"/>
+      <c r="U8" s="34"/>
+      <c r="V8" s="34"/>
+      <c r="W8" s="34"/>
+      <c r="X8" s="34"/>
+      <c r="Y8" s="34"/>
+      <c r="Z8" s="34"/>
     </row>
     <row r="9" ht="15.0" customHeight="1">
       <c r="A9" s="17" t="s">
@@ -1591,43 +1910,43 @@
       <c r="B9" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="31" t="s">
+      <c r="C9" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="32" t="s">
+      <c r="D9" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="33" t="s">
+      <c r="E9" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="34">
+      <c r="F9" s="38">
         <v>1.0</v>
       </c>
-      <c r="G9" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="H9" s="35">
+      <c r="G9" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="H9" s="39">
         <v>1.0</v>
       </c>
-      <c r="I9" s="33" t="s">
+      <c r="I9" s="37" t="s">
         <v>6</v>
       </c>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
-      <c r="M9" s="36">
+      <c r="M9" s="40">
         <v>0.25</v>
       </c>
-      <c r="N9" s="36">
+      <c r="N9" s="40">
         <v>0.25</v>
       </c>
-      <c r="O9" s="36">
+      <c r="O9" s="40">
         <v>0.25</v>
       </c>
-      <c r="P9" s="36">
+      <c r="P9" s="40">
         <v>0.25</v>
       </c>
-      <c r="Q9" s="36">
+      <c r="Q9" s="40">
         <v>1.0</v>
       </c>
       <c r="R9" s="4"/>
@@ -1647,43 +1966,43 @@
       <c r="B10" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="31" t="s">
+      <c r="C10" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="32" t="s">
+      <c r="D10" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="33" t="s">
+      <c r="E10" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="F10" s="34">
+      <c r="F10" s="38">
         <v>4.0</v>
       </c>
-      <c r="G10" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="H10" s="35">
+      <c r="G10" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="H10" s="39">
         <v>4.0</v>
       </c>
-      <c r="I10" s="33" t="s">
+      <c r="I10" s="37" t="s">
         <v>6</v>
       </c>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
-      <c r="M10" s="36">
+      <c r="M10" s="40">
         <v>1.0</v>
       </c>
-      <c r="N10" s="36">
+      <c r="N10" s="40">
         <v>1.0</v>
       </c>
-      <c r="O10" s="36">
+      <c r="O10" s="40">
         <v>1.0</v>
       </c>
-      <c r="P10" s="36">
+      <c r="P10" s="40">
         <v>1.0</v>
       </c>
-      <c r="Q10" s="36">
+      <c r="Q10" s="40">
         <v>4.0</v>
       </c>
       <c r="R10" s="4"/>
@@ -1703,43 +2022,43 @@
       <c r="B11" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="31" t="s">
+      <c r="C11" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="32" t="s">
+      <c r="D11" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="33" t="s">
+      <c r="E11" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="34">
+      <c r="F11" s="38">
         <v>2.0</v>
       </c>
-      <c r="G11" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="H11" s="35">
+      <c r="G11" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="H11" s="39">
         <v>2.0</v>
       </c>
-      <c r="I11" s="33" t="s">
+      <c r="I11" s="37" t="s">
         <v>6</v>
       </c>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
-      <c r="M11" s="36">
+      <c r="M11" s="40">
         <v>0.5</v>
       </c>
-      <c r="N11" s="36">
+      <c r="N11" s="40">
         <v>0.5</v>
       </c>
-      <c r="O11" s="36">
+      <c r="O11" s="40">
         <v>0.5</v>
       </c>
-      <c r="P11" s="36">
+      <c r="P11" s="40">
         <v>0.5</v>
       </c>
-      <c r="Q11" s="36">
+      <c r="Q11" s="40">
         <v>2.0</v>
       </c>
       <c r="R11" s="4"/>
@@ -1755,43 +2074,43 @@
     <row r="12" ht="15.0" customHeight="1">
       <c r="A12" s="17"/>
       <c r="B12" s="17"/>
-      <c r="C12" s="31" t="s">
+      <c r="C12" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="32" t="s">
+      <c r="D12" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="E12" s="33" t="s">
+      <c r="E12" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="F12" s="34">
+      <c r="F12" s="38">
         <v>2.0</v>
       </c>
-      <c r="G12" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="H12" s="35">
+      <c r="G12" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="H12" s="39">
         <v>2.0</v>
       </c>
-      <c r="I12" s="33" t="s">
+      <c r="I12" s="37" t="s">
         <v>6</v>
       </c>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
-      <c r="M12" s="36">
+      <c r="M12" s="40">
         <v>0.5</v>
       </c>
-      <c r="N12" s="36">
+      <c r="N12" s="40">
         <v>0.5</v>
       </c>
-      <c r="O12" s="36">
+      <c r="O12" s="40">
         <v>0.5</v>
       </c>
-      <c r="P12" s="36">
+      <c r="P12" s="40">
         <v>0.5</v>
       </c>
-      <c r="Q12" s="36">
+      <c r="Q12" s="40">
         <v>2.0</v>
       </c>
       <c r="R12" s="4"/>
@@ -1805,62 +2124,67 @@
       <c r="Z12" s="4"/>
     </row>
     <row r="13" ht="15.0" customHeight="1">
-      <c r="A13" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" s="37" t="s">
+      <c r="A13" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="42" t="s">
-        <v>6</v>
-      </c>
-      <c r="E13" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="F13" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="G13" s="40">
-        <f>SUM(F14:F20)</f>
+      <c r="C13" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="G13" s="44">
+        <f>SUM(F14:F21)</f>
+        <v>27</v>
+      </c>
+      <c r="H13" s="45" t="s">
+        <v>6</v>
+      </c>
+      <c r="I13" s="44">
+        <f>SUM(H14:H21)</f>
         <v>19</v>
       </c>
-      <c r="H13" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="I13" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="N13" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="O13" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="P13" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q13" s="41">
-        <f>SUM(Q14:Q20)</f>
+      <c r="J13" s="32"/>
+      <c r="K13" s="32"/>
+      <c r="L13" s="32"/>
+      <c r="M13" s="46">
+        <f t="shared" ref="M13:Q13" si="1">SUM(M14:M21)</f>
+        <v>3</v>
+      </c>
+      <c r="N13" s="46">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="O13" s="46">
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="R13" s="4"/>
-      <c r="S13" s="4"/>
-      <c r="T13" s="4"/>
-      <c r="U13" s="4"/>
-      <c r="V13" s="4"/>
-      <c r="W13" s="4"/>
-      <c r="X13" s="4"/>
-      <c r="Y13" s="4"/>
-      <c r="Z13" s="4"/>
+      <c r="P13" s="46">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="Q13" s="46">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="R13" s="34"/>
+      <c r="S13" s="34"/>
+      <c r="T13" s="34"/>
+      <c r="U13" s="34"/>
+      <c r="V13" s="34"/>
+      <c r="W13" s="34"/>
+      <c r="X13" s="34"/>
+      <c r="Y13" s="34"/>
+      <c r="Z13" s="34"/>
     </row>
     <row r="14" ht="15.0" customHeight="1">
       <c r="A14" s="17" t="s">
@@ -1869,43 +2193,43 @@
       <c r="B14" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="31" t="s">
+      <c r="C14" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="32" t="s">
+      <c r="D14" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="33" t="s">
+      <c r="E14" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="F14" s="34">
+      <c r="F14" s="38">
         <v>2.0</v>
       </c>
-      <c r="G14" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="H14" s="35">
+      <c r="G14" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="H14" s="39">
         <v>3.0</v>
       </c>
-      <c r="I14" s="33" t="s">
+      <c r="I14" s="37" t="s">
         <v>6</v>
       </c>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
-      <c r="M14" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="N14" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="O14" s="36">
+      <c r="M14" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="N14" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="O14" s="40">
         <v>3.0</v>
       </c>
-      <c r="P14" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q14" s="36">
+      <c r="P14" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q14" s="40">
         <v>3.0</v>
       </c>
       <c r="R14" s="4"/>
@@ -1925,43 +2249,43 @@
       <c r="B15" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="31" t="s">
+      <c r="C15" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="32" t="s">
+      <c r="D15" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="E15" s="44" t="s">
+      <c r="E15" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="F15" s="34">
+      <c r="F15" s="38">
         <v>2.0</v>
       </c>
-      <c r="G15" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="H15" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="I15" s="33" t="s">
+      <c r="G15" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="H15" s="49" t="s">
+        <v>6</v>
+      </c>
+      <c r="I15" s="37" t="s">
         <v>6</v>
       </c>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
-      <c r="M15" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="N15" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="O15" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="P15" s="45" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q15" s="45" t="s">
+      <c r="M15" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="N15" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="O15" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="P15" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q15" s="38" t="s">
         <v>6</v>
       </c>
       <c r="R15" s="4"/>
@@ -1975,50 +2299,36 @@
       <c r="Z15" s="4"/>
     </row>
     <row r="16" ht="15.0" customHeight="1">
-      <c r="A16" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" s="31" t="s">
+      <c r="A16" s="17"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="D16" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="E16" s="44" t="s">
-        <v>30</v>
-      </c>
-      <c r="F16" s="34">
-        <v>4.0</v>
-      </c>
-      <c r="G16" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="H16" s="35">
-        <v>4.0</v>
-      </c>
-      <c r="I16" s="33" t="s">
-        <v>6</v>
-      </c>
+      <c r="D16" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="52" t="s">
+        <v>3</v>
+      </c>
+      <c r="F16" s="53">
+        <v>2.0</v>
+      </c>
+      <c r="G16" s="37"/>
+      <c r="H16" s="39">
+        <v>2.0</v>
+      </c>
+      <c r="I16" s="37"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
-      <c r="M16" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="N16" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="O16" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="P16" s="36">
-        <v>4.0</v>
-      </c>
-      <c r="Q16" s="36">
-        <v>4.0</v>
+      <c r="M16" s="38"/>
+      <c r="N16" s="38"/>
+      <c r="O16" s="53">
+        <v>2.0</v>
+      </c>
+      <c r="P16" s="38"/>
+      <c r="Q16" s="53">
+        <v>2.0</v>
       </c>
       <c r="R16" s="4"/>
       <c r="S16" s="4"/>
@@ -2037,44 +2347,44 @@
       <c r="B17" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="31" t="s">
+      <c r="C17" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="E17" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="F17" s="34">
-        <v>2.0</v>
-      </c>
-      <c r="G17" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="H17" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="I17" s="33" t="s">
+      <c r="E17" s="48" t="s">
+        <v>30</v>
+      </c>
+      <c r="F17" s="38">
+        <v>4.0</v>
+      </c>
+      <c r="G17" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="H17" s="39">
+        <v>4.0</v>
+      </c>
+      <c r="I17" s="37" t="s">
         <v>6</v>
       </c>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
-      <c r="M17" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="N17" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="O17" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="P17" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q17" s="34" t="s">
-        <v>6</v>
+      <c r="M17" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="N17" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="O17" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="P17" s="40">
+        <v>4.0</v>
+      </c>
+      <c r="Q17" s="40">
+        <v>4.0</v>
       </c>
       <c r="R17" s="4"/>
       <c r="S17" s="4"/>
@@ -2093,44 +2403,44 @@
       <c r="B18" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="31" t="s">
+      <c r="C18" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="D18" s="32" t="s">
+      <c r="E18" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="E18" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="F18" s="34">
-        <v>3.0</v>
-      </c>
-      <c r="G18" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="H18" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="I18" s="33" t="s">
+      <c r="F18" s="53">
+        <v>8.0</v>
+      </c>
+      <c r="G18" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="H18" s="39">
+        <v>10.0</v>
+      </c>
+      <c r="I18" s="37" t="s">
         <v>6</v>
       </c>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
-      <c r="M18" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="N18" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="O18" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="P18" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q18" s="34" t="s">
-        <v>6</v>
+      <c r="M18" s="53">
+        <v>3.0</v>
+      </c>
+      <c r="N18" s="53">
+        <v>3.0</v>
+      </c>
+      <c r="O18" s="53">
+        <v>2.0</v>
+      </c>
+      <c r="P18" s="53">
+        <v>3.0</v>
+      </c>
+      <c r="Q18" s="53">
+        <v>10.0</v>
       </c>
       <c r="R18" s="4"/>
       <c r="S18" s="4"/>
@@ -2149,43 +2459,43 @@
       <c r="B19" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="31" t="s">
+      <c r="C19" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="D19" s="32" t="s">
+      <c r="D19" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="E19" s="46" t="s">
-        <v>39</v>
-      </c>
-      <c r="F19" s="34">
-        <v>2.0</v>
-      </c>
-      <c r="G19" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="H19" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="I19" s="33" t="s">
+      <c r="E19" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="F19" s="38">
+        <v>3.0</v>
+      </c>
+      <c r="G19" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="H19" s="49" t="s">
+        <v>6</v>
+      </c>
+      <c r="I19" s="37" t="s">
         <v>6</v>
       </c>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
-      <c r="M19" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="N19" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="O19" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="P19" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q19" s="34" t="s">
+      <c r="M19" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="N19" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="O19" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="P19" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q19" s="38" t="s">
         <v>6</v>
       </c>
       <c r="R19" s="4"/>
@@ -2199,49 +2509,49 @@
       <c r="Z19" s="4"/>
     </row>
     <row r="20" ht="15.0" customHeight="1">
-      <c r="A20" s="47" t="s">
-        <v>6</v>
-      </c>
-      <c r="B20" s="47" t="s">
-        <v>6</v>
-      </c>
-      <c r="C20" s="48" t="s">
+      <c r="A20" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="D20" s="49" t="s">
+      <c r="E20" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="E20" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="F20" s="50">
-        <v>4.0</v>
-      </c>
-      <c r="G20" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="H20" s="48" t="s">
-        <v>6</v>
-      </c>
-      <c r="I20" s="33" t="s">
+      <c r="F20" s="38">
+        <v>2.0</v>
+      </c>
+      <c r="G20" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="H20" s="49" t="s">
+        <v>6</v>
+      </c>
+      <c r="I20" s="37" t="s">
         <v>6</v>
       </c>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
-      <c r="M20" s="50" t="s">
-        <v>6</v>
-      </c>
-      <c r="N20" s="50" t="s">
-        <v>6</v>
-      </c>
-      <c r="O20" s="50" t="s">
-        <v>6</v>
-      </c>
-      <c r="P20" s="50" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q20" s="50" t="s">
+      <c r="M20" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="N20" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="O20" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="P20" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q20" s="38" t="s">
         <v>6</v>
       </c>
       <c r="R20" s="4"/>
@@ -2255,53 +2565,50 @@
       <c r="Z20" s="4"/>
     </row>
     <row r="21" ht="15.0" customHeight="1">
-      <c r="A21" s="51" t="s">
+      <c r="A21" s="54" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="54" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="55" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" s="56" t="s">
         <v>43</v>
       </c>
-      <c r="B21" s="52" t="s">
+      <c r="E21" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="53" t="s">
-        <v>6</v>
-      </c>
-      <c r="D21" s="54" t="s">
-        <v>6</v>
-      </c>
-      <c r="E21" s="52" t="s">
-        <v>6</v>
-      </c>
-      <c r="F21" s="37" t="s">
-        <v>6</v>
-      </c>
-      <c r="G21" s="40">
-        <f>SUM(F22:F31)</f>
-        <v>23</v>
-      </c>
-      <c r="H21" s="52" t="s">
-        <v>6</v>
-      </c>
-      <c r="I21" s="55">
-        <f>SUM(H22:H31)</f>
-        <v>26.5</v>
+      <c r="F21" s="57">
+        <v>4.0</v>
+      </c>
+      <c r="G21" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="H21" s="58" t="s">
+        <v>6</v>
+      </c>
+      <c r="I21" s="37" t="s">
+        <v>6</v>
       </c>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
-      <c r="M21" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="N21" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="O21" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="P21" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q21" s="56">
-        <f>SUM(Q22:Q31)</f>
-        <v>26.5</v>
+      <c r="M21" s="57" t="s">
+        <v>6</v>
+      </c>
+      <c r="N21" s="57" t="s">
+        <v>6</v>
+      </c>
+      <c r="O21" s="57" t="s">
+        <v>6</v>
+      </c>
+      <c r="P21" s="57" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q21" s="57" t="s">
+        <v>6</v>
       </c>
       <c r="R21" s="4"/>
       <c r="S21" s="4"/>
@@ -2314,94 +2621,107 @@
       <c r="Z21" s="4"/>
     </row>
     <row r="22" ht="15.0" customHeight="1">
-      <c r="A22" s="57" t="s">
+      <c r="A22" s="59" t="s">
         <v>45</v>
       </c>
-      <c r="B22" s="58"/>
-      <c r="C22" s="59" t="s">
+      <c r="B22" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="D22" s="58"/>
-      <c r="E22" s="60" t="s">
+      <c r="C22" s="60" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="F22" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="G22" s="44">
+        <f>SUM(F23:F26)</f>
+        <v>23</v>
+      </c>
+      <c r="H22" s="45" t="s">
+        <v>6</v>
+      </c>
+      <c r="I22" s="61">
+        <f>SUM(H23:H26)</f>
+        <v>26.5</v>
+      </c>
+      <c r="J22" s="32"/>
+      <c r="K22" s="32"/>
+      <c r="L22" s="32"/>
+      <c r="M22" s="62">
+        <f t="shared" ref="M22:O22" si="2">SUM(M23:M29)</f>
+        <v>9.5</v>
+      </c>
+      <c r="N22" s="62">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="O22" s="62">
+        <f t="shared" si="2"/>
+        <v>11.5</v>
+      </c>
+      <c r="P22" s="62">
+        <f t="shared" ref="P22:Q22" si="3">SUM(P23:P26)</f>
+        <v>10.5</v>
+      </c>
+      <c r="Q22" s="62">
+        <f t="shared" si="3"/>
+        <v>26.5</v>
+      </c>
+      <c r="R22" s="34"/>
+      <c r="S22" s="34"/>
+      <c r="T22" s="34"/>
+      <c r="U22" s="34"/>
+      <c r="V22" s="34"/>
+      <c r="W22" s="34"/>
+      <c r="X22" s="34"/>
+      <c r="Y22" s="34"/>
+      <c r="Z22" s="34"/>
+    </row>
+    <row r="23" ht="15.0" customHeight="1">
+      <c r="A23" s="63" t="s">
         <v>47</v>
       </c>
-      <c r="F22" s="59">
+      <c r="B23" s="64"/>
+      <c r="C23" s="65" t="s">
+        <v>48</v>
+      </c>
+      <c r="D23" s="66" t="s">
+        <v>35</v>
+      </c>
+      <c r="E23" s="67" t="s">
+        <v>49</v>
+      </c>
+      <c r="F23" s="65">
         <v>3.0</v>
       </c>
-      <c r="G22" s="61"/>
-      <c r="H22" s="59">
+      <c r="G23" s="68"/>
+      <c r="H23" s="69">
         <v>3.0</v>
       </c>
-      <c r="I22" s="61"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="62">
-        <v>1.0</v>
-      </c>
-      <c r="N22" s="63" t="s">
-        <v>6</v>
-      </c>
-      <c r="O22" s="62">
-        <v>1.0</v>
-      </c>
-      <c r="P22" s="62">
-        <v>1.0</v>
-      </c>
-      <c r="Q22" s="62">
-        <v>3.0</v>
-      </c>
-      <c r="R22" s="4"/>
-      <c r="S22" s="4"/>
-      <c r="T22" s="4"/>
-      <c r="U22" s="4"/>
-      <c r="V22" s="4"/>
-      <c r="W22" s="4"/>
-      <c r="X22" s="4"/>
-      <c r="Y22" s="4"/>
-      <c r="Z22" s="4"/>
-    </row>
-    <row r="23" ht="15.0" customHeight="1">
-      <c r="A23" s="57" t="s">
-        <v>6</v>
-      </c>
-      <c r="B23" s="64" t="s">
-        <v>6</v>
-      </c>
-      <c r="C23" s="61" t="s">
-        <v>48</v>
-      </c>
-      <c r="D23" s="61" t="s">
-        <v>49</v>
-      </c>
-      <c r="E23" s="65" t="s">
-        <v>20</v>
-      </c>
-      <c r="F23" s="66">
-        <v>4.0</v>
-      </c>
-      <c r="G23" s="61"/>
-      <c r="H23" s="67">
-        <v>5.5</v>
-      </c>
-      <c r="I23" s="61"/>
+      <c r="I23" s="68"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
-      <c r="M23" s="62">
-        <v>1.5</v>
-      </c>
-      <c r="N23" s="62">
+      <c r="M23" s="70">
         <v>1.0</v>
       </c>
-      <c r="O23" s="62">
-        <v>1.5</v>
-      </c>
-      <c r="P23" s="62">
-        <v>1.5</v>
-      </c>
-      <c r="Q23" s="62">
-        <v>5.5</v>
+      <c r="N23" s="71" t="s">
+        <v>6</v>
+      </c>
+      <c r="O23" s="70">
+        <v>1.0</v>
+      </c>
+      <c r="P23" s="70">
+        <v>1.0</v>
+      </c>
+      <c r="Q23" s="70">
+        <v>3.0</v>
       </c>
       <c r="R23" s="4"/>
       <c r="S23" s="4"/>
@@ -2414,46 +2734,46 @@
       <c r="Z23" s="4"/>
     </row>
     <row r="24" ht="15.0" customHeight="1">
-      <c r="A24" s="57" t="s">
-        <v>6</v>
-      </c>
-      <c r="B24" s="64" t="s">
-        <v>6</v>
-      </c>
-      <c r="C24" s="61" t="s">
+      <c r="A24" s="63" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="68" t="s">
         <v>50</v>
       </c>
-      <c r="D24" s="61" t="s">
+      <c r="D24" s="68" t="s">
         <v>51</v>
       </c>
-      <c r="E24" s="65" t="s">
+      <c r="E24" s="73" t="s">
         <v>20</v>
       </c>
-      <c r="F24" s="66">
-        <v>10.0</v>
-      </c>
-      <c r="G24" s="61"/>
-      <c r="H24" s="67">
-        <v>12.0</v>
-      </c>
-      <c r="I24" s="61"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
-      <c r="M24" s="62">
+      <c r="F24" s="74">
         <v>4.0</v>
       </c>
-      <c r="N24" s="62">
-        <v>4.0</v>
-      </c>
-      <c r="O24" s="62">
-        <v>4.0</v>
-      </c>
-      <c r="P24" s="62">
-        <v>4.0</v>
-      </c>
-      <c r="Q24" s="62">
-        <v>12.0</v>
+      <c r="G24" s="68"/>
+      <c r="H24" s="75">
+        <v>5.5</v>
+      </c>
+      <c r="I24" s="68"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="70">
+        <v>1.5</v>
+      </c>
+      <c r="N24" s="70">
+        <v>1.0</v>
+      </c>
+      <c r="O24" s="70">
+        <v>1.5</v>
+      </c>
+      <c r="P24" s="70">
+        <v>1.5</v>
+      </c>
+      <c r="Q24" s="70">
+        <v>5.5</v>
       </c>
       <c r="R24" s="4"/>
       <c r="S24" s="4"/>
@@ -2466,46 +2786,46 @@
       <c r="Z24" s="4"/>
     </row>
     <row r="25" ht="15.0" customHeight="1">
-      <c r="A25" s="57" t="s">
-        <v>6</v>
-      </c>
-      <c r="B25" s="64" t="s">
-        <v>6</v>
-      </c>
-      <c r="C25" s="61" t="s">
+      <c r="A25" s="63" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="68" t="s">
         <v>52</v>
       </c>
-      <c r="D25" s="61" t="s">
-        <v>51</v>
-      </c>
-      <c r="E25" s="65" t="s">
+      <c r="D25" s="68" t="s">
         <v>53</v>
       </c>
-      <c r="F25" s="66">
-        <v>6.0</v>
-      </c>
-      <c r="G25" s="61"/>
-      <c r="H25" s="67">
-        <v>6.0</v>
-      </c>
-      <c r="I25" s="61"/>
+      <c r="E25" s="73" t="s">
+        <v>20</v>
+      </c>
+      <c r="F25" s="74">
+        <v>10.0</v>
+      </c>
+      <c r="G25" s="68"/>
+      <c r="H25" s="75">
+        <v>12.0</v>
+      </c>
+      <c r="I25" s="68"/>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
-      <c r="M25" s="63" t="s">
-        <v>6</v>
-      </c>
-      <c r="N25" s="62">
-        <v>2.0</v>
-      </c>
-      <c r="O25" s="63" t="s">
-        <v>6</v>
-      </c>
-      <c r="P25" s="62">
+      <c r="M25" s="70">
         <v>4.0</v>
       </c>
-      <c r="Q25" s="62">
-        <v>6.0</v>
+      <c r="N25" s="70">
+        <v>4.0</v>
+      </c>
+      <c r="O25" s="70">
+        <v>4.0</v>
+      </c>
+      <c r="P25" s="70">
+        <v>4.0</v>
+      </c>
+      <c r="Q25" s="70">
+        <v>12.0</v>
       </c>
       <c r="R25" s="4"/>
       <c r="S25" s="4"/>
@@ -2518,38 +2838,46 @@
       <c r="Z25" s="4"/>
     </row>
     <row r="26" ht="15.0" customHeight="1">
-      <c r="A26" s="57" t="s">
-        <v>6</v>
-      </c>
-      <c r="B26" s="64" t="s">
-        <v>6</v>
-      </c>
-      <c r="C26" s="68"/>
-      <c r="D26" s="61"/>
-      <c r="E26" s="65"/>
-      <c r="F26" s="66"/>
-      <c r="G26" s="61"/>
-      <c r="H26" s="61" t="s">
-        <v>6</v>
-      </c>
-      <c r="I26" s="61"/>
+      <c r="A26" s="63" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" s="68" t="s">
+        <v>54</v>
+      </c>
+      <c r="D26" s="68" t="s">
+        <v>53</v>
+      </c>
+      <c r="E26" s="73" t="s">
+        <v>55</v>
+      </c>
+      <c r="F26" s="74">
+        <v>6.0</v>
+      </c>
+      <c r="G26" s="68"/>
+      <c r="H26" s="75">
+        <v>6.0</v>
+      </c>
+      <c r="I26" s="68"/>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
-      <c r="M26" s="63" t="s">
-        <v>6</v>
-      </c>
-      <c r="N26" s="63" t="s">
-        <v>6</v>
-      </c>
-      <c r="O26" s="63" t="s">
-        <v>6</v>
-      </c>
-      <c r="P26" s="63" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q26" s="63" t="s">
-        <v>6</v>
+      <c r="M26" s="71" t="s">
+        <v>6</v>
+      </c>
+      <c r="N26" s="70">
+        <v>2.0</v>
+      </c>
+      <c r="O26" s="71" t="s">
+        <v>6</v>
+      </c>
+      <c r="P26" s="70">
+        <v>4.0</v>
+      </c>
+      <c r="Q26" s="70">
+        <v>6.0</v>
       </c>
       <c r="R26" s="4"/>
       <c r="S26" s="4"/>
@@ -2562,82 +2890,103 @@
       <c r="Z26" s="4"/>
     </row>
     <row r="27" ht="15.0" customHeight="1">
-      <c r="A27" s="57" t="s">
-        <v>6</v>
-      </c>
-      <c r="B27" s="69" t="s">
-        <v>6</v>
-      </c>
-      <c r="C27" s="68"/>
-      <c r="D27" s="61"/>
-      <c r="E27" s="65"/>
-      <c r="F27" s="66"/>
-      <c r="G27" s="61"/>
-      <c r="H27" s="61" t="s">
-        <v>6</v>
-      </c>
-      <c r="I27" s="61"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
-      <c r="L27" s="2"/>
-      <c r="M27" s="63" t="s">
-        <v>6</v>
-      </c>
-      <c r="N27" s="63" t="s">
-        <v>6</v>
-      </c>
-      <c r="O27" s="63" t="s">
-        <v>6</v>
-      </c>
-      <c r="P27" s="63" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q27" s="63" t="s">
-        <v>6</v>
-      </c>
-      <c r="R27" s="4"/>
-      <c r="S27" s="4"/>
-      <c r="T27" s="4"/>
-      <c r="U27" s="4"/>
-      <c r="V27" s="4"/>
-      <c r="W27" s="4"/>
-      <c r="X27" s="4"/>
-      <c r="Y27" s="4"/>
-      <c r="Z27" s="4"/>
+      <c r="A27" s="76" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="E27" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="F27" s="77" t="s">
+        <v>6</v>
+      </c>
+      <c r="G27" s="78">
+        <f>SUM(F28:F29)</f>
+        <v>7</v>
+      </c>
+      <c r="H27" s="79" t="s">
+        <v>6</v>
+      </c>
+      <c r="I27" s="31">
+        <v>9.0</v>
+      </c>
+      <c r="J27" s="32"/>
+      <c r="K27" s="32"/>
+      <c r="L27" s="32"/>
+      <c r="M27" s="33">
+        <v>1.5</v>
+      </c>
+      <c r="N27" s="33">
+        <v>2.5</v>
+      </c>
+      <c r="O27" s="33">
+        <v>2.5</v>
+      </c>
+      <c r="P27" s="33">
+        <v>2.5</v>
+      </c>
+      <c r="Q27" s="33">
+        <v>9.0</v>
+      </c>
+      <c r="R27" s="34"/>
+      <c r="S27" s="34"/>
+      <c r="T27" s="34"/>
+      <c r="U27" s="34"/>
+      <c r="V27" s="34"/>
+      <c r="W27" s="34"/>
+      <c r="X27" s="34"/>
+      <c r="Y27" s="34"/>
+      <c r="Z27" s="34"/>
     </row>
     <row r="28" ht="15.0" customHeight="1">
-      <c r="A28" s="57" t="s">
-        <v>6</v>
-      </c>
-      <c r="B28" s="69" t="s">
-        <v>6</v>
-      </c>
-      <c r="C28" s="61"/>
-      <c r="D28" s="61"/>
-      <c r="E28" s="61"/>
-      <c r="F28" s="66"/>
-      <c r="G28" s="61"/>
-      <c r="H28" s="61" t="s">
-        <v>6</v>
-      </c>
-      <c r="I28" s="61"/>
+      <c r="A28" s="63" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" s="80" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" s="68" t="s">
+        <v>57</v>
+      </c>
+      <c r="D28" s="68" t="s">
+        <v>35</v>
+      </c>
+      <c r="E28" s="73" t="s">
+        <v>20</v>
+      </c>
+      <c r="F28" s="74">
+        <v>4.0</v>
+      </c>
+      <c r="G28" s="68"/>
+      <c r="H28" s="75">
+        <v>6.0</v>
+      </c>
+      <c r="I28" s="68"/>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
-      <c r="M28" s="63" t="s">
-        <v>6</v>
-      </c>
-      <c r="N28" s="63" t="s">
-        <v>6</v>
-      </c>
-      <c r="O28" s="63" t="s">
-        <v>6</v>
-      </c>
-      <c r="P28" s="63" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q28" s="63" t="s">
-        <v>6</v>
+      <c r="M28" s="81">
+        <v>1.5</v>
+      </c>
+      <c r="N28" s="81">
+        <v>1.5</v>
+      </c>
+      <c r="O28" s="81">
+        <v>1.5</v>
+      </c>
+      <c r="P28" s="81">
+        <v>1.5</v>
+      </c>
+      <c r="Q28" s="81">
+        <v>6.0</v>
       </c>
       <c r="R28" s="4"/>
       <c r="S28" s="4"/>
@@ -2650,40 +2999,44 @@
       <c r="Z28" s="4"/>
     </row>
     <row r="29" ht="15.0" customHeight="1">
-      <c r="A29" s="57" t="s">
-        <v>6</v>
-      </c>
-      <c r="B29" s="69" t="s">
-        <v>6</v>
-      </c>
-      <c r="C29" s="61"/>
-      <c r="D29" s="61"/>
-      <c r="E29" s="65" t="s">
-        <v>6</v>
-      </c>
-      <c r="F29" s="66"/>
-      <c r="G29" s="61"/>
-      <c r="H29" s="61" t="s">
-        <v>6</v>
-      </c>
-      <c r="I29" s="61"/>
+      <c r="A29" s="63" t="s">
+        <v>6</v>
+      </c>
+      <c r="B29" s="80" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" s="82" t="s">
+        <v>58</v>
+      </c>
+      <c r="D29" s="82" t="s">
+        <v>35</v>
+      </c>
+      <c r="E29" s="83" t="s">
+        <v>59</v>
+      </c>
+      <c r="F29" s="84">
+        <v>3.0</v>
+      </c>
+      <c r="G29" s="68"/>
+      <c r="H29" s="75">
+        <v>3.0</v>
+      </c>
+      <c r="I29" s="68"/>
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
-      <c r="M29" s="63" t="s">
-        <v>6</v>
-      </c>
-      <c r="N29" s="63" t="s">
-        <v>6</v>
-      </c>
-      <c r="O29" s="63" t="s">
-        <v>6</v>
-      </c>
-      <c r="P29" s="63" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q29" s="63" t="s">
-        <v>6</v>
+      <c r="M29" s="81"/>
+      <c r="N29" s="81">
+        <v>1.0</v>
+      </c>
+      <c r="O29" s="81">
+        <v>1.0</v>
+      </c>
+      <c r="P29" s="81">
+        <v>1.0</v>
+      </c>
+      <c r="Q29" s="81">
+        <v>3.0</v>
       </c>
       <c r="R29" s="4"/>
       <c r="S29" s="4"/>
@@ -2696,84 +3049,111 @@
       <c r="Z29" s="4"/>
     </row>
     <row r="30" ht="15.0" customHeight="1">
-      <c r="A30" s="57" t="s">
-        <v>6</v>
-      </c>
-      <c r="B30" s="69" t="s">
-        <v>6</v>
-      </c>
-      <c r="C30" s="61"/>
-      <c r="D30" s="61"/>
-      <c r="E30" s="65" t="s">
-        <v>6</v>
-      </c>
-      <c r="F30" s="66"/>
-      <c r="G30" s="61"/>
-      <c r="H30" s="61" t="s">
-        <v>6</v>
-      </c>
-      <c r="I30" s="61"/>
-      <c r="J30" s="2"/>
-      <c r="K30" s="2"/>
-      <c r="L30" s="2"/>
-      <c r="M30" s="63" t="s">
-        <v>6</v>
-      </c>
-      <c r="N30" s="63" t="s">
-        <v>6</v>
-      </c>
-      <c r="O30" s="63" t="s">
-        <v>6</v>
-      </c>
-      <c r="P30" s="63" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q30" s="63" t="s">
-        <v>6</v>
-      </c>
-      <c r="R30" s="4"/>
-      <c r="S30" s="4"/>
-      <c r="T30" s="4"/>
-      <c r="U30" s="4"/>
-      <c r="V30" s="4"/>
-      <c r="W30" s="4"/>
-      <c r="X30" s="4"/>
-      <c r="Y30" s="4"/>
-      <c r="Z30" s="4"/>
+      <c r="A30" s="85" t="s">
+        <v>60</v>
+      </c>
+      <c r="B30" s="42" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" s="47"/>
+      <c r="E30" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="F30" s="86" t="s">
+        <v>6</v>
+      </c>
+      <c r="G30" s="87">
+        <f>SUM(F31:F35)</f>
+        <v>24</v>
+      </c>
+      <c r="H30" s="88" t="s">
+        <v>6</v>
+      </c>
+      <c r="I30" s="89">
+        <f>SUM(H31:H35)</f>
+        <v>23</v>
+      </c>
+      <c r="J30" s="32"/>
+      <c r="K30" s="32"/>
+      <c r="L30" s="32"/>
+      <c r="M30" s="90">
+        <f>SUM(M24:M29)</f>
+        <v>8.5</v>
+      </c>
+      <c r="N30" s="90">
+        <f t="shared" ref="N30:Q30" si="4">SUM(N31:N35)</f>
+        <v>0</v>
+      </c>
+      <c r="O30" s="90">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="P30" s="90">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="Q30" s="90">
+        <f t="shared" si="4"/>
+        <v>23</v>
+      </c>
+      <c r="R30" s="34"/>
+      <c r="S30" s="34"/>
+      <c r="T30" s="34"/>
+      <c r="U30" s="34"/>
+      <c r="V30" s="34"/>
+      <c r="W30" s="34"/>
+      <c r="X30" s="34"/>
+      <c r="Y30" s="34"/>
+      <c r="Z30" s="34"/>
     </row>
     <row r="31" ht="15.0" customHeight="1">
-      <c r="A31" s="57" t="s">
-        <v>6</v>
-      </c>
-      <c r="B31" s="70" t="s">
-        <v>6</v>
-      </c>
-      <c r="C31" s="71"/>
-      <c r="D31" s="71"/>
-      <c r="E31" s="71"/>
-      <c r="F31" s="72"/>
-      <c r="G31" s="61"/>
-      <c r="H31" s="71" t="s">
-        <v>6</v>
-      </c>
-      <c r="I31" s="61"/>
+      <c r="A31" s="91" t="s">
+        <v>62</v>
+      </c>
+      <c r="B31" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="D31" s="51" t="s">
+        <v>64</v>
+      </c>
+      <c r="E31" s="92" t="s">
+        <v>65</v>
+      </c>
+      <c r="F31" s="40">
+        <v>6.0</v>
+      </c>
+      <c r="G31" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="H31" s="39">
+        <v>6.0</v>
+      </c>
+      <c r="I31" s="37" t="s">
+        <v>6</v>
+      </c>
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
       <c r="L31" s="2"/>
-      <c r="M31" s="73" t="s">
-        <v>6</v>
-      </c>
-      <c r="N31" s="73" t="s">
-        <v>6</v>
-      </c>
-      <c r="O31" s="73" t="s">
-        <v>6</v>
-      </c>
-      <c r="P31" s="73" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q31" s="73" t="s">
-        <v>6</v>
+      <c r="M31" s="93">
+        <v>3.0</v>
+      </c>
+      <c r="N31" s="94" t="s">
+        <v>6</v>
+      </c>
+      <c r="O31" s="95" t="s">
+        <v>6</v>
+      </c>
+      <c r="P31" s="93">
+        <v>3.0</v>
+      </c>
+      <c r="Q31" s="93">
+        <v>6.0</v>
       </c>
       <c r="R31" s="4"/>
       <c r="S31" s="4"/>
@@ -2786,51 +3166,50 @@
       <c r="Z31" s="4"/>
     </row>
     <row r="32" ht="15.0" customHeight="1">
-      <c r="A32" s="57" t="s">
-        <v>6</v>
-      </c>
-      <c r="B32" s="74" t="s">
-        <v>54</v>
-      </c>
-      <c r="C32" s="75" t="s">
-        <v>6</v>
-      </c>
-      <c r="D32" s="75" t="s">
-        <v>6</v>
-      </c>
-      <c r="E32" s="75" t="s">
-        <v>6</v>
-      </c>
-      <c r="F32" s="76" t="s">
-        <v>6</v>
-      </c>
-      <c r="G32" s="77">
-        <f>SUM(F33:F34)</f>
-        <v>7</v>
-      </c>
-      <c r="H32" s="75" t="s">
-        <v>6</v>
-      </c>
-      <c r="I32" s="28">
-        <v>9.0</v>
+      <c r="A32" s="91" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="96" t="s">
+        <v>66</v>
+      </c>
+      <c r="D32" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="E32" s="48" t="s">
+        <v>67</v>
+      </c>
+      <c r="F32" s="40">
+        <v>8.0</v>
+      </c>
+      <c r="G32" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="H32" s="39">
+        <v>8.0</v>
+      </c>
+      <c r="I32" s="37" t="s">
+        <v>6</v>
       </c>
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
-      <c r="M32" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="N32" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="O32" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="P32" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q32" s="30">
-        <v>9.0</v>
+      <c r="M32" s="93">
+        <v>3.0</v>
+      </c>
+      <c r="N32" s="94" t="s">
+        <v>6</v>
+      </c>
+      <c r="O32" s="93">
+        <v>2.0</v>
+      </c>
+      <c r="P32" s="93">
+        <v>3.0</v>
+      </c>
+      <c r="Q32" s="93">
+        <v>8.0</v>
       </c>
       <c r="R32" s="4"/>
       <c r="S32" s="4"/>
@@ -2843,46 +3222,48 @@
       <c r="Z32" s="4"/>
     </row>
     <row r="33" ht="15.0" customHeight="1">
-      <c r="A33" s="57" t="s">
-        <v>6</v>
-      </c>
-      <c r="B33" s="69" t="s">
-        <v>6</v>
-      </c>
-      <c r="C33" s="61" t="s">
-        <v>55</v>
-      </c>
-      <c r="D33" s="61" t="s">
-        <v>34</v>
-      </c>
-      <c r="E33" s="65" t="s">
-        <v>20</v>
-      </c>
-      <c r="F33" s="66">
+      <c r="A33" s="91" t="s">
+        <v>6</v>
+      </c>
+      <c r="B33" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" s="96" t="s">
+        <v>68</v>
+      </c>
+      <c r="D33" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="E33" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="F33" s="40">
         <v>4.0</v>
       </c>
-      <c r="G33" s="61"/>
-      <c r="H33" s="67">
-        <v>6.0</v>
-      </c>
-      <c r="I33" s="61"/>
+      <c r="G33" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="H33" s="39">
+        <v>3.5</v>
+      </c>
+      <c r="I33" s="37" t="s">
+        <v>6</v>
+      </c>
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
-      <c r="M33" s="78">
+      <c r="M33" s="93"/>
+      <c r="N33" s="94" t="s">
+        <v>6</v>
+      </c>
+      <c r="O33" s="93">
         <v>1.5</v>
       </c>
-      <c r="N33" s="78">
+      <c r="P33" s="93">
         <v>1.5</v>
       </c>
-      <c r="O33" s="78">
-        <v>1.5</v>
-      </c>
-      <c r="P33" s="78">
-        <v>1.5</v>
-      </c>
-      <c r="Q33" s="78">
-        <v>6.0</v>
+      <c r="Q33" s="93">
+        <v>3.5</v>
       </c>
       <c r="R33" s="4"/>
       <c r="S33" s="4"/>
@@ -2895,44 +3276,48 @@
       <c r="Z33" s="4"/>
     </row>
     <row r="34" ht="15.0" customHeight="1">
-      <c r="A34" s="57" t="s">
-        <v>6</v>
-      </c>
-      <c r="B34" s="69" t="s">
-        <v>6</v>
-      </c>
-      <c r="C34" s="67" t="s">
-        <v>56</v>
-      </c>
-      <c r="D34" s="67" t="s">
-        <v>34</v>
-      </c>
-      <c r="E34" s="79" t="s">
-        <v>57</v>
-      </c>
-      <c r="F34" s="80">
-        <v>3.0</v>
-      </c>
-      <c r="G34" s="61"/>
-      <c r="H34" s="67">
-        <v>3.0</v>
-      </c>
-      <c r="I34" s="61"/>
+      <c r="A34" s="91" t="s">
+        <v>6</v>
+      </c>
+      <c r="B34" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" s="51" t="s">
+        <v>70</v>
+      </c>
+      <c r="D34" s="51" t="s">
+        <v>38</v>
+      </c>
+      <c r="E34" s="51" t="s">
+        <v>71</v>
+      </c>
+      <c r="F34" s="53">
+        <v>4.0</v>
+      </c>
+      <c r="G34" s="97" t="s">
+        <v>6</v>
+      </c>
+      <c r="H34" s="39">
+        <v>4.0</v>
+      </c>
+      <c r="I34" s="97" t="s">
+        <v>6</v>
+      </c>
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
       <c r="L34" s="2"/>
-      <c r="M34" s="78"/>
-      <c r="N34" s="78">
-        <v>1.0</v>
-      </c>
-      <c r="O34" s="78">
-        <v>1.0</v>
-      </c>
-      <c r="P34" s="78">
-        <v>1.0</v>
-      </c>
-      <c r="Q34" s="78">
-        <v>3.0</v>
+      <c r="M34" s="93">
+        <v>2.0</v>
+      </c>
+      <c r="N34" s="94" t="s">
+        <v>6</v>
+      </c>
+      <c r="O34" s="93"/>
+      <c r="P34" s="93">
+        <v>2.0</v>
+      </c>
+      <c r="Q34" s="93">
+        <v>4.0</v>
       </c>
       <c r="R34" s="4"/>
       <c r="S34" s="4"/>
@@ -2945,36 +3330,50 @@
       <c r="Z34" s="4"/>
     </row>
     <row r="35" ht="15.0" customHeight="1">
-      <c r="A35" s="57" t="s">
-        <v>6</v>
-      </c>
-      <c r="B35" s="69" t="s">
-        <v>6</v>
-      </c>
-      <c r="C35" s="61"/>
-      <c r="D35" s="61"/>
-      <c r="E35" s="61"/>
-      <c r="F35" s="61"/>
-      <c r="G35" s="61"/>
-      <c r="H35" s="61"/>
-      <c r="I35" s="61"/>
+      <c r="A35" s="91" t="s">
+        <v>6</v>
+      </c>
+      <c r="B35" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" s="51" t="s">
+        <v>72</v>
+      </c>
+      <c r="D35" s="51" t="s">
+        <v>38</v>
+      </c>
+      <c r="E35" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="F35" s="53">
+        <v>2.0</v>
+      </c>
+      <c r="G35" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="H35" s="98">
+        <v>1.5</v>
+      </c>
+      <c r="I35" s="37" t="s">
+        <v>6</v>
+      </c>
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
       <c r="L35" s="2"/>
-      <c r="M35" s="81" t="s">
-        <v>6</v>
-      </c>
-      <c r="N35" s="81" t="s">
-        <v>6</v>
-      </c>
-      <c r="O35" s="81" t="s">
-        <v>6</v>
-      </c>
-      <c r="P35" s="81" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q35" s="81" t="s">
-        <v>6</v>
+      <c r="M35" s="99">
+        <v>0.5</v>
+      </c>
+      <c r="N35" s="100" t="s">
+        <v>6</v>
+      </c>
+      <c r="O35" s="99">
+        <v>0.5</v>
+      </c>
+      <c r="P35" s="99">
+        <v>0.5</v>
+      </c>
+      <c r="Q35" s="99">
+        <v>1.5</v>
       </c>
       <c r="R35" s="4"/>
       <c r="S35" s="4"/>
@@ -2987,105 +3386,107 @@
       <c r="Z35" s="4"/>
     </row>
     <row r="36" ht="15.0" customHeight="1">
-      <c r="A36" s="82" t="s">
-        <v>58</v>
-      </c>
-      <c r="B36" s="52" t="s">
-        <v>59</v>
-      </c>
-      <c r="C36" s="52" t="s">
-        <v>6</v>
-      </c>
-      <c r="D36" s="54"/>
-      <c r="E36" s="52" t="s">
-        <v>6</v>
-      </c>
-      <c r="F36" s="83" t="s">
-        <v>6</v>
-      </c>
-      <c r="G36" s="84">
-        <f>SUM(F37:F41)</f>
-        <v>18</v>
-      </c>
-      <c r="H36" s="54" t="s">
-        <v>6</v>
-      </c>
-      <c r="I36" s="85">
-        <v>0.0</v>
-      </c>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
-      <c r="L36" s="1"/>
-      <c r="M36" s="86" t="s">
-        <v>6</v>
-      </c>
-      <c r="N36" s="86" t="s">
-        <v>6</v>
-      </c>
-      <c r="O36" s="86" t="s">
-        <v>6</v>
-      </c>
-      <c r="P36" s="86" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q36" s="87">
-        <v>0.0</v>
-      </c>
-      <c r="R36" s="4"/>
-      <c r="S36" s="4"/>
-      <c r="T36" s="4"/>
-      <c r="U36" s="4"/>
-      <c r="V36" s="4"/>
-      <c r="W36" s="4"/>
-      <c r="X36" s="4"/>
-      <c r="Y36" s="4"/>
-      <c r="Z36" s="4"/>
+      <c r="A36" s="101" t="s">
+        <v>6</v>
+      </c>
+      <c r="B36" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="C36" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="E36" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="F36" s="77" t="s">
+        <v>6</v>
+      </c>
+      <c r="G36" s="87">
+        <f>SUM(F37:F38)</f>
+        <v>1</v>
+      </c>
+      <c r="H36" s="79" t="s">
+        <v>6</v>
+      </c>
+      <c r="I36" s="102">
+        <v>1.0</v>
+      </c>
+      <c r="J36" s="32"/>
+      <c r="K36" s="32"/>
+      <c r="L36" s="32"/>
+      <c r="M36" s="103" t="s">
+        <v>6</v>
+      </c>
+      <c r="N36" s="103" t="s">
+        <v>6</v>
+      </c>
+      <c r="O36" s="103" t="s">
+        <v>6</v>
+      </c>
+      <c r="P36" s="103" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q36" s="104">
+        <v>1.0</v>
+      </c>
+      <c r="R36" s="34"/>
+      <c r="S36" s="34"/>
+      <c r="T36" s="34"/>
+      <c r="U36" s="34"/>
+      <c r="V36" s="34"/>
+      <c r="W36" s="34"/>
+      <c r="X36" s="34"/>
+      <c r="Y36" s="34"/>
+      <c r="Z36" s="34"/>
     </row>
     <row r="37" ht="15.0" customHeight="1">
-      <c r="A37" s="88" t="s">
-        <v>60</v>
-      </c>
-      <c r="B37" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="C37" s="31" t="s">
-        <v>61</v>
-      </c>
-      <c r="D37" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="E37" s="89" t="s">
-        <v>62</v>
-      </c>
-      <c r="F37" s="36">
-        <v>6.0</v>
-      </c>
-      <c r="G37" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="H37" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="I37" s="33" t="s">
+      <c r="A37" s="91" t="s">
+        <v>6</v>
+      </c>
+      <c r="B37" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="D37" s="51" t="s">
+        <v>53</v>
+      </c>
+      <c r="E37" s="92" t="s">
+        <v>1</v>
+      </c>
+      <c r="F37" s="53">
+        <v>1.0</v>
+      </c>
+      <c r="G37" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="H37" s="39">
+        <v>1.0</v>
+      </c>
+      <c r="I37" s="37" t="s">
         <v>6</v>
       </c>
       <c r="J37" s="2"/>
       <c r="K37" s="2"/>
       <c r="L37" s="2"/>
-      <c r="M37" s="90" t="s">
-        <v>6</v>
-      </c>
-      <c r="N37" s="90" t="s">
-        <v>6</v>
-      </c>
-      <c r="O37" s="90" t="s">
-        <v>6</v>
-      </c>
-      <c r="P37" s="90" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q37" s="90" t="s">
-        <v>6</v>
+      <c r="M37" s="93">
+        <v>1.0</v>
+      </c>
+      <c r="N37" s="95" t="s">
+        <v>6</v>
+      </c>
+      <c r="O37" s="95" t="s">
+        <v>6</v>
+      </c>
+      <c r="P37" s="95" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q37" s="93">
+        <v>1.0</v>
       </c>
       <c r="R37" s="4"/>
       <c r="S37" s="4"/>
@@ -3098,49 +3499,41 @@
       <c r="Z37" s="4"/>
     </row>
     <row r="38" ht="15.0" customHeight="1">
-      <c r="A38" s="88" t="s">
-        <v>6</v>
-      </c>
-      <c r="B38" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="C38" s="35" t="s">
-        <v>63</v>
-      </c>
-      <c r="D38" s="91" t="s">
-        <v>51</v>
-      </c>
-      <c r="E38" s="92" t="s">
-        <v>64</v>
-      </c>
-      <c r="F38" s="36">
-        <v>8.0</v>
-      </c>
-      <c r="G38" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="H38" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="I38" s="33" t="s">
+      <c r="A38" s="91" t="s">
+        <v>6</v>
+      </c>
+      <c r="B38" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" s="51"/>
+      <c r="D38" s="36"/>
+      <c r="E38" s="52"/>
+      <c r="F38" s="53"/>
+      <c r="G38" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="H38" s="49" t="s">
+        <v>6</v>
+      </c>
+      <c r="I38" s="37" t="s">
         <v>6</v>
       </c>
       <c r="J38" s="2"/>
       <c r="K38" s="2"/>
       <c r="L38" s="2"/>
-      <c r="M38" s="90" t="s">
-        <v>6</v>
-      </c>
-      <c r="N38" s="90" t="s">
-        <v>6</v>
-      </c>
-      <c r="O38" s="90" t="s">
-        <v>6</v>
-      </c>
-      <c r="P38" s="90" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q38" s="90" t="s">
+      <c r="M38" s="95" t="s">
+        <v>6</v>
+      </c>
+      <c r="N38" s="95" t="s">
+        <v>6</v>
+      </c>
+      <c r="O38" s="95" t="s">
+        <v>6</v>
+      </c>
+      <c r="P38" s="95" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q38" s="95" t="s">
         <v>6</v>
       </c>
       <c r="R38" s="4"/>
@@ -3154,106 +3547,98 @@
       <c r="Z38" s="4"/>
     </row>
     <row r="39" ht="15.0" customHeight="1">
-      <c r="A39" s="88" t="s">
-        <v>6</v>
-      </c>
-      <c r="B39" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="C39" s="35" t="s">
-        <v>65</v>
-      </c>
-      <c r="D39" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="E39" s="92" t="s">
-        <v>66</v>
-      </c>
-      <c r="F39" s="36">
-        <v>4.0</v>
-      </c>
-      <c r="G39" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="H39" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="I39" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="J39" s="2"/>
-      <c r="K39" s="2"/>
-      <c r="L39" s="2"/>
-      <c r="M39" s="90" t="s">
-        <v>6</v>
-      </c>
-      <c r="N39" s="90" t="s">
-        <v>6</v>
-      </c>
-      <c r="O39" s="90" t="s">
-        <v>6</v>
-      </c>
-      <c r="P39" s="90" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q39" s="90" t="s">
-        <v>6</v>
-      </c>
-      <c r="R39" s="4"/>
-      <c r="S39" s="4"/>
-      <c r="T39" s="4"/>
-      <c r="U39" s="4"/>
-      <c r="V39" s="4"/>
-      <c r="W39" s="4"/>
-      <c r="X39" s="4"/>
-      <c r="Y39" s="4"/>
-      <c r="Z39" s="4"/>
+      <c r="A39" s="101" t="s">
+        <v>6</v>
+      </c>
+      <c r="B39" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="C39" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="D39" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="E39" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="F39" s="77" t="s">
+        <v>6</v>
+      </c>
+      <c r="G39" s="87">
+        <f>SUM(F40:F43)</f>
+        <v>12</v>
+      </c>
+      <c r="H39" s="79" t="s">
+        <v>6</v>
+      </c>
+      <c r="I39" s="102">
+        <v>10.0</v>
+      </c>
+      <c r="J39" s="32"/>
+      <c r="K39" s="32"/>
+      <c r="L39" s="32"/>
+      <c r="M39" s="103" t="s">
+        <v>6</v>
+      </c>
+      <c r="N39" s="103" t="s">
+        <v>6</v>
+      </c>
+      <c r="O39" s="103" t="s">
+        <v>6</v>
+      </c>
+      <c r="P39" s="103" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q39" s="90">
+        <f>SUM(Q40:Q43)</f>
+        <v>10</v>
+      </c>
+      <c r="R39" s="34"/>
+      <c r="S39" s="34"/>
+      <c r="T39" s="34"/>
+      <c r="U39" s="34"/>
+      <c r="V39" s="34"/>
+      <c r="W39" s="34"/>
+      <c r="X39" s="34"/>
+      <c r="Y39" s="34"/>
+      <c r="Z39" s="34"/>
     </row>
     <row r="40" ht="15.0" customHeight="1">
-      <c r="A40" s="88" t="s">
-        <v>6</v>
-      </c>
-      <c r="B40" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="C40" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="D40" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="E40" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="F40" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="G40" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="H40" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="I40" s="33" t="s">
-        <v>6</v>
-      </c>
+      <c r="A40" s="91"/>
+      <c r="B40" s="105"/>
+      <c r="C40" s="106" t="s">
+        <v>75</v>
+      </c>
+      <c r="D40" s="106" t="s">
+        <v>35</v>
+      </c>
+      <c r="E40" s="107" t="s">
+        <v>76</v>
+      </c>
+      <c r="F40" s="108">
+        <v>6.0</v>
+      </c>
+      <c r="G40" s="109"/>
+      <c r="H40" s="110">
+        <v>8.0</v>
+      </c>
+      <c r="I40" s="109"/>
       <c r="J40" s="2"/>
       <c r="K40" s="2"/>
       <c r="L40" s="2"/>
-      <c r="M40" s="90" t="s">
-        <v>6</v>
-      </c>
-      <c r="N40" s="90" t="s">
-        <v>6</v>
-      </c>
-      <c r="O40" s="90" t="s">
-        <v>6</v>
-      </c>
-      <c r="P40" s="90" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q40" s="90" t="s">
-        <v>6</v>
+      <c r="M40" s="111">
+        <v>3.0</v>
+      </c>
+      <c r="N40" s="111">
+        <v>2.0</v>
+      </c>
+      <c r="O40" s="111"/>
+      <c r="P40" s="111">
+        <v>3.0</v>
+      </c>
+      <c r="Q40" s="111">
+        <v>8.0</v>
       </c>
       <c r="R40" s="4"/>
       <c r="S40" s="4"/>
@@ -3266,49 +3651,47 @@
       <c r="Z40" s="4"/>
     </row>
     <row r="41" ht="15.0" customHeight="1">
-      <c r="A41" s="88" t="s">
-        <v>6</v>
-      </c>
-      <c r="B41" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="C41" s="48" t="s">
-        <v>6</v>
-      </c>
-      <c r="D41" s="49" t="s">
-        <v>6</v>
-      </c>
-      <c r="E41" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="F41" s="50" t="s">
-        <v>6</v>
-      </c>
-      <c r="G41" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="H41" s="48" t="s">
-        <v>6</v>
-      </c>
-      <c r="I41" s="33" t="s">
+      <c r="A41" s="91" t="s">
+        <v>6</v>
+      </c>
+      <c r="B41" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" s="51" t="s">
+        <v>77</v>
+      </c>
+      <c r="D41" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="E41" s="92" t="s">
+        <v>78</v>
+      </c>
+      <c r="F41" s="112">
+        <v>4.0</v>
+      </c>
+      <c r="G41" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="H41" s="39"/>
+      <c r="I41" s="37" t="s">
         <v>6</v>
       </c>
       <c r="J41" s="2"/>
       <c r="K41" s="2"/>
       <c r="L41" s="2"/>
-      <c r="M41" s="93" t="s">
-        <v>6</v>
-      </c>
-      <c r="N41" s="93" t="s">
-        <v>6</v>
-      </c>
-      <c r="O41" s="93" t="s">
-        <v>6</v>
-      </c>
-      <c r="P41" s="93" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q41" s="93" t="s">
+      <c r="M41" s="95" t="s">
+        <v>6</v>
+      </c>
+      <c r="N41" s="95" t="s">
+        <v>6</v>
+      </c>
+      <c r="O41" s="95" t="s">
+        <v>6</v>
+      </c>
+      <c r="P41" s="95" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q41" s="95" t="s">
         <v>6</v>
       </c>
       <c r="R41" s="4"/>
@@ -3322,51 +3705,50 @@
       <c r="Z41" s="4"/>
     </row>
     <row r="42" ht="15.0" customHeight="1">
-      <c r="A42" s="88" t="s">
-        <v>6</v>
-      </c>
-      <c r="B42" s="74" t="s">
-        <v>44</v>
-      </c>
-      <c r="C42" s="74" t="s">
-        <v>6</v>
-      </c>
-      <c r="D42" s="75" t="s">
-        <v>6</v>
-      </c>
-      <c r="E42" s="74" t="s">
-        <v>6</v>
-      </c>
-      <c r="F42" s="76" t="s">
-        <v>6</v>
-      </c>
-      <c r="G42" s="84">
-        <f>SUM(F43:F47)</f>
-        <v>16</v>
-      </c>
-      <c r="H42" s="75" t="s">
-        <v>6</v>
-      </c>
-      <c r="I42" s="85">
-        <v>0.0</v>
+      <c r="A42" s="91" t="s">
+        <v>6</v>
+      </c>
+      <c r="B42" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42" s="51" t="s">
+        <v>58</v>
+      </c>
+      <c r="D42" s="51" t="s">
+        <v>35</v>
+      </c>
+      <c r="E42" s="92" t="s">
+        <v>30</v>
+      </c>
+      <c r="F42" s="113">
+        <v>2.0</v>
+      </c>
+      <c r="G42" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="H42" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="I42" s="37" t="s">
+        <v>6</v>
       </c>
       <c r="J42" s="2"/>
       <c r="K42" s="2"/>
       <c r="L42" s="2"/>
-      <c r="M42" s="86" t="s">
-        <v>6</v>
-      </c>
-      <c r="N42" s="86" t="s">
-        <v>6</v>
-      </c>
-      <c r="O42" s="86" t="s">
-        <v>6</v>
-      </c>
-      <c r="P42" s="86" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q42" s="87">
-        <v>0.0</v>
+      <c r="M42" s="95" t="s">
+        <v>6</v>
+      </c>
+      <c r="N42" s="95" t="s">
+        <v>6</v>
+      </c>
+      <c r="O42" s="95" t="s">
+        <v>6</v>
+      </c>
+      <c r="P42" s="93">
+        <v>2.0</v>
+      </c>
+      <c r="Q42" s="93">
+        <v>2.0</v>
       </c>
       <c r="R42" s="4"/>
       <c r="S42" s="4"/>
@@ -3379,49 +3761,35 @@
       <c r="Z42" s="4"/>
     </row>
     <row r="43" ht="15.0" customHeight="1">
-      <c r="A43" s="88" t="s">
-        <v>6</v>
-      </c>
-      <c r="B43" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="C43" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="D43" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="E43" s="89" t="s">
-        <v>68</v>
-      </c>
-      <c r="F43" s="36">
-        <v>4.0</v>
-      </c>
-      <c r="G43" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="H43" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="I43" s="33" t="s">
-        <v>6</v>
-      </c>
+      <c r="A43" s="91" t="s">
+        <v>6</v>
+      </c>
+      <c r="B43" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" s="114"/>
+      <c r="D43" s="115"/>
+      <c r="E43" s="116"/>
+      <c r="F43" s="117"/>
+      <c r="G43" s="97"/>
+      <c r="H43" s="98"/>
+      <c r="I43" s="97"/>
       <c r="J43" s="2"/>
       <c r="K43" s="2"/>
       <c r="L43" s="2"/>
-      <c r="M43" s="90" t="s">
-        <v>6</v>
-      </c>
-      <c r="N43" s="90" t="s">
-        <v>6</v>
-      </c>
-      <c r="O43" s="90" t="s">
-        <v>6</v>
-      </c>
-      <c r="P43" s="90" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q43" s="90" t="s">
+      <c r="M43" s="100" t="s">
+        <v>6</v>
+      </c>
+      <c r="N43" s="100" t="s">
+        <v>6</v>
+      </c>
+      <c r="O43" s="100" t="s">
+        <v>6</v>
+      </c>
+      <c r="P43" s="100" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q43" s="100" t="s">
         <v>6</v>
       </c>
       <c r="R43" s="4"/>
@@ -3435,105 +3803,102 @@
       <c r="Z43" s="4"/>
     </row>
     <row r="44" ht="15.0" customHeight="1">
-      <c r="A44" s="88" t="s">
-        <v>6</v>
-      </c>
-      <c r="B44" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="C44" s="32" t="s">
-        <v>69</v>
-      </c>
-      <c r="D44" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="E44" s="91" t="s">
-        <v>70</v>
-      </c>
-      <c r="F44" s="36">
-        <v>4.0</v>
-      </c>
-      <c r="G44" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="H44" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="I44" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="J44" s="2"/>
-      <c r="K44" s="2"/>
-      <c r="L44" s="2"/>
-      <c r="M44" s="90" t="s">
-        <v>6</v>
-      </c>
-      <c r="N44" s="90" t="s">
-        <v>6</v>
-      </c>
-      <c r="O44" s="90" t="s">
-        <v>6</v>
-      </c>
-      <c r="P44" s="90" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q44" s="90" t="s">
-        <v>6</v>
-      </c>
-      <c r="R44" s="4"/>
-      <c r="S44" s="4"/>
-      <c r="T44" s="4"/>
-      <c r="U44" s="4"/>
-      <c r="V44" s="4"/>
-      <c r="W44" s="4"/>
-      <c r="X44" s="4"/>
-      <c r="Y44" s="4"/>
-      <c r="Z44" s="4"/>
+      <c r="A44" s="118" t="s">
+        <v>80</v>
+      </c>
+      <c r="B44" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="C44" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="D44" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="E44" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="F44" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="G44" s="87">
+        <f>SUM(F45:F48)</f>
+        <v>12</v>
+      </c>
+      <c r="H44" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="I44" s="119">
+        <v>0.0</v>
+      </c>
+      <c r="J44" s="32"/>
+      <c r="K44" s="32"/>
+      <c r="L44" s="32"/>
+      <c r="M44" s="103" t="s">
+        <v>6</v>
+      </c>
+      <c r="N44" s="103" t="s">
+        <v>6</v>
+      </c>
+      <c r="O44" s="103" t="s">
+        <v>6</v>
+      </c>
+      <c r="P44" s="103" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q44" s="103">
+        <v>0.0</v>
+      </c>
+      <c r="R44" s="34"/>
+      <c r="S44" s="34"/>
+      <c r="T44" s="34"/>
+      <c r="U44" s="34"/>
+      <c r="V44" s="34"/>
+      <c r="W44" s="34"/>
+      <c r="X44" s="34"/>
+      <c r="Y44" s="34"/>
+      <c r="Z44" s="34"/>
     </row>
     <row r="45" ht="15.0" customHeight="1">
-      <c r="A45" s="88" t="s">
-        <v>6</v>
-      </c>
-      <c r="B45" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="C45" s="94" t="s">
-        <v>71</v>
-      </c>
-      <c r="D45" s="49" t="s">
-        <v>72</v>
-      </c>
-      <c r="E45" s="94" t="s">
-        <v>73</v>
-      </c>
-      <c r="F45" s="36">
-        <v>2.0</v>
-      </c>
-      <c r="G45" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="H45" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="I45" s="33" t="s">
-        <v>6</v>
-      </c>
+      <c r="A45" s="120" t="s">
+        <v>81</v>
+      </c>
+      <c r="B45" s="121" t="s">
+        <v>6</v>
+      </c>
+      <c r="C45" s="122" t="s">
+        <v>82</v>
+      </c>
+      <c r="D45" s="82" t="s">
+        <v>64</v>
+      </c>
+      <c r="E45" s="123" t="s">
+        <v>83</v>
+      </c>
+      <c r="F45" s="82">
+        <v>6.0</v>
+      </c>
+      <c r="G45" s="82"/>
+      <c r="H45" s="124" t="s">
+        <v>6</v>
+      </c>
+      <c r="I45" s="68"/>
       <c r="J45" s="2"/>
       <c r="K45" s="2"/>
       <c r="L45" s="2"/>
-      <c r="M45" s="90" t="s">
-        <v>6</v>
-      </c>
-      <c r="N45" s="90" t="s">
-        <v>6</v>
-      </c>
-      <c r="O45" s="90" t="s">
-        <v>6</v>
-      </c>
-      <c r="P45" s="90" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q45" s="90" t="s">
+      <c r="M45" s="125" t="s">
+        <v>6</v>
+      </c>
+      <c r="N45" s="125" t="s">
+        <v>6</v>
+      </c>
+      <c r="O45" s="125" t="s">
+        <v>6</v>
+      </c>
+      <c r="P45" s="125" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q45" s="125" t="s">
         <v>6</v>
       </c>
       <c r="R45" s="4"/>
@@ -3547,49 +3912,45 @@
       <c r="Z45" s="4"/>
     </row>
     <row r="46" ht="15.0" customHeight="1">
-      <c r="A46" s="88" t="s">
-        <v>6</v>
-      </c>
-      <c r="B46" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="C46" s="35" t="s">
-        <v>74</v>
-      </c>
-      <c r="D46" s="91" t="s">
-        <v>51</v>
-      </c>
-      <c r="E46" s="92" t="s">
-        <v>75</v>
-      </c>
-      <c r="F46" s="95">
+      <c r="A46" s="63" t="s">
+        <v>6</v>
+      </c>
+      <c r="B46" s="80" t="s">
+        <v>6</v>
+      </c>
+      <c r="C46" s="122" t="s">
+        <v>84</v>
+      </c>
+      <c r="D46" s="82" t="s">
+        <v>38</v>
+      </c>
+      <c r="E46" s="126" t="s">
+        <v>85</v>
+      </c>
+      <c r="F46" s="82">
         <v>6.0</v>
       </c>
-      <c r="G46" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="H46" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="I46" s="33" t="s">
-        <v>6</v>
-      </c>
+      <c r="G46" s="82"/>
+      <c r="H46" s="124" t="s">
+        <v>6</v>
+      </c>
+      <c r="I46" s="68"/>
       <c r="J46" s="2"/>
       <c r="K46" s="2"/>
       <c r="L46" s="2"/>
-      <c r="M46" s="90" t="s">
-        <v>6</v>
-      </c>
-      <c r="N46" s="90" t="s">
-        <v>6</v>
-      </c>
-      <c r="O46" s="90" t="s">
-        <v>6</v>
-      </c>
-      <c r="P46" s="90" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q46" s="90" t="s">
+      <c r="M46" s="127" t="s">
+        <v>6</v>
+      </c>
+      <c r="N46" s="127" t="s">
+        <v>6</v>
+      </c>
+      <c r="O46" s="127" t="s">
+        <v>6</v>
+      </c>
+      <c r="P46" s="127" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q46" s="127" t="s">
         <v>6</v>
       </c>
       <c r="R46" s="4"/>
@@ -3603,49 +3964,43 @@
       <c r="Z46" s="4"/>
     </row>
     <row r="47" ht="15.0" customHeight="1">
-      <c r="A47" s="88" t="s">
-        <v>6</v>
-      </c>
-      <c r="B47" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="C47" s="96" t="s">
-        <v>76</v>
-      </c>
-      <c r="D47" s="91" t="s">
-        <v>51</v>
-      </c>
-      <c r="E47" s="32" t="s">
-        <v>77</v>
-      </c>
-      <c r="F47" s="50" t="s">
-        <v>6</v>
-      </c>
-      <c r="G47" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="H47" s="48" t="s">
-        <v>6</v>
-      </c>
-      <c r="I47" s="33" t="s">
-        <v>6</v>
-      </c>
+      <c r="A47" s="63" t="s">
+        <v>6</v>
+      </c>
+      <c r="B47" s="80" t="s">
+        <v>6</v>
+      </c>
+      <c r="C47" s="121" t="s">
+        <v>6</v>
+      </c>
+      <c r="D47" s="68" t="s">
+        <v>6</v>
+      </c>
+      <c r="E47" s="80" t="s">
+        <v>6</v>
+      </c>
+      <c r="F47" s="68"/>
+      <c r="G47" s="68"/>
+      <c r="H47" s="124" t="s">
+        <v>6</v>
+      </c>
+      <c r="I47" s="68"/>
       <c r="J47" s="2"/>
       <c r="K47" s="2"/>
       <c r="L47" s="2"/>
-      <c r="M47" s="93" t="s">
-        <v>6</v>
-      </c>
-      <c r="N47" s="93" t="s">
-        <v>6</v>
-      </c>
-      <c r="O47" s="93" t="s">
-        <v>6</v>
-      </c>
-      <c r="P47" s="93" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q47" s="93" t="s">
+      <c r="M47" s="127" t="s">
+        <v>6</v>
+      </c>
+      <c r="N47" s="127" t="s">
+        <v>6</v>
+      </c>
+      <c r="O47" s="127" t="s">
+        <v>6</v>
+      </c>
+      <c r="P47" s="127" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q47" s="127" t="s">
         <v>6</v>
       </c>
       <c r="R47" s="4"/>
@@ -3659,51 +4014,44 @@
       <c r="Z47" s="4"/>
     </row>
     <row r="48" ht="15.0" customHeight="1">
-      <c r="A48" s="88" t="s">
-        <v>6</v>
-      </c>
-      <c r="B48" s="74" t="s">
-        <v>54</v>
-      </c>
-      <c r="C48" s="74" t="s">
-        <v>6</v>
-      </c>
-      <c r="D48" s="75" t="s">
-        <v>6</v>
-      </c>
-      <c r="E48" s="74" t="s">
-        <v>6</v>
-      </c>
-      <c r="F48" s="76" t="s">
-        <v>6</v>
-      </c>
-      <c r="G48" s="84">
-        <f>SUM(F49:F51)</f>
-        <v>9</v>
-      </c>
-      <c r="H48" s="75" t="s">
-        <v>6</v>
-      </c>
-      <c r="I48" s="85">
-        <v>0.0</v>
-      </c>
+      <c r="A48" s="63" t="s">
+        <v>6</v>
+      </c>
+      <c r="B48" s="128" t="s">
+        <v>6</v>
+      </c>
+      <c r="C48" s="129" t="s">
+        <v>6</v>
+      </c>
+      <c r="D48" s="130" t="s">
+        <v>6</v>
+      </c>
+      <c r="E48" s="128" t="s">
+        <v>6</v>
+      </c>
+      <c r="F48" s="68"/>
+      <c r="G48" s="68"/>
+      <c r="H48" s="131" t="s">
+        <v>6</v>
+      </c>
+      <c r="I48" s="68"/>
       <c r="J48" s="2"/>
       <c r="K48" s="2"/>
       <c r="L48" s="2"/>
-      <c r="M48" s="86" t="s">
-        <v>6</v>
-      </c>
-      <c r="N48" s="86" t="s">
-        <v>6</v>
-      </c>
-      <c r="O48" s="86" t="s">
-        <v>6</v>
-      </c>
-      <c r="P48" s="86" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q48" s="87">
-        <v>0.0</v>
+      <c r="M48" s="132" t="s">
+        <v>6</v>
+      </c>
+      <c r="N48" s="132" t="s">
+        <v>6</v>
+      </c>
+      <c r="O48" s="132" t="s">
+        <v>6</v>
+      </c>
+      <c r="P48" s="132" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q48" s="132" t="s">
+        <v>6</v>
       </c>
       <c r="R48" s="4"/>
       <c r="S48" s="4"/>
@@ -3716,105 +4064,102 @@
       <c r="Z48" s="4"/>
     </row>
     <row r="49" ht="15.0" customHeight="1">
-      <c r="A49" s="88" t="s">
-        <v>6</v>
-      </c>
-      <c r="B49" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="C49" s="32" t="s">
-        <v>55</v>
-      </c>
-      <c r="D49" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="E49" s="97" t="s">
+      <c r="A49" s="76" t="s">
+        <v>6</v>
+      </c>
+      <c r="B49" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="C49" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="D49" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="E49" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="F49" s="77" t="s">
+        <v>6</v>
+      </c>
+      <c r="G49" s="87">
+        <f>SUM(F50:F54)</f>
         <v>20</v>
       </c>
-      <c r="F49" s="98">
-        <v>4.0</v>
-      </c>
-      <c r="G49" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="H49" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="I49" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="J49" s="2"/>
-      <c r="K49" s="2"/>
-      <c r="L49" s="2"/>
-      <c r="M49" s="90" t="s">
-        <v>6</v>
-      </c>
-      <c r="N49" s="90" t="s">
-        <v>6</v>
-      </c>
-      <c r="O49" s="90" t="s">
-        <v>6</v>
-      </c>
-      <c r="P49" s="90" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q49" s="90" t="s">
-        <v>6</v>
-      </c>
-      <c r="R49" s="4"/>
-      <c r="S49" s="4"/>
-      <c r="T49" s="4"/>
-      <c r="U49" s="4"/>
-      <c r="V49" s="4"/>
-      <c r="W49" s="4"/>
-      <c r="X49" s="4"/>
-      <c r="Y49" s="4"/>
-      <c r="Z49" s="4"/>
+      <c r="H49" s="79" t="s">
+        <v>6</v>
+      </c>
+      <c r="I49" s="119">
+        <v>0.0</v>
+      </c>
+      <c r="J49" s="32"/>
+      <c r="K49" s="32"/>
+      <c r="L49" s="32"/>
+      <c r="M49" s="103" t="s">
+        <v>6</v>
+      </c>
+      <c r="N49" s="103" t="s">
+        <v>6</v>
+      </c>
+      <c r="O49" s="103" t="s">
+        <v>6</v>
+      </c>
+      <c r="P49" s="103" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q49" s="103">
+        <v>0.0</v>
+      </c>
+      <c r="R49" s="34"/>
+      <c r="S49" s="34"/>
+      <c r="T49" s="34"/>
+      <c r="U49" s="34"/>
+      <c r="V49" s="34"/>
+      <c r="W49" s="34"/>
+      <c r="X49" s="34"/>
+      <c r="Y49" s="34"/>
+      <c r="Z49" s="34"/>
     </row>
     <row r="50" ht="15.0" customHeight="1">
-      <c r="A50" s="88" t="s">
-        <v>6</v>
-      </c>
-      <c r="B50" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="C50" s="91" t="s">
-        <v>56</v>
-      </c>
-      <c r="D50" s="91" t="s">
-        <v>34</v>
-      </c>
-      <c r="E50" s="89" t="s">
-        <v>57</v>
-      </c>
-      <c r="F50" s="99">
-        <v>3.0</v>
-      </c>
-      <c r="G50" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="H50" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="I50" s="33" t="s">
-        <v>6</v>
-      </c>
+      <c r="A50" s="63" t="s">
+        <v>6</v>
+      </c>
+      <c r="B50" s="80" t="s">
+        <v>6</v>
+      </c>
+      <c r="C50" s="122" t="s">
+        <v>86</v>
+      </c>
+      <c r="D50" s="82" t="s">
+        <v>64</v>
+      </c>
+      <c r="E50" s="133" t="s">
+        <v>1</v>
+      </c>
+      <c r="F50" s="82">
+        <v>8.0</v>
+      </c>
+      <c r="G50" s="82"/>
+      <c r="H50" s="124" t="s">
+        <v>6</v>
+      </c>
+      <c r="I50" s="68"/>
       <c r="J50" s="2"/>
       <c r="K50" s="2"/>
       <c r="L50" s="2"/>
-      <c r="M50" s="90" t="s">
-        <v>6</v>
-      </c>
-      <c r="N50" s="90" t="s">
-        <v>6</v>
-      </c>
-      <c r="O50" s="90" t="s">
-        <v>6</v>
-      </c>
-      <c r="P50" s="90" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q50" s="90" t="s">
+      <c r="M50" s="127" t="s">
+        <v>6</v>
+      </c>
+      <c r="N50" s="127" t="s">
+        <v>6</v>
+      </c>
+      <c r="O50" s="127" t="s">
+        <v>6</v>
+      </c>
+      <c r="P50" s="127" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q50" s="127" t="s">
         <v>6</v>
       </c>
       <c r="R50" s="4"/>
@@ -3828,49 +4173,45 @@
       <c r="Z50" s="4"/>
     </row>
     <row r="51" ht="15.0" customHeight="1">
-      <c r="A51" s="88" t="s">
-        <v>6</v>
-      </c>
-      <c r="B51" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="C51" s="96" t="s">
-        <v>78</v>
-      </c>
-      <c r="D51" s="94" t="s">
-        <v>19</v>
-      </c>
-      <c r="E51" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="F51" s="100">
+      <c r="A51" s="63" t="s">
+        <v>6</v>
+      </c>
+      <c r="B51" s="80" t="s">
+        <v>6</v>
+      </c>
+      <c r="C51" s="122" t="s">
+        <v>87</v>
+      </c>
+      <c r="D51" s="82" t="s">
+        <v>40</v>
+      </c>
+      <c r="E51" s="134" t="s">
+        <v>88</v>
+      </c>
+      <c r="F51" s="82">
         <v>2.0</v>
       </c>
-      <c r="G51" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="H51" s="48" t="s">
-        <v>6</v>
-      </c>
-      <c r="I51" s="33" t="s">
-        <v>6</v>
-      </c>
+      <c r="G51" s="82"/>
+      <c r="H51" s="124" t="s">
+        <v>6</v>
+      </c>
+      <c r="I51" s="68"/>
       <c r="J51" s="2"/>
       <c r="K51" s="2"/>
       <c r="L51" s="2"/>
-      <c r="M51" s="93" t="s">
-        <v>6</v>
-      </c>
-      <c r="N51" s="93" t="s">
-        <v>6</v>
-      </c>
-      <c r="O51" s="93" t="s">
-        <v>6</v>
-      </c>
-      <c r="P51" s="93" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q51" s="93" t="s">
+      <c r="M51" s="127" t="s">
+        <v>6</v>
+      </c>
+      <c r="N51" s="127" t="s">
+        <v>6</v>
+      </c>
+      <c r="O51" s="127" t="s">
+        <v>6</v>
+      </c>
+      <c r="P51" s="127" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q51" s="127" t="s">
         <v>6</v>
       </c>
       <c r="R51" s="4"/>
@@ -3884,50 +4225,46 @@
       <c r="Z51" s="4"/>
     </row>
     <row r="52" ht="15.0" customHeight="1">
-      <c r="A52" s="101" t="s">
-        <v>79</v>
-      </c>
-      <c r="B52" s="74" t="s">
-        <v>59</v>
-      </c>
-      <c r="C52" s="74" t="s">
-        <v>6</v>
-      </c>
-      <c r="D52" s="75" t="s">
-        <v>6</v>
-      </c>
-      <c r="E52" s="74" t="s">
-        <v>6</v>
-      </c>
-      <c r="F52" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="G52" s="102">
-        <v>0.0</v>
-      </c>
-      <c r="H52" s="74" t="s">
-        <v>6</v>
-      </c>
-      <c r="I52" s="85">
-        <v>0.0</v>
-      </c>
-      <c r="J52" s="1"/>
-      <c r="K52" s="1"/>
-      <c r="L52" s="1"/>
-      <c r="M52" s="86" t="s">
-        <v>6</v>
-      </c>
-      <c r="N52" s="86" t="s">
-        <v>6</v>
-      </c>
-      <c r="O52" s="86" t="s">
-        <v>6</v>
-      </c>
-      <c r="P52" s="86" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q52" s="87">
-        <v>0.0</v>
+      <c r="A52" s="63" t="s">
+        <v>6</v>
+      </c>
+      <c r="B52" s="80" t="s">
+        <v>6</v>
+      </c>
+      <c r="C52" s="135" t="s">
+        <v>89</v>
+      </c>
+      <c r="D52" s="82" t="s">
+        <v>64</v>
+      </c>
+      <c r="E52" s="134" t="s">
+        <v>90</v>
+      </c>
+      <c r="F52" s="82">
+        <v>2.0</v>
+      </c>
+      <c r="G52" s="82"/>
+      <c r="H52" s="124" t="s">
+        <v>6</v>
+      </c>
+      <c r="I52" s="68"/>
+      <c r="J52" s="2"/>
+      <c r="K52" s="2"/>
+      <c r="L52" s="2"/>
+      <c r="M52" s="127" t="s">
+        <v>6</v>
+      </c>
+      <c r="N52" s="127" t="s">
+        <v>6</v>
+      </c>
+      <c r="O52" s="127" t="s">
+        <v>6</v>
+      </c>
+      <c r="P52" s="127" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q52" s="127" t="s">
+        <v>6</v>
       </c>
       <c r="R52" s="4"/>
       <c r="S52" s="4"/>
@@ -3940,45 +4277,45 @@
       <c r="Z52" s="4"/>
     </row>
     <row r="53" ht="15.0" customHeight="1">
-      <c r="A53" s="101" t="s">
-        <v>80</v>
-      </c>
-      <c r="B53" s="68" t="s">
-        <v>6</v>
-      </c>
-      <c r="C53" s="68" t="s">
-        <v>6</v>
-      </c>
-      <c r="D53" s="61" t="s">
-        <v>6</v>
-      </c>
-      <c r="E53" s="69" t="s">
-        <v>6</v>
-      </c>
-      <c r="F53" s="103" t="s">
-        <v>6</v>
-      </c>
-      <c r="G53" s="61"/>
-      <c r="H53" s="68" t="s">
-        <v>6</v>
-      </c>
-      <c r="I53" s="61"/>
+      <c r="A53" s="63" t="s">
+        <v>6</v>
+      </c>
+      <c r="B53" s="80" t="s">
+        <v>6</v>
+      </c>
+      <c r="C53" s="135" t="s">
+        <v>91</v>
+      </c>
+      <c r="D53" s="82" t="s">
+        <v>64</v>
+      </c>
+      <c r="E53" s="134" t="s">
+        <v>3</v>
+      </c>
+      <c r="F53" s="82">
+        <v>8.0</v>
+      </c>
+      <c r="G53" s="82"/>
+      <c r="H53" s="124" t="s">
+        <v>6</v>
+      </c>
+      <c r="I53" s="68"/>
       <c r="J53" s="2"/>
       <c r="K53" s="2"/>
       <c r="L53" s="2"/>
-      <c r="M53" s="104" t="s">
-        <v>6</v>
-      </c>
-      <c r="N53" s="104" t="s">
-        <v>6</v>
-      </c>
-      <c r="O53" s="104" t="s">
-        <v>6</v>
-      </c>
-      <c r="P53" s="104" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q53" s="104" t="s">
+      <c r="M53" s="127" t="s">
+        <v>6</v>
+      </c>
+      <c r="N53" s="127" t="s">
+        <v>6</v>
+      </c>
+      <c r="O53" s="127" t="s">
+        <v>6</v>
+      </c>
+      <c r="P53" s="127" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q53" s="127" t="s">
         <v>6</v>
       </c>
       <c r="R53" s="4"/>
@@ -3992,45 +4329,43 @@
       <c r="Z53" s="4"/>
     </row>
     <row r="54" ht="15.0" customHeight="1">
-      <c r="A54" s="57" t="s">
-        <v>6</v>
-      </c>
-      <c r="B54" s="69" t="s">
-        <v>6</v>
-      </c>
-      <c r="C54" s="68" t="s">
-        <v>6</v>
-      </c>
-      <c r="D54" s="61" t="s">
-        <v>6</v>
-      </c>
-      <c r="E54" s="68" t="s">
-        <v>6</v>
-      </c>
-      <c r="F54" s="103" t="s">
-        <v>6</v>
-      </c>
-      <c r="G54" s="61"/>
-      <c r="H54" s="68" t="s">
-        <v>6</v>
-      </c>
-      <c r="I54" s="61"/>
+      <c r="A54" s="63" t="s">
+        <v>6</v>
+      </c>
+      <c r="B54" s="128" t="s">
+        <v>6</v>
+      </c>
+      <c r="C54" s="129" t="s">
+        <v>6</v>
+      </c>
+      <c r="D54" s="130" t="s">
+        <v>6</v>
+      </c>
+      <c r="E54" s="136"/>
+      <c r="F54" s="137" t="s">
+        <v>6</v>
+      </c>
+      <c r="G54" s="68"/>
+      <c r="H54" s="131" t="s">
+        <v>6</v>
+      </c>
+      <c r="I54" s="68"/>
       <c r="J54" s="2"/>
       <c r="K54" s="2"/>
       <c r="L54" s="2"/>
-      <c r="M54" s="81" t="s">
-        <v>6</v>
-      </c>
-      <c r="N54" s="81" t="s">
-        <v>6</v>
-      </c>
-      <c r="O54" s="81" t="s">
-        <v>6</v>
-      </c>
-      <c r="P54" s="81" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q54" s="81" t="s">
+      <c r="M54" s="132" t="s">
+        <v>6</v>
+      </c>
+      <c r="N54" s="132" t="s">
+        <v>6</v>
+      </c>
+      <c r="O54" s="132" t="s">
+        <v>6</v>
+      </c>
+      <c r="P54" s="132" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q54" s="132" t="s">
         <v>6</v>
       </c>
       <c r="R54" s="4"/>
@@ -4044,99 +4379,88 @@
       <c r="Z54" s="4"/>
     </row>
     <row r="55" ht="15.0" customHeight="1">
-      <c r="A55" s="57" t="s">
-        <v>6</v>
-      </c>
-      <c r="B55" s="69" t="s">
-        <v>6</v>
-      </c>
-      <c r="C55" s="68" t="s">
-        <v>6</v>
-      </c>
-      <c r="D55" s="61" t="s">
-        <v>6</v>
-      </c>
-      <c r="E55" s="69" t="s">
-        <v>6</v>
-      </c>
-      <c r="F55" s="103" t="s">
-        <v>6</v>
-      </c>
-      <c r="G55" s="61"/>
-      <c r="H55" s="68" t="s">
-        <v>6</v>
-      </c>
-      <c r="I55" s="61"/>
-      <c r="J55" s="2"/>
-      <c r="K55" s="2"/>
-      <c r="L55" s="2"/>
-      <c r="M55" s="81" t="s">
-        <v>6</v>
-      </c>
-      <c r="N55" s="81" t="s">
-        <v>6</v>
-      </c>
-      <c r="O55" s="81" t="s">
-        <v>6</v>
-      </c>
-      <c r="P55" s="81" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q55" s="81" t="s">
-        <v>6</v>
-      </c>
-      <c r="R55" s="4"/>
-      <c r="S55" s="4"/>
-      <c r="T55" s="4"/>
-      <c r="U55" s="4"/>
-      <c r="V55" s="4"/>
-      <c r="W55" s="4"/>
-      <c r="X55" s="4"/>
-      <c r="Y55" s="4"/>
-      <c r="Z55" s="4"/>
+      <c r="A55" s="76" t="s">
+        <v>6</v>
+      </c>
+      <c r="B55" s="138" t="s">
+        <v>56</v>
+      </c>
+      <c r="C55" s="138" t="s">
+        <v>6</v>
+      </c>
+      <c r="D55" s="139" t="s">
+        <v>6</v>
+      </c>
+      <c r="E55" s="138" t="s">
+        <v>6</v>
+      </c>
+      <c r="F55" s="140" t="s">
+        <v>6</v>
+      </c>
+      <c r="G55" s="87">
+        <f>SUM(F56:F59)</f>
+        <v>6</v>
+      </c>
+      <c r="H55" s="141" t="s">
+        <v>6</v>
+      </c>
+      <c r="I55" s="142">
+        <v>0.0</v>
+      </c>
+      <c r="J55" s="32"/>
+      <c r="K55" s="32"/>
+      <c r="L55" s="32"/>
+      <c r="M55" s="143" t="s">
+        <v>6</v>
+      </c>
+      <c r="N55" s="143" t="s">
+        <v>6</v>
+      </c>
+      <c r="O55" s="143" t="s">
+        <v>6</v>
+      </c>
+      <c r="P55" s="143" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q55" s="143">
+        <v>0.0</v>
+      </c>
+      <c r="R55" s="34"/>
+      <c r="S55" s="34"/>
+      <c r="T55" s="34"/>
+      <c r="U55" s="34"/>
+      <c r="V55" s="34"/>
+      <c r="W55" s="34"/>
+      <c r="X55" s="34"/>
+      <c r="Y55" s="34"/>
+      <c r="Z55" s="34"/>
     </row>
     <row r="56" ht="15.0" customHeight="1">
-      <c r="A56" s="57" t="s">
-        <v>6</v>
-      </c>
-      <c r="B56" s="70" t="s">
-        <v>6</v>
-      </c>
-      <c r="C56" s="105" t="s">
-        <v>6</v>
-      </c>
-      <c r="D56" s="71" t="s">
-        <v>6</v>
-      </c>
-      <c r="E56" s="70" t="s">
-        <v>6</v>
-      </c>
-      <c r="F56" s="106" t="s">
-        <v>6</v>
-      </c>
-      <c r="G56" s="61"/>
-      <c r="H56" s="105" t="s">
-        <v>6</v>
-      </c>
-      <c r="I56" s="61"/>
+      <c r="A56" s="144"/>
+      <c r="B56" s="145"/>
+      <c r="C56" s="82" t="s">
+        <v>77</v>
+      </c>
+      <c r="D56" s="68" t="s">
+        <v>35</v>
+      </c>
+      <c r="E56" s="83" t="s">
+        <v>20</v>
+      </c>
+      <c r="F56" s="146">
+        <v>4.0</v>
+      </c>
+      <c r="G56" s="147"/>
+      <c r="H56" s="148"/>
+      <c r="I56" s="149"/>
       <c r="J56" s="2"/>
       <c r="K56" s="2"/>
       <c r="L56" s="2"/>
-      <c r="M56" s="107" t="s">
-        <v>6</v>
-      </c>
-      <c r="N56" s="107" t="s">
-        <v>6</v>
-      </c>
-      <c r="O56" s="107" t="s">
-        <v>6</v>
-      </c>
-      <c r="P56" s="107" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q56" s="107" t="s">
-        <v>6</v>
-      </c>
+      <c r="M56" s="125"/>
+      <c r="N56" s="125"/>
+      <c r="O56" s="125"/>
+      <c r="P56" s="125"/>
+      <c r="Q56" s="125"/>
       <c r="R56" s="4"/>
       <c r="S56" s="4"/>
       <c r="T56" s="4"/>
@@ -4148,51 +4472,31 @@
       <c r="Z56" s="4"/>
     </row>
     <row r="57" ht="15.0" customHeight="1">
-      <c r="A57" s="57" t="s">
-        <v>6</v>
-      </c>
-      <c r="B57" s="74" t="s">
-        <v>44</v>
-      </c>
-      <c r="C57" s="74" t="s">
-        <v>6</v>
-      </c>
-      <c r="D57" s="75" t="s">
-        <v>6</v>
-      </c>
-      <c r="E57" s="74" t="s">
-        <v>6</v>
-      </c>
-      <c r="F57" s="76" t="s">
-        <v>6</v>
-      </c>
-      <c r="G57" s="102">
-        <v>0.0</v>
-      </c>
-      <c r="H57" s="75" t="s">
-        <v>6</v>
-      </c>
-      <c r="I57" s="85">
-        <v>0.0</v>
-      </c>
+      <c r="A57" s="144"/>
+      <c r="B57" s="145"/>
+      <c r="C57" s="82" t="s">
+        <v>58</v>
+      </c>
+      <c r="D57" s="82" t="s">
+        <v>35</v>
+      </c>
+      <c r="E57" s="83" t="s">
+        <v>20</v>
+      </c>
+      <c r="F57" s="146">
+        <v>2.0</v>
+      </c>
+      <c r="G57" s="147"/>
+      <c r="H57" s="148"/>
+      <c r="I57" s="149"/>
       <c r="J57" s="2"/>
       <c r="K57" s="2"/>
       <c r="L57" s="2"/>
-      <c r="M57" s="86" t="s">
-        <v>6</v>
-      </c>
-      <c r="N57" s="86" t="s">
-        <v>6</v>
-      </c>
-      <c r="O57" s="86" t="s">
-        <v>6</v>
-      </c>
-      <c r="P57" s="86" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q57" s="87">
-        <v>0.0</v>
-      </c>
+      <c r="M57" s="125"/>
+      <c r="N57" s="125"/>
+      <c r="O57" s="125"/>
+      <c r="P57" s="125"/>
+      <c r="Q57" s="125"/>
       <c r="R57" s="4"/>
       <c r="S57" s="4"/>
       <c r="T57" s="4"/>
@@ -4204,45 +4508,41 @@
       <c r="Z57" s="4"/>
     </row>
     <row r="58" ht="15.0" customHeight="1">
-      <c r="A58" s="57" t="s">
-        <v>6</v>
-      </c>
-      <c r="B58" s="69" t="s">
-        <v>6</v>
-      </c>
-      <c r="C58" s="68" t="s">
-        <v>6</v>
-      </c>
-      <c r="D58" s="61" t="s">
-        <v>6</v>
-      </c>
-      <c r="E58" s="69" t="s">
-        <v>6</v>
-      </c>
-      <c r="F58" s="103" t="s">
-        <v>6</v>
-      </c>
-      <c r="G58" s="61"/>
-      <c r="H58" s="68" t="s">
-        <v>6</v>
-      </c>
-      <c r="I58" s="61"/>
+      <c r="A58" s="144" t="s">
+        <v>6</v>
+      </c>
+      <c r="B58" s="150" t="s">
+        <v>6</v>
+      </c>
+      <c r="C58" s="150" t="s">
+        <v>92</v>
+      </c>
+      <c r="D58" s="151" t="s">
+        <v>93</v>
+      </c>
+      <c r="E58" s="152"/>
+      <c r="F58" s="153"/>
+      <c r="G58" s="68"/>
+      <c r="H58" s="154" t="s">
+        <v>6</v>
+      </c>
+      <c r="I58" s="68"/>
       <c r="J58" s="2"/>
       <c r="K58" s="2"/>
       <c r="L58" s="2"/>
-      <c r="M58" s="81" t="s">
-        <v>6</v>
-      </c>
-      <c r="N58" s="81" t="s">
-        <v>6</v>
-      </c>
-      <c r="O58" s="81" t="s">
-        <v>6</v>
-      </c>
-      <c r="P58" s="81" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q58" s="81" t="s">
+      <c r="M58" s="125" t="s">
+        <v>6</v>
+      </c>
+      <c r="N58" s="125" t="s">
+        <v>6</v>
+      </c>
+      <c r="O58" s="125" t="s">
+        <v>6</v>
+      </c>
+      <c r="P58" s="125" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q58" s="125" t="s">
         <v>6</v>
       </c>
       <c r="R58" s="4"/>
@@ -4256,45 +4556,41 @@
       <c r="Z58" s="4"/>
     </row>
     <row r="59" ht="15.0" customHeight="1">
-      <c r="A59" s="57" t="s">
-        <v>6</v>
-      </c>
-      <c r="B59" s="69" t="s">
-        <v>6</v>
-      </c>
-      <c r="C59" s="68" t="s">
-        <v>6</v>
-      </c>
-      <c r="D59" s="61" t="s">
-        <v>6</v>
-      </c>
-      <c r="E59" s="69" t="s">
-        <v>6</v>
-      </c>
-      <c r="F59" s="103" t="s">
-        <v>6</v>
-      </c>
-      <c r="G59" s="61"/>
-      <c r="H59" s="68" t="s">
-        <v>6</v>
-      </c>
-      <c r="I59" s="61"/>
+      <c r="A59" s="155" t="s">
+        <v>6</v>
+      </c>
+      <c r="B59" s="128" t="s">
+        <v>6</v>
+      </c>
+      <c r="C59" s="129" t="s">
+        <v>94</v>
+      </c>
+      <c r="D59" s="130" t="s">
+        <v>93</v>
+      </c>
+      <c r="E59" s="156"/>
+      <c r="F59" s="157"/>
+      <c r="G59" s="68"/>
+      <c r="H59" s="131" t="s">
+        <v>6</v>
+      </c>
+      <c r="I59" s="68"/>
       <c r="J59" s="2"/>
       <c r="K59" s="2"/>
       <c r="L59" s="2"/>
-      <c r="M59" s="81" t="s">
-        <v>6</v>
-      </c>
-      <c r="N59" s="81" t="s">
-        <v>6</v>
-      </c>
-      <c r="O59" s="81" t="s">
-        <v>6</v>
-      </c>
-      <c r="P59" s="81" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q59" s="81" t="s">
+      <c r="M59" s="132" t="s">
+        <v>6</v>
+      </c>
+      <c r="N59" s="132" t="s">
+        <v>6</v>
+      </c>
+      <c r="O59" s="132" t="s">
+        <v>6</v>
+      </c>
+      <c r="P59" s="132" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q59" s="132" t="s">
         <v>6</v>
       </c>
       <c r="R59" s="4"/>
@@ -4307,100 +4603,86 @@
       <c r="Y59" s="4"/>
       <c r="Z59" s="4"/>
     </row>
-    <row r="60" ht="15.0" customHeight="1">
-      <c r="A60" s="57" t="s">
-        <v>6</v>
-      </c>
-      <c r="B60" s="69" t="s">
-        <v>6</v>
-      </c>
-      <c r="C60" s="68" t="s">
-        <v>6</v>
-      </c>
-      <c r="D60" s="61" t="s">
-        <v>6</v>
-      </c>
-      <c r="E60" s="69" t="s">
-        <v>6</v>
-      </c>
-      <c r="F60" s="103" t="s">
-        <v>6</v>
-      </c>
-      <c r="G60" s="61"/>
-      <c r="H60" s="68" t="s">
-        <v>6</v>
-      </c>
-      <c r="I60" s="61"/>
-      <c r="J60" s="2"/>
-      <c r="K60" s="2"/>
-      <c r="L60" s="2"/>
-      <c r="M60" s="81" t="s">
-        <v>6</v>
-      </c>
-      <c r="N60" s="81" t="s">
-        <v>6</v>
-      </c>
-      <c r="O60" s="81" t="s">
-        <v>6</v>
-      </c>
-      <c r="P60" s="81" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q60" s="81" t="s">
-        <v>6</v>
-      </c>
-      <c r="R60" s="4"/>
-      <c r="S60" s="4"/>
-      <c r="T60" s="4"/>
-      <c r="U60" s="4"/>
-      <c r="V60" s="4"/>
-      <c r="W60" s="4"/>
-      <c r="X60" s="4"/>
-      <c r="Y60" s="4"/>
-      <c r="Z60" s="4"/>
-    </row>
-    <row r="61" ht="15.0" customHeight="1">
-      <c r="A61" s="57" t="s">
-        <v>6</v>
-      </c>
-      <c r="B61" s="69" t="s">
-        <v>6</v>
-      </c>
-      <c r="C61" s="68" t="s">
-        <v>6</v>
-      </c>
-      <c r="D61" s="61" t="s">
-        <v>6</v>
-      </c>
-      <c r="E61" s="69" t="s">
-        <v>6</v>
-      </c>
-      <c r="F61" s="103" t="s">
-        <v>6</v>
-      </c>
-      <c r="G61" s="61"/>
-      <c r="H61" s="68" t="s">
-        <v>6</v>
-      </c>
-      <c r="I61" s="61"/>
-      <c r="J61" s="2"/>
-      <c r="K61" s="2"/>
-      <c r="L61" s="2"/>
-      <c r="M61" s="81" t="s">
-        <v>6</v>
-      </c>
-      <c r="N61" s="81" t="s">
-        <v>6</v>
-      </c>
-      <c r="O61" s="81" t="s">
-        <v>6</v>
-      </c>
-      <c r="P61" s="81" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q61" s="81" t="s">
-        <v>6</v>
-      </c>
+    <row r="60" ht="15.75" customHeight="1">
+      <c r="A60" s="85" t="s">
+        <v>95</v>
+      </c>
+      <c r="B60" s="42" t="s">
+        <v>61</v>
+      </c>
+      <c r="C60" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="D60" s="47"/>
+      <c r="E60" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="F60" s="86" t="s">
+        <v>6</v>
+      </c>
+      <c r="G60" s="87">
+        <f>SUM(F61:F65)</f>
+        <v>0</v>
+      </c>
+      <c r="H60" s="88" t="s">
+        <v>6</v>
+      </c>
+      <c r="I60" s="119">
+        <v>0.0</v>
+      </c>
+      <c r="J60" s="7"/>
+      <c r="K60" s="7"/>
+      <c r="L60" s="7"/>
+      <c r="M60" s="103" t="s">
+        <v>6</v>
+      </c>
+      <c r="N60" s="103" t="s">
+        <v>6</v>
+      </c>
+      <c r="O60" s="103" t="s">
+        <v>6</v>
+      </c>
+      <c r="P60" s="103" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q60" s="90">
+        <f>SUM(Q61:Q65)</f>
+        <v>0</v>
+      </c>
+      <c r="R60" s="34"/>
+      <c r="S60" s="34"/>
+      <c r="T60" s="34"/>
+      <c r="U60" s="34"/>
+      <c r="V60" s="34"/>
+      <c r="W60" s="34"/>
+      <c r="X60" s="34"/>
+      <c r="Y60" s="34"/>
+      <c r="Z60" s="34"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1">
+      <c r="A61" s="85" t="s">
+        <v>96</v>
+      </c>
+      <c r="B61" s="97" t="s">
+        <v>6</v>
+      </c>
+      <c r="C61" s="158"/>
+      <c r="D61" s="36"/>
+      <c r="E61" s="92"/>
+      <c r="F61" s="53"/>
+      <c r="G61" s="97"/>
+      <c r="H61" s="39"/>
+      <c r="I61" s="97" t="s">
+        <v>6</v>
+      </c>
+      <c r="J61" s="4"/>
+      <c r="K61" s="4"/>
+      <c r="L61" s="4"/>
+      <c r="M61" s="93"/>
+      <c r="N61" s="94"/>
+      <c r="O61" s="94"/>
+      <c r="P61" s="93"/>
+      <c r="Q61" s="93"/>
       <c r="R61" s="4"/>
       <c r="S61" s="4"/>
       <c r="T61" s="4"/>
@@ -4411,48 +4693,30 @@
       <c r="Y61" s="4"/>
       <c r="Z61" s="4"/>
     </row>
-    <row r="62" ht="15.0" customHeight="1">
-      <c r="A62" s="57" t="s">
-        <v>6</v>
-      </c>
-      <c r="B62" s="70" t="s">
-        <v>6</v>
-      </c>
-      <c r="C62" s="105" t="s">
-        <v>6</v>
-      </c>
-      <c r="D62" s="71" t="s">
-        <v>6</v>
-      </c>
-      <c r="E62" s="70" t="s">
-        <v>6</v>
-      </c>
-      <c r="F62" s="106" t="s">
-        <v>6</v>
-      </c>
-      <c r="G62" s="61"/>
-      <c r="H62" s="105" t="s">
-        <v>6</v>
-      </c>
-      <c r="I62" s="61"/>
-      <c r="J62" s="2"/>
-      <c r="K62" s="2"/>
-      <c r="L62" s="2"/>
-      <c r="M62" s="107" t="s">
-        <v>6</v>
-      </c>
-      <c r="N62" s="107" t="s">
-        <v>6</v>
-      </c>
-      <c r="O62" s="107" t="s">
-        <v>6</v>
-      </c>
-      <c r="P62" s="107" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q62" s="107" t="s">
-        <v>6</v>
-      </c>
+    <row r="62" ht="15.75" customHeight="1">
+      <c r="A62" s="101" t="s">
+        <v>6</v>
+      </c>
+      <c r="B62" s="97" t="s">
+        <v>6</v>
+      </c>
+      <c r="C62" s="50"/>
+      <c r="D62" s="51"/>
+      <c r="E62" s="52"/>
+      <c r="F62" s="53"/>
+      <c r="G62" s="97"/>
+      <c r="H62" s="39"/>
+      <c r="I62" s="97" t="s">
+        <v>6</v>
+      </c>
+      <c r="J62" s="4"/>
+      <c r="K62" s="4"/>
+      <c r="L62" s="4"/>
+      <c r="M62" s="93"/>
+      <c r="N62" s="94"/>
+      <c r="O62" s="93"/>
+      <c r="P62" s="93"/>
+      <c r="Q62" s="93"/>
       <c r="R62" s="4"/>
       <c r="S62" s="4"/>
       <c r="T62" s="4"/>
@@ -4463,52 +4727,30 @@
       <c r="Y62" s="4"/>
       <c r="Z62" s="4"/>
     </row>
-    <row r="63" ht="15.0" customHeight="1">
-      <c r="A63" s="57" t="s">
-        <v>6</v>
-      </c>
-      <c r="B63" s="108" t="s">
-        <v>54</v>
-      </c>
-      <c r="C63" s="108" t="s">
-        <v>6</v>
-      </c>
-      <c r="D63" s="109" t="s">
-        <v>6</v>
-      </c>
-      <c r="E63" s="108" t="s">
-        <v>6</v>
-      </c>
-      <c r="F63" s="110" t="s">
-        <v>6</v>
-      </c>
-      <c r="G63" s="111">
-        <v>0.0</v>
-      </c>
-      <c r="H63" s="109" t="s">
-        <v>6</v>
-      </c>
-      <c r="I63" s="112">
-        <v>0.0</v>
-      </c>
-      <c r="J63" s="2"/>
-      <c r="K63" s="2"/>
-      <c r="L63" s="2"/>
-      <c r="M63" s="113" t="s">
-        <v>6</v>
-      </c>
-      <c r="N63" s="113" t="s">
-        <v>6</v>
-      </c>
-      <c r="O63" s="113" t="s">
-        <v>6</v>
-      </c>
-      <c r="P63" s="113" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q63" s="114">
-        <v>0.0</v>
-      </c>
+    <row r="63" ht="15.75" customHeight="1">
+      <c r="A63" s="101" t="s">
+        <v>6</v>
+      </c>
+      <c r="B63" s="97" t="s">
+        <v>6</v>
+      </c>
+      <c r="C63" s="50"/>
+      <c r="D63" s="36"/>
+      <c r="E63" s="52"/>
+      <c r="F63" s="53"/>
+      <c r="G63" s="97"/>
+      <c r="H63" s="39"/>
+      <c r="I63" s="97" t="s">
+        <v>6</v>
+      </c>
+      <c r="J63" s="4"/>
+      <c r="K63" s="4"/>
+      <c r="L63" s="4"/>
+      <c r="M63" s="93"/>
+      <c r="N63" s="94"/>
+      <c r="O63" s="93"/>
+      <c r="P63" s="93"/>
+      <c r="Q63" s="93"/>
       <c r="R63" s="4"/>
       <c r="S63" s="4"/>
       <c r="T63" s="4"/>
@@ -4519,48 +4761,30 @@
       <c r="Y63" s="4"/>
       <c r="Z63" s="4"/>
     </row>
-    <row r="64" ht="15.0" customHeight="1">
-      <c r="A64" s="115" t="s">
-        <v>6</v>
-      </c>
-      <c r="B64" s="116" t="s">
-        <v>6</v>
-      </c>
-      <c r="C64" s="116" t="s">
-        <v>81</v>
-      </c>
-      <c r="D64" s="117" t="s">
-        <v>82</v>
-      </c>
-      <c r="E64" s="116" t="s">
-        <v>3</v>
-      </c>
-      <c r="F64" s="118">
-        <v>3.0</v>
-      </c>
-      <c r="G64" s="61"/>
-      <c r="H64" s="117" t="s">
-        <v>6</v>
-      </c>
-      <c r="I64" s="61"/>
-      <c r="J64" s="2"/>
-      <c r="K64" s="2"/>
-      <c r="L64" s="2"/>
-      <c r="M64" s="104" t="s">
-        <v>6</v>
-      </c>
-      <c r="N64" s="104" t="s">
-        <v>6</v>
-      </c>
-      <c r="O64" s="104" t="s">
-        <v>6</v>
-      </c>
-      <c r="P64" s="104" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q64" s="104" t="s">
-        <v>6</v>
-      </c>
+    <row r="64" ht="15.75" customHeight="1">
+      <c r="A64" s="101" t="s">
+        <v>6</v>
+      </c>
+      <c r="B64" s="97" t="s">
+        <v>6</v>
+      </c>
+      <c r="C64" s="158"/>
+      <c r="D64" s="36"/>
+      <c r="E64" s="97"/>
+      <c r="F64" s="159"/>
+      <c r="G64" s="97"/>
+      <c r="H64" s="49"/>
+      <c r="I64" s="97" t="s">
+        <v>6</v>
+      </c>
+      <c r="J64" s="4"/>
+      <c r="K64" s="4"/>
+      <c r="L64" s="4"/>
+      <c r="M64" s="93"/>
+      <c r="N64" s="94"/>
+      <c r="O64" s="93"/>
+      <c r="P64" s="93"/>
+      <c r="Q64" s="93"/>
       <c r="R64" s="4"/>
       <c r="S64" s="4"/>
       <c r="T64" s="4"/>
@@ -4571,48 +4795,30 @@
       <c r="Y64" s="4"/>
       <c r="Z64" s="4"/>
     </row>
-    <row r="65" ht="15.0" customHeight="1">
-      <c r="A65" s="119" t="s">
-        <v>6</v>
-      </c>
-      <c r="B65" s="70" t="s">
-        <v>6</v>
-      </c>
-      <c r="C65" s="105" t="s">
-        <v>83</v>
-      </c>
-      <c r="D65" s="71" t="s">
-        <v>82</v>
-      </c>
-      <c r="E65" s="105" t="s">
-        <v>84</v>
-      </c>
-      <c r="F65" s="120">
-        <v>4.0</v>
-      </c>
-      <c r="G65" s="61"/>
-      <c r="H65" s="105" t="s">
-        <v>6</v>
-      </c>
-      <c r="I65" s="61"/>
-      <c r="J65" s="2"/>
-      <c r="K65" s="2"/>
-      <c r="L65" s="2"/>
-      <c r="M65" s="107" t="s">
-        <v>6</v>
-      </c>
-      <c r="N65" s="107" t="s">
-        <v>6</v>
-      </c>
-      <c r="O65" s="107" t="s">
-        <v>6</v>
-      </c>
-      <c r="P65" s="107" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q65" s="107" t="s">
-        <v>6</v>
-      </c>
+    <row r="65" ht="15.75" customHeight="1">
+      <c r="A65" s="101" t="s">
+        <v>6</v>
+      </c>
+      <c r="B65" s="116" t="s">
+        <v>6</v>
+      </c>
+      <c r="C65" s="160"/>
+      <c r="D65" s="56"/>
+      <c r="E65" s="116"/>
+      <c r="F65" s="161"/>
+      <c r="G65" s="97"/>
+      <c r="H65" s="58"/>
+      <c r="I65" s="97" t="s">
+        <v>6</v>
+      </c>
+      <c r="J65" s="4"/>
+      <c r="K65" s="4"/>
+      <c r="L65" s="4"/>
+      <c r="M65" s="99"/>
+      <c r="N65" s="162"/>
+      <c r="O65" s="99"/>
+      <c r="P65" s="99"/>
+      <c r="Q65" s="99"/>
       <c r="R65" s="4"/>
       <c r="S65" s="4"/>
       <c r="T65" s="4"/>
@@ -4624,79 +4830,80 @@
       <c r="Z65" s="4"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="A66" s="121" t="s">
-        <v>5</v>
-      </c>
-      <c r="B66" s="121" t="s">
-        <v>6</v>
-      </c>
-      <c r="C66" s="122" t="s">
-        <v>6</v>
-      </c>
-      <c r="D66" s="122" t="s">
-        <v>6</v>
-      </c>
-      <c r="E66" s="123" t="s">
-        <v>6</v>
-      </c>
-      <c r="F66" s="122">
+      <c r="A66" s="101" t="s">
+        <v>6</v>
+      </c>
+      <c r="B66" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="C66" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="D66" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="E66" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="F66" s="77" t="s">
+        <v>6</v>
+      </c>
+      <c r="G66" s="87">
+        <f>SUM(F67:F71)</f>
+        <v>0</v>
+      </c>
+      <c r="H66" s="79" t="s">
+        <v>6</v>
+      </c>
+      <c r="I66" s="119">
         <v>0.0</v>
       </c>
-      <c r="G66" s="123">
-        <v>0.0</v>
-      </c>
-      <c r="H66" s="122">
-        <v>0.0</v>
-      </c>
-      <c r="I66" s="124">
-        <v>0.0</v>
-      </c>
-      <c r="J66" s="125"/>
-      <c r="K66" s="125"/>
-      <c r="L66" s="125"/>
-      <c r="M66" s="126">
-        <v>0.0</v>
-      </c>
-      <c r="N66" s="126">
-        <v>0.0</v>
-      </c>
-      <c r="O66" s="126">
-        <v>0.0</v>
-      </c>
-      <c r="P66" s="126">
-        <v>0.0</v>
-      </c>
-      <c r="Q66" s="126">
-        <v>0.0</v>
-      </c>
-      <c r="R66" s="4"/>
-      <c r="S66" s="4"/>
-      <c r="T66" s="4"/>
-      <c r="U66" s="4"/>
-      <c r="V66" s="4"/>
-      <c r="W66" s="4"/>
-      <c r="X66" s="4"/>
-      <c r="Y66" s="4"/>
-      <c r="Z66" s="4"/>
+      <c r="J66" s="34"/>
+      <c r="K66" s="34"/>
+      <c r="L66" s="34"/>
+      <c r="M66" s="103"/>
+      <c r="N66" s="103"/>
+      <c r="O66" s="103"/>
+      <c r="P66" s="103"/>
+      <c r="Q66" s="104"/>
+      <c r="R66" s="34"/>
+      <c r="S66" s="34"/>
+      <c r="T66" s="34"/>
+      <c r="U66" s="34"/>
+      <c r="V66" s="34"/>
+      <c r="W66" s="34"/>
+      <c r="X66" s="34"/>
+      <c r="Y66" s="34"/>
+      <c r="Z66" s="34"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="A67" s="4"/>
-      <c r="B67" s="4"/>
-      <c r="C67" s="4"/>
-      <c r="D67" s="4"/>
-      <c r="E67" s="4"/>
-      <c r="F67" s="4"/>
-      <c r="G67" s="4"/>
-      <c r="H67" s="4"/>
-      <c r="I67" s="4"/>
+      <c r="A67" s="101" t="s">
+        <v>6</v>
+      </c>
+      <c r="B67" s="97" t="s">
+        <v>6</v>
+      </c>
+      <c r="C67" s="158"/>
+      <c r="D67" s="36"/>
+      <c r="E67" s="92"/>
+      <c r="F67" s="53"/>
+      <c r="G67" s="97" t="s">
+        <v>6</v>
+      </c>
+      <c r="H67" s="49" t="s">
+        <v>6</v>
+      </c>
+      <c r="I67" s="97" t="s">
+        <v>6</v>
+      </c>
       <c r="J67" s="4"/>
       <c r="K67" s="4"/>
       <c r="L67" s="4"/>
-      <c r="M67" s="4"/>
-      <c r="N67" s="4"/>
-      <c r="O67" s="4"/>
-      <c r="P67" s="4"/>
-      <c r="Q67" s="4"/>
+      <c r="M67" s="93"/>
+      <c r="N67" s="94"/>
+      <c r="O67" s="94"/>
+      <c r="P67" s="94"/>
+      <c r="Q67" s="93"/>
       <c r="R67" s="4"/>
       <c r="S67" s="4"/>
       <c r="T67" s="4"/>
@@ -4708,23 +4915,33 @@
       <c r="Z67" s="4"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
-      <c r="A68" s="4"/>
-      <c r="B68" s="4"/>
-      <c r="C68" s="4"/>
-      <c r="D68" s="4"/>
-      <c r="E68" s="4"/>
-      <c r="F68" s="4"/>
-      <c r="G68" s="4"/>
-      <c r="H68" s="4"/>
-      <c r="I68" s="4"/>
+      <c r="A68" s="101" t="s">
+        <v>6</v>
+      </c>
+      <c r="B68" s="97" t="s">
+        <v>6</v>
+      </c>
+      <c r="C68" s="36"/>
+      <c r="D68" s="36"/>
+      <c r="E68" s="51"/>
+      <c r="F68" s="53"/>
+      <c r="G68" s="97" t="s">
+        <v>6</v>
+      </c>
+      <c r="H68" s="49" t="s">
+        <v>6</v>
+      </c>
+      <c r="I68" s="97" t="s">
+        <v>6</v>
+      </c>
       <c r="J68" s="4"/>
       <c r="K68" s="4"/>
       <c r="L68" s="4"/>
-      <c r="M68" s="4"/>
-      <c r="N68" s="4"/>
-      <c r="O68" s="4"/>
-      <c r="P68" s="4"/>
-      <c r="Q68" s="4"/>
+      <c r="M68" s="94"/>
+      <c r="N68" s="94"/>
+      <c r="O68" s="94"/>
+      <c r="P68" s="94"/>
+      <c r="Q68" s="94"/>
       <c r="R68" s="4"/>
       <c r="S68" s="4"/>
       <c r="T68" s="4"/>
@@ -4736,23 +4953,33 @@
       <c r="Z68" s="4"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
-      <c r="A69" s="4"/>
-      <c r="B69" s="4"/>
-      <c r="C69" s="4"/>
-      <c r="D69" s="4"/>
-      <c r="E69" s="4"/>
-      <c r="F69" s="4"/>
-      <c r="G69" s="4"/>
-      <c r="H69" s="4"/>
-      <c r="I69" s="4"/>
+      <c r="A69" s="101" t="s">
+        <v>6</v>
+      </c>
+      <c r="B69" s="97" t="s">
+        <v>6</v>
+      </c>
+      <c r="C69" s="115"/>
+      <c r="D69" s="56"/>
+      <c r="E69" s="115"/>
+      <c r="F69" s="53"/>
+      <c r="G69" s="97" t="s">
+        <v>6</v>
+      </c>
+      <c r="H69" s="49" t="s">
+        <v>6</v>
+      </c>
+      <c r="I69" s="97" t="s">
+        <v>6</v>
+      </c>
       <c r="J69" s="4"/>
       <c r="K69" s="4"/>
       <c r="L69" s="4"/>
-      <c r="M69" s="4"/>
-      <c r="N69" s="4"/>
-      <c r="O69" s="4"/>
-      <c r="P69" s="4"/>
-      <c r="Q69" s="4"/>
+      <c r="M69" s="162"/>
+      <c r="N69" s="162"/>
+      <c r="O69" s="162"/>
+      <c r="P69" s="162"/>
+      <c r="Q69" s="162"/>
       <c r="R69" s="4"/>
       <c r="S69" s="4"/>
       <c r="T69" s="4"/>
@@ -4764,23 +4991,33 @@
       <c r="Z69" s="4"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
-      <c r="A70" s="4"/>
-      <c r="B70" s="4"/>
-      <c r="C70" s="4"/>
-      <c r="D70" s="4"/>
-      <c r="E70" s="4"/>
-      <c r="F70" s="4"/>
-      <c r="G70" s="4"/>
-      <c r="H70" s="4"/>
-      <c r="I70" s="4"/>
+      <c r="A70" s="101" t="s">
+        <v>6</v>
+      </c>
+      <c r="B70" s="97" t="s">
+        <v>6</v>
+      </c>
+      <c r="C70" s="50"/>
+      <c r="D70" s="51"/>
+      <c r="E70" s="52"/>
+      <c r="F70" s="163"/>
+      <c r="G70" s="97" t="s">
+        <v>6</v>
+      </c>
+      <c r="H70" s="49" t="s">
+        <v>6</v>
+      </c>
+      <c r="I70" s="97" t="s">
+        <v>6</v>
+      </c>
       <c r="J70" s="4"/>
       <c r="K70" s="4"/>
       <c r="L70" s="4"/>
-      <c r="M70" s="4"/>
-      <c r="N70" s="4"/>
-      <c r="O70" s="4"/>
-      <c r="P70" s="4"/>
-      <c r="Q70" s="4"/>
+      <c r="M70" s="94"/>
+      <c r="N70" s="94"/>
+      <c r="O70" s="94"/>
+      <c r="P70" s="93"/>
+      <c r="Q70" s="93"/>
       <c r="R70" s="4"/>
       <c r="S70" s="4"/>
       <c r="T70" s="4"/>
@@ -4792,23 +5029,33 @@
       <c r="Z70" s="4"/>
     </row>
     <row r="71" ht="15.75" customHeight="1">
-      <c r="A71" s="4"/>
-      <c r="B71" s="4"/>
-      <c r="C71" s="4"/>
-      <c r="D71" s="4"/>
-      <c r="E71" s="4"/>
-      <c r="F71" s="4"/>
-      <c r="G71" s="4"/>
-      <c r="H71" s="4"/>
-      <c r="I71" s="4"/>
+      <c r="A71" s="101" t="s">
+        <v>6</v>
+      </c>
+      <c r="B71" s="116" t="s">
+        <v>6</v>
+      </c>
+      <c r="C71" s="114"/>
+      <c r="D71" s="51"/>
+      <c r="E71" s="36"/>
+      <c r="F71" s="161"/>
+      <c r="G71" s="97" t="s">
+        <v>6</v>
+      </c>
+      <c r="H71" s="58" t="s">
+        <v>6</v>
+      </c>
+      <c r="I71" s="97" t="s">
+        <v>6</v>
+      </c>
       <c r="J71" s="4"/>
       <c r="K71" s="4"/>
       <c r="L71" s="4"/>
-      <c r="M71" s="4"/>
-      <c r="N71" s="4"/>
-      <c r="O71" s="4"/>
-      <c r="P71" s="4"/>
-      <c r="Q71" s="4"/>
+      <c r="M71" s="162"/>
+      <c r="N71" s="162"/>
+      <c r="O71" s="162"/>
+      <c r="P71" s="162"/>
+      <c r="Q71" s="162"/>
       <c r="R71" s="4"/>
       <c r="S71" s="4"/>
       <c r="T71" s="4"/>
@@ -4820,51 +5067,84 @@
       <c r="Z71" s="4"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
-      <c r="A72" s="4"/>
-      <c r="B72" s="4"/>
-      <c r="C72" s="4"/>
-      <c r="D72" s="4"/>
-      <c r="E72" s="4"/>
-      <c r="F72" s="4"/>
-      <c r="G72" s="4"/>
-      <c r="H72" s="4"/>
-      <c r="I72" s="4"/>
-      <c r="J72" s="4"/>
-      <c r="K72" s="4"/>
-      <c r="L72" s="4"/>
-      <c r="M72" s="4"/>
-      <c r="N72" s="4"/>
-      <c r="O72" s="4"/>
-      <c r="P72" s="4"/>
-      <c r="Q72" s="4"/>
-      <c r="R72" s="4"/>
-      <c r="S72" s="4"/>
-      <c r="T72" s="4"/>
-      <c r="U72" s="4"/>
-      <c r="V72" s="4"/>
-      <c r="W72" s="4"/>
-      <c r="X72" s="4"/>
-      <c r="Y72" s="4"/>
-      <c r="Z72" s="4"/>
+      <c r="A72" s="101" t="s">
+        <v>6</v>
+      </c>
+      <c r="B72" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="C72" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="D72" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="E72" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="F72" s="77" t="s">
+        <v>6</v>
+      </c>
+      <c r="G72" s="87">
+        <f>SUM(F73:F75)</f>
+        <v>0</v>
+      </c>
+      <c r="H72" s="79" t="s">
+        <v>6</v>
+      </c>
+      <c r="I72" s="119">
+        <v>0.0</v>
+      </c>
+      <c r="J72" s="34"/>
+      <c r="K72" s="34"/>
+      <c r="L72" s="34"/>
+      <c r="M72" s="103"/>
+      <c r="N72" s="103"/>
+      <c r="O72" s="103"/>
+      <c r="P72" s="103"/>
+      <c r="Q72" s="103"/>
+      <c r="R72" s="34"/>
+      <c r="S72" s="34"/>
+      <c r="T72" s="34"/>
+      <c r="U72" s="34"/>
+      <c r="V72" s="34"/>
+      <c r="W72" s="34"/>
+      <c r="X72" s="34"/>
+      <c r="Y72" s="34"/>
+      <c r="Z72" s="34"/>
     </row>
     <row r="73" ht="15.75" customHeight="1">
-      <c r="A73" s="4"/>
-      <c r="B73" s="4"/>
-      <c r="C73" s="4"/>
-      <c r="D73" s="4"/>
-      <c r="E73" s="4"/>
-      <c r="F73" s="4"/>
-      <c r="G73" s="4"/>
-      <c r="H73" s="4"/>
-      <c r="I73" s="4"/>
+      <c r="A73" s="101" t="s">
+        <v>6</v>
+      </c>
+      <c r="B73" s="97" t="s">
+        <v>6</v>
+      </c>
+      <c r="C73" s="51" t="s">
+        <v>77</v>
+      </c>
+      <c r="D73" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="E73" s="164"/>
+      <c r="F73" s="112"/>
+      <c r="G73" s="97" t="s">
+        <v>6</v>
+      </c>
+      <c r="H73" s="49" t="s">
+        <v>6</v>
+      </c>
+      <c r="I73" s="97" t="s">
+        <v>6</v>
+      </c>
       <c r="J73" s="4"/>
       <c r="K73" s="4"/>
       <c r="L73" s="4"/>
-      <c r="M73" s="4"/>
-      <c r="N73" s="4"/>
-      <c r="O73" s="4"/>
-      <c r="P73" s="4"/>
-      <c r="Q73" s="4"/>
+      <c r="M73" s="111"/>
+      <c r="N73" s="111"/>
+      <c r="O73" s="111"/>
+      <c r="P73" s="111"/>
+      <c r="Q73" s="111"/>
       <c r="R73" s="4"/>
       <c r="S73" s="4"/>
       <c r="T73" s="4"/>
@@ -4876,23 +5156,37 @@
       <c r="Z73" s="4"/>
     </row>
     <row r="74" ht="15.75" customHeight="1">
-      <c r="A74" s="4"/>
-      <c r="B74" s="4"/>
-      <c r="C74" s="4"/>
-      <c r="D74" s="4"/>
-      <c r="E74" s="4"/>
-      <c r="F74" s="4"/>
-      <c r="G74" s="4"/>
-      <c r="H74" s="4"/>
-      <c r="I74" s="4"/>
+      <c r="A74" s="101" t="s">
+        <v>6</v>
+      </c>
+      <c r="B74" s="97" t="s">
+        <v>6</v>
+      </c>
+      <c r="C74" s="51" t="s">
+        <v>58</v>
+      </c>
+      <c r="D74" s="51" t="s">
+        <v>35</v>
+      </c>
+      <c r="E74" s="92"/>
+      <c r="F74" s="113"/>
+      <c r="G74" s="97" t="s">
+        <v>6</v>
+      </c>
+      <c r="H74" s="49" t="s">
+        <v>6</v>
+      </c>
+      <c r="I74" s="97" t="s">
+        <v>6</v>
+      </c>
       <c r="J74" s="4"/>
       <c r="K74" s="4"/>
       <c r="L74" s="4"/>
-      <c r="M74" s="4"/>
-      <c r="N74" s="4"/>
-      <c r="O74" s="4"/>
-      <c r="P74" s="4"/>
-      <c r="Q74" s="4"/>
+      <c r="M74" s="94"/>
+      <c r="N74" s="94"/>
+      <c r="O74" s="94"/>
+      <c r="P74" s="94"/>
+      <c r="Q74" s="94"/>
       <c r="R74" s="4"/>
       <c r="S74" s="4"/>
       <c r="T74" s="4"/>
@@ -4904,23 +5198,33 @@
       <c r="Z74" s="4"/>
     </row>
     <row r="75" ht="15.75" customHeight="1">
-      <c r="A75" s="4"/>
-      <c r="B75" s="4"/>
-      <c r="C75" s="4"/>
-      <c r="D75" s="4"/>
-      <c r="E75" s="4"/>
-      <c r="F75" s="4"/>
-      <c r="G75" s="4"/>
-      <c r="H75" s="4"/>
-      <c r="I75" s="4"/>
+      <c r="A75" s="101" t="s">
+        <v>6</v>
+      </c>
+      <c r="B75" s="116" t="s">
+        <v>6</v>
+      </c>
+      <c r="C75" s="114"/>
+      <c r="D75" s="115"/>
+      <c r="E75" s="116"/>
+      <c r="F75" s="117"/>
+      <c r="G75" s="97" t="s">
+        <v>6</v>
+      </c>
+      <c r="H75" s="58" t="s">
+        <v>6</v>
+      </c>
+      <c r="I75" s="97" t="s">
+        <v>6</v>
+      </c>
       <c r="J75" s="4"/>
       <c r="K75" s="4"/>
       <c r="L75" s="4"/>
-      <c r="M75" s="4"/>
-      <c r="N75" s="4"/>
-      <c r="O75" s="4"/>
-      <c r="P75" s="4"/>
-      <c r="Q75" s="4"/>
+      <c r="M75" s="95"/>
+      <c r="N75" s="95"/>
+      <c r="O75" s="95"/>
+      <c r="P75" s="95"/>
+      <c r="Q75" s="95"/>
       <c r="R75" s="4"/>
       <c r="S75" s="4"/>
       <c r="T75" s="4"/>
@@ -4932,51 +5236,101 @@
       <c r="Z75" s="4"/>
     </row>
     <row r="76" ht="15.75" customHeight="1">
-      <c r="A76" s="4"/>
-      <c r="B76" s="4"/>
-      <c r="C76" s="4"/>
-      <c r="D76" s="4"/>
-      <c r="E76" s="4"/>
-      <c r="F76" s="4"/>
-      <c r="G76" s="4"/>
-      <c r="H76" s="4"/>
-      <c r="I76" s="4"/>
-      <c r="J76" s="4"/>
-      <c r="K76" s="4"/>
-      <c r="L76" s="4"/>
-      <c r="M76" s="4"/>
-      <c r="N76" s="4"/>
-      <c r="O76" s="4"/>
-      <c r="P76" s="4"/>
-      <c r="Q76" s="4"/>
-      <c r="R76" s="4"/>
-      <c r="S76" s="4"/>
-      <c r="T76" s="4"/>
-      <c r="U76" s="4"/>
-      <c r="V76" s="4"/>
-      <c r="W76" s="4"/>
-      <c r="X76" s="4"/>
-      <c r="Y76" s="4"/>
-      <c r="Z76" s="4"/>
+      <c r="A76" s="118" t="s">
+        <v>97</v>
+      </c>
+      <c r="B76" s="26"/>
+      <c r="C76" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="D76" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="E76" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="F76" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="G76" s="165">
+        <v>0.0</v>
+      </c>
+      <c r="H76" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="I76" s="119">
+        <v>0.0</v>
+      </c>
+      <c r="J76" s="34"/>
+      <c r="K76" s="34"/>
+      <c r="L76" s="34"/>
+      <c r="M76" s="103" t="s">
+        <v>6</v>
+      </c>
+      <c r="N76" s="103" t="s">
+        <v>6</v>
+      </c>
+      <c r="O76" s="103" t="s">
+        <v>6</v>
+      </c>
+      <c r="P76" s="103" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q76" s="103">
+        <v>0.0</v>
+      </c>
+      <c r="R76" s="34"/>
+      <c r="S76" s="34"/>
+      <c r="T76" s="34"/>
+      <c r="U76" s="34"/>
+      <c r="V76" s="34"/>
+      <c r="W76" s="34"/>
+      <c r="X76" s="34"/>
+      <c r="Y76" s="34"/>
+      <c r="Z76" s="34"/>
     </row>
     <row r="77" ht="15.75" customHeight="1">
-      <c r="A77" s="4"/>
-      <c r="B77" s="4"/>
-      <c r="C77" s="4"/>
-      <c r="D77" s="4"/>
-      <c r="E77" s="4"/>
-      <c r="F77" s="4"/>
-      <c r="G77" s="4"/>
-      <c r="H77" s="4"/>
-      <c r="I77" s="4"/>
+      <c r="A77" s="118" t="s">
+        <v>98</v>
+      </c>
+      <c r="B77" s="166" t="s">
+        <v>6</v>
+      </c>
+      <c r="C77" s="166" t="s">
+        <v>6</v>
+      </c>
+      <c r="D77" s="68" t="s">
+        <v>6</v>
+      </c>
+      <c r="E77" s="167" t="s">
+        <v>6</v>
+      </c>
+      <c r="F77" s="168" t="s">
+        <v>6</v>
+      </c>
+      <c r="G77" s="68"/>
+      <c r="H77" s="124" t="s">
+        <v>6</v>
+      </c>
+      <c r="I77" s="68"/>
       <c r="J77" s="4"/>
       <c r="K77" s="4"/>
       <c r="L77" s="4"/>
-      <c r="M77" s="4"/>
-      <c r="N77" s="4"/>
-      <c r="O77" s="4"/>
-      <c r="P77" s="4"/>
-      <c r="Q77" s="4"/>
+      <c r="M77" s="169" t="s">
+        <v>6</v>
+      </c>
+      <c r="N77" s="169" t="s">
+        <v>6</v>
+      </c>
+      <c r="O77" s="169" t="s">
+        <v>6</v>
+      </c>
+      <c r="P77" s="169" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q77" s="169" t="s">
+        <v>6</v>
+      </c>
       <c r="R77" s="4"/>
       <c r="S77" s="4"/>
       <c r="T77" s="4"/>
@@ -4988,23 +5342,47 @@
       <c r="Z77" s="4"/>
     </row>
     <row r="78" ht="15.75" customHeight="1">
-      <c r="A78" s="4"/>
-      <c r="B78" s="4"/>
-      <c r="C78" s="4"/>
-      <c r="D78" s="4"/>
-      <c r="E78" s="4"/>
-      <c r="F78" s="4"/>
-      <c r="G78" s="4"/>
-      <c r="H78" s="4"/>
-      <c r="I78" s="4"/>
+      <c r="A78" s="76" t="s">
+        <v>6</v>
+      </c>
+      <c r="B78" s="167" t="s">
+        <v>6</v>
+      </c>
+      <c r="C78" s="166" t="s">
+        <v>6</v>
+      </c>
+      <c r="D78" s="68" t="s">
+        <v>6</v>
+      </c>
+      <c r="E78" s="166" t="s">
+        <v>6</v>
+      </c>
+      <c r="F78" s="168" t="s">
+        <v>6</v>
+      </c>
+      <c r="G78" s="68"/>
+      <c r="H78" s="124" t="s">
+        <v>6</v>
+      </c>
+      <c r="I78" s="68"/>
       <c r="J78" s="4"/>
       <c r="K78" s="4"/>
       <c r="L78" s="4"/>
-      <c r="M78" s="4"/>
-      <c r="N78" s="4"/>
-      <c r="O78" s="4"/>
-      <c r="P78" s="4"/>
-      <c r="Q78" s="4"/>
+      <c r="M78" s="170" t="s">
+        <v>6</v>
+      </c>
+      <c r="N78" s="170" t="s">
+        <v>6</v>
+      </c>
+      <c r="O78" s="170" t="s">
+        <v>6</v>
+      </c>
+      <c r="P78" s="170" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q78" s="170" t="s">
+        <v>6</v>
+      </c>
       <c r="R78" s="4"/>
       <c r="S78" s="4"/>
       <c r="T78" s="4"/>
@@ -5016,23 +5394,47 @@
       <c r="Z78" s="4"/>
     </row>
     <row r="79" ht="15.75" customHeight="1">
-      <c r="A79" s="4"/>
-      <c r="B79" s="4"/>
-      <c r="C79" s="4"/>
-      <c r="D79" s="4"/>
-      <c r="E79" s="4"/>
-      <c r="F79" s="4"/>
-      <c r="G79" s="4"/>
-      <c r="H79" s="4"/>
-      <c r="I79" s="4"/>
+      <c r="A79" s="76" t="s">
+        <v>6</v>
+      </c>
+      <c r="B79" s="167" t="s">
+        <v>6</v>
+      </c>
+      <c r="C79" s="166" t="s">
+        <v>6</v>
+      </c>
+      <c r="D79" s="68" t="s">
+        <v>6</v>
+      </c>
+      <c r="E79" s="167" t="s">
+        <v>6</v>
+      </c>
+      <c r="F79" s="168" t="s">
+        <v>6</v>
+      </c>
+      <c r="G79" s="68"/>
+      <c r="H79" s="124" t="s">
+        <v>6</v>
+      </c>
+      <c r="I79" s="68"/>
       <c r="J79" s="4"/>
       <c r="K79" s="4"/>
       <c r="L79" s="4"/>
-      <c r="M79" s="4"/>
-      <c r="N79" s="4"/>
-      <c r="O79" s="4"/>
-      <c r="P79" s="4"/>
-      <c r="Q79" s="4"/>
+      <c r="M79" s="170" t="s">
+        <v>6</v>
+      </c>
+      <c r="N79" s="170" t="s">
+        <v>6</v>
+      </c>
+      <c r="O79" s="170" t="s">
+        <v>6</v>
+      </c>
+      <c r="P79" s="170" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q79" s="170" t="s">
+        <v>6</v>
+      </c>
       <c r="R79" s="4"/>
       <c r="S79" s="4"/>
       <c r="T79" s="4"/>
@@ -5044,23 +5446,47 @@
       <c r="Z79" s="4"/>
     </row>
     <row r="80" ht="15.75" customHeight="1">
-      <c r="A80" s="4"/>
-      <c r="B80" s="4"/>
-      <c r="C80" s="4"/>
-      <c r="D80" s="4"/>
-      <c r="E80" s="4"/>
-      <c r="F80" s="4"/>
-      <c r="G80" s="4"/>
-      <c r="H80" s="4"/>
-      <c r="I80" s="4"/>
+      <c r="A80" s="76" t="s">
+        <v>6</v>
+      </c>
+      <c r="B80" s="136" t="s">
+        <v>6</v>
+      </c>
+      <c r="C80" s="156" t="s">
+        <v>6</v>
+      </c>
+      <c r="D80" s="130" t="s">
+        <v>6</v>
+      </c>
+      <c r="E80" s="136" t="s">
+        <v>6</v>
+      </c>
+      <c r="F80" s="171" t="s">
+        <v>6</v>
+      </c>
+      <c r="G80" s="68"/>
+      <c r="H80" s="131" t="s">
+        <v>6</v>
+      </c>
+      <c r="I80" s="68"/>
       <c r="J80" s="4"/>
       <c r="K80" s="4"/>
       <c r="L80" s="4"/>
-      <c r="M80" s="4"/>
-      <c r="N80" s="4"/>
-      <c r="O80" s="4"/>
-      <c r="P80" s="4"/>
-      <c r="Q80" s="4"/>
+      <c r="M80" s="172" t="s">
+        <v>6</v>
+      </c>
+      <c r="N80" s="172" t="s">
+        <v>6</v>
+      </c>
+      <c r="O80" s="172" t="s">
+        <v>6</v>
+      </c>
+      <c r="P80" s="172" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q80" s="172" t="s">
+        <v>6</v>
+      </c>
       <c r="R80" s="4"/>
       <c r="S80" s="4"/>
       <c r="T80" s="4"/>
@@ -5072,51 +5498,101 @@
       <c r="Z80" s="4"/>
     </row>
     <row r="81" ht="15.75" customHeight="1">
-      <c r="A81" s="4"/>
-      <c r="B81" s="4"/>
-      <c r="C81" s="4"/>
-      <c r="D81" s="4"/>
-      <c r="E81" s="4"/>
-      <c r="F81" s="4"/>
-      <c r="G81" s="4"/>
-      <c r="H81" s="4"/>
-      <c r="I81" s="4"/>
-      <c r="J81" s="4"/>
-      <c r="K81" s="4"/>
-      <c r="L81" s="4"/>
-      <c r="M81" s="4"/>
-      <c r="N81" s="4"/>
-      <c r="O81" s="4"/>
-      <c r="P81" s="4"/>
-      <c r="Q81" s="4"/>
-      <c r="R81" s="4"/>
-      <c r="S81" s="4"/>
-      <c r="T81" s="4"/>
-      <c r="U81" s="4"/>
-      <c r="V81" s="4"/>
-      <c r="W81" s="4"/>
-      <c r="X81" s="4"/>
-      <c r="Y81" s="4"/>
-      <c r="Z81" s="4"/>
+      <c r="A81" s="76" t="s">
+        <v>6</v>
+      </c>
+      <c r="B81" s="26"/>
+      <c r="C81" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="D81" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="E81" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="F81" s="77" t="s">
+        <v>6</v>
+      </c>
+      <c r="G81" s="165">
+        <v>0.0</v>
+      </c>
+      <c r="H81" s="79" t="s">
+        <v>6</v>
+      </c>
+      <c r="I81" s="119">
+        <v>0.0</v>
+      </c>
+      <c r="J81" s="34"/>
+      <c r="K81" s="34"/>
+      <c r="L81" s="34"/>
+      <c r="M81" s="103" t="s">
+        <v>6</v>
+      </c>
+      <c r="N81" s="103" t="s">
+        <v>6</v>
+      </c>
+      <c r="O81" s="103" t="s">
+        <v>6</v>
+      </c>
+      <c r="P81" s="103" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q81" s="103">
+        <v>0.0</v>
+      </c>
+      <c r="R81" s="34"/>
+      <c r="S81" s="34"/>
+      <c r="T81" s="34"/>
+      <c r="U81" s="34"/>
+      <c r="V81" s="34"/>
+      <c r="W81" s="34"/>
+      <c r="X81" s="34"/>
+      <c r="Y81" s="34"/>
+      <c r="Z81" s="34"/>
     </row>
     <row r="82" ht="15.75" customHeight="1">
-      <c r="A82" s="4"/>
-      <c r="B82" s="4"/>
-      <c r="C82" s="4"/>
-      <c r="D82" s="4"/>
-      <c r="E82" s="4"/>
-      <c r="F82" s="4"/>
-      <c r="G82" s="4"/>
-      <c r="H82" s="4"/>
-      <c r="I82" s="4"/>
+      <c r="A82" s="76" t="s">
+        <v>6</v>
+      </c>
+      <c r="B82" s="167" t="s">
+        <v>6</v>
+      </c>
+      <c r="C82" s="166" t="s">
+        <v>6</v>
+      </c>
+      <c r="D82" s="68" t="s">
+        <v>6</v>
+      </c>
+      <c r="E82" s="167" t="s">
+        <v>6</v>
+      </c>
+      <c r="F82" s="168" t="s">
+        <v>6</v>
+      </c>
+      <c r="G82" s="68"/>
+      <c r="H82" s="124" t="s">
+        <v>6</v>
+      </c>
+      <c r="I82" s="68"/>
       <c r="J82" s="4"/>
       <c r="K82" s="4"/>
       <c r="L82" s="4"/>
-      <c r="M82" s="4"/>
-      <c r="N82" s="4"/>
-      <c r="O82" s="4"/>
-      <c r="P82" s="4"/>
-      <c r="Q82" s="4"/>
+      <c r="M82" s="170" t="s">
+        <v>6</v>
+      </c>
+      <c r="N82" s="170" t="s">
+        <v>6</v>
+      </c>
+      <c r="O82" s="170" t="s">
+        <v>6</v>
+      </c>
+      <c r="P82" s="170" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q82" s="170" t="s">
+        <v>6</v>
+      </c>
       <c r="R82" s="4"/>
       <c r="S82" s="4"/>
       <c r="T82" s="4"/>
@@ -5128,23 +5604,47 @@
       <c r="Z82" s="4"/>
     </row>
     <row r="83" ht="15.75" customHeight="1">
-      <c r="A83" s="4"/>
-      <c r="B83" s="4"/>
-      <c r="C83" s="4"/>
-      <c r="D83" s="4"/>
-      <c r="E83" s="4"/>
-      <c r="F83" s="4"/>
-      <c r="G83" s="4"/>
-      <c r="H83" s="4"/>
-      <c r="I83" s="4"/>
+      <c r="A83" s="76" t="s">
+        <v>6</v>
+      </c>
+      <c r="B83" s="167" t="s">
+        <v>6</v>
+      </c>
+      <c r="C83" s="166" t="s">
+        <v>6</v>
+      </c>
+      <c r="D83" s="68" t="s">
+        <v>6</v>
+      </c>
+      <c r="E83" s="167" t="s">
+        <v>6</v>
+      </c>
+      <c r="F83" s="168" t="s">
+        <v>6</v>
+      </c>
+      <c r="G83" s="68"/>
+      <c r="H83" s="124" t="s">
+        <v>6</v>
+      </c>
+      <c r="I83" s="68"/>
       <c r="J83" s="4"/>
       <c r="K83" s="4"/>
       <c r="L83" s="4"/>
-      <c r="M83" s="4"/>
-      <c r="N83" s="4"/>
-      <c r="O83" s="4"/>
-      <c r="P83" s="4"/>
-      <c r="Q83" s="4"/>
+      <c r="M83" s="170" t="s">
+        <v>6</v>
+      </c>
+      <c r="N83" s="170" t="s">
+        <v>6</v>
+      </c>
+      <c r="O83" s="170" t="s">
+        <v>6</v>
+      </c>
+      <c r="P83" s="170" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q83" s="170" t="s">
+        <v>6</v>
+      </c>
       <c r="R83" s="4"/>
       <c r="S83" s="4"/>
       <c r="T83" s="4"/>
@@ -5156,23 +5656,47 @@
       <c r="Z83" s="4"/>
     </row>
     <row r="84" ht="15.75" customHeight="1">
-      <c r="A84" s="4"/>
-      <c r="B84" s="4"/>
-      <c r="C84" s="4"/>
-      <c r="D84" s="4"/>
-      <c r="E84" s="4"/>
-      <c r="F84" s="4"/>
-      <c r="G84" s="4"/>
-      <c r="H84" s="4"/>
-      <c r="I84" s="4"/>
+      <c r="A84" s="76" t="s">
+        <v>6</v>
+      </c>
+      <c r="B84" s="167" t="s">
+        <v>6</v>
+      </c>
+      <c r="C84" s="166" t="s">
+        <v>6</v>
+      </c>
+      <c r="D84" s="68" t="s">
+        <v>6</v>
+      </c>
+      <c r="E84" s="167" t="s">
+        <v>6</v>
+      </c>
+      <c r="F84" s="168" t="s">
+        <v>6</v>
+      </c>
+      <c r="G84" s="68"/>
+      <c r="H84" s="124" t="s">
+        <v>6</v>
+      </c>
+      <c r="I84" s="68"/>
       <c r="J84" s="4"/>
       <c r="K84" s="4"/>
       <c r="L84" s="4"/>
-      <c r="M84" s="4"/>
-      <c r="N84" s="4"/>
-      <c r="O84" s="4"/>
-      <c r="P84" s="4"/>
-      <c r="Q84" s="4"/>
+      <c r="M84" s="170" t="s">
+        <v>6</v>
+      </c>
+      <c r="N84" s="170" t="s">
+        <v>6</v>
+      </c>
+      <c r="O84" s="170" t="s">
+        <v>6</v>
+      </c>
+      <c r="P84" s="170" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q84" s="170" t="s">
+        <v>6</v>
+      </c>
       <c r="R84" s="4"/>
       <c r="S84" s="4"/>
       <c r="T84" s="4"/>
@@ -5184,23 +5708,47 @@
       <c r="Z84" s="4"/>
     </row>
     <row r="85" ht="15.75" customHeight="1">
-      <c r="A85" s="4"/>
-      <c r="B85" s="4"/>
-      <c r="C85" s="4"/>
-      <c r="D85" s="4"/>
-      <c r="E85" s="4"/>
-      <c r="F85" s="4"/>
-      <c r="G85" s="4"/>
-      <c r="H85" s="4"/>
-      <c r="I85" s="4"/>
+      <c r="A85" s="76" t="s">
+        <v>6</v>
+      </c>
+      <c r="B85" s="167" t="s">
+        <v>6</v>
+      </c>
+      <c r="C85" s="166" t="s">
+        <v>6</v>
+      </c>
+      <c r="D85" s="68" t="s">
+        <v>6</v>
+      </c>
+      <c r="E85" s="167" t="s">
+        <v>6</v>
+      </c>
+      <c r="F85" s="168" t="s">
+        <v>6</v>
+      </c>
+      <c r="G85" s="68"/>
+      <c r="H85" s="124" t="s">
+        <v>6</v>
+      </c>
+      <c r="I85" s="68"/>
       <c r="J85" s="4"/>
       <c r="K85" s="4"/>
       <c r="L85" s="4"/>
-      <c r="M85" s="4"/>
-      <c r="N85" s="4"/>
-      <c r="O85" s="4"/>
-      <c r="P85" s="4"/>
-      <c r="Q85" s="4"/>
+      <c r="M85" s="170" t="s">
+        <v>6</v>
+      </c>
+      <c r="N85" s="170" t="s">
+        <v>6</v>
+      </c>
+      <c r="O85" s="170" t="s">
+        <v>6</v>
+      </c>
+      <c r="P85" s="170" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q85" s="170" t="s">
+        <v>6</v>
+      </c>
       <c r="R85" s="4"/>
       <c r="S85" s="4"/>
       <c r="T85" s="4"/>
@@ -5212,23 +5760,47 @@
       <c r="Z85" s="4"/>
     </row>
     <row r="86" ht="15.75" customHeight="1">
-      <c r="A86" s="4"/>
-      <c r="B86" s="4"/>
-      <c r="C86" s="4"/>
-      <c r="D86" s="4"/>
-      <c r="E86" s="4"/>
-      <c r="F86" s="4"/>
-      <c r="G86" s="4"/>
-      <c r="H86" s="4"/>
-      <c r="I86" s="4"/>
+      <c r="A86" s="76" t="s">
+        <v>6</v>
+      </c>
+      <c r="B86" s="136" t="s">
+        <v>6</v>
+      </c>
+      <c r="C86" s="156" t="s">
+        <v>6</v>
+      </c>
+      <c r="D86" s="130" t="s">
+        <v>6</v>
+      </c>
+      <c r="E86" s="136" t="s">
+        <v>6</v>
+      </c>
+      <c r="F86" s="171" t="s">
+        <v>6</v>
+      </c>
+      <c r="G86" s="68"/>
+      <c r="H86" s="131" t="s">
+        <v>6</v>
+      </c>
+      <c r="I86" s="68"/>
       <c r="J86" s="4"/>
       <c r="K86" s="4"/>
       <c r="L86" s="4"/>
-      <c r="M86" s="4"/>
-      <c r="N86" s="4"/>
-      <c r="O86" s="4"/>
-      <c r="P86" s="4"/>
-      <c r="Q86" s="4"/>
+      <c r="M86" s="172" t="s">
+        <v>6</v>
+      </c>
+      <c r="N86" s="172" t="s">
+        <v>6</v>
+      </c>
+      <c r="O86" s="172" t="s">
+        <v>6</v>
+      </c>
+      <c r="P86" s="172" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q86" s="172" t="s">
+        <v>6</v>
+      </c>
       <c r="R86" s="4"/>
       <c r="S86" s="4"/>
       <c r="T86" s="4"/>
@@ -5240,51 +5812,87 @@
       <c r="Z86" s="4"/>
     </row>
     <row r="87" ht="15.75" customHeight="1">
-      <c r="A87" s="4"/>
-      <c r="B87" s="4"/>
-      <c r="C87" s="4"/>
-      <c r="D87" s="4"/>
-      <c r="E87" s="4"/>
-      <c r="F87" s="4"/>
-      <c r="G87" s="4"/>
-      <c r="H87" s="4"/>
-      <c r="I87" s="4"/>
-      <c r="J87" s="4"/>
-      <c r="K87" s="4"/>
-      <c r="L87" s="4"/>
-      <c r="M87" s="4"/>
-      <c r="N87" s="4"/>
-      <c r="O87" s="4"/>
-      <c r="P87" s="4"/>
-      <c r="Q87" s="4"/>
-      <c r="R87" s="4"/>
-      <c r="S87" s="4"/>
-      <c r="T87" s="4"/>
-      <c r="U87" s="4"/>
-      <c r="V87" s="4"/>
-      <c r="W87" s="4"/>
-      <c r="X87" s="4"/>
-      <c r="Y87" s="4"/>
-      <c r="Z87" s="4"/>
+      <c r="A87" s="76" t="s">
+        <v>6</v>
+      </c>
+      <c r="B87" s="138"/>
+      <c r="C87" s="138" t="s">
+        <v>6</v>
+      </c>
+      <c r="D87" s="139" t="s">
+        <v>6</v>
+      </c>
+      <c r="E87" s="138" t="s">
+        <v>6</v>
+      </c>
+      <c r="F87" s="140" t="s">
+        <v>6</v>
+      </c>
+      <c r="G87" s="173">
+        <v>0.0</v>
+      </c>
+      <c r="H87" s="141" t="s">
+        <v>6</v>
+      </c>
+      <c r="I87" s="142">
+        <v>0.0</v>
+      </c>
+      <c r="J87" s="34"/>
+      <c r="K87" s="34"/>
+      <c r="L87" s="34"/>
+      <c r="M87" s="143" t="s">
+        <v>6</v>
+      </c>
+      <c r="N87" s="143" t="s">
+        <v>6</v>
+      </c>
+      <c r="O87" s="143" t="s">
+        <v>6</v>
+      </c>
+      <c r="P87" s="143" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q87" s="143">
+        <v>0.0</v>
+      </c>
+      <c r="R87" s="34"/>
+      <c r="S87" s="34"/>
+      <c r="T87" s="34"/>
+      <c r="U87" s="34"/>
+      <c r="V87" s="34"/>
+      <c r="W87" s="34"/>
+      <c r="X87" s="34"/>
+      <c r="Y87" s="34"/>
+      <c r="Z87" s="34"/>
     </row>
     <row r="88" ht="15.75" customHeight="1">
-      <c r="A88" s="4"/>
-      <c r="B88" s="4"/>
-      <c r="C88" s="4"/>
-      <c r="D88" s="4"/>
-      <c r="E88" s="4"/>
-      <c r="F88" s="4"/>
-      <c r="G88" s="4"/>
-      <c r="H88" s="4"/>
-      <c r="I88" s="4"/>
+      <c r="A88" s="174" t="s">
+        <v>6</v>
+      </c>
+      <c r="B88" s="152" t="s">
+        <v>6</v>
+      </c>
+      <c r="C88" s="82" t="s">
+        <v>77</v>
+      </c>
+      <c r="D88" s="68" t="s">
+        <v>35</v>
+      </c>
+      <c r="E88" s="73"/>
+      <c r="F88" s="153"/>
+      <c r="G88" s="68"/>
+      <c r="H88" s="154" t="s">
+        <v>6</v>
+      </c>
+      <c r="I88" s="68"/>
       <c r="J88" s="4"/>
       <c r="K88" s="4"/>
       <c r="L88" s="4"/>
-      <c r="M88" s="4"/>
-      <c r="N88" s="4"/>
-      <c r="O88" s="4"/>
-      <c r="P88" s="4"/>
-      <c r="Q88" s="4"/>
+      <c r="M88" s="169"/>
+      <c r="N88" s="169"/>
+      <c r="O88" s="169"/>
+      <c r="P88" s="169"/>
+      <c r="Q88" s="169"/>
       <c r="R88" s="4"/>
       <c r="S88" s="4"/>
       <c r="T88" s="4"/>
@@ -5296,23 +5904,33 @@
       <c r="Z88" s="4"/>
     </row>
     <row r="89" ht="15.75" customHeight="1">
-      <c r="A89" s="4"/>
-      <c r="B89" s="4"/>
-      <c r="C89" s="4"/>
-      <c r="D89" s="4"/>
-      <c r="E89" s="4"/>
-      <c r="F89" s="4"/>
-      <c r="G89" s="4"/>
-      <c r="H89" s="4"/>
-      <c r="I89" s="4"/>
+      <c r="A89" s="175" t="s">
+        <v>6</v>
+      </c>
+      <c r="B89" s="136" t="s">
+        <v>6</v>
+      </c>
+      <c r="C89" s="82" t="s">
+        <v>58</v>
+      </c>
+      <c r="D89" s="82" t="s">
+        <v>35</v>
+      </c>
+      <c r="E89" s="83"/>
+      <c r="F89" s="157"/>
+      <c r="G89" s="68"/>
+      <c r="H89" s="131" t="s">
+        <v>6</v>
+      </c>
+      <c r="I89" s="68"/>
       <c r="J89" s="4"/>
       <c r="K89" s="4"/>
       <c r="L89" s="4"/>
-      <c r="M89" s="4"/>
-      <c r="N89" s="4"/>
-      <c r="O89" s="4"/>
-      <c r="P89" s="4"/>
-      <c r="Q89" s="4"/>
+      <c r="M89" s="169"/>
+      <c r="N89" s="169"/>
+      <c r="O89" s="169"/>
+      <c r="P89" s="169"/>
+      <c r="Q89" s="169"/>
       <c r="R89" s="4"/>
       <c r="S89" s="4"/>
       <c r="T89" s="4"/>
@@ -5324,35 +5942,68 @@
       <c r="Z89" s="4"/>
     </row>
     <row r="90" ht="15.75" customHeight="1">
-      <c r="A90" s="4"/>
-      <c r="B90" s="4"/>
-      <c r="C90" s="4"/>
-      <c r="D90" s="4"/>
-      <c r="E90" s="4"/>
-      <c r="F90" s="4"/>
-      <c r="G90" s="4"/>
-      <c r="H90" s="4"/>
-      <c r="I90" s="4"/>
-      <c r="J90" s="4"/>
-      <c r="K90" s="4"/>
-      <c r="L90" s="4"/>
-      <c r="M90" s="4"/>
-      <c r="N90" s="4"/>
-      <c r="O90" s="4"/>
-      <c r="P90" s="4"/>
-      <c r="Q90" s="4"/>
-      <c r="R90" s="4"/>
-      <c r="S90" s="4"/>
-      <c r="T90" s="4"/>
-      <c r="U90" s="4"/>
-      <c r="V90" s="4"/>
-      <c r="W90" s="4"/>
-      <c r="X90" s="4"/>
-      <c r="Y90" s="4"/>
-      <c r="Z90" s="4"/>
+      <c r="A90" s="176" t="s">
+        <v>5</v>
+      </c>
+      <c r="B90" s="177" t="s">
+        <v>6</v>
+      </c>
+      <c r="C90" s="178" t="s">
+        <v>6</v>
+      </c>
+      <c r="D90" s="178" t="s">
+        <v>6</v>
+      </c>
+      <c r="E90" s="179" t="s">
+        <v>6</v>
+      </c>
+      <c r="F90" s="178">
+        <v>0.0</v>
+      </c>
+      <c r="G90" s="179">
+        <v>0.0</v>
+      </c>
+      <c r="H90" s="180">
+        <v>0.0</v>
+      </c>
+      <c r="I90" s="181">
+        <v>0.0</v>
+      </c>
+      <c r="J90" s="34"/>
+      <c r="K90" s="34"/>
+      <c r="L90" s="34"/>
+      <c r="M90" s="182">
+        <f>SUM(M87,M81,M76,M72,M66,M60,M55,M49,M44,M36,M30,M27,M22,M13,M8,M6)</f>
+        <v>25.75</v>
+      </c>
+      <c r="N90" s="182">
+        <f t="shared" ref="N90:O90" si="5">SUM(N87,N81,N76,N72,N66,N60,N55,N49,N44,N39,N36,N30,N27,N22,N13,N8,N6)</f>
+        <v>20.75</v>
+      </c>
+      <c r="O90" s="182">
+        <f t="shared" si="5"/>
+        <v>28.25</v>
+      </c>
+      <c r="P90" s="182">
+        <f>SUM(P87,P81,P76,P72,P66,P60,P55,P49,P44,P39,P36,P30,P22,P13,P8,P6)</f>
+        <v>30.75</v>
+      </c>
+      <c r="Q90" s="182">
+        <f>SUM(Q81,Q87,Q76,Q72,Q66,Q60,Q55,Q49,Q44,Q39,Q36,Q30,Q27,Q22,Q13,Q8,Q6)</f>
+        <v>101.5</v>
+      </c>
+      <c r="R90" s="34"/>
+      <c r="S90" s="34"/>
+      <c r="T90" s="34"/>
+      <c r="U90" s="34"/>
+      <c r="V90" s="34"/>
+      <c r="W90" s="34"/>
+      <c r="X90" s="34"/>
+      <c r="Y90" s="34"/>
+      <c r="Z90" s="34"/>
     </row>
     <row r="91" ht="15.75" customHeight="1">
-      <c r="A91" s="4"/>
+      <c r="A91" s="183"/>
       <c r="B91" s="4"/>
       <c r="C91" s="4"/>
       <c r="D91" s="4"/>
@@ -5364,11 +6015,11 @@
       <c r="J91" s="4"/>
       <c r="K91" s="4"/>
       <c r="L91" s="4"/>
-      <c r="M91" s="4"/>
-      <c r="N91" s="4"/>
-      <c r="O91" s="4"/>
-      <c r="P91" s="4"/>
-      <c r="Q91" s="4"/>
+      <c r="M91" s="184"/>
+      <c r="N91" s="184"/>
+      <c r="O91" s="184"/>
+      <c r="P91" s="184"/>
+      <c r="Q91" s="184"/>
       <c r="R91" s="4"/>
       <c r="S91" s="4"/>
       <c r="T91" s="4"/>
@@ -5380,7 +6031,7 @@
       <c r="Z91" s="4"/>
     </row>
     <row r="92" ht="15.75" customHeight="1">
-      <c r="A92" s="4"/>
+      <c r="A92" s="185"/>
       <c r="B92" s="4"/>
       <c r="C92" s="4"/>
       <c r="D92" s="4"/>
@@ -5408,7 +6059,7 @@
       <c r="Z92" s="4"/>
     </row>
     <row r="93" ht="15.75" customHeight="1">
-      <c r="A93" s="4"/>
+      <c r="A93" s="185"/>
       <c r="B93" s="4"/>
       <c r="C93" s="4"/>
       <c r="D93" s="4"/>
@@ -5436,7 +6087,7 @@
       <c r="Z93" s="4"/>
     </row>
     <row r="94" ht="15.75" customHeight="1">
-      <c r="A94" s="4"/>
+      <c r="A94" s="185"/>
       <c r="B94" s="4"/>
       <c r="C94" s="4"/>
       <c r="D94" s="4"/>
@@ -5448,11 +6099,6 @@
       <c r="J94" s="4"/>
       <c r="K94" s="4"/>
       <c r="L94" s="4"/>
-      <c r="M94" s="4"/>
-      <c r="N94" s="4"/>
-      <c r="O94" s="4"/>
-      <c r="P94" s="4"/>
-      <c r="Q94" s="4"/>
       <c r="R94" s="4"/>
       <c r="S94" s="4"/>
       <c r="T94" s="4"/>
@@ -5464,7 +6110,7 @@
       <c r="Z94" s="4"/>
     </row>
     <row r="95" ht="15.75" customHeight="1">
-      <c r="A95" s="4"/>
+      <c r="A95" s="185"/>
       <c r="B95" s="4"/>
       <c r="C95" s="4"/>
       <c r="D95" s="4"/>
@@ -5492,7 +6138,7 @@
       <c r="Z95" s="4"/>
     </row>
     <row r="96" ht="15.75" customHeight="1">
-      <c r="A96" s="4"/>
+      <c r="A96" s="185"/>
       <c r="B96" s="4"/>
       <c r="C96" s="4"/>
       <c r="D96" s="4"/>
@@ -5520,7 +6166,7 @@
       <c r="Z96" s="4"/>
     </row>
     <row r="97" ht="15.75" customHeight="1">
-      <c r="A97" s="4"/>
+      <c r="A97" s="185"/>
       <c r="B97" s="4"/>
       <c r="C97" s="4"/>
       <c r="D97" s="4"/>
@@ -5548,7 +6194,7 @@
       <c r="Z97" s="4"/>
     </row>
     <row r="98" ht="15.75" customHeight="1">
-      <c r="A98" s="4"/>
+      <c r="A98" s="185"/>
       <c r="B98" s="4"/>
       <c r="C98" s="4"/>
       <c r="D98" s="4"/>
@@ -5576,7 +6222,7 @@
       <c r="Z98" s="4"/>
     </row>
     <row r="99" ht="15.75" customHeight="1">
-      <c r="A99" s="4"/>
+      <c r="A99" s="185"/>
       <c r="B99" s="4"/>
       <c r="C99" s="4"/>
       <c r="D99" s="4"/>
@@ -5604,7 +6250,7 @@
       <c r="Z99" s="4"/>
     </row>
     <row r="100" ht="15.75" customHeight="1">
-      <c r="A100" s="4"/>
+      <c r="A100" s="185"/>
       <c r="B100" s="4"/>
       <c r="C100" s="4"/>
       <c r="D100" s="4"/>
@@ -5632,7 +6278,7 @@
       <c r="Z100" s="4"/>
     </row>
     <row r="101" ht="15.75" customHeight="1">
-      <c r="A101" s="4"/>
+      <c r="A101" s="185"/>
       <c r="B101" s="4"/>
       <c r="C101" s="4"/>
       <c r="D101" s="4"/>
@@ -5660,7 +6306,7 @@
       <c r="Z101" s="4"/>
     </row>
     <row r="102" ht="15.75" customHeight="1">
-      <c r="A102" s="4"/>
+      <c r="A102" s="185"/>
       <c r="B102" s="4"/>
       <c r="C102" s="4"/>
       <c r="D102" s="4"/>
@@ -5688,7 +6334,7 @@
       <c r="Z102" s="4"/>
     </row>
     <row r="103" ht="15.75" customHeight="1">
-      <c r="A103" s="4"/>
+      <c r="A103" s="185"/>
       <c r="B103" s="4"/>
       <c r="C103" s="4"/>
       <c r="D103" s="4"/>
@@ -5716,7 +6362,7 @@
       <c r="Z103" s="4"/>
     </row>
     <row r="104" ht="15.75" customHeight="1">
-      <c r="A104" s="4"/>
+      <c r="A104" s="185"/>
       <c r="B104" s="4"/>
       <c r="C104" s="4"/>
       <c r="D104" s="4"/>
@@ -5744,7 +6390,7 @@
       <c r="Z104" s="4"/>
     </row>
     <row r="105" ht="15.75" customHeight="1">
-      <c r="A105" s="4"/>
+      <c r="A105" s="185"/>
       <c r="B105" s="4"/>
       <c r="C105" s="4"/>
       <c r="D105" s="4"/>
@@ -5772,7 +6418,7 @@
       <c r="Z105" s="4"/>
     </row>
     <row r="106" ht="15.75" customHeight="1">
-      <c r="A106" s="4"/>
+      <c r="A106" s="185"/>
       <c r="B106" s="4"/>
       <c r="C106" s="4"/>
       <c r="D106" s="4"/>
@@ -5800,7 +6446,7 @@
       <c r="Z106" s="4"/>
     </row>
     <row r="107" ht="15.75" customHeight="1">
-      <c r="A107" s="4"/>
+      <c r="A107" s="185"/>
       <c r="B107" s="4"/>
       <c r="C107" s="4"/>
       <c r="D107" s="4"/>
@@ -5828,7 +6474,7 @@
       <c r="Z107" s="4"/>
     </row>
     <row r="108" ht="15.75" customHeight="1">
-      <c r="A108" s="4"/>
+      <c r="A108" s="185"/>
       <c r="B108" s="4"/>
       <c r="C108" s="4"/>
       <c r="D108" s="4"/>
@@ -5856,7 +6502,7 @@
       <c r="Z108" s="4"/>
     </row>
     <row r="109" ht="15.75" customHeight="1">
-      <c r="A109" s="4"/>
+      <c r="A109" s="185"/>
       <c r="B109" s="4"/>
       <c r="C109" s="4"/>
       <c r="D109" s="4"/>
@@ -5884,7 +6530,7 @@
       <c r="Z109" s="4"/>
     </row>
     <row r="110" ht="15.75" customHeight="1">
-      <c r="A110" s="4"/>
+      <c r="A110" s="185"/>
       <c r="B110" s="4"/>
       <c r="C110" s="4"/>
       <c r="D110" s="4"/>
@@ -5912,7 +6558,7 @@
       <c r="Z110" s="4"/>
     </row>
     <row r="111" ht="15.75" customHeight="1">
-      <c r="A111" s="4"/>
+      <c r="A111" s="185"/>
       <c r="B111" s="4"/>
       <c r="C111" s="4"/>
       <c r="D111" s="4"/>
@@ -5940,7 +6586,7 @@
       <c r="Z111" s="4"/>
     </row>
     <row r="112" ht="15.75" customHeight="1">
-      <c r="A112" s="4"/>
+      <c r="A112" s="185"/>
       <c r="B112" s="4"/>
       <c r="C112" s="4"/>
       <c r="D112" s="4"/>
@@ -5968,7 +6614,7 @@
       <c r="Z112" s="4"/>
     </row>
     <row r="113" ht="15.75" customHeight="1">
-      <c r="A113" s="4"/>
+      <c r="A113" s="185"/>
       <c r="B113" s="4"/>
       <c r="C113" s="4"/>
       <c r="D113" s="4"/>
@@ -5996,7 +6642,7 @@
       <c r="Z113" s="4"/>
     </row>
     <row r="114" ht="15.75" customHeight="1">
-      <c r="A114" s="4"/>
+      <c r="A114" s="185"/>
       <c r="B114" s="4"/>
       <c r="C114" s="4"/>
       <c r="D114" s="4"/>
@@ -6024,7 +6670,7 @@
       <c r="Z114" s="4"/>
     </row>
     <row r="115" ht="15.75" customHeight="1">
-      <c r="A115" s="4"/>
+      <c r="A115" s="185"/>
       <c r="B115" s="4"/>
       <c r="C115" s="4"/>
       <c r="D115" s="4"/>
@@ -6052,7 +6698,7 @@
       <c r="Z115" s="4"/>
     </row>
     <row r="116" ht="15.75" customHeight="1">
-      <c r="A116" s="4"/>
+      <c r="A116" s="185"/>
       <c r="B116" s="4"/>
       <c r="C116" s="4"/>
       <c r="D116" s="4"/>
@@ -6080,7 +6726,7 @@
       <c r="Z116" s="4"/>
     </row>
     <row r="117" ht="15.75" customHeight="1">
-      <c r="A117" s="4"/>
+      <c r="A117" s="185"/>
       <c r="B117" s="4"/>
       <c r="C117" s="4"/>
       <c r="D117" s="4"/>
@@ -6108,7 +6754,7 @@
       <c r="Z117" s="4"/>
     </row>
     <row r="118" ht="15.75" customHeight="1">
-      <c r="A118" s="4"/>
+      <c r="A118" s="185"/>
       <c r="B118" s="4"/>
       <c r="C118" s="4"/>
       <c r="D118" s="4"/>
@@ -6136,7 +6782,7 @@
       <c r="Z118" s="4"/>
     </row>
     <row r="119" ht="15.75" customHeight="1">
-      <c r="A119" s="4"/>
+      <c r="A119" s="185"/>
       <c r="B119" s="4"/>
       <c r="C119" s="4"/>
       <c r="D119" s="4"/>
@@ -6164,7 +6810,7 @@
       <c r="Z119" s="4"/>
     </row>
     <row r="120" ht="15.75" customHeight="1">
-      <c r="A120" s="4"/>
+      <c r="A120" s="185"/>
       <c r="B120" s="4"/>
       <c r="C120" s="4"/>
       <c r="D120" s="4"/>
@@ -6192,7 +6838,7 @@
       <c r="Z120" s="4"/>
     </row>
     <row r="121" ht="15.75" customHeight="1">
-      <c r="A121" s="4"/>
+      <c r="A121" s="185"/>
       <c r="B121" s="4"/>
       <c r="C121" s="4"/>
       <c r="D121" s="4"/>
@@ -6220,7 +6866,7 @@
       <c r="Z121" s="4"/>
     </row>
     <row r="122" ht="15.75" customHeight="1">
-      <c r="A122" s="4"/>
+      <c r="A122" s="185"/>
       <c r="B122" s="4"/>
       <c r="C122" s="4"/>
       <c r="D122" s="4"/>
@@ -6248,7 +6894,7 @@
       <c r="Z122" s="4"/>
     </row>
     <row r="123" ht="15.75" customHeight="1">
-      <c r="A123" s="4"/>
+      <c r="A123" s="185"/>
       <c r="B123" s="4"/>
       <c r="C123" s="4"/>
       <c r="D123" s="4"/>
@@ -6276,7 +6922,7 @@
       <c r="Z123" s="4"/>
     </row>
     <row r="124" ht="15.75" customHeight="1">
-      <c r="A124" s="4"/>
+      <c r="A124" s="186"/>
       <c r="B124" s="4"/>
       <c r="C124" s="4"/>
       <c r="D124" s="4"/>
@@ -6836,15 +7482,33 @@
       <c r="Z143" s="4"/>
     </row>
     <row r="144" ht="15.75" customHeight="1">
-      <c r="A144" s="4"/>
-      <c r="B144" s="4"/>
-      <c r="C144" s="4"/>
-      <c r="D144" s="4"/>
-      <c r="E144" s="4"/>
-      <c r="F144" s="4"/>
-      <c r="G144" s="4"/>
-      <c r="H144" s="4"/>
-      <c r="I144" s="4"/>
+      <c r="A144" s="177" t="s">
+        <v>5</v>
+      </c>
+      <c r="B144" s="177" t="s">
+        <v>6</v>
+      </c>
+      <c r="C144" s="178" t="s">
+        <v>6</v>
+      </c>
+      <c r="D144" s="178" t="s">
+        <v>6</v>
+      </c>
+      <c r="E144" s="179" t="s">
+        <v>6</v>
+      </c>
+      <c r="F144" s="178">
+        <v>0.0</v>
+      </c>
+      <c r="G144" s="179">
+        <v>0.0</v>
+      </c>
+      <c r="H144" s="178">
+        <v>0.0</v>
+      </c>
+      <c r="I144" s="187">
+        <v>0.0</v>
+      </c>
       <c r="J144" s="4"/>
       <c r="K144" s="4"/>
       <c r="L144" s="4"/>
@@ -30663,178 +31327,10 @@
       <c r="Y994" s="4"/>
       <c r="Z994" s="4"/>
     </row>
-    <row r="995" ht="15.75" customHeight="1">
-      <c r="A995" s="4"/>
-      <c r="B995" s="4"/>
-      <c r="C995" s="4"/>
-      <c r="D995" s="4"/>
-      <c r="E995" s="4"/>
-      <c r="F995" s="4"/>
-      <c r="G995" s="4"/>
-      <c r="H995" s="4"/>
-      <c r="I995" s="4"/>
-      <c r="J995" s="4"/>
-      <c r="K995" s="4"/>
-      <c r="L995" s="4"/>
-      <c r="M995" s="4"/>
-      <c r="N995" s="4"/>
-      <c r="O995" s="4"/>
-      <c r="P995" s="4"/>
-      <c r="Q995" s="4"/>
-      <c r="R995" s="4"/>
-      <c r="S995" s="4"/>
-      <c r="T995" s="4"/>
-      <c r="U995" s="4"/>
-      <c r="V995" s="4"/>
-      <c r="W995" s="4"/>
-      <c r="X995" s="4"/>
-      <c r="Y995" s="4"/>
-      <c r="Z995" s="4"/>
-    </row>
-    <row r="996" ht="15.75" customHeight="1">
-      <c r="A996" s="4"/>
-      <c r="B996" s="4"/>
-      <c r="C996" s="4"/>
-      <c r="D996" s="4"/>
-      <c r="E996" s="4"/>
-      <c r="F996" s="4"/>
-      <c r="G996" s="4"/>
-      <c r="H996" s="4"/>
-      <c r="I996" s="4"/>
-      <c r="J996" s="4"/>
-      <c r="K996" s="4"/>
-      <c r="L996" s="4"/>
-      <c r="M996" s="4"/>
-      <c r="N996" s="4"/>
-      <c r="O996" s="4"/>
-      <c r="P996" s="4"/>
-      <c r="Q996" s="4"/>
-      <c r="R996" s="4"/>
-      <c r="S996" s="4"/>
-      <c r="T996" s="4"/>
-      <c r="U996" s="4"/>
-      <c r="V996" s="4"/>
-      <c r="W996" s="4"/>
-      <c r="X996" s="4"/>
-      <c r="Y996" s="4"/>
-      <c r="Z996" s="4"/>
-    </row>
-    <row r="997" ht="15.75" customHeight="1">
-      <c r="A997" s="4"/>
-      <c r="B997" s="4"/>
-      <c r="C997" s="4"/>
-      <c r="D997" s="4"/>
-      <c r="E997" s="4"/>
-      <c r="F997" s="4"/>
-      <c r="G997" s="4"/>
-      <c r="H997" s="4"/>
-      <c r="I997" s="4"/>
-      <c r="J997" s="4"/>
-      <c r="K997" s="4"/>
-      <c r="L997" s="4"/>
-      <c r="M997" s="4"/>
-      <c r="N997" s="4"/>
-      <c r="O997" s="4"/>
-      <c r="P997" s="4"/>
-      <c r="Q997" s="4"/>
-      <c r="R997" s="4"/>
-      <c r="S997" s="4"/>
-      <c r="T997" s="4"/>
-      <c r="U997" s="4"/>
-      <c r="V997" s="4"/>
-      <c r="W997" s="4"/>
-      <c r="X997" s="4"/>
-      <c r="Y997" s="4"/>
-      <c r="Z997" s="4"/>
-    </row>
-    <row r="998" ht="15.75" customHeight="1">
-      <c r="A998" s="4"/>
-      <c r="B998" s="4"/>
-      <c r="C998" s="4"/>
-      <c r="D998" s="4"/>
-      <c r="E998" s="4"/>
-      <c r="F998" s="4"/>
-      <c r="G998" s="4"/>
-      <c r="H998" s="4"/>
-      <c r="I998" s="4"/>
-      <c r="J998" s="4"/>
-      <c r="K998" s="4"/>
-      <c r="L998" s="4"/>
-      <c r="M998" s="4"/>
-      <c r="N998" s="4"/>
-      <c r="O998" s="4"/>
-      <c r="P998" s="4"/>
-      <c r="Q998" s="4"/>
-      <c r="R998" s="4"/>
-      <c r="S998" s="4"/>
-      <c r="T998" s="4"/>
-      <c r="U998" s="4"/>
-      <c r="V998" s="4"/>
-      <c r="W998" s="4"/>
-      <c r="X998" s="4"/>
-      <c r="Y998" s="4"/>
-      <c r="Z998" s="4"/>
-    </row>
-    <row r="999" ht="15.75" customHeight="1">
-      <c r="A999" s="4"/>
-      <c r="B999" s="4"/>
-      <c r="C999" s="4"/>
-      <c r="D999" s="4"/>
-      <c r="E999" s="4"/>
-      <c r="F999" s="4"/>
-      <c r="G999" s="4"/>
-      <c r="H999" s="4"/>
-      <c r="I999" s="4"/>
-      <c r="J999" s="4"/>
-      <c r="K999" s="4"/>
-      <c r="L999" s="4"/>
-      <c r="M999" s="4"/>
-      <c r="N999" s="4"/>
-      <c r="O999" s="4"/>
-      <c r="P999" s="4"/>
-      <c r="Q999" s="4"/>
-      <c r="R999" s="4"/>
-      <c r="S999" s="4"/>
-      <c r="T999" s="4"/>
-      <c r="U999" s="4"/>
-      <c r="V999" s="4"/>
-      <c r="W999" s="4"/>
-      <c r="X999" s="4"/>
-      <c r="Y999" s="4"/>
-      <c r="Z999" s="4"/>
-    </row>
-    <row r="1000" ht="15.75" customHeight="1">
-      <c r="A1000" s="4"/>
-      <c r="B1000" s="4"/>
-      <c r="C1000" s="4"/>
-      <c r="D1000" s="4"/>
-      <c r="E1000" s="4"/>
-      <c r="F1000" s="4"/>
-      <c r="G1000" s="4"/>
-      <c r="H1000" s="4"/>
-      <c r="I1000" s="4"/>
-      <c r="J1000" s="4"/>
-      <c r="K1000" s="4"/>
-      <c r="L1000" s="4"/>
-      <c r="M1000" s="4"/>
-      <c r="N1000" s="4"/>
-      <c r="O1000" s="4"/>
-      <c r="P1000" s="4"/>
-      <c r="Q1000" s="4"/>
-      <c r="R1000" s="4"/>
-      <c r="S1000" s="4"/>
-      <c r="T1000" s="4"/>
-      <c r="U1000" s="4"/>
-      <c r="V1000" s="4"/>
-      <c r="W1000" s="4"/>
-      <c r="X1000" s="4"/>
-      <c r="Y1000" s="4"/>
-      <c r="Z1000" s="4"/>
-    </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{A7CCB814-8C17-47F4-BE35-F242CC60ACFB}" filter="1" showAutoFilter="1">
-      <autoFilter ref="$A$2:$I$66"/>
+    <customSheetView guid="{47EECE23-E9D6-4E0B-8D0E-FD2754B8C001}" filter="1" showAutoFilter="1">
+      <autoFilter ref="$A$2:$I$90"/>
       <extLst>
         <ext uri="GoogleSheetsCustomDataVersion1">
           <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" filterViewId="58594963"/>

--- a/Team_10_Estimated_Efforts.xlsx
+++ b/Team_10_Estimated_Efforts.xlsx
@@ -6,22 +6,22 @@
     <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="Z_47EECE23_E9D6_4E0B_8D0E_FD2754B8C001_.wvu.FilterData">Sheet1!$A$2:$I$90</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_1A6911CB_204D_41E4_93B8_C35F3605E52C_.wvu.FilterData">Sheet1!$A$2:$I$84</definedName>
   </definedNames>
   <calcPr/>
   <customWorkbookViews>
-    <customWorkbookView activeSheetId="0" maximized="1" tabRatio="600" windowHeight="0" windowWidth="0" guid="{47EECE23-E9D6-4E0B-8D0E-FD2754B8C001}" name="Filter 1"/>
+    <customWorkbookView activeSheetId="0" maximized="1" tabRatio="600" windowHeight="0" windowWidth="0" guid="{1A6911CB-204D-41E4-93B8-C35F3605E52C}" name="Filter 1"/>
   </customWorkbookViews>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mh5RJc4uZptFjxXVlmA7lBVkOO3cQ=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mhCBg0BMrNdndEekE2ygHgWLLZ9Hg=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="102">
   <si>
     <t>Task Name: (Dependencies top to bottom)</t>
   </si>
@@ -153,6 +153,17 @@
   </si>
   <si>
     <t>Architect, Developers</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+      </rPr>
+      <t>Kendal</t>
+    </r>
+    <r>
+      <t>, Alec</t>
+    </r>
   </si>
   <si>
     <t>Test Report</t>
@@ -352,26 +363,38 @@
       <rPr>
         <b/>
       </rPr>
-      <t>Joshua,</t>
+      <t>Joshua</t>
     </r>
     <r>
-      <t xml:space="preserve"> David, Alec</t>
+      <t>, Alec</t>
     </r>
   </si>
   <si>
     <t>Create basic user interface based on design</t>
   </si>
   <si>
+    <t>Alec, Joshua</t>
+  </si>
+  <si>
+    <t>Implementation/      Testing</t>
+  </si>
+  <si>
+    <t>Iteration 4:</t>
+  </si>
+  <si>
+    <t>Joshua, Kendal, Alec</t>
+  </si>
+  <si>
     <t>Add unit testing framework</t>
   </si>
   <si>
-    <t>Alec, Kendal</t>
+    <t>Kendal, Alec</t>
   </si>
   <si>
     <t>Implement database connection</t>
   </si>
   <si>
-    <t>Kendal, Alec</t>
+    <t>Joshua, Kendal</t>
   </si>
   <si>
     <t>Implement database schemas</t>
@@ -386,12 +409,6 @@
     <t>Bug fix from testing results</t>
   </si>
   <si>
-    <t>Implementation/      Testing</t>
-  </si>
-  <si>
-    <t>Iteration 4:</t>
-  </si>
-  <si>
     <t>Testing</t>
   </si>
   <si>
@@ -402,7 +419,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="23">
+  <fonts count="18">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -442,11 +459,7 @@
     <font>
       <b/>
       <sz val="10.0"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12.0"/>
+      <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -456,10 +469,7 @@
     </font>
     <font>
       <b/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="12.0"/>
+      <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -475,15 +485,6 @@
       <name val="Arial"/>
     </font>
     <font>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10.0"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-    </font>
-    <font>
       <b/>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -491,11 +492,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <i/>
       <sz val="12.0"/>
       <name val="Arial"/>
     </font>
@@ -561,7 +557,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="27">
     <border/>
     <border>
       <left style="hair">
@@ -732,6 +728,10 @@
       </bottom>
     </border>
     <border>
+      <right/>
+      <top/>
+    </border>
+    <border>
       <left/>
       <right style="hair">
         <color rgb="FF000000"/>
@@ -773,7 +773,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="188">
+  <cellXfs count="158">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -831,46 +831,40 @@
     <xf borderId="6" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="5" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="5" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="8" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="8" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="9" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="7" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="5" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="5" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="6" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="6" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="5" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="5" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="8" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="8" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="9" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="9" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="10" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
@@ -883,27 +877,24 @@
     <xf borderId="7" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="10" fillId="3" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="10" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="7" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="9" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="9" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="11" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="11" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="11" fillId="4" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="8" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="11" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="11" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="9" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="11" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
@@ -911,19 +902,13 @@
     <xf borderId="10" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="10" fillId="3" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="10" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="10" fillId="3" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="10" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="10" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="10" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="7" fillId="3" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="4" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -938,20 +923,17 @@
     <xf borderId="4" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="5" fillId="3" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="5" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="7" fillId="5" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="7" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="11" fillId="4" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="11" fillId="4" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf borderId="11" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="12" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
@@ -969,14 +951,14 @@
     <xf borderId="10" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0"/>
     </xf>
     <xf borderId="10" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="10" fillId="5" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="10" fillId="5" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="10" fillId="5" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="10" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -988,13 +970,7 @@
     <xf borderId="10" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="12" fillId="5" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
     <xf borderId="4" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="6" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="5" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -1015,17 +991,17 @@
     <xf borderId="7" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="12" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="12" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="9" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="8" fillId="4" fontId="15" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="8" fillId="4" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="11" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="8" fillId="4" fontId="16" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="8" fillId="4" fontId="12" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="9" fillId="4" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="12" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
@@ -1033,32 +1009,21 @@
     <xf borderId="10" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="7" fillId="3" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="7" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="7" fillId="3" fontId="11" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="7" fillId="3" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="10" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="10" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="3" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="5" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="3" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="4" fillId="3" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="12" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="8" fillId="4" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="8" fillId="4" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="9" fillId="4" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="9" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="9" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="13" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -1076,10 +1041,10 @@
     <xf borderId="15" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="13" fillId="3" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="13" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="16" fillId="3" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="16" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="7" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -1088,40 +1053,24 @@
     <xf borderId="7" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="5" fillId="3" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="3" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="12" fillId="5" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="8" fillId="4" fontId="17" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="12" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="10" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="10" fillId="5" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="10" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="10" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="10" fillId="5" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" shrinkToFit="0" wrapText="1"/>
+    <xf borderId="10" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="5" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="10" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf borderId="1" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="7" fillId="5" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="5" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -1133,26 +1082,14 @@
     <xf borderId="5" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="5" fillId="5" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="5" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="4" fillId="5" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="10" fillId="5" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="10" fillId="5" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="10" fillId="5" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="5" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
     <xf borderId="4" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="10" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="10" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="10" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -1164,8 +1101,13 @@
     <xf borderId="10" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="4" fontId="17" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="4" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="3" fillId="4" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="4" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="12" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
@@ -1179,18 +1121,54 @@
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="17" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" shrinkToFit="0" wrapText="1"/>
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="20" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="21" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="10" fillId="3" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="5" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="5" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="13" fillId="3" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="22" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="13" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="5" fillId="3" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="5" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="6" fillId="4" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="7" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="10" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="23" fillId="4" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="3" fillId="4" fontId="12" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="2" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -1199,77 +1177,25 @@
     <xf borderId="2" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="21" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="5" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="5" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="10" fillId="3" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="7" fillId="3" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="3" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="3" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="3" fontId="11" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="7" fillId="3" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="10" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="6" fillId="4" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="10" fillId="5" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="10" fillId="5" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="7" fillId="5" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="5" fontId="11" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="7" fillId="5" fontId="11" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="5" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="5" fontId="11" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="22" fillId="4" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="12" fillId="5" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="21" fillId="5" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="14" fillId="6" fontId="19" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="4" fillId="6" fontId="19" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="5" fillId="6" fontId="19" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="6" fillId="6" fontId="19" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="5" fillId="6" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="14" fillId="6" fontId="14" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
+    <xf borderId="4" fillId="6" fontId="14" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="5" fillId="6" fontId="14" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="6" fillId="6" fontId="14" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="5" fillId="6" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="8" fillId="6" fontId="20" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="9" fillId="6" fontId="21" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="23" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="8" fillId="6" fontId="15" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="9" fillId="6" fontId="16" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="24" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="25" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="8" fillId="6" fontId="22" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="26" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="8" fillId="6" fontId="17" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -1736,58 +1662,58 @@
       <c r="Z5" s="4"/>
     </row>
     <row r="6" ht="15.0" customHeight="1">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6" s="28"/>
-      <c r="G6" s="29">
+      <c r="C6" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="27"/>
+      <c r="G6" s="28">
         <v>4.0</v>
       </c>
-      <c r="H6" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="I6" s="31">
+      <c r="H6" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="I6" s="30">
         <v>4.0</v>
       </c>
-      <c r="J6" s="32"/>
-      <c r="K6" s="32"/>
-      <c r="L6" s="32"/>
-      <c r="M6" s="33">
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="31">
         <v>1.0</v>
       </c>
-      <c r="N6" s="33">
+      <c r="N6" s="31">
         <v>1.0</v>
       </c>
-      <c r="O6" s="33">
+      <c r="O6" s="31">
         <v>1.0</v>
       </c>
-      <c r="P6" s="33">
+      <c r="P6" s="31">
         <v>1.0</v>
       </c>
-      <c r="Q6" s="33">
+      <c r="Q6" s="31">
         <v>4.0</v>
       </c>
-      <c r="R6" s="34"/>
-      <c r="S6" s="34"/>
-      <c r="T6" s="34"/>
-      <c r="U6" s="34"/>
-      <c r="V6" s="34"/>
-      <c r="W6" s="34"/>
-      <c r="X6" s="34"/>
-      <c r="Y6" s="34"/>
-      <c r="Z6" s="34"/>
+      <c r="R6" s="32"/>
+      <c r="S6" s="32"/>
+      <c r="T6" s="32"/>
+      <c r="U6" s="32"/>
+      <c r="V6" s="32"/>
+      <c r="W6" s="32"/>
+      <c r="X6" s="32"/>
+      <c r="Y6" s="32"/>
+      <c r="Z6" s="32"/>
     </row>
     <row r="7" ht="15.0" customHeight="1">
       <c r="A7" s="17" t="s">
@@ -1796,43 +1722,43 @@
       <c r="B7" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="35" t="s">
+      <c r="C7" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="36" t="s">
+      <c r="D7" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="37" t="s">
+      <c r="E7" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="38">
+      <c r="F7" s="36">
         <v>4.0</v>
       </c>
-      <c r="G7" s="37" t="s">
-        <v>6</v>
-      </c>
-      <c r="H7" s="39">
+      <c r="G7" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" s="37">
         <v>4.0</v>
       </c>
-      <c r="I7" s="37" t="s">
+      <c r="I7" s="35" t="s">
         <v>6</v>
       </c>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
-      <c r="M7" s="40">
+      <c r="M7" s="38">
         <v>1.0</v>
       </c>
-      <c r="N7" s="40">
+      <c r="N7" s="38">
         <v>1.0</v>
       </c>
-      <c r="O7" s="40">
+      <c r="O7" s="38">
         <v>1.0</v>
       </c>
-      <c r="P7" s="40">
+      <c r="P7" s="38">
         <v>1.0</v>
       </c>
-      <c r="Q7" s="40">
+      <c r="Q7" s="38">
         <v>4.0</v>
       </c>
       <c r="R7" s="4"/>
@@ -1846,62 +1772,62 @@
       <c r="Z7" s="4"/>
     </row>
     <row r="8" ht="15.0" customHeight="1">
-      <c r="A8" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="41" t="s">
+      <c r="A8" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="42" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="43" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="43" t="s">
-        <v>6</v>
-      </c>
-      <c r="F8" s="41" t="s">
-        <v>6</v>
-      </c>
-      <c r="G8" s="44">
+      <c r="C8" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" s="42">
         <f>SUM(F9:F12)</f>
         <v>9</v>
       </c>
-      <c r="H8" s="45" t="s">
-        <v>6</v>
-      </c>
-      <c r="I8" s="31">
+      <c r="H8" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="I8" s="30">
         <v>9.0</v>
       </c>
-      <c r="J8" s="32"/>
-      <c r="K8" s="32"/>
-      <c r="L8" s="32"/>
-      <c r="M8" s="33">
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="31">
         <v>2.25</v>
       </c>
-      <c r="N8" s="33">
+      <c r="N8" s="31">
         <v>2.25</v>
       </c>
-      <c r="O8" s="33">
+      <c r="O8" s="31">
         <v>2.25</v>
       </c>
-      <c r="P8" s="33">
+      <c r="P8" s="31">
         <v>2.25</v>
       </c>
-      <c r="Q8" s="46">
+      <c r="Q8" s="39">
         <f>SUM(Q9:Q12)</f>
         <v>9</v>
       </c>
-      <c r="R8" s="34"/>
-      <c r="S8" s="34"/>
-      <c r="T8" s="34"/>
-      <c r="U8" s="34"/>
-      <c r="V8" s="34"/>
-      <c r="W8" s="34"/>
-      <c r="X8" s="34"/>
-      <c r="Y8" s="34"/>
-      <c r="Z8" s="34"/>
+      <c r="R8" s="32"/>
+      <c r="S8" s="32"/>
+      <c r="T8" s="32"/>
+      <c r="U8" s="32"/>
+      <c r="V8" s="32"/>
+      <c r="W8" s="32"/>
+      <c r="X8" s="32"/>
+      <c r="Y8" s="32"/>
+      <c r="Z8" s="32"/>
     </row>
     <row r="9" ht="15.0" customHeight="1">
       <c r="A9" s="17" t="s">
@@ -1910,43 +1836,43 @@
       <c r="B9" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="35" t="s">
+      <c r="C9" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="36" t="s">
+      <c r="D9" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="37" t="s">
+      <c r="E9" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="38">
+      <c r="F9" s="36">
         <v>1.0</v>
       </c>
-      <c r="G9" s="37" t="s">
-        <v>6</v>
-      </c>
-      <c r="H9" s="39">
+      <c r="G9" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="H9" s="37">
         <v>1.0</v>
       </c>
-      <c r="I9" s="37" t="s">
+      <c r="I9" s="35" t="s">
         <v>6</v>
       </c>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
-      <c r="M9" s="40">
+      <c r="M9" s="38">
         <v>0.25</v>
       </c>
-      <c r="N9" s="40">
+      <c r="N9" s="38">
         <v>0.25</v>
       </c>
-      <c r="O9" s="40">
+      <c r="O9" s="38">
         <v>0.25</v>
       </c>
-      <c r="P9" s="40">
+      <c r="P9" s="38">
         <v>0.25</v>
       </c>
-      <c r="Q9" s="40">
+      <c r="Q9" s="38">
         <v>1.0</v>
       </c>
       <c r="R9" s="4"/>
@@ -1966,43 +1892,43 @@
       <c r="B10" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="35" t="s">
+      <c r="C10" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="36" t="s">
+      <c r="D10" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="37" t="s">
+      <c r="E10" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="F10" s="38">
+      <c r="F10" s="36">
         <v>4.0</v>
       </c>
-      <c r="G10" s="37" t="s">
-        <v>6</v>
-      </c>
-      <c r="H10" s="39">
+      <c r="G10" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="H10" s="37">
         <v>4.0</v>
       </c>
-      <c r="I10" s="37" t="s">
+      <c r="I10" s="35" t="s">
         <v>6</v>
       </c>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
-      <c r="M10" s="40">
+      <c r="M10" s="38">
         <v>1.0</v>
       </c>
-      <c r="N10" s="40">
+      <c r="N10" s="38">
         <v>1.0</v>
       </c>
-      <c r="O10" s="40">
+      <c r="O10" s="38">
         <v>1.0</v>
       </c>
-      <c r="P10" s="40">
+      <c r="P10" s="38">
         <v>1.0</v>
       </c>
-      <c r="Q10" s="40">
+      <c r="Q10" s="38">
         <v>4.0</v>
       </c>
       <c r="R10" s="4"/>
@@ -2022,43 +1948,43 @@
       <c r="B11" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="35" t="s">
+      <c r="C11" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="36" t="s">
+      <c r="D11" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="37" t="s">
+      <c r="E11" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="38">
+      <c r="F11" s="36">
         <v>2.0</v>
       </c>
-      <c r="G11" s="37" t="s">
-        <v>6</v>
-      </c>
-      <c r="H11" s="39">
+      <c r="G11" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="H11" s="37">
         <v>2.0</v>
       </c>
-      <c r="I11" s="37" t="s">
+      <c r="I11" s="35" t="s">
         <v>6</v>
       </c>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
-      <c r="M11" s="40">
+      <c r="M11" s="38">
         <v>0.5</v>
       </c>
-      <c r="N11" s="40">
+      <c r="N11" s="38">
         <v>0.5</v>
       </c>
-      <c r="O11" s="40">
+      <c r="O11" s="38">
         <v>0.5</v>
       </c>
-      <c r="P11" s="40">
+      <c r="P11" s="38">
         <v>0.5</v>
       </c>
-      <c r="Q11" s="40">
+      <c r="Q11" s="38">
         <v>2.0</v>
       </c>
       <c r="R11" s="4"/>
@@ -2074,43 +2000,43 @@
     <row r="12" ht="15.0" customHeight="1">
       <c r="A12" s="17"/>
       <c r="B12" s="17"/>
-      <c r="C12" s="35" t="s">
+      <c r="C12" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="36" t="s">
+      <c r="D12" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="E12" s="37" t="s">
+      <c r="E12" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="F12" s="38">
+      <c r="F12" s="36">
         <v>2.0</v>
       </c>
-      <c r="G12" s="37" t="s">
-        <v>6</v>
-      </c>
-      <c r="H12" s="39">
+      <c r="G12" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="H12" s="37">
         <v>2.0</v>
       </c>
-      <c r="I12" s="37" t="s">
+      <c r="I12" s="35" t="s">
         <v>6</v>
       </c>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
-      <c r="M12" s="40">
+      <c r="M12" s="38">
         <v>0.5</v>
       </c>
-      <c r="N12" s="40">
+      <c r="N12" s="38">
         <v>0.5</v>
       </c>
-      <c r="O12" s="40">
+      <c r="O12" s="38">
         <v>0.5</v>
       </c>
-      <c r="P12" s="40">
+      <c r="P12" s="38">
         <v>0.5</v>
       </c>
-      <c r="Q12" s="40">
+      <c r="Q12" s="38">
         <v>2.0</v>
       </c>
       <c r="R12" s="4"/>
@@ -2124,67 +2050,67 @@
       <c r="Z12" s="4"/>
     </row>
     <row r="13" ht="15.0" customHeight="1">
-      <c r="A13" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" s="41" t="s">
+      <c r="A13" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="42" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="47" t="s">
-        <v>6</v>
-      </c>
-      <c r="E13" s="42" t="s">
-        <v>6</v>
-      </c>
-      <c r="F13" s="41" t="s">
-        <v>6</v>
-      </c>
-      <c r="G13" s="44">
+      <c r="C13" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="G13" s="42">
         <f>SUM(F14:F21)</f>
         <v>27</v>
       </c>
-      <c r="H13" s="45" t="s">
-        <v>6</v>
-      </c>
-      <c r="I13" s="44">
+      <c r="H13" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="I13" s="42">
         <f>SUM(H14:H21)</f>
         <v>19</v>
       </c>
-      <c r="J13" s="32"/>
-      <c r="K13" s="32"/>
-      <c r="L13" s="32"/>
-      <c r="M13" s="46">
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="39">
         <f t="shared" ref="M13:Q13" si="1">SUM(M14:M21)</f>
         <v>3</v>
       </c>
-      <c r="N13" s="46">
+      <c r="N13" s="39">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="O13" s="46">
+      <c r="O13" s="39">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="P13" s="46">
+      <c r="P13" s="39">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="Q13" s="46">
+      <c r="Q13" s="39">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="R13" s="34"/>
-      <c r="S13" s="34"/>
-      <c r="T13" s="34"/>
-      <c r="U13" s="34"/>
-      <c r="V13" s="34"/>
-      <c r="W13" s="34"/>
-      <c r="X13" s="34"/>
-      <c r="Y13" s="34"/>
-      <c r="Z13" s="34"/>
+      <c r="R13" s="32"/>
+      <c r="S13" s="32"/>
+      <c r="T13" s="32"/>
+      <c r="U13" s="32"/>
+      <c r="V13" s="32"/>
+      <c r="W13" s="32"/>
+      <c r="X13" s="32"/>
+      <c r="Y13" s="32"/>
+      <c r="Z13" s="32"/>
     </row>
     <row r="14" ht="15.0" customHeight="1">
       <c r="A14" s="17" t="s">
@@ -2193,43 +2119,43 @@
       <c r="B14" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="35" t="s">
+      <c r="C14" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="36" t="s">
+      <c r="D14" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="37" t="s">
+      <c r="E14" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="F14" s="38">
+      <c r="F14" s="36">
         <v>2.0</v>
       </c>
-      <c r="G14" s="37" t="s">
-        <v>6</v>
-      </c>
-      <c r="H14" s="39">
+      <c r="G14" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="H14" s="37">
         <v>3.0</v>
       </c>
-      <c r="I14" s="37" t="s">
+      <c r="I14" s="35" t="s">
         <v>6</v>
       </c>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
-      <c r="M14" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="N14" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="O14" s="40">
+      <c r="M14" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="N14" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="O14" s="38">
         <v>3.0</v>
       </c>
-      <c r="P14" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q14" s="40">
+      <c r="P14" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q14" s="38">
         <v>3.0</v>
       </c>
       <c r="R14" s="4"/>
@@ -2249,43 +2175,43 @@
       <c r="B15" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="35" t="s">
+      <c r="C15" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="36" t="s">
+      <c r="D15" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="E15" s="48" t="s">
+      <c r="E15" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="F15" s="38">
+      <c r="F15" s="36">
         <v>2.0</v>
       </c>
-      <c r="G15" s="37" t="s">
-        <v>6</v>
-      </c>
-      <c r="H15" s="49" t="s">
-        <v>6</v>
-      </c>
-      <c r="I15" s="37" t="s">
+      <c r="G15" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="H15" s="46" t="s">
+        <v>6</v>
+      </c>
+      <c r="I15" s="35" t="s">
         <v>6</v>
       </c>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
-      <c r="M15" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="N15" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="O15" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="P15" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q15" s="38" t="s">
+      <c r="M15" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="N15" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="O15" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="P15" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q15" s="36" t="s">
         <v>6</v>
       </c>
       <c r="R15" s="4"/>
@@ -2301,33 +2227,33 @@
     <row r="16" ht="15.0" customHeight="1">
       <c r="A16" s="17"/>
       <c r="B16" s="17"/>
-      <c r="C16" s="50" t="s">
+      <c r="C16" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="D16" s="51" t="s">
+      <c r="D16" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="E16" s="52" t="s">
+      <c r="E16" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="F16" s="53">
+      <c r="F16" s="38">
         <v>2.0</v>
       </c>
-      <c r="G16" s="37"/>
-      <c r="H16" s="39">
+      <c r="G16" s="35"/>
+      <c r="H16" s="37">
         <v>2.0</v>
       </c>
-      <c r="I16" s="37"/>
+      <c r="I16" s="35"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
-      <c r="M16" s="38"/>
-      <c r="N16" s="38"/>
-      <c r="O16" s="53">
+      <c r="M16" s="36"/>
+      <c r="N16" s="36"/>
+      <c r="O16" s="38">
         <v>2.0</v>
       </c>
-      <c r="P16" s="38"/>
-      <c r="Q16" s="53">
+      <c r="P16" s="36"/>
+      <c r="Q16" s="38">
         <v>2.0</v>
       </c>
       <c r="R16" s="4"/>
@@ -2347,43 +2273,43 @@
       <c r="B17" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="35" t="s">
+      <c r="C17" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="36" t="s">
+      <c r="D17" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="E17" s="48" t="s">
+      <c r="E17" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="F17" s="38">
+      <c r="F17" s="36">
         <v>4.0</v>
       </c>
-      <c r="G17" s="37" t="s">
-        <v>6</v>
-      </c>
-      <c r="H17" s="39">
+      <c r="G17" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="H17" s="37">
         <v>4.0</v>
       </c>
-      <c r="I17" s="37" t="s">
+      <c r="I17" s="35" t="s">
         <v>6</v>
       </c>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
-      <c r="M17" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="N17" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="O17" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="P17" s="40">
+      <c r="M17" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="N17" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="O17" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="P17" s="38">
         <v>4.0</v>
       </c>
-      <c r="Q17" s="40">
+      <c r="Q17" s="38">
         <v>4.0</v>
       </c>
       <c r="R17" s="4"/>
@@ -2403,43 +2329,43 @@
       <c r="B18" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="35" t="s">
+      <c r="C18" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="D18" s="36" t="s">
+      <c r="D18" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="E18" s="52" t="s">
+      <c r="E18" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="F18" s="53">
+      <c r="F18" s="38">
         <v>8.0</v>
       </c>
-      <c r="G18" s="37" t="s">
-        <v>6</v>
-      </c>
-      <c r="H18" s="39">
+      <c r="G18" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="H18" s="37">
         <v>10.0</v>
       </c>
-      <c r="I18" s="37" t="s">
+      <c r="I18" s="35" t="s">
         <v>6</v>
       </c>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
-      <c r="M18" s="53">
+      <c r="M18" s="38">
         <v>3.0</v>
       </c>
-      <c r="N18" s="53">
+      <c r="N18" s="38">
         <v>3.0</v>
       </c>
-      <c r="O18" s="53">
+      <c r="O18" s="38">
         <v>2.0</v>
       </c>
-      <c r="P18" s="53">
+      <c r="P18" s="38">
         <v>3.0</v>
       </c>
-      <c r="Q18" s="53">
+      <c r="Q18" s="38">
         <v>10.0</v>
       </c>
       <c r="R18" s="4"/>
@@ -2459,43 +2385,43 @@
       <c r="B19" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="35" t="s">
+      <c r="C19" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="D19" s="36" t="s">
+      <c r="D19" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="E19" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="F19" s="38">
+      <c r="E19" s="47" t="s">
+        <v>39</v>
+      </c>
+      <c r="F19" s="36">
         <v>3.0</v>
       </c>
-      <c r="G19" s="37" t="s">
-        <v>6</v>
-      </c>
-      <c r="H19" s="49" t="s">
-        <v>6</v>
-      </c>
-      <c r="I19" s="37" t="s">
+      <c r="G19" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="H19" s="46" t="s">
+        <v>6</v>
+      </c>
+      <c r="I19" s="35" t="s">
         <v>6</v>
       </c>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
-      <c r="M19" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="N19" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="O19" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="P19" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q19" s="38" t="s">
+      <c r="M19" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="N19" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="O19" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="P19" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q19" s="36" t="s">
         <v>6</v>
       </c>
       <c r="R19" s="4"/>
@@ -2515,43 +2441,43 @@
       <c r="B20" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="35" t="s">
-        <v>39</v>
-      </c>
-      <c r="D20" s="36" t="s">
+      <c r="C20" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="E20" s="37" t="s">
+      <c r="D20" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="F20" s="38">
+      <c r="E20" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="F20" s="36">
         <v>2.0</v>
       </c>
-      <c r="G20" s="37" t="s">
-        <v>6</v>
-      </c>
-      <c r="H20" s="49" t="s">
-        <v>6</v>
-      </c>
-      <c r="I20" s="37" t="s">
+      <c r="G20" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="H20" s="46" t="s">
+        <v>6</v>
+      </c>
+      <c r="I20" s="35" t="s">
         <v>6</v>
       </c>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
-      <c r="M20" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="N20" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="O20" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="P20" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q20" s="38" t="s">
+      <c r="M20" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="N20" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="O20" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="P20" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q20" s="36" t="s">
         <v>6</v>
       </c>
       <c r="R20" s="4"/>
@@ -2565,49 +2491,49 @@
       <c r="Z20" s="4"/>
     </row>
     <row r="21" ht="15.0" customHeight="1">
-      <c r="A21" s="54" t="s">
-        <v>6</v>
-      </c>
-      <c r="B21" s="54" t="s">
-        <v>6</v>
-      </c>
-      <c r="C21" s="55" t="s">
-        <v>42</v>
-      </c>
-      <c r="D21" s="56" t="s">
+      <c r="A21" s="49" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="49" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="50" t="s">
         <v>43</v>
       </c>
+      <c r="D21" s="51" t="s">
+        <v>44</v>
+      </c>
       <c r="E21" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="F21" s="57">
+        <v>45</v>
+      </c>
+      <c r="F21" s="52">
         <v>4.0</v>
       </c>
-      <c r="G21" s="37" t="s">
-        <v>6</v>
-      </c>
-      <c r="H21" s="58" t="s">
-        <v>6</v>
-      </c>
-      <c r="I21" s="37" t="s">
+      <c r="G21" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="H21" s="53" t="s">
+        <v>6</v>
+      </c>
+      <c r="I21" s="35" t="s">
         <v>6</v>
       </c>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
-      <c r="M21" s="57" t="s">
-        <v>6</v>
-      </c>
-      <c r="N21" s="57" t="s">
-        <v>6</v>
-      </c>
-      <c r="O21" s="57" t="s">
-        <v>6</v>
-      </c>
-      <c r="P21" s="57" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q21" s="57" t="s">
+      <c r="M21" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="N21" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="O21" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="P21" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q21" s="52" t="s">
         <v>6</v>
       </c>
       <c r="R21" s="4"/>
@@ -2621,106 +2547,106 @@
       <c r="Z21" s="4"/>
     </row>
     <row r="22" ht="15.0" customHeight="1">
-      <c r="A22" s="59" t="s">
-        <v>45</v>
-      </c>
-      <c r="B22" s="42" t="s">
+      <c r="A22" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="60" t="s">
-        <v>6</v>
-      </c>
-      <c r="D22" s="47" t="s">
-        <v>6</v>
-      </c>
-      <c r="E22" s="42" t="s">
-        <v>6</v>
-      </c>
-      <c r="F22" s="41" t="s">
-        <v>6</v>
-      </c>
-      <c r="G22" s="44">
+      <c r="B22" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="F22" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="G22" s="42">
         <f>SUM(F23:F26)</f>
         <v>23</v>
       </c>
-      <c r="H22" s="45" t="s">
-        <v>6</v>
-      </c>
-      <c r="I22" s="61">
+      <c r="H22" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="I22" s="56">
         <f>SUM(H23:H26)</f>
         <v>26.5</v>
       </c>
-      <c r="J22" s="32"/>
-      <c r="K22" s="32"/>
-      <c r="L22" s="32"/>
-      <c r="M22" s="62">
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="40">
         <f t="shared" ref="M22:O22" si="2">SUM(M23:M29)</f>
         <v>9.5</v>
       </c>
-      <c r="N22" s="62">
+      <c r="N22" s="40">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="O22" s="62">
+      <c r="O22" s="40">
         <f t="shared" si="2"/>
         <v>11.5</v>
       </c>
-      <c r="P22" s="62">
+      <c r="P22" s="40">
         <f t="shared" ref="P22:Q22" si="3">SUM(P23:P26)</f>
         <v>10.5</v>
       </c>
-      <c r="Q22" s="62">
+      <c r="Q22" s="40">
         <f t="shared" si="3"/>
         <v>26.5</v>
       </c>
-      <c r="R22" s="34"/>
-      <c r="S22" s="34"/>
-      <c r="T22" s="34"/>
-      <c r="U22" s="34"/>
-      <c r="V22" s="34"/>
-      <c r="W22" s="34"/>
-      <c r="X22" s="34"/>
-      <c r="Y22" s="34"/>
-      <c r="Z22" s="34"/>
+      <c r="R22" s="32"/>
+      <c r="S22" s="32"/>
+      <c r="T22" s="32"/>
+      <c r="U22" s="32"/>
+      <c r="V22" s="32"/>
+      <c r="W22" s="32"/>
+      <c r="X22" s="32"/>
+      <c r="Y22" s="32"/>
+      <c r="Z22" s="32"/>
     </row>
     <row r="23" ht="15.0" customHeight="1">
-      <c r="A23" s="63" t="s">
-        <v>47</v>
-      </c>
-      <c r="B23" s="64"/>
-      <c r="C23" s="65" t="s">
+      <c r="A23" s="57" t="s">
         <v>48</v>
       </c>
-      <c r="D23" s="66" t="s">
+      <c r="B23" s="58"/>
+      <c r="C23" s="59" t="s">
+        <v>49</v>
+      </c>
+      <c r="D23" s="60" t="s">
         <v>35</v>
       </c>
-      <c r="E23" s="67" t="s">
-        <v>49</v>
-      </c>
-      <c r="F23" s="65">
+      <c r="E23" s="61" t="s">
+        <v>50</v>
+      </c>
+      <c r="F23" s="59">
         <v>3.0</v>
       </c>
-      <c r="G23" s="68"/>
-      <c r="H23" s="69">
+      <c r="G23" s="62"/>
+      <c r="H23" s="63">
         <v>3.0</v>
       </c>
-      <c r="I23" s="68"/>
+      <c r="I23" s="62"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
-      <c r="M23" s="70">
+      <c r="M23" s="64">
         <v>1.0</v>
       </c>
-      <c r="N23" s="71" t="s">
-        <v>6</v>
-      </c>
-      <c r="O23" s="70">
+      <c r="N23" s="65" t="s">
+        <v>6</v>
+      </c>
+      <c r="O23" s="64">
         <v>1.0</v>
       </c>
-      <c r="P23" s="70">
+      <c r="P23" s="64">
         <v>1.0</v>
       </c>
-      <c r="Q23" s="70">
+      <c r="Q23" s="64">
         <v>3.0</v>
       </c>
       <c r="R23" s="4"/>
@@ -2734,45 +2660,45 @@
       <c r="Z23" s="4"/>
     </row>
     <row r="24" ht="15.0" customHeight="1">
-      <c r="A24" s="63" t="s">
-        <v>6</v>
-      </c>
-      <c r="B24" s="72" t="s">
-        <v>6</v>
-      </c>
-      <c r="C24" s="68" t="s">
-        <v>50</v>
-      </c>
-      <c r="D24" s="68" t="s">
+      <c r="A24" s="57" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" s="66" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="62" t="s">
         <v>51</v>
       </c>
-      <c r="E24" s="73" t="s">
+      <c r="D24" s="62" t="s">
+        <v>52</v>
+      </c>
+      <c r="E24" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="F24" s="74">
+      <c r="F24" s="68">
         <v>4.0</v>
       </c>
-      <c r="G24" s="68"/>
-      <c r="H24" s="75">
+      <c r="G24" s="62"/>
+      <c r="H24" s="69">
         <v>5.5</v>
       </c>
-      <c r="I24" s="68"/>
+      <c r="I24" s="62"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
-      <c r="M24" s="70">
+      <c r="M24" s="64">
         <v>1.5</v>
       </c>
-      <c r="N24" s="70">
+      <c r="N24" s="64">
         <v>1.0</v>
       </c>
-      <c r="O24" s="70">
+      <c r="O24" s="64">
         <v>1.5</v>
       </c>
-      <c r="P24" s="70">
+      <c r="P24" s="64">
         <v>1.5</v>
       </c>
-      <c r="Q24" s="70">
+      <c r="Q24" s="64">
         <v>5.5</v>
       </c>
       <c r="R24" s="4"/>
@@ -2786,45 +2712,45 @@
       <c r="Z24" s="4"/>
     </row>
     <row r="25" ht="15.0" customHeight="1">
-      <c r="A25" s="63" t="s">
-        <v>6</v>
-      </c>
-      <c r="B25" s="72" t="s">
-        <v>6</v>
-      </c>
-      <c r="C25" s="68" t="s">
-        <v>52</v>
-      </c>
-      <c r="D25" s="68" t="s">
+      <c r="A25" s="57" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" s="66" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="62" t="s">
         <v>53</v>
       </c>
-      <c r="E25" s="73" t="s">
+      <c r="D25" s="62" t="s">
+        <v>54</v>
+      </c>
+      <c r="E25" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="F25" s="74">
+      <c r="F25" s="68">
         <v>10.0</v>
       </c>
-      <c r="G25" s="68"/>
-      <c r="H25" s="75">
+      <c r="G25" s="62"/>
+      <c r="H25" s="69">
         <v>12.0</v>
       </c>
-      <c r="I25" s="68"/>
+      <c r="I25" s="62"/>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
-      <c r="M25" s="70">
+      <c r="M25" s="64">
         <v>4.0</v>
       </c>
-      <c r="N25" s="70">
+      <c r="N25" s="64">
         <v>4.0</v>
       </c>
-      <c r="O25" s="70">
+      <c r="O25" s="64">
         <v>4.0</v>
       </c>
-      <c r="P25" s="70">
+      <c r="P25" s="64">
         <v>4.0</v>
       </c>
-      <c r="Q25" s="70">
+      <c r="Q25" s="64">
         <v>12.0</v>
       </c>
       <c r="R25" s="4"/>
@@ -2838,45 +2764,45 @@
       <c r="Z25" s="4"/>
     </row>
     <row r="26" ht="15.0" customHeight="1">
-      <c r="A26" s="63" t="s">
-        <v>6</v>
-      </c>
-      <c r="B26" s="72" t="s">
-        <v>6</v>
-      </c>
-      <c r="C26" s="68" t="s">
+      <c r="A26" s="57" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" s="66" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" s="62" t="s">
+        <v>55</v>
+      </c>
+      <c r="D26" s="62" t="s">
         <v>54</v>
       </c>
-      <c r="D26" s="68" t="s">
-        <v>53</v>
-      </c>
-      <c r="E26" s="73" t="s">
-        <v>55</v>
-      </c>
-      <c r="F26" s="74">
+      <c r="E26" s="67" t="s">
+        <v>56</v>
+      </c>
+      <c r="F26" s="68">
         <v>6.0</v>
       </c>
-      <c r="G26" s="68"/>
-      <c r="H26" s="75">
+      <c r="G26" s="62"/>
+      <c r="H26" s="69">
         <v>6.0</v>
       </c>
-      <c r="I26" s="68"/>
+      <c r="I26" s="62"/>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
-      <c r="M26" s="71" t="s">
-        <v>6</v>
-      </c>
-      <c r="N26" s="70">
+      <c r="M26" s="65" t="s">
+        <v>6</v>
+      </c>
+      <c r="N26" s="64">
         <v>2.0</v>
       </c>
-      <c r="O26" s="71" t="s">
-        <v>6</v>
-      </c>
-      <c r="P26" s="70">
+      <c r="O26" s="65" t="s">
+        <v>6</v>
+      </c>
+      <c r="P26" s="64">
         <v>4.0</v>
       </c>
-      <c r="Q26" s="70">
+      <c r="Q26" s="64">
         <v>6.0</v>
       </c>
       <c r="R26" s="4"/>
@@ -2890,102 +2816,102 @@
       <c r="Z26" s="4"/>
     </row>
     <row r="27" ht="15.0" customHeight="1">
-      <c r="A27" s="76" t="s">
-        <v>6</v>
-      </c>
-      <c r="B27" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="C27" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="D27" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="E27" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="F27" s="77" t="s">
-        <v>6</v>
-      </c>
-      <c r="G27" s="78">
+      <c r="A27" s="57" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="C27" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="E27" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="F27" s="70" t="s">
+        <v>6</v>
+      </c>
+      <c r="G27" s="28">
         <f>SUM(F28:F29)</f>
         <v>7</v>
       </c>
-      <c r="H27" s="79" t="s">
-        <v>6</v>
-      </c>
-      <c r="I27" s="31">
+      <c r="H27" s="71" t="s">
+        <v>6</v>
+      </c>
+      <c r="I27" s="30">
         <v>9.0</v>
       </c>
-      <c r="J27" s="32"/>
-      <c r="K27" s="32"/>
-      <c r="L27" s="32"/>
-      <c r="M27" s="33">
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="31">
         <v>1.5</v>
       </c>
-      <c r="N27" s="33">
+      <c r="N27" s="31">
         <v>2.5</v>
       </c>
-      <c r="O27" s="33">
+      <c r="O27" s="31">
         <v>2.5</v>
       </c>
-      <c r="P27" s="33">
+      <c r="P27" s="31">
         <v>2.5</v>
       </c>
-      <c r="Q27" s="33">
+      <c r="Q27" s="31">
         <v>9.0</v>
       </c>
-      <c r="R27" s="34"/>
-      <c r="S27" s="34"/>
-      <c r="T27" s="34"/>
-      <c r="U27" s="34"/>
-      <c r="V27" s="34"/>
-      <c r="W27" s="34"/>
-      <c r="X27" s="34"/>
-      <c r="Y27" s="34"/>
-      <c r="Z27" s="34"/>
+      <c r="R27" s="32"/>
+      <c r="S27" s="32"/>
+      <c r="T27" s="32"/>
+      <c r="U27" s="32"/>
+      <c r="V27" s="32"/>
+      <c r="W27" s="32"/>
+      <c r="X27" s="32"/>
+      <c r="Y27" s="32"/>
+      <c r="Z27" s="32"/>
     </row>
     <row r="28" ht="15.0" customHeight="1">
-      <c r="A28" s="63" t="s">
-        <v>6</v>
-      </c>
-      <c r="B28" s="80" t="s">
-        <v>6</v>
-      </c>
-      <c r="C28" s="68" t="s">
-        <v>57</v>
-      </c>
-      <c r="D28" s="68" t="s">
+      <c r="A28" s="57" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" s="62" t="s">
+        <v>58</v>
+      </c>
+      <c r="D28" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="E28" s="73" t="s">
+      <c r="E28" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="F28" s="74">
+      <c r="F28" s="68">
         <v>4.0</v>
       </c>
-      <c r="G28" s="68"/>
-      <c r="H28" s="75">
+      <c r="G28" s="62"/>
+      <c r="H28" s="69">
         <v>6.0</v>
       </c>
-      <c r="I28" s="68"/>
+      <c r="I28" s="62"/>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
-      <c r="M28" s="81">
+      <c r="M28" s="73">
         <v>1.5</v>
       </c>
-      <c r="N28" s="81">
+      <c r="N28" s="73">
         <v>1.5</v>
       </c>
-      <c r="O28" s="81">
+      <c r="O28" s="73">
         <v>1.5</v>
       </c>
-      <c r="P28" s="81">
+      <c r="P28" s="73">
         <v>1.5</v>
       </c>
-      <c r="Q28" s="81">
+      <c r="Q28" s="73">
         <v>6.0</v>
       </c>
       <c r="R28" s="4"/>
@@ -2999,43 +2925,43 @@
       <c r="Z28" s="4"/>
     </row>
     <row r="29" ht="15.0" customHeight="1">
-      <c r="A29" s="63" t="s">
-        <v>6</v>
-      </c>
-      <c r="B29" s="80" t="s">
-        <v>6</v>
-      </c>
-      <c r="C29" s="82" t="s">
-        <v>58</v>
-      </c>
-      <c r="D29" s="82" t="s">
+      <c r="A29" s="57" t="s">
+        <v>6</v>
+      </c>
+      <c r="B29" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" s="74" t="s">
+        <v>59</v>
+      </c>
+      <c r="D29" s="74" t="s">
         <v>35</v>
       </c>
-      <c r="E29" s="83" t="s">
-        <v>59</v>
-      </c>
-      <c r="F29" s="84">
+      <c r="E29" s="75" t="s">
+        <v>60</v>
+      </c>
+      <c r="F29" s="76">
         <v>3.0</v>
       </c>
-      <c r="G29" s="68"/>
-      <c r="H29" s="75">
+      <c r="G29" s="62"/>
+      <c r="H29" s="69">
         <v>3.0</v>
       </c>
-      <c r="I29" s="68"/>
+      <c r="I29" s="62"/>
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
-      <c r="M29" s="81"/>
-      <c r="N29" s="81">
+      <c r="M29" s="73"/>
+      <c r="N29" s="73">
         <v>1.0</v>
       </c>
-      <c r="O29" s="81">
+      <c r="O29" s="73">
         <v>1.0</v>
       </c>
-      <c r="P29" s="81">
+      <c r="P29" s="73">
         <v>1.0</v>
       </c>
-      <c r="Q29" s="81">
+      <c r="Q29" s="73">
         <v>3.0</v>
       </c>
       <c r="R29" s="4"/>
@@ -3049,110 +2975,110 @@
       <c r="Z29" s="4"/>
     </row>
     <row r="30" ht="15.0" customHeight="1">
-      <c r="A30" s="85" t="s">
-        <v>60</v>
-      </c>
-      <c r="B30" s="42" t="s">
+      <c r="A30" s="77" t="s">
         <v>61</v>
       </c>
-      <c r="C30" s="42" t="s">
-        <v>6</v>
-      </c>
-      <c r="D30" s="47"/>
-      <c r="E30" s="42" t="s">
-        <v>6</v>
-      </c>
-      <c r="F30" s="86" t="s">
-        <v>6</v>
-      </c>
-      <c r="G30" s="87">
+      <c r="B30" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="C30" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" s="44"/>
+      <c r="E30" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="F30" s="78" t="s">
+        <v>6</v>
+      </c>
+      <c r="G30" s="79">
         <f>SUM(F31:F35)</f>
         <v>24</v>
       </c>
-      <c r="H30" s="88" t="s">
-        <v>6</v>
-      </c>
-      <c r="I30" s="89">
+      <c r="H30" s="80" t="s">
+        <v>6</v>
+      </c>
+      <c r="I30" s="81">
         <f>SUM(H31:H35)</f>
         <v>23</v>
       </c>
-      <c r="J30" s="32"/>
-      <c r="K30" s="32"/>
-      <c r="L30" s="32"/>
-      <c r="M30" s="90">
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="82">
         <f>SUM(M24:M29)</f>
         <v>8.5</v>
       </c>
-      <c r="N30" s="90">
+      <c r="N30" s="82">
         <f t="shared" ref="N30:Q30" si="4">SUM(N31:N35)</f>
         <v>0</v>
       </c>
-      <c r="O30" s="90">
+      <c r="O30" s="82">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="P30" s="90">
+      <c r="P30" s="82">
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
-      <c r="Q30" s="90">
+      <c r="Q30" s="82">
         <f t="shared" si="4"/>
         <v>23</v>
       </c>
-      <c r="R30" s="34"/>
-      <c r="S30" s="34"/>
-      <c r="T30" s="34"/>
-      <c r="U30" s="34"/>
-      <c r="V30" s="34"/>
-      <c r="W30" s="34"/>
-      <c r="X30" s="34"/>
-      <c r="Y30" s="34"/>
-      <c r="Z30" s="34"/>
+      <c r="R30" s="32"/>
+      <c r="S30" s="32"/>
+      <c r="T30" s="32"/>
+      <c r="U30" s="32"/>
+      <c r="V30" s="32"/>
+      <c r="W30" s="32"/>
+      <c r="X30" s="32"/>
+      <c r="Y30" s="32"/>
+      <c r="Z30" s="32"/>
     </row>
     <row r="31" ht="15.0" customHeight="1">
-      <c r="A31" s="91" t="s">
-        <v>62</v>
-      </c>
-      <c r="B31" s="37" t="s">
-        <v>6</v>
-      </c>
-      <c r="C31" s="35" t="s">
+      <c r="A31" s="83" t="s">
         <v>63</v>
       </c>
-      <c r="D31" s="51" t="s">
+      <c r="B31" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="E31" s="92" t="s">
+      <c r="D31" s="48" t="s">
         <v>65</v>
       </c>
-      <c r="F31" s="40">
+      <c r="E31" s="84" t="s">
+        <v>66</v>
+      </c>
+      <c r="F31" s="38">
         <v>6.0</v>
       </c>
-      <c r="G31" s="37" t="s">
-        <v>6</v>
-      </c>
-      <c r="H31" s="39">
+      <c r="G31" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="H31" s="37">
         <v>6.0</v>
       </c>
-      <c r="I31" s="37" t="s">
+      <c r="I31" s="35" t="s">
         <v>6</v>
       </c>
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
       <c r="L31" s="2"/>
-      <c r="M31" s="93">
+      <c r="M31" s="85">
         <v>3.0</v>
       </c>
-      <c r="N31" s="94" t="s">
-        <v>6</v>
-      </c>
-      <c r="O31" s="95" t="s">
-        <v>6</v>
-      </c>
-      <c r="P31" s="93">
+      <c r="N31" s="86" t="s">
+        <v>6</v>
+      </c>
+      <c r="O31" s="86" t="s">
+        <v>6</v>
+      </c>
+      <c r="P31" s="85">
         <v>3.0</v>
       </c>
-      <c r="Q31" s="93">
+      <c r="Q31" s="85">
         <v>6.0</v>
       </c>
       <c r="R31" s="4"/>
@@ -3166,49 +3092,49 @@
       <c r="Z31" s="4"/>
     </row>
     <row r="32" ht="15.0" customHeight="1">
-      <c r="A32" s="91" t="s">
-        <v>6</v>
-      </c>
-      <c r="B32" s="37" t="s">
-        <v>6</v>
-      </c>
-      <c r="C32" s="96" t="s">
-        <v>66</v>
-      </c>
-      <c r="D32" s="36" t="s">
+      <c r="A32" s="83" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="47" t="s">
+        <v>67</v>
+      </c>
+      <c r="D32" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="E32" s="48" t="s">
-        <v>67</v>
-      </c>
-      <c r="F32" s="40">
+      <c r="E32" s="45" t="s">
+        <v>68</v>
+      </c>
+      <c r="F32" s="38">
         <v>8.0</v>
       </c>
-      <c r="G32" s="37" t="s">
-        <v>6</v>
-      </c>
-      <c r="H32" s="39">
+      <c r="G32" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="H32" s="37">
         <v>8.0</v>
       </c>
-      <c r="I32" s="37" t="s">
+      <c r="I32" s="35" t="s">
         <v>6</v>
       </c>
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
-      <c r="M32" s="93">
+      <c r="M32" s="85">
         <v>3.0</v>
       </c>
-      <c r="N32" s="94" t="s">
-        <v>6</v>
-      </c>
-      <c r="O32" s="93">
+      <c r="N32" s="86" t="s">
+        <v>6</v>
+      </c>
+      <c r="O32" s="85">
         <v>2.0</v>
       </c>
-      <c r="P32" s="93">
+      <c r="P32" s="85">
         <v>3.0</v>
       </c>
-      <c r="Q32" s="93">
+      <c r="Q32" s="85">
         <v>8.0</v>
       </c>
       <c r="R32" s="4"/>
@@ -3222,47 +3148,47 @@
       <c r="Z32" s="4"/>
     </row>
     <row r="33" ht="15.0" customHeight="1">
-      <c r="A33" s="91" t="s">
-        <v>6</v>
-      </c>
-      <c r="B33" s="37" t="s">
-        <v>6</v>
-      </c>
-      <c r="C33" s="96" t="s">
-        <v>68</v>
-      </c>
-      <c r="D33" s="36" t="s">
+      <c r="A33" s="83" t="s">
+        <v>6</v>
+      </c>
+      <c r="B33" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" s="47" t="s">
+        <v>69</v>
+      </c>
+      <c r="D33" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="E33" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="F33" s="40">
+      <c r="E33" s="45" t="s">
+        <v>70</v>
+      </c>
+      <c r="F33" s="38">
         <v>4.0</v>
       </c>
-      <c r="G33" s="37" t="s">
-        <v>6</v>
-      </c>
-      <c r="H33" s="39">
+      <c r="G33" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="H33" s="37">
         <v>3.5</v>
       </c>
-      <c r="I33" s="37" t="s">
+      <c r="I33" s="35" t="s">
         <v>6</v>
       </c>
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
-      <c r="M33" s="93"/>
-      <c r="N33" s="94" t="s">
-        <v>6</v>
-      </c>
-      <c r="O33" s="93">
+      <c r="M33" s="85"/>
+      <c r="N33" s="86" t="s">
+        <v>6</v>
+      </c>
+      <c r="O33" s="85">
         <v>1.5</v>
       </c>
-      <c r="P33" s="93">
+      <c r="P33" s="85">
         <v>1.5</v>
       </c>
-      <c r="Q33" s="93">
+      <c r="Q33" s="85">
         <v>3.5</v>
       </c>
       <c r="R33" s="4"/>
@@ -3276,47 +3202,47 @@
       <c r="Z33" s="4"/>
     </row>
     <row r="34" ht="15.0" customHeight="1">
-      <c r="A34" s="91" t="s">
-        <v>6</v>
-      </c>
-      <c r="B34" s="37" t="s">
-        <v>6</v>
-      </c>
-      <c r="C34" s="51" t="s">
-        <v>70</v>
-      </c>
-      <c r="D34" s="51" t="s">
+      <c r="A34" s="83" t="s">
+        <v>6</v>
+      </c>
+      <c r="B34" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" s="48" t="s">
+        <v>71</v>
+      </c>
+      <c r="D34" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="E34" s="51" t="s">
-        <v>71</v>
-      </c>
-      <c r="F34" s="53">
+      <c r="E34" s="48" t="s">
+        <v>72</v>
+      </c>
+      <c r="F34" s="38">
         <v>4.0</v>
       </c>
-      <c r="G34" s="97" t="s">
-        <v>6</v>
-      </c>
-      <c r="H34" s="39">
+      <c r="G34" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="H34" s="37">
         <v>4.0</v>
       </c>
-      <c r="I34" s="97" t="s">
+      <c r="I34" s="35" t="s">
         <v>6</v>
       </c>
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
       <c r="L34" s="2"/>
-      <c r="M34" s="93">
+      <c r="M34" s="85">
         <v>2.0</v>
       </c>
-      <c r="N34" s="94" t="s">
-        <v>6</v>
-      </c>
-      <c r="O34" s="93"/>
-      <c r="P34" s="93">
+      <c r="N34" s="86" t="s">
+        <v>6</v>
+      </c>
+      <c r="O34" s="85"/>
+      <c r="P34" s="85">
         <v>2.0</v>
       </c>
-      <c r="Q34" s="93">
+      <c r="Q34" s="85">
         <v>4.0</v>
       </c>
       <c r="R34" s="4"/>
@@ -3330,49 +3256,49 @@
       <c r="Z34" s="4"/>
     </row>
     <row r="35" ht="15.0" customHeight="1">
-      <c r="A35" s="91" t="s">
+      <c r="A35" s="83" t="s">
         <v>6</v>
       </c>
       <c r="B35" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C35" s="51" t="s">
-        <v>72</v>
-      </c>
-      <c r="D35" s="51" t="s">
+      <c r="C35" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="D35" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="E35" s="48" t="s">
-        <v>73</v>
-      </c>
-      <c r="F35" s="53">
+      <c r="E35" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="F35" s="38">
         <v>2.0</v>
       </c>
-      <c r="G35" s="37" t="s">
-        <v>6</v>
-      </c>
-      <c r="H35" s="98">
+      <c r="G35" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="H35" s="87">
         <v>1.5</v>
       </c>
-      <c r="I35" s="37" t="s">
+      <c r="I35" s="35" t="s">
         <v>6</v>
       </c>
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
       <c r="L35" s="2"/>
-      <c r="M35" s="99">
+      <c r="M35" s="88">
         <v>0.5</v>
       </c>
-      <c r="N35" s="100" t="s">
-        <v>6</v>
-      </c>
-      <c r="O35" s="99">
+      <c r="N35" s="89" t="s">
+        <v>6</v>
+      </c>
+      <c r="O35" s="88">
         <v>0.5</v>
       </c>
-      <c r="P35" s="99">
+      <c r="P35" s="88">
         <v>0.5</v>
       </c>
-      <c r="Q35" s="99">
+      <c r="Q35" s="88">
         <v>1.5</v>
       </c>
       <c r="R35" s="4"/>
@@ -3386,106 +3312,106 @@
       <c r="Z35" s="4"/>
     </row>
     <row r="36" ht="15.0" customHeight="1">
-      <c r="A36" s="101" t="s">
-        <v>6</v>
-      </c>
-      <c r="B36" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="C36" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="D36" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="E36" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="F36" s="77" t="s">
-        <v>6</v>
-      </c>
-      <c r="G36" s="87">
-        <f>SUM(F37:F38)</f>
+      <c r="A36" s="83" t="s">
+        <v>6</v>
+      </c>
+      <c r="B36" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="C36" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="E36" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="F36" s="70" t="s">
+        <v>6</v>
+      </c>
+      <c r="G36" s="79">
+        <f>SUM(F37)</f>
         <v>1</v>
       </c>
-      <c r="H36" s="79" t="s">
-        <v>6</v>
-      </c>
-      <c r="I36" s="102">
+      <c r="H36" s="71" t="s">
+        <v>6</v>
+      </c>
+      <c r="I36" s="90">
         <v>1.0</v>
       </c>
-      <c r="J36" s="32"/>
-      <c r="K36" s="32"/>
-      <c r="L36" s="32"/>
-      <c r="M36" s="103" t="s">
-        <v>6</v>
-      </c>
-      <c r="N36" s="103" t="s">
-        <v>6</v>
-      </c>
-      <c r="O36" s="103" t="s">
-        <v>6</v>
-      </c>
-      <c r="P36" s="103" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q36" s="104">
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="91">
         <v>1.0</v>
       </c>
-      <c r="R36" s="34"/>
-      <c r="S36" s="34"/>
-      <c r="T36" s="34"/>
-      <c r="U36" s="34"/>
-      <c r="V36" s="34"/>
-      <c r="W36" s="34"/>
-      <c r="X36" s="34"/>
-      <c r="Y36" s="34"/>
-      <c r="Z36" s="34"/>
+      <c r="N36" s="82" t="s">
+        <v>6</v>
+      </c>
+      <c r="O36" s="82" t="s">
+        <v>6</v>
+      </c>
+      <c r="P36" s="82" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q36" s="91">
+        <v>1.0</v>
+      </c>
+      <c r="R36" s="32"/>
+      <c r="S36" s="32"/>
+      <c r="T36" s="32"/>
+      <c r="U36" s="32"/>
+      <c r="V36" s="32"/>
+      <c r="W36" s="32"/>
+      <c r="X36" s="32"/>
+      <c r="Y36" s="32"/>
+      <c r="Z36" s="32"/>
     </row>
     <row r="37" ht="15.0" customHeight="1">
-      <c r="A37" s="91" t="s">
-        <v>6</v>
-      </c>
-      <c r="B37" s="37" t="s">
-        <v>6</v>
-      </c>
-      <c r="C37" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="D37" s="51" t="s">
-        <v>53</v>
-      </c>
-      <c r="E37" s="92" t="s">
+      <c r="A37" s="83" t="s">
+        <v>6</v>
+      </c>
+      <c r="B37" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" s="48" t="s">
+        <v>75</v>
+      </c>
+      <c r="D37" s="48" t="s">
+        <v>54</v>
+      </c>
+      <c r="E37" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="F37" s="53">
+      <c r="F37" s="38">
         <v>1.0</v>
       </c>
-      <c r="G37" s="37" t="s">
-        <v>6</v>
-      </c>
-      <c r="H37" s="39">
+      <c r="G37" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="H37" s="37">
         <v>1.0</v>
       </c>
-      <c r="I37" s="37" t="s">
+      <c r="I37" s="35" t="s">
         <v>6</v>
       </c>
       <c r="J37" s="2"/>
       <c r="K37" s="2"/>
       <c r="L37" s="2"/>
-      <c r="M37" s="93">
+      <c r="M37" s="85">
         <v>1.0</v>
       </c>
-      <c r="N37" s="95" t="s">
-        <v>6</v>
-      </c>
-      <c r="O37" s="95" t="s">
-        <v>6</v>
-      </c>
-      <c r="P37" s="95" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q37" s="93">
+      <c r="N37" s="86" t="s">
+        <v>6</v>
+      </c>
+      <c r="O37" s="86" t="s">
+        <v>6</v>
+      </c>
+      <c r="P37" s="86" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q37" s="85">
         <v>1.0</v>
       </c>
       <c r="R37" s="4"/>
@@ -3499,146 +3425,152 @@
       <c r="Z37" s="4"/>
     </row>
     <row r="38" ht="15.0" customHeight="1">
-      <c r="A38" s="91" t="s">
-        <v>6</v>
-      </c>
-      <c r="B38" s="37" t="s">
-        <v>6</v>
-      </c>
-      <c r="C38" s="51"/>
-      <c r="D38" s="36"/>
-      <c r="E38" s="52"/>
-      <c r="F38" s="53"/>
-      <c r="G38" s="37" t="s">
-        <v>6</v>
-      </c>
-      <c r="H38" s="49" t="s">
-        <v>6</v>
-      </c>
-      <c r="I38" s="37" t="s">
-        <v>6</v>
-      </c>
-      <c r="J38" s="2"/>
-      <c r="K38" s="2"/>
-      <c r="L38" s="2"/>
-      <c r="M38" s="95" t="s">
-        <v>6</v>
-      </c>
-      <c r="N38" s="95" t="s">
-        <v>6</v>
-      </c>
-      <c r="O38" s="95" t="s">
-        <v>6</v>
-      </c>
-      <c r="P38" s="95" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q38" s="95" t="s">
-        <v>6</v>
-      </c>
-      <c r="R38" s="4"/>
-      <c r="S38" s="4"/>
-      <c r="T38" s="4"/>
-      <c r="U38" s="4"/>
-      <c r="V38" s="4"/>
-      <c r="W38" s="4"/>
-      <c r="X38" s="4"/>
-      <c r="Y38" s="4"/>
-      <c r="Z38" s="4"/>
+      <c r="A38" s="83" t="s">
+        <v>6</v>
+      </c>
+      <c r="B38" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="C38" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="D38" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="E38" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="F38" s="70" t="s">
+        <v>6</v>
+      </c>
+      <c r="G38" s="79">
+        <f>SUM(F39:F41)</f>
+        <v>12</v>
+      </c>
+      <c r="H38" s="71" t="s">
+        <v>6</v>
+      </c>
+      <c r="I38" s="90">
+        <v>10.0</v>
+      </c>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="91">
+        <v>3.0</v>
+      </c>
+      <c r="N38" s="91">
+        <v>2.0</v>
+      </c>
+      <c r="O38" s="82" t="s">
+        <v>6</v>
+      </c>
+      <c r="P38" s="91">
+        <v>5.0</v>
+      </c>
+      <c r="Q38" s="82">
+        <f>SUM(Q39:Q41)</f>
+        <v>10</v>
+      </c>
+      <c r="R38" s="32"/>
+      <c r="S38" s="32"/>
+      <c r="T38" s="32"/>
+      <c r="U38" s="32"/>
+      <c r="V38" s="32"/>
+      <c r="W38" s="32"/>
+      <c r="X38" s="32"/>
+      <c r="Y38" s="32"/>
+      <c r="Z38" s="32"/>
     </row>
     <row r="39" ht="15.0" customHeight="1">
-      <c r="A39" s="101" t="s">
-        <v>6</v>
-      </c>
-      <c r="B39" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="C39" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="D39" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="E39" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="F39" s="77" t="s">
-        <v>6</v>
-      </c>
-      <c r="G39" s="87">
-        <f>SUM(F40:F43)</f>
-        <v>12</v>
-      </c>
-      <c r="H39" s="79" t="s">
-        <v>6</v>
-      </c>
-      <c r="I39" s="102">
-        <v>10.0</v>
-      </c>
-      <c r="J39" s="32"/>
-      <c r="K39" s="32"/>
-      <c r="L39" s="32"/>
-      <c r="M39" s="103" t="s">
-        <v>6</v>
-      </c>
-      <c r="N39" s="103" t="s">
-        <v>6</v>
-      </c>
-      <c r="O39" s="103" t="s">
-        <v>6</v>
-      </c>
-      <c r="P39" s="103" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q39" s="90">
-        <f>SUM(Q40:Q43)</f>
-        <v>10</v>
-      </c>
-      <c r="R39" s="34"/>
-      <c r="S39" s="34"/>
-      <c r="T39" s="34"/>
-      <c r="U39" s="34"/>
-      <c r="V39" s="34"/>
-      <c r="W39" s="34"/>
-      <c r="X39" s="34"/>
-      <c r="Y39" s="34"/>
-      <c r="Z39" s="34"/>
+      <c r="A39" s="83"/>
+      <c r="B39" s="92"/>
+      <c r="C39" s="93" t="s">
+        <v>76</v>
+      </c>
+      <c r="D39" s="93" t="s">
+        <v>35</v>
+      </c>
+      <c r="E39" s="94" t="s">
+        <v>77</v>
+      </c>
+      <c r="F39" s="95">
+        <v>6.0</v>
+      </c>
+      <c r="G39" s="96"/>
+      <c r="H39" s="97">
+        <v>8.0</v>
+      </c>
+      <c r="I39" s="96"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
+      <c r="M39" s="98">
+        <v>3.0</v>
+      </c>
+      <c r="N39" s="98">
+        <v>2.0</v>
+      </c>
+      <c r="O39" s="98"/>
+      <c r="P39" s="98">
+        <v>3.0</v>
+      </c>
+      <c r="Q39" s="98">
+        <v>8.0</v>
+      </c>
+      <c r="R39" s="4"/>
+      <c r="S39" s="4"/>
+      <c r="T39" s="4"/>
+      <c r="U39" s="4"/>
+      <c r="V39" s="4"/>
+      <c r="W39" s="4"/>
+      <c r="X39" s="4"/>
+      <c r="Y39" s="4"/>
+      <c r="Z39" s="4"/>
     </row>
     <row r="40" ht="15.0" customHeight="1">
-      <c r="A40" s="91"/>
-      <c r="B40" s="105"/>
-      <c r="C40" s="106" t="s">
-        <v>75</v>
-      </c>
-      <c r="D40" s="106" t="s">
+      <c r="A40" s="83" t="s">
+        <v>6</v>
+      </c>
+      <c r="B40" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" s="48" t="s">
+        <v>78</v>
+      </c>
+      <c r="D40" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="E40" s="107" t="s">
-        <v>76</v>
-      </c>
-      <c r="F40" s="108">
-        <v>6.0</v>
-      </c>
-      <c r="G40" s="109"/>
-      <c r="H40" s="110">
-        <v>8.0</v>
-      </c>
-      <c r="I40" s="109"/>
+      <c r="E40" s="84" t="s">
+        <v>79</v>
+      </c>
+      <c r="F40" s="99">
+        <v>4.0</v>
+      </c>
+      <c r="G40" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="H40" s="37"/>
+      <c r="I40" s="35" t="s">
+        <v>6</v>
+      </c>
       <c r="J40" s="2"/>
       <c r="K40" s="2"/>
       <c r="L40" s="2"/>
-      <c r="M40" s="111">
-        <v>3.0</v>
-      </c>
-      <c r="N40" s="111">
-        <v>2.0</v>
-      </c>
-      <c r="O40" s="111"/>
-      <c r="P40" s="111">
-        <v>3.0</v>
-      </c>
-      <c r="Q40" s="111">
-        <v>8.0</v>
+      <c r="M40" s="86" t="s">
+        <v>6</v>
+      </c>
+      <c r="N40" s="86" t="s">
+        <v>6</v>
+      </c>
+      <c r="O40" s="86" t="s">
+        <v>6</v>
+      </c>
+      <c r="P40" s="86" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q40" s="86" t="s">
+        <v>6</v>
       </c>
       <c r="R40" s="4"/>
       <c r="S40" s="4"/>
@@ -3651,48 +3583,50 @@
       <c r="Z40" s="4"/>
     </row>
     <row r="41" ht="15.0" customHeight="1">
-      <c r="A41" s="91" t="s">
-        <v>6</v>
-      </c>
-      <c r="B41" s="37" t="s">
-        <v>6</v>
-      </c>
-      <c r="C41" s="51" t="s">
-        <v>77</v>
-      </c>
-      <c r="D41" s="36" t="s">
+      <c r="A41" s="83" t="s">
+        <v>6</v>
+      </c>
+      <c r="B41" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" s="48" t="s">
+        <v>59</v>
+      </c>
+      <c r="D41" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="E41" s="92" t="s">
-        <v>78</v>
-      </c>
-      <c r="F41" s="112">
-        <v>4.0</v>
-      </c>
-      <c r="G41" s="37" t="s">
-        <v>6</v>
-      </c>
-      <c r="H41" s="39"/>
-      <c r="I41" s="37" t="s">
+      <c r="E41" s="84" t="s">
+        <v>30</v>
+      </c>
+      <c r="F41" s="100">
+        <v>2.0</v>
+      </c>
+      <c r="G41" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="H41" s="37" t="s">
+        <v>80</v>
+      </c>
+      <c r="I41" s="35" t="s">
         <v>6</v>
       </c>
       <c r="J41" s="2"/>
       <c r="K41" s="2"/>
       <c r="L41" s="2"/>
-      <c r="M41" s="95" t="s">
-        <v>6</v>
-      </c>
-      <c r="N41" s="95" t="s">
-        <v>6</v>
-      </c>
-      <c r="O41" s="95" t="s">
-        <v>6</v>
-      </c>
-      <c r="P41" s="95" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q41" s="95" t="s">
-        <v>6</v>
+      <c r="M41" s="86" t="s">
+        <v>6</v>
+      </c>
+      <c r="N41" s="86" t="s">
+        <v>6</v>
+      </c>
+      <c r="O41" s="86" t="s">
+        <v>6</v>
+      </c>
+      <c r="P41" s="85">
+        <v>2.0</v>
+      </c>
+      <c r="Q41" s="85">
+        <v>2.0</v>
       </c>
       <c r="R41" s="4"/>
       <c r="S41" s="4"/>
@@ -3705,92 +3639,103 @@
       <c r="Z41" s="4"/>
     </row>
     <row r="42" ht="15.0" customHeight="1">
-      <c r="A42" s="91" t="s">
-        <v>6</v>
-      </c>
-      <c r="B42" s="37" t="s">
-        <v>6</v>
-      </c>
-      <c r="C42" s="51" t="s">
-        <v>58</v>
-      </c>
-      <c r="D42" s="51" t="s">
-        <v>35</v>
-      </c>
-      <c r="E42" s="92" t="s">
-        <v>30</v>
-      </c>
-      <c r="F42" s="113">
-        <v>2.0</v>
-      </c>
-      <c r="G42" s="37" t="s">
-        <v>6</v>
-      </c>
-      <c r="H42" s="39" t="s">
-        <v>79</v>
-      </c>
-      <c r="I42" s="37" t="s">
-        <v>6</v>
-      </c>
-      <c r="J42" s="2"/>
-      <c r="K42" s="2"/>
-      <c r="L42" s="2"/>
-      <c r="M42" s="95" t="s">
-        <v>6</v>
-      </c>
-      <c r="N42" s="95" t="s">
-        <v>6</v>
-      </c>
-      <c r="O42" s="95" t="s">
-        <v>6</v>
-      </c>
-      <c r="P42" s="93">
-        <v>2.0</v>
-      </c>
-      <c r="Q42" s="93">
-        <v>2.0</v>
-      </c>
-      <c r="R42" s="4"/>
-      <c r="S42" s="4"/>
-      <c r="T42" s="4"/>
-      <c r="U42" s="4"/>
-      <c r="V42" s="4"/>
-      <c r="W42" s="4"/>
-      <c r="X42" s="4"/>
-      <c r="Y42" s="4"/>
-      <c r="Z42" s="4"/>
+      <c r="A42" s="101" t="s">
+        <v>81</v>
+      </c>
+      <c r="B42" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="C42" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="D42" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="E42" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="F42" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="G42" s="79">
+        <f>SUM(F43:F45)</f>
+        <v>6</v>
+      </c>
+      <c r="H42" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="I42" s="90">
+        <v>6.0</v>
+      </c>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="91">
+        <v>1.5</v>
+      </c>
+      <c r="N42" s="91">
+        <v>1.5</v>
+      </c>
+      <c r="O42" s="82" t="s">
+        <v>6</v>
+      </c>
+      <c r="P42" s="91">
+        <v>3.0</v>
+      </c>
+      <c r="Q42" s="91">
+        <v>6.0</v>
+      </c>
+      <c r="R42" s="32"/>
+      <c r="S42" s="32"/>
+      <c r="T42" s="32"/>
+      <c r="U42" s="32"/>
+      <c r="V42" s="32"/>
+      <c r="W42" s="32"/>
+      <c r="X42" s="32"/>
+      <c r="Y42" s="32"/>
+      <c r="Z42" s="32"/>
     </row>
     <row r="43" ht="15.0" customHeight="1">
-      <c r="A43" s="91" t="s">
-        <v>6</v>
-      </c>
-      <c r="B43" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="C43" s="114"/>
-      <c r="D43" s="115"/>
-      <c r="E43" s="116"/>
-      <c r="F43" s="117"/>
-      <c r="G43" s="97"/>
-      <c r="H43" s="98"/>
-      <c r="I43" s="97"/>
+      <c r="A43" s="101" t="s">
+        <v>82</v>
+      </c>
+      <c r="B43" s="102" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" s="103" t="s">
+        <v>83</v>
+      </c>
+      <c r="D43" s="74" t="s">
+        <v>65</v>
+      </c>
+      <c r="E43" s="104" t="s">
+        <v>84</v>
+      </c>
+      <c r="F43" s="74">
+        <v>3.0</v>
+      </c>
+      <c r="G43" s="74"/>
+      <c r="H43" s="105">
+        <v>3.0</v>
+      </c>
+      <c r="I43" s="62"/>
       <c r="J43" s="2"/>
       <c r="K43" s="2"/>
       <c r="L43" s="2"/>
-      <c r="M43" s="100" t="s">
-        <v>6</v>
-      </c>
-      <c r="N43" s="100" t="s">
-        <v>6</v>
-      </c>
-      <c r="O43" s="100" t="s">
-        <v>6</v>
-      </c>
-      <c r="P43" s="100" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q43" s="100" t="s">
-        <v>6</v>
+      <c r="M43" s="106" t="s">
+        <v>6</v>
+      </c>
+      <c r="N43" s="107">
+        <v>1.5</v>
+      </c>
+      <c r="O43" s="106" t="s">
+        <v>6</v>
+      </c>
+      <c r="P43" s="107">
+        <v>1.5</v>
+      </c>
+      <c r="Q43" s="107">
+        <v>3.0</v>
       </c>
       <c r="R43" s="4"/>
       <c r="S43" s="4"/>
@@ -3803,102 +3748,95 @@
       <c r="Z43" s="4"/>
     </row>
     <row r="44" ht="15.0" customHeight="1">
-      <c r="A44" s="118" t="s">
-        <v>80</v>
-      </c>
-      <c r="B44" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="C44" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="D44" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="E44" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="F44" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="G44" s="87">
-        <f>SUM(F45:F48)</f>
-        <v>12</v>
-      </c>
-      <c r="H44" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="I44" s="119">
-        <v>0.0</v>
-      </c>
-      <c r="J44" s="32"/>
-      <c r="K44" s="32"/>
-      <c r="L44" s="32"/>
-      <c r="M44" s="103" t="s">
-        <v>6</v>
-      </c>
-      <c r="N44" s="103" t="s">
-        <v>6</v>
-      </c>
-      <c r="O44" s="103" t="s">
-        <v>6</v>
-      </c>
-      <c r="P44" s="103" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q44" s="103">
-        <v>0.0</v>
-      </c>
-      <c r="R44" s="34"/>
-      <c r="S44" s="34"/>
-      <c r="T44" s="34"/>
-      <c r="U44" s="34"/>
-      <c r="V44" s="34"/>
-      <c r="W44" s="34"/>
-      <c r="X44" s="34"/>
-      <c r="Y44" s="34"/>
-      <c r="Z44" s="34"/>
+      <c r="A44" s="57" t="s">
+        <v>6</v>
+      </c>
+      <c r="B44" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" s="103" t="s">
+        <v>85</v>
+      </c>
+      <c r="D44" s="74" t="s">
+        <v>38</v>
+      </c>
+      <c r="E44" s="103" t="s">
+        <v>86</v>
+      </c>
+      <c r="F44" s="74">
+        <v>3.0</v>
+      </c>
+      <c r="G44" s="74"/>
+      <c r="H44" s="105">
+        <v>3.0</v>
+      </c>
+      <c r="I44" s="62"/>
+      <c r="J44" s="2"/>
+      <c r="K44" s="2"/>
+      <c r="L44" s="2"/>
+      <c r="M44" s="73">
+        <v>1.5</v>
+      </c>
+      <c r="N44" s="108" t="s">
+        <v>6</v>
+      </c>
+      <c r="O44" s="108" t="s">
+        <v>6</v>
+      </c>
+      <c r="P44" s="73">
+        <v>1.5</v>
+      </c>
+      <c r="Q44" s="73">
+        <v>3.0</v>
+      </c>
+      <c r="R44" s="4"/>
+      <c r="S44" s="4"/>
+      <c r="T44" s="4"/>
+      <c r="U44" s="4"/>
+      <c r="V44" s="4"/>
+      <c r="W44" s="4"/>
+      <c r="X44" s="4"/>
+      <c r="Y44" s="4"/>
+      <c r="Z44" s="4"/>
     </row>
     <row r="45" ht="15.0" customHeight="1">
-      <c r="A45" s="120" t="s">
-        <v>81</v>
-      </c>
-      <c r="B45" s="121" t="s">
-        <v>6</v>
-      </c>
-      <c r="C45" s="122" t="s">
-        <v>82</v>
-      </c>
-      <c r="D45" s="82" t="s">
-        <v>64</v>
-      </c>
-      <c r="E45" s="123" t="s">
-        <v>83</v>
-      </c>
-      <c r="F45" s="82">
-        <v>6.0</v>
-      </c>
-      <c r="G45" s="82"/>
-      <c r="H45" s="124" t="s">
-        <v>6</v>
-      </c>
-      <c r="I45" s="68"/>
+      <c r="A45" s="57" t="s">
+        <v>6</v>
+      </c>
+      <c r="B45" s="109" t="s">
+        <v>6</v>
+      </c>
+      <c r="C45" s="110" t="s">
+        <v>6</v>
+      </c>
+      <c r="D45" s="111" t="s">
+        <v>6</v>
+      </c>
+      <c r="E45" s="109" t="s">
+        <v>6</v>
+      </c>
+      <c r="F45" s="62"/>
+      <c r="G45" s="62"/>
+      <c r="H45" s="112" t="s">
+        <v>6</v>
+      </c>
+      <c r="I45" s="62"/>
       <c r="J45" s="2"/>
       <c r="K45" s="2"/>
       <c r="L45" s="2"/>
-      <c r="M45" s="125" t="s">
-        <v>6</v>
-      </c>
-      <c r="N45" s="125" t="s">
-        <v>6</v>
-      </c>
-      <c r="O45" s="125" t="s">
-        <v>6</v>
-      </c>
-      <c r="P45" s="125" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q45" s="125" t="s">
+      <c r="M45" s="113" t="s">
+        <v>6</v>
+      </c>
+      <c r="N45" s="113" t="s">
+        <v>6</v>
+      </c>
+      <c r="O45" s="113" t="s">
+        <v>6</v>
+      </c>
+      <c r="P45" s="113" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q45" s="113" t="s">
         <v>6</v>
       </c>
       <c r="R45" s="4"/>
@@ -3912,95 +3850,102 @@
       <c r="Z45" s="4"/>
     </row>
     <row r="46" ht="15.0" customHeight="1">
-      <c r="A46" s="63" t="s">
-        <v>6</v>
-      </c>
-      <c r="B46" s="80" t="s">
-        <v>6</v>
-      </c>
-      <c r="C46" s="122" t="s">
-        <v>84</v>
-      </c>
-      <c r="D46" s="82" t="s">
-        <v>38</v>
-      </c>
-      <c r="E46" s="126" t="s">
-        <v>85</v>
-      </c>
-      <c r="F46" s="82">
-        <v>6.0</v>
-      </c>
-      <c r="G46" s="82"/>
-      <c r="H46" s="124" t="s">
-        <v>6</v>
-      </c>
-      <c r="I46" s="68"/>
-      <c r="J46" s="2"/>
-      <c r="K46" s="2"/>
-      <c r="L46" s="2"/>
-      <c r="M46" s="127" t="s">
-        <v>6</v>
-      </c>
-      <c r="N46" s="127" t="s">
-        <v>6</v>
-      </c>
-      <c r="O46" s="127" t="s">
-        <v>6</v>
-      </c>
-      <c r="P46" s="127" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q46" s="127" t="s">
-        <v>6</v>
-      </c>
-      <c r="R46" s="4"/>
-      <c r="S46" s="4"/>
-      <c r="T46" s="4"/>
-      <c r="U46" s="4"/>
-      <c r="V46" s="4"/>
-      <c r="W46" s="4"/>
-      <c r="X46" s="4"/>
-      <c r="Y46" s="4"/>
-      <c r="Z46" s="4"/>
+      <c r="A46" s="57" t="s">
+        <v>6</v>
+      </c>
+      <c r="B46" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="C46" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="D46" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="E46" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="F46" s="70" t="s">
+        <v>6</v>
+      </c>
+      <c r="G46" s="79">
+        <f>SUM(F47:F48)</f>
+        <v>4</v>
+      </c>
+      <c r="H46" s="71" t="s">
+        <v>6</v>
+      </c>
+      <c r="I46" s="90">
+        <v>4.0</v>
+      </c>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="91">
+        <v>4.0</v>
+      </c>
+      <c r="N46" s="82" t="s">
+        <v>6</v>
+      </c>
+      <c r="O46" s="82" t="s">
+        <v>6</v>
+      </c>
+      <c r="P46" s="82" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q46" s="91">
+        <v>4.0</v>
+      </c>
+      <c r="R46" s="32"/>
+      <c r="S46" s="32"/>
+      <c r="T46" s="32"/>
+      <c r="U46" s="32"/>
+      <c r="V46" s="32"/>
+      <c r="W46" s="32"/>
+      <c r="X46" s="32"/>
+      <c r="Y46" s="32"/>
+      <c r="Z46" s="32"/>
     </row>
     <row r="47" ht="15.0" customHeight="1">
-      <c r="A47" s="63" t="s">
-        <v>6</v>
-      </c>
-      <c r="B47" s="80" t="s">
-        <v>6</v>
-      </c>
-      <c r="C47" s="121" t="s">
-        <v>6</v>
-      </c>
-      <c r="D47" s="68" t="s">
-        <v>6</v>
-      </c>
-      <c r="E47" s="80" t="s">
-        <v>6</v>
-      </c>
-      <c r="F47" s="68"/>
-      <c r="G47" s="68"/>
-      <c r="H47" s="124" t="s">
-        <v>6</v>
-      </c>
-      <c r="I47" s="68"/>
+      <c r="A47" s="57" t="s">
+        <v>6</v>
+      </c>
+      <c r="B47" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="C47" s="103" t="s">
+        <v>87</v>
+      </c>
+      <c r="D47" s="74" t="s">
+        <v>65</v>
+      </c>
+      <c r="E47" s="104" t="s">
+        <v>1</v>
+      </c>
+      <c r="F47" s="74">
+        <v>4.0</v>
+      </c>
+      <c r="G47" s="74"/>
+      <c r="H47" s="105">
+        <v>4.0</v>
+      </c>
+      <c r="I47" s="62"/>
       <c r="J47" s="2"/>
       <c r="K47" s="2"/>
       <c r="L47" s="2"/>
-      <c r="M47" s="127" t="s">
-        <v>6</v>
-      </c>
-      <c r="N47" s="127" t="s">
-        <v>6</v>
-      </c>
-      <c r="O47" s="127" t="s">
-        <v>6</v>
-      </c>
-      <c r="P47" s="127" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q47" s="127" t="s">
+      <c r="M47" s="73">
+        <v>4.0</v>
+      </c>
+      <c r="N47" s="108" t="s">
+        <v>6</v>
+      </c>
+      <c r="O47" s="108" t="s">
+        <v>6</v>
+      </c>
+      <c r="P47" s="108" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q47" s="108" t="s">
         <v>6</v>
       </c>
       <c r="R47" s="4"/>
@@ -4014,43 +3959,43 @@
       <c r="Z47" s="4"/>
     </row>
     <row r="48" ht="15.0" customHeight="1">
-      <c r="A48" s="63" t="s">
-        <v>6</v>
-      </c>
-      <c r="B48" s="128" t="s">
-        <v>6</v>
-      </c>
-      <c r="C48" s="129" t="s">
-        <v>6</v>
-      </c>
-      <c r="D48" s="130" t="s">
-        <v>6</v>
-      </c>
-      <c r="E48" s="128" t="s">
-        <v>6</v>
-      </c>
-      <c r="F48" s="68"/>
-      <c r="G48" s="68"/>
-      <c r="H48" s="131" t="s">
-        <v>6</v>
-      </c>
-      <c r="I48" s="68"/>
+      <c r="A48" s="57" t="s">
+        <v>6</v>
+      </c>
+      <c r="B48" s="109" t="s">
+        <v>6</v>
+      </c>
+      <c r="C48" s="110" t="s">
+        <v>6</v>
+      </c>
+      <c r="D48" s="111" t="s">
+        <v>6</v>
+      </c>
+      <c r="E48" s="109"/>
+      <c r="F48" s="114" t="s">
+        <v>6</v>
+      </c>
+      <c r="G48" s="62"/>
+      <c r="H48" s="112" t="s">
+        <v>6</v>
+      </c>
+      <c r="I48" s="62"/>
       <c r="J48" s="2"/>
       <c r="K48" s="2"/>
       <c r="L48" s="2"/>
-      <c r="M48" s="132" t="s">
-        <v>6</v>
-      </c>
-      <c r="N48" s="132" t="s">
-        <v>6</v>
-      </c>
-      <c r="O48" s="132" t="s">
-        <v>6</v>
-      </c>
-      <c r="P48" s="132" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q48" s="132" t="s">
+      <c r="M48" s="113" t="s">
+        <v>6</v>
+      </c>
+      <c r="N48" s="113" t="s">
+        <v>6</v>
+      </c>
+      <c r="O48" s="113" t="s">
+        <v>6</v>
+      </c>
+      <c r="P48" s="113" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q48" s="113" t="s">
         <v>6</v>
       </c>
       <c r="R48" s="4"/>
@@ -4064,103 +4009,95 @@
       <c r="Z48" s="4"/>
     </row>
     <row r="49" ht="15.0" customHeight="1">
-      <c r="A49" s="76" t="s">
-        <v>6</v>
-      </c>
-      <c r="B49" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="C49" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="D49" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="E49" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="F49" s="77" t="s">
-        <v>6</v>
-      </c>
-      <c r="G49" s="87">
-        <f>SUM(F50:F54)</f>
-        <v>20</v>
-      </c>
-      <c r="H49" s="79" t="s">
+      <c r="A49" s="57" t="s">
+        <v>6</v>
+      </c>
+      <c r="B49" s="115" t="s">
+        <v>57</v>
+      </c>
+      <c r="C49" s="115" t="s">
+        <v>6</v>
+      </c>
+      <c r="D49" s="116" t="s">
+        <v>6</v>
+      </c>
+      <c r="E49" s="115" t="s">
+        <v>6</v>
+      </c>
+      <c r="F49" s="117" t="s">
+        <v>6</v>
+      </c>
+      <c r="G49" s="79">
+        <f>SUM(F50:F52)</f>
+        <v>6</v>
+      </c>
+      <c r="H49" s="118" t="s">
         <v>6</v>
       </c>
       <c r="I49" s="119">
-        <v>0.0</v>
-      </c>
-      <c r="J49" s="32"/>
-      <c r="K49" s="32"/>
-      <c r="L49" s="32"/>
-      <c r="M49" s="103" t="s">
-        <v>6</v>
-      </c>
-      <c r="N49" s="103" t="s">
-        <v>6</v>
-      </c>
-      <c r="O49" s="103" t="s">
-        <v>6</v>
-      </c>
-      <c r="P49" s="103" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q49" s="103">
-        <v>0.0</v>
-      </c>
-      <c r="R49" s="34"/>
-      <c r="S49" s="34"/>
-      <c r="T49" s="34"/>
-      <c r="U49" s="34"/>
-      <c r="V49" s="34"/>
-      <c r="W49" s="34"/>
-      <c r="X49" s="34"/>
-      <c r="Y49" s="34"/>
-      <c r="Z49" s="34"/>
+        <v>6.0</v>
+      </c>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="120">
+        <v>1.5</v>
+      </c>
+      <c r="N49" s="121" t="s">
+        <v>6</v>
+      </c>
+      <c r="O49" s="121" t="s">
+        <v>6</v>
+      </c>
+      <c r="P49" s="120">
+        <v>4.5</v>
+      </c>
+      <c r="Q49" s="120">
+        <v>6.0</v>
+      </c>
+      <c r="R49" s="32"/>
+      <c r="S49" s="32"/>
+      <c r="T49" s="32"/>
+      <c r="U49" s="32"/>
+      <c r="V49" s="32"/>
+      <c r="W49" s="32"/>
+      <c r="X49" s="32"/>
+      <c r="Y49" s="32"/>
+      <c r="Z49" s="32"/>
     </row>
     <row r="50" ht="15.0" customHeight="1">
-      <c r="A50" s="63" t="s">
-        <v>6</v>
-      </c>
-      <c r="B50" s="80" t="s">
-        <v>6</v>
-      </c>
-      <c r="C50" s="122" t="s">
-        <v>86</v>
-      </c>
-      <c r="D50" s="82" t="s">
-        <v>64</v>
-      </c>
-      <c r="E50" s="133" t="s">
-        <v>1</v>
-      </c>
-      <c r="F50" s="82">
-        <v>8.0</v>
-      </c>
-      <c r="G50" s="82"/>
-      <c r="H50" s="124" t="s">
-        <v>6</v>
-      </c>
-      <c r="I50" s="68"/>
+      <c r="A50" s="122"/>
+      <c r="B50" s="123"/>
+      <c r="C50" s="74" t="s">
+        <v>78</v>
+      </c>
+      <c r="D50" s="62" t="s">
+        <v>35</v>
+      </c>
+      <c r="E50" s="75" t="s">
+        <v>88</v>
+      </c>
+      <c r="F50" s="124">
+        <v>4.0</v>
+      </c>
+      <c r="G50" s="125"/>
+      <c r="H50" s="126">
+        <v>4.0</v>
+      </c>
+      <c r="I50" s="127"/>
       <c r="J50" s="2"/>
       <c r="K50" s="2"/>
       <c r="L50" s="2"/>
-      <c r="M50" s="127" t="s">
-        <v>6</v>
-      </c>
-      <c r="N50" s="127" t="s">
-        <v>6</v>
-      </c>
-      <c r="O50" s="127" t="s">
-        <v>6</v>
-      </c>
-      <c r="P50" s="127" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q50" s="127" t="s">
-        <v>6</v>
+      <c r="M50" s="107">
+        <v>1.0</v>
+      </c>
+      <c r="N50" s="107"/>
+      <c r="O50" s="107"/>
+      <c r="P50" s="107">
+        <v>3.0</v>
+      </c>
+      <c r="Q50" s="107">
+        <v>4.0</v>
       </c>
       <c r="R50" s="4"/>
       <c r="S50" s="4"/>
@@ -4173,46 +4110,38 @@
       <c r="Z50" s="4"/>
     </row>
     <row r="51" ht="15.0" customHeight="1">
-      <c r="A51" s="63" t="s">
-        <v>6</v>
-      </c>
-      <c r="B51" s="80" t="s">
-        <v>6</v>
-      </c>
-      <c r="C51" s="122" t="s">
-        <v>87</v>
-      </c>
-      <c r="D51" s="82" t="s">
-        <v>40</v>
-      </c>
-      <c r="E51" s="134" t="s">
+      <c r="A51" s="122"/>
+      <c r="B51" s="123"/>
+      <c r="C51" s="74" t="s">
+        <v>59</v>
+      </c>
+      <c r="D51" s="74" t="s">
+        <v>35</v>
+      </c>
+      <c r="E51" s="75" t="s">
         <v>88</v>
       </c>
-      <c r="F51" s="82">
+      <c r="F51" s="124">
         <v>2.0</v>
       </c>
-      <c r="G51" s="82"/>
-      <c r="H51" s="124" t="s">
-        <v>6</v>
-      </c>
-      <c r="I51" s="68"/>
+      <c r="G51" s="125"/>
+      <c r="H51" s="126">
+        <v>2.0</v>
+      </c>
+      <c r="I51" s="127"/>
       <c r="J51" s="2"/>
       <c r="K51" s="2"/>
       <c r="L51" s="2"/>
-      <c r="M51" s="127" t="s">
-        <v>6</v>
-      </c>
-      <c r="N51" s="127" t="s">
-        <v>6</v>
-      </c>
-      <c r="O51" s="127" t="s">
-        <v>6</v>
-      </c>
-      <c r="P51" s="127" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q51" s="127" t="s">
-        <v>6</v>
+      <c r="M51" s="107">
+        <v>0.5</v>
+      </c>
+      <c r="N51" s="106"/>
+      <c r="O51" s="107"/>
+      <c r="P51" s="107">
+        <v>1.5</v>
+      </c>
+      <c r="Q51" s="107">
+        <v>2.0</v>
       </c>
       <c r="R51" s="4"/>
       <c r="S51" s="4"/>
@@ -4225,45 +4154,37 @@
       <c r="Z51" s="4"/>
     </row>
     <row r="52" ht="15.0" customHeight="1">
-      <c r="A52" s="63" t="s">
-        <v>6</v>
-      </c>
-      <c r="B52" s="80" t="s">
-        <v>6</v>
-      </c>
-      <c r="C52" s="135" t="s">
-        <v>89</v>
-      </c>
-      <c r="D52" s="82" t="s">
-        <v>64</v>
-      </c>
-      <c r="E52" s="134" t="s">
-        <v>90</v>
-      </c>
-      <c r="F52" s="82">
-        <v>2.0</v>
-      </c>
-      <c r="G52" s="82"/>
-      <c r="H52" s="124" t="s">
-        <v>6</v>
-      </c>
-      <c r="I52" s="68"/>
+      <c r="A52" s="128" t="s">
+        <v>6</v>
+      </c>
+      <c r="B52" s="109" t="s">
+        <v>6</v>
+      </c>
+      <c r="C52" s="110"/>
+      <c r="D52" s="111"/>
+      <c r="E52" s="110"/>
+      <c r="F52" s="129"/>
+      <c r="G52" s="62"/>
+      <c r="H52" s="112" t="s">
+        <v>6</v>
+      </c>
+      <c r="I52" s="62"/>
       <c r="J52" s="2"/>
       <c r="K52" s="2"/>
       <c r="L52" s="2"/>
-      <c r="M52" s="127" t="s">
-        <v>6</v>
-      </c>
-      <c r="N52" s="127" t="s">
-        <v>6</v>
-      </c>
-      <c r="O52" s="127" t="s">
-        <v>6</v>
-      </c>
-      <c r="P52" s="127" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q52" s="127" t="s">
+      <c r="M52" s="113" t="s">
+        <v>6</v>
+      </c>
+      <c r="N52" s="113" t="s">
+        <v>6</v>
+      </c>
+      <c r="O52" s="113" t="s">
+        <v>6</v>
+      </c>
+      <c r="P52" s="113" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q52" s="113" t="s">
         <v>6</v>
       </c>
       <c r="R52" s="4"/>
@@ -4276,98 +4197,94 @@
       <c r="Y52" s="4"/>
       <c r="Z52" s="4"/>
     </row>
-    <row r="53" ht="15.0" customHeight="1">
-      <c r="A53" s="63" t="s">
-        <v>6</v>
-      </c>
-      <c r="B53" s="80" t="s">
-        <v>6</v>
-      </c>
-      <c r="C53" s="135" t="s">
+    <row r="53" ht="15.75" customHeight="1">
+      <c r="A53" s="77" t="s">
+        <v>89</v>
+      </c>
+      <c r="B53" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="C53" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="D53" s="44"/>
+      <c r="E53" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="F53" s="78" t="s">
+        <v>6</v>
+      </c>
+      <c r="G53" s="79">
+        <f>SUM(F54:F58)</f>
+        <v>6</v>
+      </c>
+      <c r="H53" s="80" t="s">
+        <v>6</v>
+      </c>
+      <c r="I53" s="81">
+        <v>0.0</v>
+      </c>
+      <c r="J53" s="7"/>
+      <c r="K53" s="7"/>
+      <c r="L53" s="7"/>
+      <c r="M53" s="82" t="s">
+        <v>6</v>
+      </c>
+      <c r="N53" s="82" t="s">
+        <v>6</v>
+      </c>
+      <c r="O53" s="82" t="s">
+        <v>6</v>
+      </c>
+      <c r="P53" s="82" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q53" s="82">
+        <f>SUM(Q54:Q58)</f>
+        <v>0</v>
+      </c>
+      <c r="R53" s="32"/>
+      <c r="S53" s="32"/>
+      <c r="T53" s="32"/>
+      <c r="U53" s="32"/>
+      <c r="V53" s="32"/>
+      <c r="W53" s="32"/>
+      <c r="X53" s="32"/>
+      <c r="Y53" s="32"/>
+      <c r="Z53" s="32"/>
+    </row>
+    <row r="54" ht="15.75" customHeight="1">
+      <c r="A54" s="77" t="s">
+        <v>90</v>
+      </c>
+      <c r="B54" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="C54" s="47" t="s">
+        <v>83</v>
+      </c>
+      <c r="D54" s="48" t="s">
+        <v>65</v>
+      </c>
+      <c r="E54" s="130" t="s">
         <v>91</v>
       </c>
-      <c r="D53" s="82" t="s">
-        <v>64</v>
-      </c>
-      <c r="E53" s="134" t="s">
-        <v>3</v>
-      </c>
-      <c r="F53" s="82">
-        <v>8.0</v>
-      </c>
-      <c r="G53" s="82"/>
-      <c r="H53" s="124" t="s">
-        <v>6</v>
-      </c>
-      <c r="I53" s="68"/>
-      <c r="J53" s="2"/>
-      <c r="K53" s="2"/>
-      <c r="L53" s="2"/>
-      <c r="M53" s="127" t="s">
-        <v>6</v>
-      </c>
-      <c r="N53" s="127" t="s">
-        <v>6</v>
-      </c>
-      <c r="O53" s="127" t="s">
-        <v>6</v>
-      </c>
-      <c r="P53" s="127" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q53" s="127" t="s">
-        <v>6</v>
-      </c>
-      <c r="R53" s="4"/>
-      <c r="S53" s="4"/>
-      <c r="T53" s="4"/>
-      <c r="U53" s="4"/>
-      <c r="V53" s="4"/>
-      <c r="W53" s="4"/>
-      <c r="X53" s="4"/>
-      <c r="Y53" s="4"/>
-      <c r="Z53" s="4"/>
-    </row>
-    <row r="54" ht="15.0" customHeight="1">
-      <c r="A54" s="63" t="s">
-        <v>6</v>
-      </c>
-      <c r="B54" s="128" t="s">
-        <v>6</v>
-      </c>
-      <c r="C54" s="129" t="s">
-        <v>6</v>
-      </c>
-      <c r="D54" s="130" t="s">
-        <v>6</v>
-      </c>
-      <c r="E54" s="136"/>
-      <c r="F54" s="137" t="s">
-        <v>6</v>
-      </c>
-      <c r="G54" s="68"/>
-      <c r="H54" s="131" t="s">
-        <v>6</v>
-      </c>
-      <c r="I54" s="68"/>
-      <c r="J54" s="2"/>
-      <c r="K54" s="2"/>
-      <c r="L54" s="2"/>
-      <c r="M54" s="132" t="s">
-        <v>6</v>
-      </c>
-      <c r="N54" s="132" t="s">
-        <v>6</v>
-      </c>
-      <c r="O54" s="132" t="s">
-        <v>6</v>
-      </c>
-      <c r="P54" s="132" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q54" s="132" t="s">
-        <v>6</v>
-      </c>
+      <c r="F54" s="38">
+        <v>3.0</v>
+      </c>
+      <c r="G54" s="35"/>
+      <c r="H54" s="37"/>
+      <c r="I54" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="J54" s="4"/>
+      <c r="K54" s="4"/>
+      <c r="L54" s="4"/>
+      <c r="M54" s="85"/>
+      <c r="N54" s="86"/>
+      <c r="O54" s="86"/>
+      <c r="P54" s="85"/>
+      <c r="Q54" s="85"/>
       <c r="R54" s="4"/>
       <c r="S54" s="4"/>
       <c r="T54" s="4"/>
@@ -4378,89 +4295,72 @@
       <c r="Y54" s="4"/>
       <c r="Z54" s="4"/>
     </row>
-    <row r="55" ht="15.0" customHeight="1">
-      <c r="A55" s="76" t="s">
-        <v>6</v>
-      </c>
-      <c r="B55" s="138" t="s">
-        <v>56</v>
-      </c>
-      <c r="C55" s="138" t="s">
-        <v>6</v>
-      </c>
-      <c r="D55" s="139" t="s">
-        <v>6</v>
-      </c>
-      <c r="E55" s="138" t="s">
-        <v>6</v>
-      </c>
-      <c r="F55" s="140" t="s">
-        <v>6</v>
-      </c>
-      <c r="G55" s="87">
-        <f>SUM(F56:F59)</f>
-        <v>6</v>
-      </c>
-      <c r="H55" s="141" t="s">
-        <v>6</v>
-      </c>
-      <c r="I55" s="142">
-        <v>0.0</v>
-      </c>
-      <c r="J55" s="32"/>
-      <c r="K55" s="32"/>
-      <c r="L55" s="32"/>
-      <c r="M55" s="143" t="s">
-        <v>6</v>
-      </c>
-      <c r="N55" s="143" t="s">
-        <v>6</v>
-      </c>
-      <c r="O55" s="143" t="s">
-        <v>6</v>
-      </c>
-      <c r="P55" s="143" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q55" s="143">
-        <v>0.0</v>
-      </c>
-      <c r="R55" s="34"/>
-      <c r="S55" s="34"/>
-      <c r="T55" s="34"/>
-      <c r="U55" s="34"/>
-      <c r="V55" s="34"/>
-      <c r="W55" s="34"/>
-      <c r="X55" s="34"/>
-      <c r="Y55" s="34"/>
-      <c r="Z55" s="34"/>
-    </row>
-    <row r="56" ht="15.0" customHeight="1">
-      <c r="A56" s="144"/>
-      <c r="B56" s="145"/>
-      <c r="C56" s="82" t="s">
-        <v>77</v>
-      </c>
-      <c r="D56" s="68" t="s">
-        <v>35</v>
-      </c>
-      <c r="E56" s="83" t="s">
-        <v>20</v>
-      </c>
-      <c r="F56" s="146">
-        <v>4.0</v>
-      </c>
-      <c r="G56" s="147"/>
-      <c r="H56" s="148"/>
-      <c r="I56" s="149"/>
-      <c r="J56" s="2"/>
-      <c r="K56" s="2"/>
-      <c r="L56" s="2"/>
-      <c r="M56" s="125"/>
-      <c r="N56" s="125"/>
-      <c r="O56" s="125"/>
-      <c r="P56" s="125"/>
-      <c r="Q56" s="125"/>
+    <row r="55" ht="15.75" customHeight="1">
+      <c r="A55" s="83" t="s">
+        <v>6</v>
+      </c>
+      <c r="B55" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="C55" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="D55" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="E55" s="130" t="s">
+        <v>91</v>
+      </c>
+      <c r="F55" s="38">
+        <v>3.0</v>
+      </c>
+      <c r="G55" s="35"/>
+      <c r="H55" s="37"/>
+      <c r="I55" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="J55" s="4"/>
+      <c r="K55" s="4"/>
+      <c r="L55" s="4"/>
+      <c r="M55" s="85"/>
+      <c r="N55" s="86"/>
+      <c r="O55" s="85"/>
+      <c r="P55" s="85"/>
+      <c r="Q55" s="85"/>
+      <c r="R55" s="4"/>
+      <c r="S55" s="4"/>
+      <c r="T55" s="4"/>
+      <c r="U55" s="4"/>
+      <c r="V55" s="4"/>
+      <c r="W55" s="4"/>
+      <c r="X55" s="4"/>
+      <c r="Y55" s="4"/>
+      <c r="Z55" s="4"/>
+    </row>
+    <row r="56" ht="15.75" customHeight="1">
+      <c r="A56" s="83" t="s">
+        <v>6</v>
+      </c>
+      <c r="B56" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="C56" s="47"/>
+      <c r="D56" s="34"/>
+      <c r="E56" s="45"/>
+      <c r="F56" s="38"/>
+      <c r="G56" s="35"/>
+      <c r="H56" s="37"/>
+      <c r="I56" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="J56" s="4"/>
+      <c r="K56" s="4"/>
+      <c r="L56" s="4"/>
+      <c r="M56" s="85"/>
+      <c r="N56" s="86"/>
+      <c r="O56" s="85"/>
+      <c r="P56" s="85"/>
+      <c r="Q56" s="85"/>
       <c r="R56" s="4"/>
       <c r="S56" s="4"/>
       <c r="T56" s="4"/>
@@ -4471,32 +4371,30 @@
       <c r="Y56" s="4"/>
       <c r="Z56" s="4"/>
     </row>
-    <row r="57" ht="15.0" customHeight="1">
-      <c r="A57" s="144"/>
-      <c r="B57" s="145"/>
-      <c r="C57" s="82" t="s">
-        <v>58</v>
-      </c>
-      <c r="D57" s="82" t="s">
-        <v>35</v>
-      </c>
-      <c r="E57" s="83" t="s">
-        <v>20</v>
-      </c>
-      <c r="F57" s="146">
-        <v>2.0</v>
-      </c>
-      <c r="G57" s="147"/>
-      <c r="H57" s="148"/>
-      <c r="I57" s="149"/>
-      <c r="J57" s="2"/>
-      <c r="K57" s="2"/>
-      <c r="L57" s="2"/>
-      <c r="M57" s="125"/>
-      <c r="N57" s="125"/>
-      <c r="O57" s="125"/>
-      <c r="P57" s="125"/>
-      <c r="Q57" s="125"/>
+    <row r="57" ht="15.75" customHeight="1">
+      <c r="A57" s="83" t="s">
+        <v>6</v>
+      </c>
+      <c r="B57" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="C57" s="33"/>
+      <c r="D57" s="34"/>
+      <c r="E57" s="35"/>
+      <c r="F57" s="36"/>
+      <c r="G57" s="35"/>
+      <c r="H57" s="46"/>
+      <c r="I57" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="J57" s="4"/>
+      <c r="K57" s="4"/>
+      <c r="L57" s="4"/>
+      <c r="M57" s="85"/>
+      <c r="N57" s="86"/>
+      <c r="O57" s="85"/>
+      <c r="P57" s="85"/>
+      <c r="Q57" s="85"/>
       <c r="R57" s="4"/>
       <c r="S57" s="4"/>
       <c r="T57" s="4"/>
@@ -4507,44 +4405,30 @@
       <c r="Y57" s="4"/>
       <c r="Z57" s="4"/>
     </row>
-    <row r="58" ht="15.0" customHeight="1">
-      <c r="A58" s="144" t="s">
-        <v>6</v>
-      </c>
-      <c r="B58" s="150" t="s">
-        <v>6</v>
-      </c>
-      <c r="C58" s="150" t="s">
-        <v>92</v>
-      </c>
-      <c r="D58" s="151" t="s">
-        <v>93</v>
-      </c>
-      <c r="E58" s="152"/>
-      <c r="F58" s="153"/>
-      <c r="G58" s="68"/>
-      <c r="H58" s="154" t="s">
-        <v>6</v>
-      </c>
-      <c r="I58" s="68"/>
-      <c r="J58" s="2"/>
-      <c r="K58" s="2"/>
-      <c r="L58" s="2"/>
-      <c r="M58" s="125" t="s">
-        <v>6</v>
-      </c>
-      <c r="N58" s="125" t="s">
-        <v>6</v>
-      </c>
-      <c r="O58" s="125" t="s">
-        <v>6</v>
-      </c>
-      <c r="P58" s="125" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q58" s="125" t="s">
-        <v>6</v>
-      </c>
+    <row r="58" ht="15.75" customHeight="1">
+      <c r="A58" s="83" t="s">
+        <v>6</v>
+      </c>
+      <c r="B58" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C58" s="50"/>
+      <c r="D58" s="51"/>
+      <c r="E58" s="18"/>
+      <c r="F58" s="52"/>
+      <c r="G58" s="35"/>
+      <c r="H58" s="53"/>
+      <c r="I58" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="J58" s="4"/>
+      <c r="K58" s="4"/>
+      <c r="L58" s="4"/>
+      <c r="M58" s="88"/>
+      <c r="N58" s="89"/>
+      <c r="O58" s="88"/>
+      <c r="P58" s="88"/>
+      <c r="Q58" s="88"/>
       <c r="R58" s="4"/>
       <c r="S58" s="4"/>
       <c r="T58" s="4"/>
@@ -4555,134 +4439,135 @@
       <c r="Y58" s="4"/>
       <c r="Z58" s="4"/>
     </row>
-    <row r="59" ht="15.0" customHeight="1">
-      <c r="A59" s="155" t="s">
-        <v>6</v>
-      </c>
-      <c r="B59" s="128" t="s">
-        <v>6</v>
-      </c>
-      <c r="C59" s="129" t="s">
-        <v>94</v>
-      </c>
-      <c r="D59" s="130" t="s">
+    <row r="59" ht="15.75" customHeight="1">
+      <c r="A59" s="83" t="s">
+        <v>6</v>
+      </c>
+      <c r="B59" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="C59" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="D59" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="E59" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="F59" s="70" t="s">
+        <v>6</v>
+      </c>
+      <c r="G59" s="79">
+        <f>SUM(F60:F64)</f>
+        <v>16</v>
+      </c>
+      <c r="H59" s="71" t="s">
+        <v>6</v>
+      </c>
+      <c r="I59" s="81">
+        <v>0.0</v>
+      </c>
+      <c r="J59" s="32"/>
+      <c r="K59" s="32"/>
+      <c r="L59" s="32"/>
+      <c r="M59" s="82"/>
+      <c r="N59" s="82"/>
+      <c r="O59" s="82"/>
+      <c r="P59" s="82"/>
+      <c r="Q59" s="91"/>
+      <c r="R59" s="32"/>
+      <c r="S59" s="32"/>
+      <c r="T59" s="32"/>
+      <c r="U59" s="32"/>
+      <c r="V59" s="32"/>
+      <c r="W59" s="32"/>
+      <c r="X59" s="32"/>
+      <c r="Y59" s="32"/>
+      <c r="Z59" s="32"/>
+    </row>
+    <row r="60" ht="15.75" customHeight="1">
+      <c r="A60" s="83" t="s">
+        <v>6</v>
+      </c>
+      <c r="B60" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="C60" s="47" t="s">
+        <v>87</v>
+      </c>
+      <c r="D60" s="48" t="s">
+        <v>65</v>
+      </c>
+      <c r="E60" s="130" t="s">
+        <v>1</v>
+      </c>
+      <c r="F60" s="48">
+        <v>4.0</v>
+      </c>
+      <c r="G60" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="H60" s="46" t="s">
+        <v>6</v>
+      </c>
+      <c r="I60" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="J60" s="4"/>
+      <c r="K60" s="4"/>
+      <c r="L60" s="4"/>
+      <c r="M60" s="85"/>
+      <c r="N60" s="86"/>
+      <c r="O60" s="86"/>
+      <c r="P60" s="86"/>
+      <c r="Q60" s="85"/>
+      <c r="R60" s="4"/>
+      <c r="S60" s="4"/>
+      <c r="T60" s="4"/>
+      <c r="U60" s="4"/>
+      <c r="V60" s="4"/>
+      <c r="W60" s="4"/>
+      <c r="X60" s="4"/>
+      <c r="Y60" s="4"/>
+      <c r="Z60" s="4"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1">
+      <c r="A61" s="83" t="s">
+        <v>6</v>
+      </c>
+      <c r="B61" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="C61" s="47" t="s">
+        <v>92</v>
+      </c>
+      <c r="D61" s="48" t="s">
+        <v>41</v>
+      </c>
+      <c r="E61" s="130" t="s">
         <v>93</v>
       </c>
-      <c r="E59" s="156"/>
-      <c r="F59" s="157"/>
-      <c r="G59" s="68"/>
-      <c r="H59" s="131" t="s">
-        <v>6</v>
-      </c>
-      <c r="I59" s="68"/>
-      <c r="J59" s="2"/>
-      <c r="K59" s="2"/>
-      <c r="L59" s="2"/>
-      <c r="M59" s="132" t="s">
-        <v>6</v>
-      </c>
-      <c r="N59" s="132" t="s">
-        <v>6</v>
-      </c>
-      <c r="O59" s="132" t="s">
-        <v>6</v>
-      </c>
-      <c r="P59" s="132" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q59" s="132" t="s">
-        <v>6</v>
-      </c>
-      <c r="R59" s="4"/>
-      <c r="S59" s="4"/>
-      <c r="T59" s="4"/>
-      <c r="U59" s="4"/>
-      <c r="V59" s="4"/>
-      <c r="W59" s="4"/>
-      <c r="X59" s="4"/>
-      <c r="Y59" s="4"/>
-      <c r="Z59" s="4"/>
-    </row>
-    <row r="60" ht="15.75" customHeight="1">
-      <c r="A60" s="85" t="s">
-        <v>95</v>
-      </c>
-      <c r="B60" s="42" t="s">
-        <v>61</v>
-      </c>
-      <c r="C60" s="42" t="s">
-        <v>6</v>
-      </c>
-      <c r="D60" s="47"/>
-      <c r="E60" s="42" t="s">
-        <v>6</v>
-      </c>
-      <c r="F60" s="86" t="s">
-        <v>6</v>
-      </c>
-      <c r="G60" s="87">
-        <f>SUM(F61:F65)</f>
-        <v>0</v>
-      </c>
-      <c r="H60" s="88" t="s">
-        <v>6</v>
-      </c>
-      <c r="I60" s="119">
-        <v>0.0</v>
-      </c>
-      <c r="J60" s="7"/>
-      <c r="K60" s="7"/>
-      <c r="L60" s="7"/>
-      <c r="M60" s="103" t="s">
-        <v>6</v>
-      </c>
-      <c r="N60" s="103" t="s">
-        <v>6</v>
-      </c>
-      <c r="O60" s="103" t="s">
-        <v>6</v>
-      </c>
-      <c r="P60" s="103" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q60" s="90">
-        <f>SUM(Q61:Q65)</f>
-        <v>0</v>
-      </c>
-      <c r="R60" s="34"/>
-      <c r="S60" s="34"/>
-      <c r="T60" s="34"/>
-      <c r="U60" s="34"/>
-      <c r="V60" s="34"/>
-      <c r="W60" s="34"/>
-      <c r="X60" s="34"/>
-      <c r="Y60" s="34"/>
-      <c r="Z60" s="34"/>
-    </row>
-    <row r="61" ht="15.75" customHeight="1">
-      <c r="A61" s="85" t="s">
-        <v>96</v>
-      </c>
-      <c r="B61" s="97" t="s">
-        <v>6</v>
-      </c>
-      <c r="C61" s="158"/>
-      <c r="D61" s="36"/>
-      <c r="E61" s="92"/>
-      <c r="F61" s="53"/>
-      <c r="G61" s="97"/>
-      <c r="H61" s="39"/>
-      <c r="I61" s="97" t="s">
+      <c r="F61" s="48">
+        <v>2.0</v>
+      </c>
+      <c r="G61" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="H61" s="46" t="s">
+        <v>6</v>
+      </c>
+      <c r="I61" s="35" t="s">
         <v>6</v>
       </c>
       <c r="J61" s="4"/>
       <c r="K61" s="4"/>
       <c r="L61" s="4"/>
-      <c r="M61" s="93"/>
-      <c r="N61" s="94"/>
-      <c r="O61" s="94"/>
-      <c r="P61" s="93"/>
-      <c r="Q61" s="93"/>
+      <c r="M61" s="86"/>
+      <c r="N61" s="86"/>
+      <c r="O61" s="86"/>
+      <c r="P61" s="86"/>
+      <c r="Q61" s="86"/>
       <c r="R61" s="4"/>
       <c r="S61" s="4"/>
       <c r="T61" s="4"/>
@@ -4694,29 +4579,41 @@
       <c r="Z61" s="4"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="A62" s="101" t="s">
-        <v>6</v>
-      </c>
-      <c r="B62" s="97" t="s">
-        <v>6</v>
-      </c>
-      <c r="C62" s="50"/>
-      <c r="D62" s="51"/>
-      <c r="E62" s="52"/>
-      <c r="F62" s="53"/>
-      <c r="G62" s="97"/>
-      <c r="H62" s="39"/>
-      <c r="I62" s="97" t="s">
+      <c r="A62" s="83" t="s">
+        <v>6</v>
+      </c>
+      <c r="B62" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="C62" s="47" t="s">
+        <v>94</v>
+      </c>
+      <c r="D62" s="48" t="s">
+        <v>65</v>
+      </c>
+      <c r="E62" s="130" t="s">
+        <v>95</v>
+      </c>
+      <c r="F62" s="48">
+        <v>2.0</v>
+      </c>
+      <c r="G62" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="H62" s="46" t="s">
+        <v>6</v>
+      </c>
+      <c r="I62" s="35" t="s">
         <v>6</v>
       </c>
       <c r="J62" s="4"/>
       <c r="K62" s="4"/>
       <c r="L62" s="4"/>
-      <c r="M62" s="93"/>
-      <c r="N62" s="94"/>
-      <c r="O62" s="93"/>
-      <c r="P62" s="93"/>
-      <c r="Q62" s="93"/>
+      <c r="M62" s="89"/>
+      <c r="N62" s="89"/>
+      <c r="O62" s="89"/>
+      <c r="P62" s="89"/>
+      <c r="Q62" s="89"/>
       <c r="R62" s="4"/>
       <c r="S62" s="4"/>
       <c r="T62" s="4"/>
@@ -4728,29 +4625,41 @@
       <c r="Z62" s="4"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="A63" s="101" t="s">
-        <v>6</v>
-      </c>
-      <c r="B63" s="97" t="s">
-        <v>6</v>
-      </c>
-      <c r="C63" s="50"/>
-      <c r="D63" s="36"/>
-      <c r="E63" s="52"/>
-      <c r="F63" s="53"/>
-      <c r="G63" s="97"/>
-      <c r="H63" s="39"/>
-      <c r="I63" s="97" t="s">
+      <c r="A63" s="83" t="s">
+        <v>6</v>
+      </c>
+      <c r="B63" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="C63" s="47" t="s">
+        <v>96</v>
+      </c>
+      <c r="D63" s="48" t="s">
+        <v>65</v>
+      </c>
+      <c r="E63" s="130" t="s">
+        <v>95</v>
+      </c>
+      <c r="F63" s="48">
+        <v>8.0</v>
+      </c>
+      <c r="G63" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="H63" s="46" t="s">
+        <v>6</v>
+      </c>
+      <c r="I63" s="35" t="s">
         <v>6</v>
       </c>
       <c r="J63" s="4"/>
       <c r="K63" s="4"/>
       <c r="L63" s="4"/>
-      <c r="M63" s="93"/>
-      <c r="N63" s="94"/>
-      <c r="O63" s="93"/>
-      <c r="P63" s="93"/>
-      <c r="Q63" s="93"/>
+      <c r="M63" s="86"/>
+      <c r="N63" s="86"/>
+      <c r="O63" s="86"/>
+      <c r="P63" s="85"/>
+      <c r="Q63" s="85"/>
       <c r="R63" s="4"/>
       <c r="S63" s="4"/>
       <c r="T63" s="4"/>
@@ -4762,29 +4671,33 @@
       <c r="Z63" s="4"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="A64" s="101" t="s">
-        <v>6</v>
-      </c>
-      <c r="B64" s="97" t="s">
-        <v>6</v>
-      </c>
-      <c r="C64" s="158"/>
-      <c r="D64" s="36"/>
-      <c r="E64" s="97"/>
-      <c r="F64" s="159"/>
-      <c r="G64" s="97"/>
-      <c r="H64" s="49"/>
-      <c r="I64" s="97" t="s">
+      <c r="A64" s="83" t="s">
+        <v>6</v>
+      </c>
+      <c r="B64" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C64" s="131"/>
+      <c r="D64" s="48"/>
+      <c r="E64" s="34"/>
+      <c r="F64" s="52"/>
+      <c r="G64" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="H64" s="53" t="s">
+        <v>6</v>
+      </c>
+      <c r="I64" s="35" t="s">
         <v>6</v>
       </c>
       <c r="J64" s="4"/>
       <c r="K64" s="4"/>
       <c r="L64" s="4"/>
-      <c r="M64" s="93"/>
-      <c r="N64" s="94"/>
-      <c r="O64" s="93"/>
-      <c r="P64" s="93"/>
-      <c r="Q64" s="93"/>
+      <c r="M64" s="89"/>
+      <c r="N64" s="89"/>
+      <c r="O64" s="89"/>
+      <c r="P64" s="89"/>
+      <c r="Q64" s="89"/>
       <c r="R64" s="4"/>
       <c r="S64" s="4"/>
       <c r="T64" s="4"/>
@@ -4796,114 +4709,134 @@
       <c r="Z64" s="4"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="A65" s="101" t="s">
-        <v>6</v>
-      </c>
-      <c r="B65" s="116" t="s">
-        <v>6</v>
-      </c>
-      <c r="C65" s="160"/>
-      <c r="D65" s="56"/>
-      <c r="E65" s="116"/>
-      <c r="F65" s="161"/>
-      <c r="G65" s="97"/>
-      <c r="H65" s="58"/>
-      <c r="I65" s="97" t="s">
-        <v>6</v>
-      </c>
-      <c r="J65" s="4"/>
-      <c r="K65" s="4"/>
-      <c r="L65" s="4"/>
-      <c r="M65" s="99"/>
-      <c r="N65" s="162"/>
-      <c r="O65" s="99"/>
-      <c r="P65" s="99"/>
-      <c r="Q65" s="99"/>
-      <c r="R65" s="4"/>
-      <c r="S65" s="4"/>
-      <c r="T65" s="4"/>
-      <c r="U65" s="4"/>
-      <c r="V65" s="4"/>
-      <c r="W65" s="4"/>
-      <c r="X65" s="4"/>
-      <c r="Y65" s="4"/>
-      <c r="Z65" s="4"/>
+      <c r="A65" s="83" t="s">
+        <v>6</v>
+      </c>
+      <c r="B65" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="C65" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="D65" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="E65" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="F65" s="70" t="s">
+        <v>6</v>
+      </c>
+      <c r="G65" s="79">
+        <f>SUM(F66:F69)</f>
+        <v>14</v>
+      </c>
+      <c r="H65" s="71" t="s">
+        <v>6</v>
+      </c>
+      <c r="I65" s="81">
+        <v>0.0</v>
+      </c>
+      <c r="J65" s="32"/>
+      <c r="K65" s="32"/>
+      <c r="L65" s="32"/>
+      <c r="M65" s="82"/>
+      <c r="N65" s="82"/>
+      <c r="O65" s="82"/>
+      <c r="P65" s="82"/>
+      <c r="Q65" s="82"/>
+      <c r="R65" s="32"/>
+      <c r="S65" s="32"/>
+      <c r="T65" s="32"/>
+      <c r="U65" s="32"/>
+      <c r="V65" s="32"/>
+      <c r="W65" s="32"/>
+      <c r="X65" s="32"/>
+      <c r="Y65" s="32"/>
+      <c r="Z65" s="32"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="A66" s="101" t="s">
-        <v>6</v>
-      </c>
-      <c r="B66" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="C66" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="D66" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="E66" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="F66" s="77" t="s">
-        <v>6</v>
-      </c>
-      <c r="G66" s="87">
-        <f>SUM(F67:F71)</f>
-        <v>0</v>
-      </c>
-      <c r="H66" s="79" t="s">
-        <v>6</v>
-      </c>
-      <c r="I66" s="119">
-        <v>0.0</v>
-      </c>
-      <c r="J66" s="34"/>
-      <c r="K66" s="34"/>
-      <c r="L66" s="34"/>
-      <c r="M66" s="103"/>
-      <c r="N66" s="103"/>
-      <c r="O66" s="103"/>
-      <c r="P66" s="103"/>
-      <c r="Q66" s="104"/>
-      <c r="R66" s="34"/>
-      <c r="S66" s="34"/>
-      <c r="T66" s="34"/>
-      <c r="U66" s="34"/>
-      <c r="V66" s="34"/>
-      <c r="W66" s="34"/>
-      <c r="X66" s="34"/>
-      <c r="Y66" s="34"/>
-      <c r="Z66" s="34"/>
+      <c r="A66" s="83" t="s">
+        <v>6</v>
+      </c>
+      <c r="B66" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="C66" s="48" t="s">
+        <v>78</v>
+      </c>
+      <c r="D66" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="E66" s="84" t="s">
+        <v>50</v>
+      </c>
+      <c r="F66" s="100">
+        <v>4.0</v>
+      </c>
+      <c r="G66" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="H66" s="46" t="s">
+        <v>6</v>
+      </c>
+      <c r="I66" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="J66" s="4"/>
+      <c r="K66" s="4"/>
+      <c r="L66" s="4"/>
+      <c r="M66" s="98"/>
+      <c r="N66" s="98"/>
+      <c r="O66" s="98"/>
+      <c r="P66" s="98"/>
+      <c r="Q66" s="98"/>
+      <c r="R66" s="4"/>
+      <c r="S66" s="4"/>
+      <c r="T66" s="4"/>
+      <c r="U66" s="4"/>
+      <c r="V66" s="4"/>
+      <c r="W66" s="4"/>
+      <c r="X66" s="4"/>
+      <c r="Y66" s="4"/>
+      <c r="Z66" s="4"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="A67" s="101" t="s">
-        <v>6</v>
-      </c>
-      <c r="B67" s="97" t="s">
-        <v>6</v>
-      </c>
-      <c r="C67" s="158"/>
-      <c r="D67" s="36"/>
-      <c r="E67" s="92"/>
-      <c r="F67" s="53"/>
-      <c r="G67" s="97" t="s">
-        <v>6</v>
-      </c>
-      <c r="H67" s="49" t="s">
-        <v>6</v>
-      </c>
-      <c r="I67" s="97" t="s">
+      <c r="A67" s="83" t="s">
+        <v>6</v>
+      </c>
+      <c r="B67" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="C67" s="48" t="s">
+        <v>59</v>
+      </c>
+      <c r="D67" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="E67" s="84" t="s">
+        <v>50</v>
+      </c>
+      <c r="F67" s="100">
+        <v>2.0</v>
+      </c>
+      <c r="G67" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="H67" s="46" t="s">
+        <v>6</v>
+      </c>
+      <c r="I67" s="35" t="s">
         <v>6</v>
       </c>
       <c r="J67" s="4"/>
       <c r="K67" s="4"/>
       <c r="L67" s="4"/>
-      <c r="M67" s="93"/>
-      <c r="N67" s="94"/>
-      <c r="O67" s="94"/>
-      <c r="P67" s="94"/>
-      <c r="Q67" s="93"/>
+      <c r="M67" s="86"/>
+      <c r="N67" s="86"/>
+      <c r="O67" s="86"/>
+      <c r="P67" s="86"/>
+      <c r="Q67" s="86"/>
       <c r="R67" s="4"/>
       <c r="S67" s="4"/>
       <c r="T67" s="4"/>
@@ -4915,33 +4848,31 @@
       <c r="Z67" s="4"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
-      <c r="A68" s="101" t="s">
-        <v>6</v>
-      </c>
-      <c r="B68" s="97" t="s">
-        <v>6</v>
-      </c>
-      <c r="C68" s="36"/>
-      <c r="D68" s="36"/>
-      <c r="E68" s="51"/>
-      <c r="F68" s="53"/>
-      <c r="G68" s="97" t="s">
-        <v>6</v>
-      </c>
-      <c r="H68" s="49" t="s">
-        <v>6</v>
-      </c>
-      <c r="I68" s="97" t="s">
-        <v>6</v>
-      </c>
+      <c r="A68" s="83"/>
+      <c r="B68" s="92"/>
+      <c r="C68" s="132" t="s">
+        <v>97</v>
+      </c>
+      <c r="D68" s="133" t="s">
+        <v>98</v>
+      </c>
+      <c r="E68" s="134" t="s">
+        <v>50</v>
+      </c>
+      <c r="F68" s="135">
+        <v>4.0</v>
+      </c>
+      <c r="G68" s="35"/>
+      <c r="H68" s="136"/>
+      <c r="I68" s="35"/>
       <c r="J68" s="4"/>
       <c r="K68" s="4"/>
       <c r="L68" s="4"/>
-      <c r="M68" s="94"/>
-      <c r="N68" s="94"/>
-      <c r="O68" s="94"/>
-      <c r="P68" s="94"/>
-      <c r="Q68" s="94"/>
+      <c r="M68" s="86"/>
+      <c r="N68" s="86"/>
+      <c r="O68" s="86"/>
+      <c r="P68" s="86"/>
+      <c r="Q68" s="86"/>
       <c r="R68" s="4"/>
       <c r="S68" s="4"/>
       <c r="T68" s="4"/>
@@ -4953,33 +4884,41 @@
       <c r="Z68" s="4"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
-      <c r="A69" s="101" t="s">
-        <v>6</v>
-      </c>
-      <c r="B69" s="97" t="s">
-        <v>6</v>
-      </c>
-      <c r="C69" s="115"/>
-      <c r="D69" s="56"/>
-      <c r="E69" s="115"/>
-      <c r="F69" s="53"/>
-      <c r="G69" s="97" t="s">
-        <v>6</v>
-      </c>
-      <c r="H69" s="49" t="s">
-        <v>6</v>
-      </c>
-      <c r="I69" s="97" t="s">
+      <c r="A69" s="83" t="s">
+        <v>6</v>
+      </c>
+      <c r="B69" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C69" s="50" t="s">
+        <v>99</v>
+      </c>
+      <c r="D69" s="51" t="s">
+        <v>98</v>
+      </c>
+      <c r="E69" s="137" t="s">
+        <v>50</v>
+      </c>
+      <c r="F69" s="138">
+        <v>4.0</v>
+      </c>
+      <c r="G69" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="H69" s="53" t="s">
+        <v>6</v>
+      </c>
+      <c r="I69" s="35" t="s">
         <v>6</v>
       </c>
       <c r="J69" s="4"/>
       <c r="K69" s="4"/>
       <c r="L69" s="4"/>
-      <c r="M69" s="162"/>
-      <c r="N69" s="162"/>
-      <c r="O69" s="162"/>
-      <c r="P69" s="162"/>
-      <c r="Q69" s="162"/>
+      <c r="M69" s="86"/>
+      <c r="N69" s="86"/>
+      <c r="O69" s="86"/>
+      <c r="P69" s="86"/>
+      <c r="Q69" s="86"/>
       <c r="R69" s="4"/>
       <c r="S69" s="4"/>
       <c r="T69" s="4"/>
@@ -4992,70 +4931,100 @@
     </row>
     <row r="70" ht="15.75" customHeight="1">
       <c r="A70" s="101" t="s">
-        <v>6</v>
-      </c>
-      <c r="B70" s="97" t="s">
-        <v>6</v>
-      </c>
-      <c r="C70" s="50"/>
-      <c r="D70" s="51"/>
-      <c r="E70" s="52"/>
-      <c r="F70" s="163"/>
-      <c r="G70" s="97" t="s">
-        <v>6</v>
-      </c>
-      <c r="H70" s="49" t="s">
-        <v>6</v>
-      </c>
-      <c r="I70" s="97" t="s">
-        <v>6</v>
-      </c>
-      <c r="J70" s="4"/>
-      <c r="K70" s="4"/>
-      <c r="L70" s="4"/>
-      <c r="M70" s="94"/>
-      <c r="N70" s="94"/>
-      <c r="O70" s="94"/>
-      <c r="P70" s="93"/>
-      <c r="Q70" s="93"/>
-      <c r="R70" s="4"/>
-      <c r="S70" s="4"/>
-      <c r="T70" s="4"/>
-      <c r="U70" s="4"/>
-      <c r="V70" s="4"/>
-      <c r="W70" s="4"/>
-      <c r="X70" s="4"/>
-      <c r="Y70" s="4"/>
-      <c r="Z70" s="4"/>
+        <v>100</v>
+      </c>
+      <c r="B70" s="25"/>
+      <c r="C70" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="D70" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="E70" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="F70" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="G70" s="139">
+        <v>0.0</v>
+      </c>
+      <c r="H70" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="I70" s="81">
+        <v>0.0</v>
+      </c>
+      <c r="J70" s="32"/>
+      <c r="K70" s="32"/>
+      <c r="L70" s="32"/>
+      <c r="M70" s="82" t="s">
+        <v>6</v>
+      </c>
+      <c r="N70" s="82" t="s">
+        <v>6</v>
+      </c>
+      <c r="O70" s="82" t="s">
+        <v>6</v>
+      </c>
+      <c r="P70" s="82" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q70" s="82">
+        <v>0.0</v>
+      </c>
+      <c r="R70" s="32"/>
+      <c r="S70" s="32"/>
+      <c r="T70" s="32"/>
+      <c r="U70" s="32"/>
+      <c r="V70" s="32"/>
+      <c r="W70" s="32"/>
+      <c r="X70" s="32"/>
+      <c r="Y70" s="32"/>
+      <c r="Z70" s="32"/>
     </row>
     <row r="71" ht="15.75" customHeight="1">
       <c r="A71" s="101" t="s">
-        <v>6</v>
-      </c>
-      <c r="B71" s="116" t="s">
-        <v>6</v>
-      </c>
-      <c r="C71" s="114"/>
-      <c r="D71" s="51"/>
-      <c r="E71" s="36"/>
-      <c r="F71" s="161"/>
-      <c r="G71" s="97" t="s">
-        <v>6</v>
-      </c>
-      <c r="H71" s="58" t="s">
-        <v>6</v>
-      </c>
-      <c r="I71" s="97" t="s">
-        <v>6</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="B71" s="102" t="s">
+        <v>6</v>
+      </c>
+      <c r="C71" s="102" t="s">
+        <v>6</v>
+      </c>
+      <c r="D71" s="62" t="s">
+        <v>6</v>
+      </c>
+      <c r="E71" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="F71" s="140" t="s">
+        <v>6</v>
+      </c>
+      <c r="G71" s="62"/>
+      <c r="H71" s="141" t="s">
+        <v>6</v>
+      </c>
+      <c r="I71" s="62"/>
       <c r="J71" s="4"/>
       <c r="K71" s="4"/>
       <c r="L71" s="4"/>
-      <c r="M71" s="162"/>
-      <c r="N71" s="162"/>
-      <c r="O71" s="162"/>
-      <c r="P71" s="162"/>
-      <c r="Q71" s="162"/>
+      <c r="M71" s="106" t="s">
+        <v>6</v>
+      </c>
+      <c r="N71" s="106" t="s">
+        <v>6</v>
+      </c>
+      <c r="O71" s="106" t="s">
+        <v>6</v>
+      </c>
+      <c r="P71" s="106" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q71" s="106" t="s">
+        <v>6</v>
+      </c>
       <c r="R71" s="4"/>
       <c r="S71" s="4"/>
       <c r="T71" s="4"/>
@@ -5067,84 +5036,99 @@
       <c r="Z71" s="4"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
-      <c r="A72" s="101" t="s">
-        <v>6</v>
-      </c>
-      <c r="B72" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="C72" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="D72" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="E72" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="F72" s="77" t="s">
-        <v>6</v>
-      </c>
-      <c r="G72" s="87">
-        <f>SUM(F73:F75)</f>
-        <v>0</v>
-      </c>
-      <c r="H72" s="79" t="s">
-        <v>6</v>
-      </c>
-      <c r="I72" s="119">
-        <v>0.0</v>
-      </c>
-      <c r="J72" s="34"/>
-      <c r="K72" s="34"/>
-      <c r="L72" s="34"/>
-      <c r="M72" s="103"/>
-      <c r="N72" s="103"/>
-      <c r="O72" s="103"/>
-      <c r="P72" s="103"/>
-      <c r="Q72" s="103"/>
-      <c r="R72" s="34"/>
-      <c r="S72" s="34"/>
-      <c r="T72" s="34"/>
-      <c r="U72" s="34"/>
-      <c r="V72" s="34"/>
-      <c r="W72" s="34"/>
-      <c r="X72" s="34"/>
-      <c r="Y72" s="34"/>
-      <c r="Z72" s="34"/>
+      <c r="A72" s="57" t="s">
+        <v>6</v>
+      </c>
+      <c r="B72" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="C72" s="102" t="s">
+        <v>6</v>
+      </c>
+      <c r="D72" s="62" t="s">
+        <v>6</v>
+      </c>
+      <c r="E72" s="102" t="s">
+        <v>6</v>
+      </c>
+      <c r="F72" s="140" t="s">
+        <v>6</v>
+      </c>
+      <c r="G72" s="62"/>
+      <c r="H72" s="141" t="s">
+        <v>6</v>
+      </c>
+      <c r="I72" s="62"/>
+      <c r="J72" s="4"/>
+      <c r="K72" s="4"/>
+      <c r="L72" s="4"/>
+      <c r="M72" s="108" t="s">
+        <v>6</v>
+      </c>
+      <c r="N72" s="108" t="s">
+        <v>6</v>
+      </c>
+      <c r="O72" s="108" t="s">
+        <v>6</v>
+      </c>
+      <c r="P72" s="108" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q72" s="108" t="s">
+        <v>6</v>
+      </c>
+      <c r="R72" s="4"/>
+      <c r="S72" s="4"/>
+      <c r="T72" s="4"/>
+      <c r="U72" s="4"/>
+      <c r="V72" s="4"/>
+      <c r="W72" s="4"/>
+      <c r="X72" s="4"/>
+      <c r="Y72" s="4"/>
+      <c r="Z72" s="4"/>
     </row>
     <row r="73" ht="15.75" customHeight="1">
-      <c r="A73" s="101" t="s">
-        <v>6</v>
-      </c>
-      <c r="B73" s="97" t="s">
-        <v>6</v>
-      </c>
-      <c r="C73" s="51" t="s">
-        <v>77</v>
-      </c>
-      <c r="D73" s="36" t="s">
-        <v>35</v>
-      </c>
-      <c r="E73" s="164"/>
-      <c r="F73" s="112"/>
-      <c r="G73" s="97" t="s">
-        <v>6</v>
-      </c>
-      <c r="H73" s="49" t="s">
-        <v>6</v>
-      </c>
-      <c r="I73" s="97" t="s">
-        <v>6</v>
-      </c>
+      <c r="A73" s="57" t="s">
+        <v>6</v>
+      </c>
+      <c r="B73" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="C73" s="102" t="s">
+        <v>6</v>
+      </c>
+      <c r="D73" s="62" t="s">
+        <v>6</v>
+      </c>
+      <c r="E73" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="F73" s="140" t="s">
+        <v>6</v>
+      </c>
+      <c r="G73" s="62"/>
+      <c r="H73" s="141" t="s">
+        <v>6</v>
+      </c>
+      <c r="I73" s="62"/>
       <c r="J73" s="4"/>
       <c r="K73" s="4"/>
       <c r="L73" s="4"/>
-      <c r="M73" s="111"/>
-      <c r="N73" s="111"/>
-      <c r="O73" s="111"/>
-      <c r="P73" s="111"/>
-      <c r="Q73" s="111"/>
+      <c r="M73" s="108" t="s">
+        <v>6</v>
+      </c>
+      <c r="N73" s="108" t="s">
+        <v>6</v>
+      </c>
+      <c r="O73" s="108" t="s">
+        <v>6</v>
+      </c>
+      <c r="P73" s="108" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q73" s="108" t="s">
+        <v>6</v>
+      </c>
       <c r="R73" s="4"/>
       <c r="S73" s="4"/>
       <c r="T73" s="4"/>
@@ -5156,37 +5140,47 @@
       <c r="Z73" s="4"/>
     </row>
     <row r="74" ht="15.75" customHeight="1">
-      <c r="A74" s="101" t="s">
-        <v>6</v>
-      </c>
-      <c r="B74" s="97" t="s">
-        <v>6</v>
-      </c>
-      <c r="C74" s="51" t="s">
-        <v>58</v>
-      </c>
-      <c r="D74" s="51" t="s">
-        <v>35</v>
-      </c>
-      <c r="E74" s="92"/>
-      <c r="F74" s="113"/>
-      <c r="G74" s="97" t="s">
-        <v>6</v>
-      </c>
-      <c r="H74" s="49" t="s">
-        <v>6</v>
-      </c>
-      <c r="I74" s="97" t="s">
-        <v>6</v>
-      </c>
+      <c r="A74" s="57" t="s">
+        <v>6</v>
+      </c>
+      <c r="B74" s="109" t="s">
+        <v>6</v>
+      </c>
+      <c r="C74" s="110" t="s">
+        <v>6</v>
+      </c>
+      <c r="D74" s="111" t="s">
+        <v>6</v>
+      </c>
+      <c r="E74" s="109" t="s">
+        <v>6</v>
+      </c>
+      <c r="F74" s="114" t="s">
+        <v>6</v>
+      </c>
+      <c r="G74" s="62"/>
+      <c r="H74" s="112" t="s">
+        <v>6</v>
+      </c>
+      <c r="I74" s="62"/>
       <c r="J74" s="4"/>
       <c r="K74" s="4"/>
       <c r="L74" s="4"/>
-      <c r="M74" s="94"/>
-      <c r="N74" s="94"/>
-      <c r="O74" s="94"/>
-      <c r="P74" s="94"/>
-      <c r="Q74" s="94"/>
+      <c r="M74" s="113" t="s">
+        <v>6</v>
+      </c>
+      <c r="N74" s="113" t="s">
+        <v>6</v>
+      </c>
+      <c r="O74" s="113" t="s">
+        <v>6</v>
+      </c>
+      <c r="P74" s="113" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q74" s="113" t="s">
+        <v>6</v>
+      </c>
       <c r="R74" s="4"/>
       <c r="S74" s="4"/>
       <c r="T74" s="4"/>
@@ -5198,137 +5192,151 @@
       <c r="Z74" s="4"/>
     </row>
     <row r="75" ht="15.75" customHeight="1">
-      <c r="A75" s="101" t="s">
-        <v>6</v>
-      </c>
-      <c r="B75" s="116" t="s">
-        <v>6</v>
-      </c>
-      <c r="C75" s="114"/>
-      <c r="D75" s="115"/>
-      <c r="E75" s="116"/>
-      <c r="F75" s="117"/>
-      <c r="G75" s="97" t="s">
-        <v>6</v>
-      </c>
-      <c r="H75" s="58" t="s">
-        <v>6</v>
-      </c>
-      <c r="I75" s="97" t="s">
-        <v>6</v>
-      </c>
-      <c r="J75" s="4"/>
-      <c r="K75" s="4"/>
-      <c r="L75" s="4"/>
-      <c r="M75" s="95"/>
-      <c r="N75" s="95"/>
-      <c r="O75" s="95"/>
-      <c r="P75" s="95"/>
-      <c r="Q75" s="95"/>
-      <c r="R75" s="4"/>
-      <c r="S75" s="4"/>
-      <c r="T75" s="4"/>
-      <c r="U75" s="4"/>
-      <c r="V75" s="4"/>
-      <c r="W75" s="4"/>
-      <c r="X75" s="4"/>
-      <c r="Y75" s="4"/>
-      <c r="Z75" s="4"/>
+      <c r="A75" s="57" t="s">
+        <v>6</v>
+      </c>
+      <c r="B75" s="25"/>
+      <c r="C75" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="D75" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="E75" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="F75" s="70" t="s">
+        <v>6</v>
+      </c>
+      <c r="G75" s="139">
+        <v>0.0</v>
+      </c>
+      <c r="H75" s="71" t="s">
+        <v>6</v>
+      </c>
+      <c r="I75" s="81">
+        <v>0.0</v>
+      </c>
+      <c r="J75" s="32"/>
+      <c r="K75" s="32"/>
+      <c r="L75" s="32"/>
+      <c r="M75" s="82" t="s">
+        <v>6</v>
+      </c>
+      <c r="N75" s="82" t="s">
+        <v>6</v>
+      </c>
+      <c r="O75" s="82" t="s">
+        <v>6</v>
+      </c>
+      <c r="P75" s="82" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q75" s="82">
+        <v>0.0</v>
+      </c>
+      <c r="R75" s="32"/>
+      <c r="S75" s="32"/>
+      <c r="T75" s="32"/>
+      <c r="U75" s="32"/>
+      <c r="V75" s="32"/>
+      <c r="W75" s="32"/>
+      <c r="X75" s="32"/>
+      <c r="Y75" s="32"/>
+      <c r="Z75" s="32"/>
     </row>
     <row r="76" ht="15.75" customHeight="1">
-      <c r="A76" s="118" t="s">
-        <v>97</v>
-      </c>
-      <c r="B76" s="26"/>
-      <c r="C76" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="D76" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="E76" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="F76" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="G76" s="165">
-        <v>0.0</v>
-      </c>
-      <c r="H76" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="I76" s="119">
-        <v>0.0</v>
-      </c>
-      <c r="J76" s="34"/>
-      <c r="K76" s="34"/>
-      <c r="L76" s="34"/>
-      <c r="M76" s="103" t="s">
-        <v>6</v>
-      </c>
-      <c r="N76" s="103" t="s">
-        <v>6</v>
-      </c>
-      <c r="O76" s="103" t="s">
-        <v>6</v>
-      </c>
-      <c r="P76" s="103" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q76" s="103">
-        <v>0.0</v>
-      </c>
-      <c r="R76" s="34"/>
-      <c r="S76" s="34"/>
-      <c r="T76" s="34"/>
-      <c r="U76" s="34"/>
-      <c r="V76" s="34"/>
-      <c r="W76" s="34"/>
-      <c r="X76" s="34"/>
-      <c r="Y76" s="34"/>
-      <c r="Z76" s="34"/>
+      <c r="A76" s="57" t="s">
+        <v>6</v>
+      </c>
+      <c r="B76" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="C76" s="102" t="s">
+        <v>6</v>
+      </c>
+      <c r="D76" s="62" t="s">
+        <v>6</v>
+      </c>
+      <c r="E76" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="F76" s="140" t="s">
+        <v>6</v>
+      </c>
+      <c r="G76" s="62"/>
+      <c r="H76" s="141" t="s">
+        <v>6</v>
+      </c>
+      <c r="I76" s="62"/>
+      <c r="J76" s="4"/>
+      <c r="K76" s="4"/>
+      <c r="L76" s="4"/>
+      <c r="M76" s="108" t="s">
+        <v>6</v>
+      </c>
+      <c r="N76" s="108" t="s">
+        <v>6</v>
+      </c>
+      <c r="O76" s="108" t="s">
+        <v>6</v>
+      </c>
+      <c r="P76" s="108" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q76" s="108" t="s">
+        <v>6</v>
+      </c>
+      <c r="R76" s="4"/>
+      <c r="S76" s="4"/>
+      <c r="T76" s="4"/>
+      <c r="U76" s="4"/>
+      <c r="V76" s="4"/>
+      <c r="W76" s="4"/>
+      <c r="X76" s="4"/>
+      <c r="Y76" s="4"/>
+      <c r="Z76" s="4"/>
     </row>
     <row r="77" ht="15.75" customHeight="1">
-      <c r="A77" s="118" t="s">
-        <v>98</v>
-      </c>
-      <c r="B77" s="166" t="s">
-        <v>6</v>
-      </c>
-      <c r="C77" s="166" t="s">
-        <v>6</v>
-      </c>
-      <c r="D77" s="68" t="s">
-        <v>6</v>
-      </c>
-      <c r="E77" s="167" t="s">
-        <v>6</v>
-      </c>
-      <c r="F77" s="168" t="s">
-        <v>6</v>
-      </c>
-      <c r="G77" s="68"/>
-      <c r="H77" s="124" t="s">
-        <v>6</v>
-      </c>
-      <c r="I77" s="68"/>
+      <c r="A77" s="57" t="s">
+        <v>6</v>
+      </c>
+      <c r="B77" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="C77" s="102" t="s">
+        <v>6</v>
+      </c>
+      <c r="D77" s="62" t="s">
+        <v>6</v>
+      </c>
+      <c r="E77" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="F77" s="140" t="s">
+        <v>6</v>
+      </c>
+      <c r="G77" s="62"/>
+      <c r="H77" s="141" t="s">
+        <v>6</v>
+      </c>
+      <c r="I77" s="62"/>
       <c r="J77" s="4"/>
       <c r="K77" s="4"/>
       <c r="L77" s="4"/>
-      <c r="M77" s="169" t="s">
-        <v>6</v>
-      </c>
-      <c r="N77" s="169" t="s">
-        <v>6</v>
-      </c>
-      <c r="O77" s="169" t="s">
-        <v>6</v>
-      </c>
-      <c r="P77" s="169" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q77" s="169" t="s">
+      <c r="M77" s="108" t="s">
+        <v>6</v>
+      </c>
+      <c r="N77" s="108" t="s">
+        <v>6</v>
+      </c>
+      <c r="O77" s="108" t="s">
+        <v>6</v>
+      </c>
+      <c r="P77" s="108" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q77" s="108" t="s">
         <v>6</v>
       </c>
       <c r="R77" s="4"/>
@@ -5342,45 +5350,45 @@
       <c r="Z77" s="4"/>
     </row>
     <row r="78" ht="15.75" customHeight="1">
-      <c r="A78" s="76" t="s">
-        <v>6</v>
-      </c>
-      <c r="B78" s="167" t="s">
-        <v>6</v>
-      </c>
-      <c r="C78" s="166" t="s">
-        <v>6</v>
-      </c>
-      <c r="D78" s="68" t="s">
-        <v>6</v>
-      </c>
-      <c r="E78" s="166" t="s">
-        <v>6</v>
-      </c>
-      <c r="F78" s="168" t="s">
-        <v>6</v>
-      </c>
-      <c r="G78" s="68"/>
-      <c r="H78" s="124" t="s">
-        <v>6</v>
-      </c>
-      <c r="I78" s="68"/>
+      <c r="A78" s="57" t="s">
+        <v>6</v>
+      </c>
+      <c r="B78" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="C78" s="102" t="s">
+        <v>6</v>
+      </c>
+      <c r="D78" s="62" t="s">
+        <v>6</v>
+      </c>
+      <c r="E78" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="F78" s="140" t="s">
+        <v>6</v>
+      </c>
+      <c r="G78" s="62"/>
+      <c r="H78" s="141" t="s">
+        <v>6</v>
+      </c>
+      <c r="I78" s="62"/>
       <c r="J78" s="4"/>
       <c r="K78" s="4"/>
       <c r="L78" s="4"/>
-      <c r="M78" s="170" t="s">
-        <v>6</v>
-      </c>
-      <c r="N78" s="170" t="s">
-        <v>6</v>
-      </c>
-      <c r="O78" s="170" t="s">
-        <v>6</v>
-      </c>
-      <c r="P78" s="170" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q78" s="170" t="s">
+      <c r="M78" s="108" t="s">
+        <v>6</v>
+      </c>
+      <c r="N78" s="108" t="s">
+        <v>6</v>
+      </c>
+      <c r="O78" s="108" t="s">
+        <v>6</v>
+      </c>
+      <c r="P78" s="108" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q78" s="108" t="s">
         <v>6</v>
       </c>
       <c r="R78" s="4"/>
@@ -5394,45 +5402,45 @@
       <c r="Z78" s="4"/>
     </row>
     <row r="79" ht="15.75" customHeight="1">
-      <c r="A79" s="76" t="s">
-        <v>6</v>
-      </c>
-      <c r="B79" s="167" t="s">
-        <v>6</v>
-      </c>
-      <c r="C79" s="166" t="s">
-        <v>6</v>
-      </c>
-      <c r="D79" s="68" t="s">
-        <v>6</v>
-      </c>
-      <c r="E79" s="167" t="s">
-        <v>6</v>
-      </c>
-      <c r="F79" s="168" t="s">
-        <v>6</v>
-      </c>
-      <c r="G79" s="68"/>
-      <c r="H79" s="124" t="s">
-        <v>6</v>
-      </c>
-      <c r="I79" s="68"/>
+      <c r="A79" s="57" t="s">
+        <v>6</v>
+      </c>
+      <c r="B79" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="C79" s="102" t="s">
+        <v>6</v>
+      </c>
+      <c r="D79" s="62" t="s">
+        <v>6</v>
+      </c>
+      <c r="E79" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="F79" s="140" t="s">
+        <v>6</v>
+      </c>
+      <c r="G79" s="62"/>
+      <c r="H79" s="141" t="s">
+        <v>6</v>
+      </c>
+      <c r="I79" s="62"/>
       <c r="J79" s="4"/>
       <c r="K79" s="4"/>
       <c r="L79" s="4"/>
-      <c r="M79" s="170" t="s">
-        <v>6</v>
-      </c>
-      <c r="N79" s="170" t="s">
-        <v>6</v>
-      </c>
-      <c r="O79" s="170" t="s">
-        <v>6</v>
-      </c>
-      <c r="P79" s="170" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q79" s="170" t="s">
+      <c r="M79" s="108" t="s">
+        <v>6</v>
+      </c>
+      <c r="N79" s="108" t="s">
+        <v>6</v>
+      </c>
+      <c r="O79" s="108" t="s">
+        <v>6</v>
+      </c>
+      <c r="P79" s="108" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q79" s="108" t="s">
         <v>6</v>
       </c>
       <c r="R79" s="4"/>
@@ -5446,45 +5454,45 @@
       <c r="Z79" s="4"/>
     </row>
     <row r="80" ht="15.75" customHeight="1">
-      <c r="A80" s="76" t="s">
-        <v>6</v>
-      </c>
-      <c r="B80" s="136" t="s">
-        <v>6</v>
-      </c>
-      <c r="C80" s="156" t="s">
-        <v>6</v>
-      </c>
-      <c r="D80" s="130" t="s">
-        <v>6</v>
-      </c>
-      <c r="E80" s="136" t="s">
-        <v>6</v>
-      </c>
-      <c r="F80" s="171" t="s">
-        <v>6</v>
-      </c>
-      <c r="G80" s="68"/>
-      <c r="H80" s="131" t="s">
-        <v>6</v>
-      </c>
-      <c r="I80" s="68"/>
+      <c r="A80" s="57" t="s">
+        <v>6</v>
+      </c>
+      <c r="B80" s="109" t="s">
+        <v>6</v>
+      </c>
+      <c r="C80" s="110" t="s">
+        <v>6</v>
+      </c>
+      <c r="D80" s="111" t="s">
+        <v>6</v>
+      </c>
+      <c r="E80" s="109" t="s">
+        <v>6</v>
+      </c>
+      <c r="F80" s="114" t="s">
+        <v>6</v>
+      </c>
+      <c r="G80" s="62"/>
+      <c r="H80" s="112" t="s">
+        <v>6</v>
+      </c>
+      <c r="I80" s="62"/>
       <c r="J80" s="4"/>
       <c r="K80" s="4"/>
       <c r="L80" s="4"/>
-      <c r="M80" s="172" t="s">
-        <v>6</v>
-      </c>
-      <c r="N80" s="172" t="s">
-        <v>6</v>
-      </c>
-      <c r="O80" s="172" t="s">
-        <v>6</v>
-      </c>
-      <c r="P80" s="172" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q80" s="172" t="s">
+      <c r="M80" s="113" t="s">
+        <v>6</v>
+      </c>
+      <c r="N80" s="113" t="s">
+        <v>6</v>
+      </c>
+      <c r="O80" s="113" t="s">
+        <v>6</v>
+      </c>
+      <c r="P80" s="113" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q80" s="113" t="s">
         <v>6</v>
       </c>
       <c r="R80" s="4"/>
@@ -5498,101 +5506,87 @@
       <c r="Z80" s="4"/>
     </row>
     <row r="81" ht="15.75" customHeight="1">
-      <c r="A81" s="76" t="s">
-        <v>6</v>
-      </c>
-      <c r="B81" s="26"/>
-      <c r="C81" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="D81" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="E81" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="F81" s="77" t="s">
-        <v>6</v>
-      </c>
-      <c r="G81" s="165">
+      <c r="A81" s="57" t="s">
+        <v>6</v>
+      </c>
+      <c r="B81" s="115"/>
+      <c r="C81" s="115" t="s">
+        <v>6</v>
+      </c>
+      <c r="D81" s="116" t="s">
+        <v>6</v>
+      </c>
+      <c r="E81" s="115" t="s">
+        <v>6</v>
+      </c>
+      <c r="F81" s="117" t="s">
+        <v>6</v>
+      </c>
+      <c r="G81" s="142">
         <v>0.0</v>
       </c>
-      <c r="H81" s="79" t="s">
-        <v>6</v>
-      </c>
-      <c r="I81" s="119">
+      <c r="H81" s="118" t="s">
+        <v>6</v>
+      </c>
+      <c r="I81" s="143">
         <v>0.0</v>
       </c>
-      <c r="J81" s="34"/>
-      <c r="K81" s="34"/>
-      <c r="L81" s="34"/>
-      <c r="M81" s="103" t="s">
-        <v>6</v>
-      </c>
-      <c r="N81" s="103" t="s">
-        <v>6</v>
-      </c>
-      <c r="O81" s="103" t="s">
-        <v>6</v>
-      </c>
-      <c r="P81" s="103" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q81" s="103">
+      <c r="J81" s="32"/>
+      <c r="K81" s="32"/>
+      <c r="L81" s="32"/>
+      <c r="M81" s="121" t="s">
+        <v>6</v>
+      </c>
+      <c r="N81" s="121" t="s">
+        <v>6</v>
+      </c>
+      <c r="O81" s="121" t="s">
+        <v>6</v>
+      </c>
+      <c r="P81" s="121" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q81" s="121">
         <v>0.0</v>
       </c>
-      <c r="R81" s="34"/>
-      <c r="S81" s="34"/>
-      <c r="T81" s="34"/>
-      <c r="U81" s="34"/>
-      <c r="V81" s="34"/>
-      <c r="W81" s="34"/>
-      <c r="X81" s="34"/>
-      <c r="Y81" s="34"/>
-      <c r="Z81" s="34"/>
+      <c r="R81" s="32"/>
+      <c r="S81" s="32"/>
+      <c r="T81" s="32"/>
+      <c r="U81" s="32"/>
+      <c r="V81" s="32"/>
+      <c r="W81" s="32"/>
+      <c r="X81" s="32"/>
+      <c r="Y81" s="32"/>
+      <c r="Z81" s="32"/>
     </row>
     <row r="82" ht="15.75" customHeight="1">
-      <c r="A82" s="76" t="s">
-        <v>6</v>
-      </c>
-      <c r="B82" s="167" t="s">
-        <v>6</v>
-      </c>
-      <c r="C82" s="166" t="s">
-        <v>6</v>
-      </c>
-      <c r="D82" s="68" t="s">
-        <v>6</v>
-      </c>
-      <c r="E82" s="167" t="s">
-        <v>6</v>
-      </c>
-      <c r="F82" s="168" t="s">
-        <v>6</v>
-      </c>
-      <c r="G82" s="68"/>
-      <c r="H82" s="124" t="s">
-        <v>6</v>
-      </c>
-      <c r="I82" s="68"/>
+      <c r="A82" s="122" t="s">
+        <v>6</v>
+      </c>
+      <c r="B82" s="144" t="s">
+        <v>6</v>
+      </c>
+      <c r="C82" s="74" t="s">
+        <v>78</v>
+      </c>
+      <c r="D82" s="62" t="s">
+        <v>35</v>
+      </c>
+      <c r="E82" s="67"/>
+      <c r="F82" s="145"/>
+      <c r="G82" s="62"/>
+      <c r="H82" s="146" t="s">
+        <v>6</v>
+      </c>
+      <c r="I82" s="62"/>
       <c r="J82" s="4"/>
       <c r="K82" s="4"/>
       <c r="L82" s="4"/>
-      <c r="M82" s="170" t="s">
-        <v>6</v>
-      </c>
-      <c r="N82" s="170" t="s">
-        <v>6</v>
-      </c>
-      <c r="O82" s="170" t="s">
-        <v>6</v>
-      </c>
-      <c r="P82" s="170" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q82" s="170" t="s">
-        <v>6</v>
-      </c>
+      <c r="M82" s="106"/>
+      <c r="N82" s="106"/>
+      <c r="O82" s="106"/>
+      <c r="P82" s="106"/>
+      <c r="Q82" s="106"/>
       <c r="R82" s="4"/>
       <c r="S82" s="4"/>
       <c r="T82" s="4"/>
@@ -5604,47 +5598,33 @@
       <c r="Z82" s="4"/>
     </row>
     <row r="83" ht="15.75" customHeight="1">
-      <c r="A83" s="76" t="s">
-        <v>6</v>
-      </c>
-      <c r="B83" s="167" t="s">
-        <v>6</v>
-      </c>
-      <c r="C83" s="166" t="s">
-        <v>6</v>
-      </c>
-      <c r="D83" s="68" t="s">
-        <v>6</v>
-      </c>
-      <c r="E83" s="167" t="s">
-        <v>6</v>
-      </c>
-      <c r="F83" s="168" t="s">
-        <v>6</v>
-      </c>
-      <c r="G83" s="68"/>
-      <c r="H83" s="124" t="s">
-        <v>6</v>
-      </c>
-      <c r="I83" s="68"/>
+      <c r="A83" s="128" t="s">
+        <v>6</v>
+      </c>
+      <c r="B83" s="109" t="s">
+        <v>6</v>
+      </c>
+      <c r="C83" s="74" t="s">
+        <v>59</v>
+      </c>
+      <c r="D83" s="74" t="s">
+        <v>35</v>
+      </c>
+      <c r="E83" s="75"/>
+      <c r="F83" s="129"/>
+      <c r="G83" s="62"/>
+      <c r="H83" s="112" t="s">
+        <v>6</v>
+      </c>
+      <c r="I83" s="62"/>
       <c r="J83" s="4"/>
       <c r="K83" s="4"/>
       <c r="L83" s="4"/>
-      <c r="M83" s="170" t="s">
-        <v>6</v>
-      </c>
-      <c r="N83" s="170" t="s">
-        <v>6</v>
-      </c>
-      <c r="O83" s="170" t="s">
-        <v>6</v>
-      </c>
-      <c r="P83" s="170" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q83" s="170" t="s">
-        <v>6</v>
-      </c>
+      <c r="M83" s="106"/>
+      <c r="N83" s="106"/>
+      <c r="O83" s="106"/>
+      <c r="P83" s="106"/>
+      <c r="Q83" s="106"/>
       <c r="R83" s="4"/>
       <c r="S83" s="4"/>
       <c r="T83" s="4"/>
@@ -5656,99 +5636,84 @@
       <c r="Z83" s="4"/>
     </row>
     <row r="84" ht="15.75" customHeight="1">
-      <c r="A84" s="76" t="s">
-        <v>6</v>
-      </c>
-      <c r="B84" s="167" t="s">
-        <v>6</v>
-      </c>
-      <c r="C84" s="166" t="s">
-        <v>6</v>
-      </c>
-      <c r="D84" s="68" t="s">
-        <v>6</v>
-      </c>
-      <c r="E84" s="167" t="s">
-        <v>6</v>
-      </c>
-      <c r="F84" s="168" t="s">
-        <v>6</v>
-      </c>
-      <c r="G84" s="68"/>
-      <c r="H84" s="124" t="s">
-        <v>6</v>
-      </c>
-      <c r="I84" s="68"/>
-      <c r="J84" s="4"/>
-      <c r="K84" s="4"/>
-      <c r="L84" s="4"/>
-      <c r="M84" s="170" t="s">
-        <v>6</v>
-      </c>
-      <c r="N84" s="170" t="s">
-        <v>6</v>
-      </c>
-      <c r="O84" s="170" t="s">
-        <v>6</v>
-      </c>
-      <c r="P84" s="170" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q84" s="170" t="s">
-        <v>6</v>
-      </c>
-      <c r="R84" s="4"/>
-      <c r="S84" s="4"/>
-      <c r="T84" s="4"/>
-      <c r="U84" s="4"/>
-      <c r="V84" s="4"/>
-      <c r="W84" s="4"/>
-      <c r="X84" s="4"/>
-      <c r="Y84" s="4"/>
-      <c r="Z84" s="4"/>
+      <c r="A84" s="147" t="s">
+        <v>5</v>
+      </c>
+      <c r="B84" s="148" t="s">
+        <v>6</v>
+      </c>
+      <c r="C84" s="149" t="s">
+        <v>6</v>
+      </c>
+      <c r="D84" s="149" t="s">
+        <v>6</v>
+      </c>
+      <c r="E84" s="150" t="s">
+        <v>6</v>
+      </c>
+      <c r="F84" s="149">
+        <v>0.0</v>
+      </c>
+      <c r="G84" s="150">
+        <v>0.0</v>
+      </c>
+      <c r="H84" s="151">
+        <v>0.0</v>
+      </c>
+      <c r="I84" s="152">
+        <v>0.0</v>
+      </c>
+      <c r="J84" s="32"/>
+      <c r="K84" s="32"/>
+      <c r="L84" s="32"/>
+      <c r="M84" s="153">
+        <f>SUM(M81,M75,M70,M65,M59,M53,M49,M46,M42,M36,M30,M27,M22,M13,M8,M6)</f>
+        <v>33.75</v>
+      </c>
+      <c r="N84" s="153">
+        <f t="shared" ref="N84:O84" si="5">SUM(N81,N75,N70,N65,N59,N53,N49,N46,N42,N38,N36,N30,N27,N22,N13,N8,N6)</f>
+        <v>24.25</v>
+      </c>
+      <c r="O84" s="153">
+        <f t="shared" si="5"/>
+        <v>28.25</v>
+      </c>
+      <c r="P84" s="153">
+        <f>SUM(P81,P75,P70,P65,P59,P53,P49,P46,P42,P38,P36,P30,P22,P13,P8,P6)</f>
+        <v>43.25</v>
+      </c>
+      <c r="Q84" s="153">
+        <f>SUM(Q75,Q81,Q70,Q65,Q59,Q53,Q49,Q46,Q42,Q38,Q36,Q30,Q27,Q22,Q13,Q8,Q6)</f>
+        <v>117.5</v>
+      </c>
+      <c r="R84" s="32"/>
+      <c r="S84" s="32"/>
+      <c r="T84" s="32"/>
+      <c r="U84" s="32"/>
+      <c r="V84" s="32"/>
+      <c r="W84" s="32"/>
+      <c r="X84" s="32"/>
+      <c r="Y84" s="32"/>
+      <c r="Z84" s="32"/>
     </row>
     <row r="85" ht="15.75" customHeight="1">
-      <c r="A85" s="76" t="s">
-        <v>6</v>
-      </c>
-      <c r="B85" s="167" t="s">
-        <v>6</v>
-      </c>
-      <c r="C85" s="166" t="s">
-        <v>6</v>
-      </c>
-      <c r="D85" s="68" t="s">
-        <v>6</v>
-      </c>
-      <c r="E85" s="167" t="s">
-        <v>6</v>
-      </c>
-      <c r="F85" s="168" t="s">
-        <v>6</v>
-      </c>
-      <c r="G85" s="68"/>
-      <c r="H85" s="124" t="s">
-        <v>6</v>
-      </c>
-      <c r="I85" s="68"/>
+      <c r="A85" s="154"/>
+      <c r="B85" s="4"/>
+      <c r="C85" s="4"/>
+      <c r="D85" s="4"/>
+      <c r="E85" s="4"/>
+      <c r="F85" s="4"/>
+      <c r="G85" s="4"/>
+      <c r="H85" s="4"/>
+      <c r="I85" s="4"/>
       <c r="J85" s="4"/>
       <c r="K85" s="4"/>
       <c r="L85" s="4"/>
-      <c r="M85" s="170" t="s">
-        <v>6</v>
-      </c>
-      <c r="N85" s="170" t="s">
-        <v>6</v>
-      </c>
-      <c r="O85" s="170" t="s">
-        <v>6</v>
-      </c>
-      <c r="P85" s="170" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q85" s="170" t="s">
-        <v>6</v>
-      </c>
+      <c r="M85" s="4"/>
+      <c r="N85" s="4"/>
+      <c r="O85" s="4"/>
+      <c r="P85" s="4"/>
+      <c r="Q85" s="4"/>
       <c r="R85" s="4"/>
       <c r="S85" s="4"/>
       <c r="T85" s="4"/>
@@ -5760,47 +5725,23 @@
       <c r="Z85" s="4"/>
     </row>
     <row r="86" ht="15.75" customHeight="1">
-      <c r="A86" s="76" t="s">
-        <v>6</v>
-      </c>
-      <c r="B86" s="136" t="s">
-        <v>6</v>
-      </c>
-      <c r="C86" s="156" t="s">
-        <v>6</v>
-      </c>
-      <c r="D86" s="130" t="s">
-        <v>6</v>
-      </c>
-      <c r="E86" s="136" t="s">
-        <v>6</v>
-      </c>
-      <c r="F86" s="171" t="s">
-        <v>6</v>
-      </c>
-      <c r="G86" s="68"/>
-      <c r="H86" s="131" t="s">
-        <v>6</v>
-      </c>
-      <c r="I86" s="68"/>
+      <c r="A86" s="155"/>
+      <c r="B86" s="4"/>
+      <c r="C86" s="4"/>
+      <c r="D86" s="4"/>
+      <c r="E86" s="4"/>
+      <c r="F86" s="4"/>
+      <c r="G86" s="4"/>
+      <c r="H86" s="4"/>
+      <c r="I86" s="4"/>
       <c r="J86" s="4"/>
       <c r="K86" s="4"/>
       <c r="L86" s="4"/>
-      <c r="M86" s="172" t="s">
-        <v>6</v>
-      </c>
-      <c r="N86" s="172" t="s">
-        <v>6</v>
-      </c>
-      <c r="O86" s="172" t="s">
-        <v>6</v>
-      </c>
-      <c r="P86" s="172" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q86" s="172" t="s">
-        <v>6</v>
-      </c>
+      <c r="M86" s="4"/>
+      <c r="N86" s="4"/>
+      <c r="O86" s="4"/>
+      <c r="P86" s="4"/>
+      <c r="Q86" s="4"/>
       <c r="R86" s="4"/>
       <c r="S86" s="4"/>
       <c r="T86" s="4"/>
@@ -5812,87 +5753,46 @@
       <c r="Z86" s="4"/>
     </row>
     <row r="87" ht="15.75" customHeight="1">
-      <c r="A87" s="76" t="s">
-        <v>6</v>
-      </c>
-      <c r="B87" s="138"/>
-      <c r="C87" s="138" t="s">
-        <v>6</v>
-      </c>
-      <c r="D87" s="139" t="s">
-        <v>6</v>
-      </c>
-      <c r="E87" s="138" t="s">
-        <v>6</v>
-      </c>
-      <c r="F87" s="140" t="s">
-        <v>6</v>
-      </c>
-      <c r="G87" s="173">
-        <v>0.0</v>
-      </c>
-      <c r="H87" s="141" t="s">
-        <v>6</v>
-      </c>
-      <c r="I87" s="142">
-        <v>0.0</v>
-      </c>
-      <c r="J87" s="34"/>
-      <c r="K87" s="34"/>
-      <c r="L87" s="34"/>
-      <c r="M87" s="143" t="s">
-        <v>6</v>
-      </c>
-      <c r="N87" s="143" t="s">
-        <v>6</v>
-      </c>
-      <c r="O87" s="143" t="s">
-        <v>6</v>
-      </c>
-      <c r="P87" s="143" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q87" s="143">
-        <v>0.0</v>
-      </c>
-      <c r="R87" s="34"/>
-      <c r="S87" s="34"/>
-      <c r="T87" s="34"/>
-      <c r="U87" s="34"/>
-      <c r="V87" s="34"/>
-      <c r="W87" s="34"/>
-      <c r="X87" s="34"/>
-      <c r="Y87" s="34"/>
-      <c r="Z87" s="34"/>
+      <c r="A87" s="155"/>
+      <c r="B87" s="4"/>
+      <c r="C87" s="4"/>
+      <c r="D87" s="4"/>
+      <c r="E87" s="4"/>
+      <c r="F87" s="4"/>
+      <c r="G87" s="4"/>
+      <c r="H87" s="4"/>
+      <c r="I87" s="4"/>
+      <c r="J87" s="4"/>
+      <c r="K87" s="4"/>
+      <c r="L87" s="4"/>
+      <c r="M87" s="4"/>
+      <c r="N87" s="4"/>
+      <c r="O87" s="4"/>
+      <c r="P87" s="4"/>
+      <c r="Q87" s="4"/>
+      <c r="R87" s="4"/>
+      <c r="S87" s="4"/>
+      <c r="T87" s="4"/>
+      <c r="U87" s="4"/>
+      <c r="V87" s="4"/>
+      <c r="W87" s="4"/>
+      <c r="X87" s="4"/>
+      <c r="Y87" s="4"/>
+      <c r="Z87" s="4"/>
     </row>
     <row r="88" ht="15.75" customHeight="1">
-      <c r="A88" s="174" t="s">
-        <v>6</v>
-      </c>
-      <c r="B88" s="152" t="s">
-        <v>6</v>
-      </c>
-      <c r="C88" s="82" t="s">
-        <v>77</v>
-      </c>
-      <c r="D88" s="68" t="s">
-        <v>35</v>
-      </c>
-      <c r="E88" s="73"/>
-      <c r="F88" s="153"/>
-      <c r="G88" s="68"/>
-      <c r="H88" s="154" t="s">
-        <v>6</v>
-      </c>
-      <c r="I88" s="68"/>
+      <c r="A88" s="155"/>
+      <c r="B88" s="4"/>
+      <c r="C88" s="4"/>
+      <c r="D88" s="4"/>
+      <c r="E88" s="4"/>
+      <c r="F88" s="4"/>
+      <c r="G88" s="4"/>
+      <c r="H88" s="4"/>
+      <c r="I88" s="4"/>
       <c r="J88" s="4"/>
       <c r="K88" s="4"/>
       <c r="L88" s="4"/>
-      <c r="M88" s="169"/>
-      <c r="N88" s="169"/>
-      <c r="O88" s="169"/>
-      <c r="P88" s="169"/>
-      <c r="Q88" s="169"/>
       <c r="R88" s="4"/>
       <c r="S88" s="4"/>
       <c r="T88" s="4"/>
@@ -5904,33 +5804,23 @@
       <c r="Z88" s="4"/>
     </row>
     <row r="89" ht="15.75" customHeight="1">
-      <c r="A89" s="175" t="s">
-        <v>6</v>
-      </c>
-      <c r="B89" s="136" t="s">
-        <v>6</v>
-      </c>
-      <c r="C89" s="82" t="s">
-        <v>58</v>
-      </c>
-      <c r="D89" s="82" t="s">
-        <v>35</v>
-      </c>
-      <c r="E89" s="83"/>
-      <c r="F89" s="157"/>
-      <c r="G89" s="68"/>
-      <c r="H89" s="131" t="s">
-        <v>6</v>
-      </c>
-      <c r="I89" s="68"/>
+      <c r="A89" s="155"/>
+      <c r="B89" s="4"/>
+      <c r="C89" s="4"/>
+      <c r="D89" s="4"/>
+      <c r="E89" s="4"/>
+      <c r="F89" s="4"/>
+      <c r="G89" s="4"/>
+      <c r="H89" s="4"/>
+      <c r="I89" s="4"/>
       <c r="J89" s="4"/>
       <c r="K89" s="4"/>
       <c r="L89" s="4"/>
-      <c r="M89" s="169"/>
-      <c r="N89" s="169"/>
-      <c r="O89" s="169"/>
-      <c r="P89" s="169"/>
-      <c r="Q89" s="169"/>
+      <c r="M89" s="4"/>
+      <c r="N89" s="4"/>
+      <c r="O89" s="4"/>
+      <c r="P89" s="4"/>
+      <c r="Q89" s="4"/>
       <c r="R89" s="4"/>
       <c r="S89" s="4"/>
       <c r="T89" s="4"/>
@@ -5942,68 +5832,35 @@
       <c r="Z89" s="4"/>
     </row>
     <row r="90" ht="15.75" customHeight="1">
-      <c r="A90" s="176" t="s">
-        <v>5</v>
-      </c>
-      <c r="B90" s="177" t="s">
-        <v>6</v>
-      </c>
-      <c r="C90" s="178" t="s">
-        <v>6</v>
-      </c>
-      <c r="D90" s="178" t="s">
-        <v>6</v>
-      </c>
-      <c r="E90" s="179" t="s">
-        <v>6</v>
-      </c>
-      <c r="F90" s="178">
-        <v>0.0</v>
-      </c>
-      <c r="G90" s="179">
-        <v>0.0</v>
-      </c>
-      <c r="H90" s="180">
-        <v>0.0</v>
-      </c>
-      <c r="I90" s="181">
-        <v>0.0</v>
-      </c>
-      <c r="J90" s="34"/>
-      <c r="K90" s="34"/>
-      <c r="L90" s="34"/>
-      <c r="M90" s="182">
-        <f>SUM(M87,M81,M76,M72,M66,M60,M55,M49,M44,M36,M30,M27,M22,M13,M8,M6)</f>
-        <v>25.75</v>
-      </c>
-      <c r="N90" s="182">
-        <f t="shared" ref="N90:O90" si="5">SUM(N87,N81,N76,N72,N66,N60,N55,N49,N44,N39,N36,N30,N27,N22,N13,N8,N6)</f>
-        <v>20.75</v>
-      </c>
-      <c r="O90" s="182">
-        <f t="shared" si="5"/>
-        <v>28.25</v>
-      </c>
-      <c r="P90" s="182">
-        <f>SUM(P87,P81,P76,P72,P66,P60,P55,P49,P44,P39,P36,P30,P22,P13,P8,P6)</f>
-        <v>30.75</v>
-      </c>
-      <c r="Q90" s="182">
-        <f>SUM(Q81,Q87,Q76,Q72,Q66,Q60,Q55,Q49,Q44,Q39,Q36,Q30,Q27,Q22,Q13,Q8,Q6)</f>
-        <v>101.5</v>
-      </c>
-      <c r="R90" s="34"/>
-      <c r="S90" s="34"/>
-      <c r="T90" s="34"/>
-      <c r="U90" s="34"/>
-      <c r="V90" s="34"/>
-      <c r="W90" s="34"/>
-      <c r="X90" s="34"/>
-      <c r="Y90" s="34"/>
-      <c r="Z90" s="34"/>
+      <c r="A90" s="155"/>
+      <c r="B90" s="4"/>
+      <c r="C90" s="4"/>
+      <c r="D90" s="4"/>
+      <c r="E90" s="4"/>
+      <c r="F90" s="4"/>
+      <c r="G90" s="4"/>
+      <c r="H90" s="4"/>
+      <c r="I90" s="4"/>
+      <c r="J90" s="4"/>
+      <c r="K90" s="4"/>
+      <c r="L90" s="4"/>
+      <c r="M90" s="4"/>
+      <c r="N90" s="4"/>
+      <c r="O90" s="4"/>
+      <c r="P90" s="4"/>
+      <c r="Q90" s="4"/>
+      <c r="R90" s="4"/>
+      <c r="S90" s="4"/>
+      <c r="T90" s="4"/>
+      <c r="U90" s="4"/>
+      <c r="V90" s="4"/>
+      <c r="W90" s="4"/>
+      <c r="X90" s="4"/>
+      <c r="Y90" s="4"/>
+      <c r="Z90" s="4"/>
     </row>
     <row r="91" ht="15.75" customHeight="1">
-      <c r="A91" s="183"/>
+      <c r="A91" s="155"/>
       <c r="B91" s="4"/>
       <c r="C91" s="4"/>
       <c r="D91" s="4"/>
@@ -6015,11 +5872,11 @@
       <c r="J91" s="4"/>
       <c r="K91" s="4"/>
       <c r="L91" s="4"/>
-      <c r="M91" s="184"/>
-      <c r="N91" s="184"/>
-      <c r="O91" s="184"/>
-      <c r="P91" s="184"/>
-      <c r="Q91" s="184"/>
+      <c r="M91" s="4"/>
+      <c r="N91" s="4"/>
+      <c r="O91" s="4"/>
+      <c r="P91" s="4"/>
+      <c r="Q91" s="4"/>
       <c r="R91" s="4"/>
       <c r="S91" s="4"/>
       <c r="T91" s="4"/>
@@ -6031,7 +5888,7 @@
       <c r="Z91" s="4"/>
     </row>
     <row r="92" ht="15.75" customHeight="1">
-      <c r="A92" s="185"/>
+      <c r="A92" s="155"/>
       <c r="B92" s="4"/>
       <c r="C92" s="4"/>
       <c r="D92" s="4"/>
@@ -6059,7 +5916,7 @@
       <c r="Z92" s="4"/>
     </row>
     <row r="93" ht="15.75" customHeight="1">
-      <c r="A93" s="185"/>
+      <c r="A93" s="155"/>
       <c r="B93" s="4"/>
       <c r="C93" s="4"/>
       <c r="D93" s="4"/>
@@ -6087,7 +5944,7 @@
       <c r="Z93" s="4"/>
     </row>
     <row r="94" ht="15.75" customHeight="1">
-      <c r="A94" s="185"/>
+      <c r="A94" s="155"/>
       <c r="B94" s="4"/>
       <c r="C94" s="4"/>
       <c r="D94" s="4"/>
@@ -6099,6 +5956,11 @@
       <c r="J94" s="4"/>
       <c r="K94" s="4"/>
       <c r="L94" s="4"/>
+      <c r="M94" s="4"/>
+      <c r="N94" s="4"/>
+      <c r="O94" s="4"/>
+      <c r="P94" s="4"/>
+      <c r="Q94" s="4"/>
       <c r="R94" s="4"/>
       <c r="S94" s="4"/>
       <c r="T94" s="4"/>
@@ -6110,7 +5972,7 @@
       <c r="Z94" s="4"/>
     </row>
     <row r="95" ht="15.75" customHeight="1">
-      <c r="A95" s="185"/>
+      <c r="A95" s="155"/>
       <c r="B95" s="4"/>
       <c r="C95" s="4"/>
       <c r="D95" s="4"/>
@@ -6138,7 +6000,7 @@
       <c r="Z95" s="4"/>
     </row>
     <row r="96" ht="15.75" customHeight="1">
-      <c r="A96" s="185"/>
+      <c r="A96" s="155"/>
       <c r="B96" s="4"/>
       <c r="C96" s="4"/>
       <c r="D96" s="4"/>
@@ -6166,7 +6028,7 @@
       <c r="Z96" s="4"/>
     </row>
     <row r="97" ht="15.75" customHeight="1">
-      <c r="A97" s="185"/>
+      <c r="A97" s="155"/>
       <c r="B97" s="4"/>
       <c r="C97" s="4"/>
       <c r="D97" s="4"/>
@@ -6194,7 +6056,7 @@
       <c r="Z97" s="4"/>
     </row>
     <row r="98" ht="15.75" customHeight="1">
-      <c r="A98" s="185"/>
+      <c r="A98" s="155"/>
       <c r="B98" s="4"/>
       <c r="C98" s="4"/>
       <c r="D98" s="4"/>
@@ -6222,7 +6084,7 @@
       <c r="Z98" s="4"/>
     </row>
     <row r="99" ht="15.75" customHeight="1">
-      <c r="A99" s="185"/>
+      <c r="A99" s="155"/>
       <c r="B99" s="4"/>
       <c r="C99" s="4"/>
       <c r="D99" s="4"/>
@@ -6250,7 +6112,7 @@
       <c r="Z99" s="4"/>
     </row>
     <row r="100" ht="15.75" customHeight="1">
-      <c r="A100" s="185"/>
+      <c r="A100" s="155"/>
       <c r="B100" s="4"/>
       <c r="C100" s="4"/>
       <c r="D100" s="4"/>
@@ -6278,7 +6140,7 @@
       <c r="Z100" s="4"/>
     </row>
     <row r="101" ht="15.75" customHeight="1">
-      <c r="A101" s="185"/>
+      <c r="A101" s="155"/>
       <c r="B101" s="4"/>
       <c r="C101" s="4"/>
       <c r="D101" s="4"/>
@@ -6306,7 +6168,7 @@
       <c r="Z101" s="4"/>
     </row>
     <row r="102" ht="15.75" customHeight="1">
-      <c r="A102" s="185"/>
+      <c r="A102" s="155"/>
       <c r="B102" s="4"/>
       <c r="C102" s="4"/>
       <c r="D102" s="4"/>
@@ -6334,7 +6196,7 @@
       <c r="Z102" s="4"/>
     </row>
     <row r="103" ht="15.75" customHeight="1">
-      <c r="A103" s="185"/>
+      <c r="A103" s="155"/>
       <c r="B103" s="4"/>
       <c r="C103" s="4"/>
       <c r="D103" s="4"/>
@@ -6362,7 +6224,7 @@
       <c r="Z103" s="4"/>
     </row>
     <row r="104" ht="15.75" customHeight="1">
-      <c r="A104" s="185"/>
+      <c r="A104" s="155"/>
       <c r="B104" s="4"/>
       <c r="C104" s="4"/>
       <c r="D104" s="4"/>
@@ -6390,7 +6252,7 @@
       <c r="Z104" s="4"/>
     </row>
     <row r="105" ht="15.75" customHeight="1">
-      <c r="A105" s="185"/>
+      <c r="A105" s="155"/>
       <c r="B105" s="4"/>
       <c r="C105" s="4"/>
       <c r="D105" s="4"/>
@@ -6418,7 +6280,7 @@
       <c r="Z105" s="4"/>
     </row>
     <row r="106" ht="15.75" customHeight="1">
-      <c r="A106" s="185"/>
+      <c r="A106" s="155"/>
       <c r="B106" s="4"/>
       <c r="C106" s="4"/>
       <c r="D106" s="4"/>
@@ -6446,7 +6308,7 @@
       <c r="Z106" s="4"/>
     </row>
     <row r="107" ht="15.75" customHeight="1">
-      <c r="A107" s="185"/>
+      <c r="A107" s="155"/>
       <c r="B107" s="4"/>
       <c r="C107" s="4"/>
       <c r="D107" s="4"/>
@@ -6474,7 +6336,7 @@
       <c r="Z107" s="4"/>
     </row>
     <row r="108" ht="15.75" customHeight="1">
-      <c r="A108" s="185"/>
+      <c r="A108" s="155"/>
       <c r="B108" s="4"/>
       <c r="C108" s="4"/>
       <c r="D108" s="4"/>
@@ -6502,7 +6364,7 @@
       <c r="Z108" s="4"/>
     </row>
     <row r="109" ht="15.75" customHeight="1">
-      <c r="A109" s="185"/>
+      <c r="A109" s="155"/>
       <c r="B109" s="4"/>
       <c r="C109" s="4"/>
       <c r="D109" s="4"/>
@@ -6530,7 +6392,7 @@
       <c r="Z109" s="4"/>
     </row>
     <row r="110" ht="15.75" customHeight="1">
-      <c r="A110" s="185"/>
+      <c r="A110" s="155"/>
       <c r="B110" s="4"/>
       <c r="C110" s="4"/>
       <c r="D110" s="4"/>
@@ -6558,7 +6420,7 @@
       <c r="Z110" s="4"/>
     </row>
     <row r="111" ht="15.75" customHeight="1">
-      <c r="A111" s="185"/>
+      <c r="A111" s="155"/>
       <c r="B111" s="4"/>
       <c r="C111" s="4"/>
       <c r="D111" s="4"/>
@@ -6586,7 +6448,7 @@
       <c r="Z111" s="4"/>
     </row>
     <row r="112" ht="15.75" customHeight="1">
-      <c r="A112" s="185"/>
+      <c r="A112" s="155"/>
       <c r="B112" s="4"/>
       <c r="C112" s="4"/>
       <c r="D112" s="4"/>
@@ -6614,7 +6476,7 @@
       <c r="Z112" s="4"/>
     </row>
     <row r="113" ht="15.75" customHeight="1">
-      <c r="A113" s="185"/>
+      <c r="A113" s="155"/>
       <c r="B113" s="4"/>
       <c r="C113" s="4"/>
       <c r="D113" s="4"/>
@@ -6642,7 +6504,7 @@
       <c r="Z113" s="4"/>
     </row>
     <row r="114" ht="15.75" customHeight="1">
-      <c r="A114" s="185"/>
+      <c r="A114" s="155"/>
       <c r="B114" s="4"/>
       <c r="C114" s="4"/>
       <c r="D114" s="4"/>
@@ -6670,7 +6532,7 @@
       <c r="Z114" s="4"/>
     </row>
     <row r="115" ht="15.75" customHeight="1">
-      <c r="A115" s="185"/>
+      <c r="A115" s="155"/>
       <c r="B115" s="4"/>
       <c r="C115" s="4"/>
       <c r="D115" s="4"/>
@@ -6698,7 +6560,7 @@
       <c r="Z115" s="4"/>
     </row>
     <row r="116" ht="15.75" customHeight="1">
-      <c r="A116" s="185"/>
+      <c r="A116" s="155"/>
       <c r="B116" s="4"/>
       <c r="C116" s="4"/>
       <c r="D116" s="4"/>
@@ -6726,7 +6588,7 @@
       <c r="Z116" s="4"/>
     </row>
     <row r="117" ht="15.75" customHeight="1">
-      <c r="A117" s="185"/>
+      <c r="A117" s="155"/>
       <c r="B117" s="4"/>
       <c r="C117" s="4"/>
       <c r="D117" s="4"/>
@@ -6754,7 +6616,7 @@
       <c r="Z117" s="4"/>
     </row>
     <row r="118" ht="15.75" customHeight="1">
-      <c r="A118" s="185"/>
+      <c r="A118" s="156"/>
       <c r="B118" s="4"/>
       <c r="C118" s="4"/>
       <c r="D118" s="4"/>
@@ -6782,7 +6644,7 @@
       <c r="Z118" s="4"/>
     </row>
     <row r="119" ht="15.75" customHeight="1">
-      <c r="A119" s="185"/>
+      <c r="A119" s="4"/>
       <c r="B119" s="4"/>
       <c r="C119" s="4"/>
       <c r="D119" s="4"/>
@@ -6810,7 +6672,7 @@
       <c r="Z119" s="4"/>
     </row>
     <row r="120" ht="15.75" customHeight="1">
-      <c r="A120" s="185"/>
+      <c r="A120" s="4"/>
       <c r="B120" s="4"/>
       <c r="C120" s="4"/>
       <c r="D120" s="4"/>
@@ -6838,7 +6700,7 @@
       <c r="Z120" s="4"/>
     </row>
     <row r="121" ht="15.75" customHeight="1">
-      <c r="A121" s="185"/>
+      <c r="A121" s="4"/>
       <c r="B121" s="4"/>
       <c r="C121" s="4"/>
       <c r="D121" s="4"/>
@@ -6866,7 +6728,7 @@
       <c r="Z121" s="4"/>
     </row>
     <row r="122" ht="15.75" customHeight="1">
-      <c r="A122" s="185"/>
+      <c r="A122" s="4"/>
       <c r="B122" s="4"/>
       <c r="C122" s="4"/>
       <c r="D122" s="4"/>
@@ -6894,7 +6756,7 @@
       <c r="Z122" s="4"/>
     </row>
     <row r="123" ht="15.75" customHeight="1">
-      <c r="A123" s="185"/>
+      <c r="A123" s="4"/>
       <c r="B123" s="4"/>
       <c r="C123" s="4"/>
       <c r="D123" s="4"/>
@@ -6922,7 +6784,7 @@
       <c r="Z123" s="4"/>
     </row>
     <row r="124" ht="15.75" customHeight="1">
-      <c r="A124" s="186"/>
+      <c r="A124" s="4"/>
       <c r="B124" s="4"/>
       <c r="C124" s="4"/>
       <c r="D124" s="4"/>
@@ -7314,15 +7176,33 @@
       <c r="Z137" s="4"/>
     </row>
     <row r="138" ht="15.75" customHeight="1">
-      <c r="A138" s="4"/>
-      <c r="B138" s="4"/>
-      <c r="C138" s="4"/>
-      <c r="D138" s="4"/>
-      <c r="E138" s="4"/>
-      <c r="F138" s="4"/>
-      <c r="G138" s="4"/>
-      <c r="H138" s="4"/>
-      <c r="I138" s="4"/>
+      <c r="A138" s="148" t="s">
+        <v>5</v>
+      </c>
+      <c r="B138" s="148" t="s">
+        <v>6</v>
+      </c>
+      <c r="C138" s="149" t="s">
+        <v>6</v>
+      </c>
+      <c r="D138" s="149" t="s">
+        <v>6</v>
+      </c>
+      <c r="E138" s="150" t="s">
+        <v>6</v>
+      </c>
+      <c r="F138" s="149">
+        <v>0.0</v>
+      </c>
+      <c r="G138" s="150">
+        <v>0.0</v>
+      </c>
+      <c r="H138" s="149">
+        <v>0.0</v>
+      </c>
+      <c r="I138" s="157">
+        <v>0.0</v>
+      </c>
       <c r="J138" s="4"/>
       <c r="K138" s="4"/>
       <c r="L138" s="4"/>
@@ -7482,33 +7362,15 @@
       <c r="Z143" s="4"/>
     </row>
     <row r="144" ht="15.75" customHeight="1">
-      <c r="A144" s="177" t="s">
-        <v>5</v>
-      </c>
-      <c r="B144" s="177" t="s">
-        <v>6</v>
-      </c>
-      <c r="C144" s="178" t="s">
-        <v>6</v>
-      </c>
-      <c r="D144" s="178" t="s">
-        <v>6</v>
-      </c>
-      <c r="E144" s="179" t="s">
-        <v>6</v>
-      </c>
-      <c r="F144" s="178">
-        <v>0.0</v>
-      </c>
-      <c r="G144" s="179">
-        <v>0.0</v>
-      </c>
-      <c r="H144" s="178">
-        <v>0.0</v>
-      </c>
-      <c r="I144" s="187">
-        <v>0.0</v>
-      </c>
+      <c r="A144" s="4"/>
+      <c r="B144" s="4"/>
+      <c r="C144" s="4"/>
+      <c r="D144" s="4"/>
+      <c r="E144" s="4"/>
+      <c r="F144" s="4"/>
+      <c r="G144" s="4"/>
+      <c r="H144" s="4"/>
+      <c r="I144" s="4"/>
       <c r="J144" s="4"/>
       <c r="K144" s="4"/>
       <c r="L144" s="4"/>
@@ -31159,178 +31021,10 @@
       <c r="Y988" s="4"/>
       <c r="Z988" s="4"/>
     </row>
-    <row r="989" ht="15.75" customHeight="1">
-      <c r="A989" s="4"/>
-      <c r="B989" s="4"/>
-      <c r="C989" s="4"/>
-      <c r="D989" s="4"/>
-      <c r="E989" s="4"/>
-      <c r="F989" s="4"/>
-      <c r="G989" s="4"/>
-      <c r="H989" s="4"/>
-      <c r="I989" s="4"/>
-      <c r="J989" s="4"/>
-      <c r="K989" s="4"/>
-      <c r="L989" s="4"/>
-      <c r="M989" s="4"/>
-      <c r="N989" s="4"/>
-      <c r="O989" s="4"/>
-      <c r="P989" s="4"/>
-      <c r="Q989" s="4"/>
-      <c r="R989" s="4"/>
-      <c r="S989" s="4"/>
-      <c r="T989" s="4"/>
-      <c r="U989" s="4"/>
-      <c r="V989" s="4"/>
-      <c r="W989" s="4"/>
-      <c r="X989" s="4"/>
-      <c r="Y989" s="4"/>
-      <c r="Z989" s="4"/>
-    </row>
-    <row r="990" ht="15.75" customHeight="1">
-      <c r="A990" s="4"/>
-      <c r="B990" s="4"/>
-      <c r="C990" s="4"/>
-      <c r="D990" s="4"/>
-      <c r="E990" s="4"/>
-      <c r="F990" s="4"/>
-      <c r="G990" s="4"/>
-      <c r="H990" s="4"/>
-      <c r="I990" s="4"/>
-      <c r="J990" s="4"/>
-      <c r="K990" s="4"/>
-      <c r="L990" s="4"/>
-      <c r="M990" s="4"/>
-      <c r="N990" s="4"/>
-      <c r="O990" s="4"/>
-      <c r="P990" s="4"/>
-      <c r="Q990" s="4"/>
-      <c r="R990" s="4"/>
-      <c r="S990" s="4"/>
-      <c r="T990" s="4"/>
-      <c r="U990" s="4"/>
-      <c r="V990" s="4"/>
-      <c r="W990" s="4"/>
-      <c r="X990" s="4"/>
-      <c r="Y990" s="4"/>
-      <c r="Z990" s="4"/>
-    </row>
-    <row r="991" ht="15.75" customHeight="1">
-      <c r="A991" s="4"/>
-      <c r="B991" s="4"/>
-      <c r="C991" s="4"/>
-      <c r="D991" s="4"/>
-      <c r="E991" s="4"/>
-      <c r="F991" s="4"/>
-      <c r="G991" s="4"/>
-      <c r="H991" s="4"/>
-      <c r="I991" s="4"/>
-      <c r="J991" s="4"/>
-      <c r="K991" s="4"/>
-      <c r="L991" s="4"/>
-      <c r="M991" s="4"/>
-      <c r="N991" s="4"/>
-      <c r="O991" s="4"/>
-      <c r="P991" s="4"/>
-      <c r="Q991" s="4"/>
-      <c r="R991" s="4"/>
-      <c r="S991" s="4"/>
-      <c r="T991" s="4"/>
-      <c r="U991" s="4"/>
-      <c r="V991" s="4"/>
-      <c r="W991" s="4"/>
-      <c r="X991" s="4"/>
-      <c r="Y991" s="4"/>
-      <c r="Z991" s="4"/>
-    </row>
-    <row r="992" ht="15.75" customHeight="1">
-      <c r="A992" s="4"/>
-      <c r="B992" s="4"/>
-      <c r="C992" s="4"/>
-      <c r="D992" s="4"/>
-      <c r="E992" s="4"/>
-      <c r="F992" s="4"/>
-      <c r="G992" s="4"/>
-      <c r="H992" s="4"/>
-      <c r="I992" s="4"/>
-      <c r="J992" s="4"/>
-      <c r="K992" s="4"/>
-      <c r="L992" s="4"/>
-      <c r="M992" s="4"/>
-      <c r="N992" s="4"/>
-      <c r="O992" s="4"/>
-      <c r="P992" s="4"/>
-      <c r="Q992" s="4"/>
-      <c r="R992" s="4"/>
-      <c r="S992" s="4"/>
-      <c r="T992" s="4"/>
-      <c r="U992" s="4"/>
-      <c r="V992" s="4"/>
-      <c r="W992" s="4"/>
-      <c r="X992" s="4"/>
-      <c r="Y992" s="4"/>
-      <c r="Z992" s="4"/>
-    </row>
-    <row r="993" ht="15.75" customHeight="1">
-      <c r="A993" s="4"/>
-      <c r="B993" s="4"/>
-      <c r="C993" s="4"/>
-      <c r="D993" s="4"/>
-      <c r="E993" s="4"/>
-      <c r="F993" s="4"/>
-      <c r="G993" s="4"/>
-      <c r="H993" s="4"/>
-      <c r="I993" s="4"/>
-      <c r="J993" s="4"/>
-      <c r="K993" s="4"/>
-      <c r="L993" s="4"/>
-      <c r="M993" s="4"/>
-      <c r="N993" s="4"/>
-      <c r="O993" s="4"/>
-      <c r="P993" s="4"/>
-      <c r="Q993" s="4"/>
-      <c r="R993" s="4"/>
-      <c r="S993" s="4"/>
-      <c r="T993" s="4"/>
-      <c r="U993" s="4"/>
-      <c r="V993" s="4"/>
-      <c r="W993" s="4"/>
-      <c r="X993" s="4"/>
-      <c r="Y993" s="4"/>
-      <c r="Z993" s="4"/>
-    </row>
-    <row r="994" ht="15.75" customHeight="1">
-      <c r="A994" s="4"/>
-      <c r="B994" s="4"/>
-      <c r="C994" s="4"/>
-      <c r="D994" s="4"/>
-      <c r="E994" s="4"/>
-      <c r="F994" s="4"/>
-      <c r="G994" s="4"/>
-      <c r="H994" s="4"/>
-      <c r="I994" s="4"/>
-      <c r="J994" s="4"/>
-      <c r="K994" s="4"/>
-      <c r="L994" s="4"/>
-      <c r="M994" s="4"/>
-      <c r="N994" s="4"/>
-      <c r="O994" s="4"/>
-      <c r="P994" s="4"/>
-      <c r="Q994" s="4"/>
-      <c r="R994" s="4"/>
-      <c r="S994" s="4"/>
-      <c r="T994" s="4"/>
-      <c r="U994" s="4"/>
-      <c r="V994" s="4"/>
-      <c r="W994" s="4"/>
-      <c r="X994" s="4"/>
-      <c r="Y994" s="4"/>
-      <c r="Z994" s="4"/>
-    </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{47EECE23-E9D6-4E0B-8D0E-FD2754B8C001}" filter="1" showAutoFilter="1">
-      <autoFilter ref="$A$2:$I$90"/>
+    <customSheetView guid="{1A6911CB-204D-41E4-93B8-C35F3605E52C}" filter="1" showAutoFilter="1">
+      <autoFilter ref="$A$2:$I$84"/>
       <extLst>
         <ext uri="GoogleSheetsCustomDataVersion1">
           <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" filterViewId="58594963"/>

--- a/Team_10_Estimated_Efforts.xlsx
+++ b/Team_10_Estimated_Efforts.xlsx
@@ -6,22 +6,22 @@
     <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="Z_1A6911CB_204D_41E4_93B8_C35F3605E52C_.wvu.FilterData">Sheet1!$A$2:$I$84</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_80E05015_D7FE_4065_A8EB_96C524F604A6_.wvu.FilterData">Sheet1!$A$2:$I$76</definedName>
   </definedNames>
   <calcPr/>
   <customWorkbookViews>
-    <customWorkbookView activeSheetId="0" maximized="1" tabRatio="600" windowHeight="0" windowWidth="0" guid="{1A6911CB-204D-41E4-93B8-C35F3605E52C}" name="Filter 1"/>
+    <customWorkbookView activeSheetId="0" maximized="1" tabRatio="600" windowHeight="0" windowWidth="0" guid="{80E05015-D7FE-4065-A8EB-96C524F604A6}" name="Filter 1"/>
   </customWorkbookViews>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mhCBg0BMrNdndEekE2ygHgWLLZ9Hg=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mh5Llrx+6KPSUZFkLSSEGYaJUM8qQ=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="100">
   <si>
     <t>Task Name: (Dependencies top to bottom)</t>
   </si>
@@ -125,12 +125,6 @@
     <t>Project Charter</t>
   </si>
   <si>
-    <t>Release Plan</t>
-  </si>
-  <si>
-    <t>Joshua</t>
-  </si>
-  <si>
     <t>Risk Managment Document</t>
   </si>
   <si>
@@ -138,6 +132,9 @@
   </si>
   <si>
     <t>Project Manager, Requirements Engineer</t>
+  </si>
+  <si>
+    <t>Joshua</t>
   </si>
   <si>
     <t>Project Plan</t>
@@ -166,30 +163,19 @@
     </r>
   </si>
   <si>
-    <t>Test Report</t>
+    <t>Test Plan</t>
   </si>
   <si>
     <t>Developers, Tester</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">David, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-      </rPr>
-      <t>Alec</t>
-    </r>
-  </si>
-  <si>
-    <t>User Guide/Admin Doc</t>
+    <t>User and System Guide</t>
   </si>
   <si>
     <t>Developers, Requirements Engineer</t>
   </si>
   <si>
-    <t>Kendal, Joshua</t>
+    <t>Joshua, Kendal</t>
   </si>
   <si>
     <t>Forming</t>
@@ -329,12 +315,6 @@
     <t>Prepare for Next Iteration</t>
   </si>
   <si>
-    <t xml:space="preserve">Kendal </t>
-  </si>
-  <si>
-    <t> 2</t>
-  </si>
-  <si>
     <t>Implemenation</t>
   </si>
   <si>
@@ -376,10 +356,13 @@
     <t>Alec, Joshua</t>
   </si>
   <si>
-    <t>Implementation/      Testing</t>
+    <t>Implementation</t>
   </si>
   <si>
     <t>Iteration 4:</t>
+  </si>
+  <si>
+    <t>Joshua, Alec</t>
   </si>
   <si>
     <t>Joshua, Kendal, Alec</t>
@@ -394,10 +377,19 @@
     <t>Implement database connection</t>
   </si>
   <si>
-    <t>Joshua, Kendal</t>
+    <t>Implement database schemas</t>
   </si>
   <si>
-    <t>Implement database schemas</t>
+    <t>Implementation/ Testing</t>
+  </si>
+  <si>
+    <t>Iteration 5:</t>
+  </si>
+  <si>
+    <t>Implement backend database interface</t>
+  </si>
+  <si>
+    <t>Create Final Presentation</t>
   </si>
   <si>
     <t>System Testing</t>
@@ -408,18 +400,12 @@
   <si>
     <t>Bug fix from testing results</t>
   </si>
-  <si>
-    <t>Testing</t>
-  </si>
-  <si>
-    <t>Iteration 5:</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="18">
+  <fonts count="20">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -463,13 +449,27 @@
       <name val="Arial"/>
     </font>
     <font>
+      <b/>
+      <sz val="12.0"/>
+      <name val="Arial"/>
+    </font>
+    <font>
       <sz val="2.0"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="12.0"/>
+      <name val="Arial"/>
+    </font>
+    <font>
       <b/>
       <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10.0"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -485,13 +485,10 @@
       <name val="Arial"/>
     </font>
     <font>
-      <b/>
-      <sz val="11.0"/>
-      <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <b/>
+      <strike/>
       <sz val="12.0"/>
       <name val="Arial"/>
     </font>
@@ -504,12 +501,6 @@
     <font>
       <b/>
       <sz val="11.0"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12.0"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
     </font>
@@ -557,7 +548,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="60">
     <border/>
     <border>
       <left style="hair">
@@ -591,6 +582,25 @@
       <left style="hair">
         <color rgb="FF000000"/>
       </left>
+      <top style="hair">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFF6B26B"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+    </border>
+    <border>
+      <left style="hair">
+        <color rgb="FF000000"/>
+      </left>
       <right/>
       <top/>
       <bottom style="hair">
@@ -610,6 +620,25 @@
       <right style="hair">
         <color rgb="FF000000"/>
       </right>
+      <top/>
+      <bottom style="hair">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="hair">
+        <color rgb="FF000000"/>
+      </left>
+      <top/>
+      <bottom style="hair">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFF6B26B"/>
+      </left>
+      <right/>
       <top/>
       <bottom style="hair">
         <color rgb="FF000000"/>
@@ -648,14 +677,265 @@
       </bottom>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="hair">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="hair">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="hair">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFF6B26B"/>
+      </left>
+      <right style="hair">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="hair">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="hair">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="hair">
+        <color rgb="FF000000"/>
+      </left>
       <top/>
       <bottom/>
     </border>
     <border>
       <left/>
       <right/>
+      <top style="hair">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="hair">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="hair">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+    </border>
+    <border>
+      <left style="hair">
+        <color rgb="FF000000"/>
+      </left>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFF6B26B"/>
+      </left>
+      <right style="hair">
+        <color rgb="FF000000"/>
+      </right>
+    </border>
+    <border>
+      <left style="hair">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <bottom style="dotted">
+        <color rgb="FF999999"/>
+      </bottom>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <bottom style="dotted">
+        <color rgb="FF999999"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="hair">
+        <color rgb="FF000000"/>
+      </left>
+      <bottom style="dotted">
+        <color rgb="FF999999"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFF6B26B"/>
+      </left>
+      <right style="hair">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="dotted">
+        <color rgb="FF999999"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="hair">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="dotted">
+        <color rgb="FF999999"/>
+      </top>
+      <bottom style="dotted">
+        <color rgb="FF999999"/>
+      </bottom>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="dotted">
+        <color rgb="FF999999"/>
+      </top>
+      <bottom style="dotted">
+        <color rgb="FF999999"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="hair">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="dotted">
+        <color rgb="FF999999"/>
+      </top>
+      <bottom style="dotted">
+        <color rgb="FF999999"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFF6B26B"/>
+      </left>
+      <right style="hair">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="dotted">
+        <color rgb="FF999999"/>
+      </top>
+      <bottom style="dotted">
+        <color rgb="FF999999"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="hair">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="dotted">
+        <color rgb="FF999999"/>
+      </top>
+    </border>
+    <border>
+      <left style="hair">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="dotted">
+        <color rgb="FF999999"/>
+      </top>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFF6B26B"/>
+      </left>
+      <right style="hair">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="dotted">
+        <color rgb="FF999999"/>
+      </top>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="dotted">
+        <color rgb="FF999999"/>
+      </top>
+    </border>
+    <border>
+      <left style="hair">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="dotted">
+        <color rgb="FF999999"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="hair">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="hair">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="dotted">
+        <color rgb="FF999999"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFF6B26B"/>
+      </left>
+      <right style="hair">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="hair">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="dotted">
+        <color rgb="FF999999"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="hair">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="dotted">
+        <color rgb="FF999999"/>
+      </top>
+      <bottom style="hair">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="hair">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="dotted">
+        <color rgb="FF999999"/>
+      </top>
+      <bottom style="hair">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFF6B26B"/>
+      </left>
+      <right style="hair">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="dotted">
+        <color rgb="FF999999"/>
+      </top>
+      <bottom style="hair">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="hair">
+        <color rgb="FF000000"/>
+      </right>
       <top style="hair">
         <color rgb="FF000000"/>
       </top>
@@ -674,9 +954,101 @@
       <bottom/>
     </border>
     <border>
+      <bottom style="dotted">
+        <color rgb="FF999999"/>
+      </bottom>
+    </border>
+    <border>
+      <left/>
+      <bottom style="dotted">
+        <color rgb="FF999999"/>
+      </bottom>
+    </border>
+    <border>
+      <left/>
+      <top style="dotted">
+        <color rgb="FF999999"/>
+      </top>
+      <bottom style="dotted">
+        <color rgb="FF999999"/>
+      </bottom>
+    </border>
+    <border>
+      <left/>
+      <top style="dotted">
+        <color rgb="FF999999"/>
+      </top>
+    </border>
+    <border>
       <left/>
       <right/>
+      <top style="dotted">
+        <color rgb="FF999999"/>
+      </top>
+      <bottom style="hair">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="hair">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="dotted">
+        <color rgb="FF999999"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="hair">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="hair">
+        <color rgb="FF000000"/>
+      </right>
       <top/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="dotted">
+        <color rgb="FF999999"/>
+      </top>
+      <bottom/>
+    </border>
+    <border>
+      <left style="hair">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="dotted">
+        <color rgb="FF999999"/>
+      </top>
+      <bottom/>
+    </border>
+    <border>
+      <left style="hair">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="dotted">
+        <color rgb="FF999999"/>
+      </top>
+      <bottom/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFF6B26B"/>
+      </left>
+      <right style="hair">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="dotted">
+        <color rgb="FF999999"/>
+      </top>
+      <bottom/>
     </border>
     <border>
       <left style="hair">
@@ -686,58 +1058,27 @@
       <top/>
     </border>
     <border>
-      <left/>
-    </border>
-    <border>
-      <left style="hair">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <bottom/>
-    </border>
-    <border>
-      <left style="hair">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <bottom/>
-    </border>
-    <border>
-      <left/>
-      <top/>
-      <bottom/>
-    </border>
-    <border>
-      <left/>
-      <bottom/>
-    </border>
-    <border>
       <left style="hair">
         <color rgb="FF000000"/>
       </left>
       <right style="hair">
         <color rgb="FF000000"/>
       </right>
-      <top/>
+      <top style="hair">
+        <color rgb="FF000000"/>
+      </top>
       <bottom style="hair">
         <color rgb="FF000000"/>
       </bottom>
     </border>
     <border>
-      <right/>
-      <top/>
-    </border>
-    <border>
       <left/>
-      <right style="hair">
+      <top style="hair">
         <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
+      </top>
+      <bottom style="hair">
+        <color rgb="FF000000"/>
+      </bottom>
     </border>
     <border>
       <left style="thin">
@@ -773,7 +1114,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="158">
+  <cellXfs count="263">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -807,395 +1148,688 @@
     <xf borderId="3" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="5" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="5" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="6" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="7" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="7" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="5" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="7" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="5" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="8" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="9" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="10" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="11" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="7" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="7" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="8" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="7" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="12" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="13" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="14" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="15" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="16" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="13" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="17" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="17" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="13" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="12" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="17" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="12" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="14" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="15" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="18" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="19" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="19" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="19" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="18" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="19" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="18" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="20" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="21" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="17" fillId="4" fontId="12" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="12" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="14" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="15" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="22" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="23" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="23" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="23" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="22" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="23" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="22" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="24" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="25" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="26" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="27" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="27" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="27" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="26" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="27" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="26" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="28" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="29" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="30" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="31" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="32" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="30" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="33" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="33" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="33" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="30" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="33" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="34" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="35" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="36" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="37" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="38" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="39" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="24" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="27" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="27" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="27" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="28" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="27" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="27" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="6" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="5" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="33" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="33" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="33" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="8" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="31" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="9" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="16" fillId="5" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="17" fillId="4" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="40" fillId="4" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf borderId="13" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="5" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="14" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="5" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="41" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="42" fillId="5" fontId="15" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="42" fillId="5" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="23" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="6" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="42" fillId="5" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="23" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="5" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="42" fillId="5" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0"/>
+    </xf>
+    <xf borderId="22" fillId="5" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="23" fillId="5" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="23" fillId="5" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="43" fillId="5" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="25" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="27" fillId="5" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="27" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="27" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="26" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="27" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="26" fillId="5" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="27" fillId="5" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="44" fillId="5" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="29" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="33" fillId="5" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="33" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="33" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="30" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="33" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="30" fillId="5" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="33" fillId="5" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="33" fillId="5" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="45" fillId="5" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="32" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="23" fillId="5" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="23" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="22" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="23" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="24" fillId="5" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="33" fillId="5" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="33" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="33" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="30" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="30" fillId="5" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="31" fillId="5" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="41" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="41" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="23" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="23" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="22" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="22" fillId="3" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="24" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="25" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="27" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="26" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="26" fillId="3" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="28" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="29" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="46" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="33" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="33" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="46" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="30" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="30" fillId="3" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="31" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="32" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="13" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="17" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="8" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="19" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="9" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="19" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="10" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="18" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="18" fillId="3" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="20" fillId="3" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="21" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="22" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="43" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="10" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="25" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="27" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="26" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="10" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="29" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="33" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="30" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="32" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="41" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="23" fillId="5" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="7" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="23" fillId="5" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="23" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="22" fillId="5" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="43" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="10" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="23" fillId="5" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="22" fillId="5" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="33" fillId="5" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="33" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="33" fillId="5" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="7" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="9" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="19" fillId="5" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="11" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="11" fillId="4" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="8" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="11" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="11" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="10" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="10" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="10" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="10" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="7" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="11" fillId="4" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf borderId="12" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="13" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="10" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0"/>
-    </xf>
-    <xf borderId="10" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="10" fillId="5" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="10" fillId="5" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="10" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="7" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="10" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="10" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="7" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="10" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="10" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="7" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="12" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="9" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="8" fillId="4" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="11" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="8" fillId="4" fontId="12" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="9" fillId="4" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="12" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="10" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="7" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="7" fillId="3" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="5" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="4" fillId="3" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="8" fillId="4" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="9" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="13" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="13" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="13" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="14" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="15" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="13" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="16" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="7" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="7" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="12" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="10" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="10" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="10" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="10" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="5" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="7" fillId="5" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="5" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="5" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="10" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="10" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="7" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="10" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="4" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="4" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="12" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="17" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="18" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="19" fillId="5" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="19" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="19" fillId="5" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="18" fillId="5" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="47" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="17" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf borderId="19" fillId="5" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="20" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="18" fillId="5" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="18" fillId="5" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="20" fillId="5" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="21" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="41" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="21" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="23" fillId="5" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="33" fillId="5" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="45" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="41" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="10" fillId="3" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="23" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="5" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="23" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="24" fillId="3" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="28" fillId="3" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="41" fillId="5" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="24" fillId="5" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="30" fillId="5" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="33" fillId="5" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="31" fillId="5" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="13" fillId="4" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="14" fillId="4" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="27" fillId="5" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="13" fillId="3" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="27" fillId="5" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="22" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="27" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="13" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="27" fillId="5" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="26" fillId="5" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="44" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="27" fillId="5" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="5" fillId="3" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="26" fillId="5" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="28" fillId="5" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="27" fillId="5" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="5" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="46" fillId="5" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="46" fillId="5" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="46" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="37" fillId="5" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="46" fillId="5" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="12" fillId="4" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="48" fillId="5" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="34" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="6" fillId="4" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="7" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="48" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="49" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="10" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="23" fillId="4" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="4" fontId="12" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="2" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="27" fillId="5" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="50" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" shrinkToFit="0" wrapText="1"/>
+    <xf borderId="30" fillId="5" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="14" fillId="6" fontId="14" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="4" fillId="6" fontId="14" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="5" fillId="6" fontId="14" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="6" fillId="6" fontId="14" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="5" fillId="6" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="50" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="51" fillId="5" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="52" fillId="5" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="53" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="54" fillId="6" fontId="17" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
+    <xf borderId="6" fillId="6" fontId="17" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="7" fillId="6" fontId="17" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="8" fillId="6" fontId="17" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="12" fillId="6" fontId="18" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="7" fillId="6" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="8" fillId="6" fontId="15" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="9" fillId="6" fontId="16" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="24" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="55" fillId="6" fontId="18" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="56" fillId="6" fontId="18" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="15" fillId="6" fontId="18" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="57" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="25" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="58" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="26" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="59" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="8" fillId="6" fontId="17" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="12" fillId="6" fontId="19" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -1533,10 +2167,10 @@
       <c r="O3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="P3" s="9" t="s">
+      <c r="P3" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="Q3" s="9" t="s">
+      <c r="Q3" s="14" t="s">
         <v>6</v>
       </c>
       <c r="R3" s="4"/>
@@ -1550,49 +2184,49 @@
       <c r="Z3" s="4"/>
     </row>
     <row r="4" ht="15.0" customHeight="1">
-      <c r="A4" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="16" t="s">
+      <c r="A4" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="16" t="s">
+      <c r="G4" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="14" t="s">
+      <c r="H4" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="16" t="s">
+      <c r="I4" s="18" t="s">
         <v>14</v>
       </c>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
-      <c r="M4" s="13" t="s">
+      <c r="M4" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="N4" s="13" t="s">
+      <c r="N4" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="O4" s="13" t="s">
+      <c r="O4" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="P4" s="13" t="s">
+      <c r="P4" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="Q4" s="13" t="s">
+      <c r="Q4" s="20" t="s">
         <v>6</v>
       </c>
       <c r="R4" s="4"/>
@@ -1606,49 +2240,49 @@
       <c r="Z4" s="4"/>
     </row>
     <row r="5" ht="15.0" customHeight="1">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="G5" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="H5" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="I5" s="22" t="s">
+      <c r="B5" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="I5" s="26" t="s">
         <v>6</v>
       </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
-      <c r="M5" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="N5" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="O5" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="P5" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q5" s="23" t="s">
+      <c r="M5" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="N5" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="O5" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="P5" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q5" s="29" t="s">
         <v>6</v>
       </c>
       <c r="R5" s="4"/>
@@ -1662,104 +2296,106 @@
       <c r="Z5" s="4"/>
     </row>
     <row r="6" ht="15.0" customHeight="1">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6" s="27"/>
-      <c r="G6" s="28">
+      <c r="C6" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="34"/>
+      <c r="G6" s="35">
         <v>4.0</v>
       </c>
-      <c r="H6" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="I6" s="30">
+      <c r="H6" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="I6" s="37">
         <v>4.0</v>
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
-      <c r="M6" s="31">
+      <c r="M6" s="34">
         <v>1.0</v>
       </c>
-      <c r="N6" s="31">
+      <c r="N6" s="34">
         <v>1.0</v>
       </c>
-      <c r="O6" s="31">
+      <c r="O6" s="34">
         <v>1.0</v>
       </c>
-      <c r="P6" s="31">
+      <c r="P6" s="38">
         <v>1.0</v>
       </c>
-      <c r="Q6" s="31">
+      <c r="Q6" s="39">
+        <f t="shared" ref="Q6:Q35" si="1">SUM(M6:P6)</f>
+        <v>4</v>
+      </c>
+      <c r="R6" s="40"/>
+      <c r="S6" s="40"/>
+      <c r="T6" s="40"/>
+      <c r="U6" s="40"/>
+      <c r="V6" s="40"/>
+      <c r="W6" s="40"/>
+      <c r="X6" s="40"/>
+      <c r="Y6" s="40"/>
+      <c r="Z6" s="40"/>
+    </row>
+    <row r="7" ht="15.0" customHeight="1">
+      <c r="A7" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="45">
         <v>4.0</v>
       </c>
-      <c r="R6" s="32"/>
-      <c r="S6" s="32"/>
-      <c r="T6" s="32"/>
-      <c r="U6" s="32"/>
-      <c r="V6" s="32"/>
-      <c r="W6" s="32"/>
-      <c r="X6" s="32"/>
-      <c r="Y6" s="32"/>
-      <c r="Z6" s="32"/>
-    </row>
-    <row r="7" ht="15.0" customHeight="1">
-      <c r="A7" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" s="36">
+      <c r="G7" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" s="46">
         <v>4.0</v>
       </c>
-      <c r="G7" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="H7" s="37">
-        <v>4.0</v>
-      </c>
-      <c r="I7" s="35" t="s">
+      <c r="I7" s="44" t="s">
         <v>6</v>
       </c>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
-      <c r="M7" s="38">
+      <c r="M7" s="47">
         <v>1.0</v>
       </c>
-      <c r="N7" s="38">
+      <c r="N7" s="47">
         <v>1.0</v>
       </c>
-      <c r="O7" s="38">
+      <c r="O7" s="47">
         <v>1.0</v>
       </c>
-      <c r="P7" s="38">
+      <c r="P7" s="48">
         <v>1.0</v>
       </c>
-      <c r="Q7" s="38">
-        <v>4.0</v>
+      <c r="Q7" s="49">
+        <f t="shared" si="1"/>
+        <v>4</v>
       </c>
       <c r="R7" s="4"/>
       <c r="S7" s="4"/>
@@ -1772,32 +2408,32 @@
       <c r="Z7" s="4"/>
     </row>
     <row r="8" ht="15.0" customHeight="1">
-      <c r="A8" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="39" t="s">
+      <c r="A8" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="41" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="41" t="s">
-        <v>6</v>
-      </c>
-      <c r="F8" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="G8" s="42">
+      <c r="C8" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" s="51">
         <f>SUM(F9:F12)</f>
         <v>9</v>
       </c>
-      <c r="H8" s="43" t="s">
-        <v>6</v>
-      </c>
-      <c r="I8" s="30">
+      <c r="H8" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="I8" s="37">
         <v>9.0</v>
       </c>
       <c r="J8" s="1"/>
@@ -1812,68 +2448,69 @@
       <c r="O8" s="31">
         <v>2.25</v>
       </c>
-      <c r="P8" s="31">
+      <c r="P8" s="52">
         <v>2.25</v>
       </c>
-      <c r="Q8" s="39">
-        <f>SUM(Q9:Q12)</f>
+      <c r="Q8" s="53">
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="R8" s="32"/>
-      <c r="S8" s="32"/>
-      <c r="T8" s="32"/>
-      <c r="U8" s="32"/>
-      <c r="V8" s="32"/>
-      <c r="W8" s="32"/>
-      <c r="X8" s="32"/>
-      <c r="Y8" s="32"/>
-      <c r="Z8" s="32"/>
+      <c r="R8" s="40"/>
+      <c r="S8" s="40"/>
+      <c r="T8" s="40"/>
+      <c r="U8" s="40"/>
+      <c r="V8" s="40"/>
+      <c r="W8" s="40"/>
+      <c r="X8" s="40"/>
+      <c r="Y8" s="40"/>
+      <c r="Z8" s="40"/>
     </row>
     <row r="9" ht="15.0" customHeight="1">
-      <c r="A9" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="33" t="s">
+      <c r="A9" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="54" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="34" t="s">
+      <c r="D9" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="35" t="s">
+      <c r="E9" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="36">
+      <c r="F9" s="58">
         <v>1.0</v>
       </c>
-      <c r="G9" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="H9" s="37">
+      <c r="G9" s="57" t="s">
+        <v>6</v>
+      </c>
+      <c r="H9" s="59">
         <v>1.0</v>
       </c>
-      <c r="I9" s="35" t="s">
+      <c r="I9" s="57" t="s">
         <v>6</v>
       </c>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
-      <c r="M9" s="38">
+      <c r="M9" s="60">
         <v>0.25</v>
       </c>
-      <c r="N9" s="38">
+      <c r="N9" s="60">
         <v>0.25</v>
       </c>
-      <c r="O9" s="38">
+      <c r="O9" s="60">
         <v>0.25</v>
       </c>
-      <c r="P9" s="38">
+      <c r="P9" s="61">
         <v>0.25</v>
       </c>
-      <c r="Q9" s="38">
-        <v>1.0</v>
+      <c r="Q9" s="62">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="R9" s="4"/>
       <c r="S9" s="4"/>
@@ -1886,50 +2523,51 @@
       <c r="Z9" s="4"/>
     </row>
     <row r="10" ht="15.0" customHeight="1">
-      <c r="A10" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="33" t="s">
+      <c r="A10" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="63" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="34" t="s">
+      <c r="D10" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="35" t="s">
+      <c r="E10" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="F10" s="36">
+      <c r="F10" s="67">
         <v>4.0</v>
       </c>
-      <c r="G10" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="H10" s="37">
+      <c r="G10" s="66" t="s">
+        <v>6</v>
+      </c>
+      <c r="H10" s="68">
         <v>4.0</v>
       </c>
-      <c r="I10" s="35" t="s">
+      <c r="I10" s="66" t="s">
         <v>6</v>
       </c>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
-      <c r="M10" s="38">
+      <c r="M10" s="69">
         <v>1.0</v>
       </c>
-      <c r="N10" s="38">
+      <c r="N10" s="69">
         <v>1.0</v>
       </c>
-      <c r="O10" s="38">
+      <c r="O10" s="69">
         <v>1.0</v>
       </c>
-      <c r="P10" s="38">
+      <c r="P10" s="70">
         <v>1.0</v>
       </c>
-      <c r="Q10" s="38">
-        <v>4.0</v>
+      <c r="Q10" s="71">
+        <f t="shared" si="1"/>
+        <v>4</v>
       </c>
       <c r="R10" s="4"/>
       <c r="S10" s="4"/>
@@ -1942,50 +2580,51 @@
       <c r="Z10" s="4"/>
     </row>
     <row r="11" ht="15.0" customHeight="1">
-      <c r="A11" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="33" t="s">
+      <c r="A11" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="63" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="34" t="s">
+      <c r="D11" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="35" t="s">
+      <c r="E11" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="36">
+      <c r="F11" s="67">
         <v>2.0</v>
       </c>
-      <c r="G11" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="H11" s="37">
+      <c r="G11" s="66" t="s">
+        <v>6</v>
+      </c>
+      <c r="H11" s="68">
         <v>2.0</v>
       </c>
-      <c r="I11" s="35" t="s">
+      <c r="I11" s="66" t="s">
         <v>6</v>
       </c>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
-      <c r="M11" s="38">
+      <c r="M11" s="72">
         <v>0.5</v>
       </c>
-      <c r="N11" s="38">
+      <c r="N11" s="72">
         <v>0.5</v>
       </c>
-      <c r="O11" s="38">
+      <c r="O11" s="72">
         <v>0.5</v>
       </c>
-      <c r="P11" s="38">
+      <c r="P11" s="73">
         <v>0.5</v>
       </c>
-      <c r="Q11" s="38">
-        <v>2.0</v>
+      <c r="Q11" s="74">
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="R11" s="4"/>
       <c r="S11" s="4"/>
@@ -1998,46 +2637,47 @@
       <c r="Z11" s="4"/>
     </row>
     <row r="12" ht="15.0" customHeight="1">
-      <c r="A12" s="17"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="33" t="s">
+      <c r="A12" s="21"/>
+      <c r="B12" s="75"/>
+      <c r="C12" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="34" t="s">
+      <c r="D12" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="E12" s="35" t="s">
+      <c r="E12" s="78" t="s">
         <v>20</v>
       </c>
-      <c r="F12" s="36">
+      <c r="F12" s="79">
         <v>2.0</v>
       </c>
-      <c r="G12" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="H12" s="37">
+      <c r="G12" s="78" t="s">
+        <v>6</v>
+      </c>
+      <c r="H12" s="80">
         <v>2.0</v>
       </c>
-      <c r="I12" s="35" t="s">
+      <c r="I12" s="78" t="s">
         <v>6</v>
       </c>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
-      <c r="M12" s="38">
+      <c r="M12" s="81">
         <v>0.5</v>
       </c>
-      <c r="N12" s="38">
+      <c r="N12" s="81">
         <v>0.5</v>
       </c>
-      <c r="O12" s="38">
+      <c r="O12" s="81">
         <v>0.5</v>
       </c>
-      <c r="P12" s="38">
+      <c r="P12" s="82">
         <v>0.5</v>
       </c>
-      <c r="Q12" s="38">
-        <v>2.0</v>
+      <c r="Q12" s="83">
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="R12" s="4"/>
       <c r="S12" s="4"/>
@@ -2050,113 +2690,114 @@
       <c r="Z12" s="4"/>
     </row>
     <row r="13" ht="15.0" customHeight="1">
-      <c r="A13" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" s="39" t="s">
+      <c r="A13" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="44" t="s">
-        <v>6</v>
-      </c>
-      <c r="E13" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="F13" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="G13" s="42">
-        <f>SUM(F14:F21)</f>
+      <c r="C13" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="G13" s="51">
+        <f>SUM(F14:F20)</f>
         <v>27</v>
       </c>
-      <c r="H13" s="43" t="s">
-        <v>6</v>
-      </c>
-      <c r="I13" s="42">
-        <f>SUM(H14:H21)</f>
-        <v>19</v>
+      <c r="H13" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="I13" s="51">
+        <f>SUM(H14:H20)</f>
+        <v>23</v>
       </c>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
-      <c r="M13" s="39">
-        <f t="shared" ref="M13:Q13" si="1">SUM(M14:M21)</f>
+      <c r="M13" s="84">
+        <f t="shared" ref="M13:P13" si="2">SUM(M14:M20)</f>
+        <v>4.5</v>
+      </c>
+      <c r="N13" s="84">
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="N13" s="39">
+      <c r="O13" s="84">
+        <f t="shared" si="2"/>
+        <v>8.5</v>
+      </c>
+      <c r="P13" s="85">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="Q13" s="86">
         <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="R13" s="40"/>
+      <c r="S13" s="40"/>
+      <c r="T13" s="40"/>
+      <c r="U13" s="40"/>
+      <c r="V13" s="40"/>
+      <c r="W13" s="40"/>
+      <c r="X13" s="40"/>
+      <c r="Y13" s="40"/>
+      <c r="Z13" s="40"/>
+    </row>
+    <row r="14" ht="15.0" customHeight="1">
+      <c r="A14" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="54" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="55" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="O13" s="39">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="P13" s="39">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="Q13" s="39">
-        <f t="shared" si="1"/>
-        <v>19</v>
-      </c>
-      <c r="R13" s="32"/>
-      <c r="S13" s="32"/>
-      <c r="T13" s="32"/>
-      <c r="U13" s="32"/>
-      <c r="V13" s="32"/>
-      <c r="W13" s="32"/>
-      <c r="X13" s="32"/>
-      <c r="Y13" s="32"/>
-      <c r="Z13" s="32"/>
-    </row>
-    <row r="14" ht="15.0" customHeight="1">
-      <c r="A14" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="E14" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="F14" s="36">
+      <c r="F14" s="58">
         <v>2.0</v>
       </c>
-      <c r="G14" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="H14" s="37">
+      <c r="G14" s="57" t="s">
+        <v>6</v>
+      </c>
+      <c r="H14" s="59">
         <v>3.0</v>
       </c>
-      <c r="I14" s="35" t="s">
+      <c r="I14" s="57" t="s">
         <v>6</v>
       </c>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
-      <c r="M14" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="N14" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="O14" s="38">
+      <c r="M14" s="58" t="s">
+        <v>6</v>
+      </c>
+      <c r="N14" s="58" t="s">
+        <v>6</v>
+      </c>
+      <c r="O14" s="60">
         <v>3.0</v>
       </c>
-      <c r="P14" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q14" s="38">
-        <v>3.0</v>
+      <c r="P14" s="87" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q14" s="62">
+        <f t="shared" si="1"/>
+        <v>3</v>
       </c>
       <c r="R14" s="4"/>
       <c r="S14" s="4"/>
@@ -2169,50 +2810,37 @@
       <c r="Z14" s="4"/>
     </row>
     <row r="15" ht="15.0" customHeight="1">
-      <c r="A15" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="33" t="s">
+      <c r="A15" s="21"/>
+      <c r="B15" s="63"/>
+      <c r="C15" s="88" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="34" t="s">
+      <c r="D15" s="89" t="s">
         <v>19</v>
       </c>
-      <c r="E15" s="45" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="36">
+      <c r="E15" s="90" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="69">
         <v>2.0</v>
       </c>
-      <c r="G15" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="H15" s="46" t="s">
-        <v>6</v>
-      </c>
-      <c r="I15" s="35" t="s">
-        <v>6</v>
-      </c>
+      <c r="G15" s="66"/>
+      <c r="H15" s="68">
+        <v>2.0</v>
+      </c>
+      <c r="I15" s="66"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
-      <c r="M15" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="N15" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="O15" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="P15" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q15" s="36" t="s">
-        <v>6</v>
+      <c r="M15" s="67"/>
+      <c r="N15" s="67"/>
+      <c r="O15" s="69">
+        <v>2.0</v>
+      </c>
+      <c r="P15" s="91"/>
+      <c r="Q15" s="71">
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="R15" s="4"/>
       <c r="S15" s="4"/>
@@ -2225,36 +2853,51 @@
       <c r="Z15" s="4"/>
     </row>
     <row r="16" ht="15.0" customHeight="1">
-      <c r="A16" s="17"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="47" t="s">
+      <c r="A16" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="63" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="65" t="s">
         <v>31</v>
       </c>
-      <c r="D16" s="48" t="s">
-        <v>19</v>
-      </c>
-      <c r="E16" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="F16" s="38">
-        <v>2.0</v>
-      </c>
-      <c r="G16" s="35"/>
-      <c r="H16" s="37">
-        <v>2.0</v>
-      </c>
-      <c r="I16" s="35"/>
+      <c r="E16" s="90" t="s">
+        <v>32</v>
+      </c>
+      <c r="F16" s="67">
+        <v>4.0</v>
+      </c>
+      <c r="G16" s="66" t="s">
+        <v>6</v>
+      </c>
+      <c r="H16" s="68">
+        <v>4.0</v>
+      </c>
+      <c r="I16" s="66" t="s">
+        <v>6</v>
+      </c>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
-      <c r="M16" s="36"/>
-      <c r="N16" s="36"/>
-      <c r="O16" s="38">
-        <v>2.0</v>
-      </c>
-      <c r="P16" s="36"/>
-      <c r="Q16" s="38">
-        <v>2.0</v>
+      <c r="M16" s="67" t="s">
+        <v>6</v>
+      </c>
+      <c r="N16" s="67" t="s">
+        <v>6</v>
+      </c>
+      <c r="O16" s="67" t="s">
+        <v>6</v>
+      </c>
+      <c r="P16" s="70">
+        <v>4.0</v>
+      </c>
+      <c r="Q16" s="71">
+        <f t="shared" si="1"/>
+        <v>4</v>
       </c>
       <c r="R16" s="4"/>
       <c r="S16" s="4"/>
@@ -2267,50 +2910,51 @@
       <c r="Z16" s="4"/>
     </row>
     <row r="17" ht="15.0" customHeight="1">
-      <c r="A17" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="B17" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="D17" s="34" t="s">
+      <c r="A17" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="63" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="E17" s="45" t="s">
-        <v>30</v>
-      </c>
-      <c r="F17" s="36">
-        <v>4.0</v>
-      </c>
-      <c r="G17" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="H17" s="37">
-        <v>4.0</v>
-      </c>
-      <c r="I17" s="35" t="s">
+      <c r="D17" s="65" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" s="90" t="s">
+        <v>35</v>
+      </c>
+      <c r="F17" s="69">
+        <v>8.0</v>
+      </c>
+      <c r="G17" s="66" t="s">
+        <v>6</v>
+      </c>
+      <c r="H17" s="68">
+        <v>11.0</v>
+      </c>
+      <c r="I17" s="66" t="s">
         <v>6</v>
       </c>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
-      <c r="M17" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="N17" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="O17" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="P17" s="38">
-        <v>4.0</v>
-      </c>
-      <c r="Q17" s="38">
-        <v>4.0</v>
+      <c r="M17" s="69">
+        <v>3.0</v>
+      </c>
+      <c r="N17" s="69">
+        <v>3.0</v>
+      </c>
+      <c r="O17" s="69">
+        <v>2.0</v>
+      </c>
+      <c r="P17" s="70">
+        <v>3.0</v>
+      </c>
+      <c r="Q17" s="71">
+        <f t="shared" si="1"/>
+        <v>11</v>
       </c>
       <c r="R17" s="4"/>
       <c r="S17" s="4"/>
@@ -2323,50 +2967,51 @@
       <c r="Z17" s="4"/>
     </row>
     <row r="18" ht="15.0" customHeight="1">
-      <c r="A18" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="B18" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="D18" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="E18" s="45" t="s">
+      <c r="A18" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="63" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="F18" s="38">
-        <v>8.0</v>
-      </c>
-      <c r="G18" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="H18" s="37">
-        <v>10.0</v>
-      </c>
-      <c r="I18" s="35" t="s">
+      <c r="D18" s="65" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" s="92" t="s">
+        <v>38</v>
+      </c>
+      <c r="F18" s="67">
+        <v>3.0</v>
+      </c>
+      <c r="G18" s="66" t="s">
+        <v>6</v>
+      </c>
+      <c r="H18" s="68">
+        <v>3.0</v>
+      </c>
+      <c r="I18" s="66" t="s">
         <v>6</v>
       </c>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
-      <c r="M18" s="38">
-        <v>3.0</v>
-      </c>
-      <c r="N18" s="38">
-        <v>3.0</v>
-      </c>
-      <c r="O18" s="38">
-        <v>2.0</v>
-      </c>
-      <c r="P18" s="38">
-        <v>3.0</v>
-      </c>
-      <c r="Q18" s="38">
-        <v>10.0</v>
+      <c r="M18" s="69">
+        <v>1.5</v>
+      </c>
+      <c r="N18" s="67" t="s">
+        <v>6</v>
+      </c>
+      <c r="O18" s="69">
+        <v>1.5</v>
+      </c>
+      <c r="P18" s="91" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q18" s="71">
+        <f t="shared" si="1"/>
+        <v>3</v>
       </c>
       <c r="R18" s="4"/>
       <c r="S18" s="4"/>
@@ -2379,50 +3024,51 @@
       <c r="Z18" s="4"/>
     </row>
     <row r="19" ht="15.0" customHeight="1">
-      <c r="A19" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="B19" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="D19" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="E19" s="47" t="s">
+      <c r="A19" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="63" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="F19" s="36">
+      <c r="D19" s="65" t="s">
+        <v>40</v>
+      </c>
+      <c r="E19" s="90" t="s">
+        <v>32</v>
+      </c>
+      <c r="F19" s="69">
         <v>3.0</v>
       </c>
-      <c r="G19" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="H19" s="46" t="s">
-        <v>6</v>
-      </c>
-      <c r="I19" s="35" t="s">
+      <c r="G19" s="66" t="s">
+        <v>6</v>
+      </c>
+      <c r="H19" s="93" t="s">
+        <v>6</v>
+      </c>
+      <c r="I19" s="66" t="s">
         <v>6</v>
       </c>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
-      <c r="M19" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="N19" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="O19" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="P19" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q19" s="36" t="s">
-        <v>6</v>
+      <c r="M19" s="67" t="s">
+        <v>6</v>
+      </c>
+      <c r="N19" s="67" t="s">
+        <v>6</v>
+      </c>
+      <c r="O19" s="67" t="s">
+        <v>6</v>
+      </c>
+      <c r="P19" s="91" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q19" s="71">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="R19" s="4"/>
       <c r="S19" s="4"/>
@@ -2435,50 +3081,51 @@
       <c r="Z19" s="4"/>
     </row>
     <row r="20" ht="15.0" customHeight="1">
-      <c r="A20" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="B20" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="C20" s="33" t="s">
-        <v>40</v>
-      </c>
-      <c r="D20" s="34" t="s">
+      <c r="A20" s="94" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="75" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="95" t="s">
         <v>41</v>
       </c>
-      <c r="E20" s="35" t="s">
+      <c r="D20" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="F20" s="36">
-        <v>2.0</v>
-      </c>
-      <c r="G20" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="H20" s="46" t="s">
-        <v>6</v>
-      </c>
-      <c r="I20" s="35" t="s">
+      <c r="E20" s="96" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" s="72">
+        <v>5.0</v>
+      </c>
+      <c r="G20" s="78" t="s">
+        <v>6</v>
+      </c>
+      <c r="H20" s="97" t="s">
+        <v>6</v>
+      </c>
+      <c r="I20" s="78" t="s">
         <v>6</v>
       </c>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
-      <c r="M20" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="N20" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="O20" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="P20" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q20" s="36" t="s">
-        <v>6</v>
+      <c r="M20" s="79" t="s">
+        <v>6</v>
+      </c>
+      <c r="N20" s="79" t="s">
+        <v>6</v>
+      </c>
+      <c r="O20" s="79" t="s">
+        <v>6</v>
+      </c>
+      <c r="P20" s="98" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q20" s="74">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="R20" s="4"/>
       <c r="S20" s="4"/>
@@ -2491,163 +3138,161 @@
       <c r="Z20" s="4"/>
     </row>
     <row r="21" ht="15.0" customHeight="1">
-      <c r="A21" s="49" t="s">
-        <v>6</v>
-      </c>
-      <c r="B21" s="49" t="s">
-        <v>6</v>
-      </c>
-      <c r="C21" s="50" t="s">
-        <v>43</v>
-      </c>
-      <c r="D21" s="51" t="s">
+      <c r="A21" s="99" t="s">
         <v>44</v>
       </c>
-      <c r="E21" s="18" t="s">
+      <c r="B21" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="F21" s="52">
-        <v>4.0</v>
-      </c>
-      <c r="G21" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="H21" s="53" t="s">
-        <v>6</v>
-      </c>
-      <c r="I21" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="52" t="s">
-        <v>6</v>
-      </c>
-      <c r="N21" s="52" t="s">
-        <v>6</v>
-      </c>
-      <c r="O21" s="52" t="s">
-        <v>6</v>
-      </c>
-      <c r="P21" s="52" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q21" s="52" t="s">
-        <v>6</v>
-      </c>
-      <c r="R21" s="4"/>
-      <c r="S21" s="4"/>
-      <c r="T21" s="4"/>
-      <c r="U21" s="4"/>
-      <c r="V21" s="4"/>
-      <c r="W21" s="4"/>
-      <c r="X21" s="4"/>
-      <c r="Y21" s="4"/>
-      <c r="Z21" s="4"/>
+      <c r="C21" s="100" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="F21" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="G21" s="51">
+        <f>SUM(F22:F25)</f>
+        <v>23</v>
+      </c>
+      <c r="H21" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="I21" s="101">
+        <f>SUM(H22:H25)</f>
+        <v>30.5</v>
+      </c>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="102">
+        <f t="shared" ref="M21:P21" si="3">SUM(M22:M25)</f>
+        <v>6.5</v>
+      </c>
+      <c r="N21" s="102">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="O21" s="102">
+        <f t="shared" si="3"/>
+        <v>6.5</v>
+      </c>
+      <c r="P21" s="103">
+        <f t="shared" si="3"/>
+        <v>10.5</v>
+      </c>
+      <c r="Q21" s="53">
+        <f t="shared" si="1"/>
+        <v>30.5</v>
+      </c>
+      <c r="R21" s="40"/>
+      <c r="S21" s="40"/>
+      <c r="T21" s="40"/>
+      <c r="U21" s="40"/>
+      <c r="V21" s="40"/>
+      <c r="W21" s="40"/>
+      <c r="X21" s="40"/>
+      <c r="Y21" s="40"/>
+      <c r="Z21" s="40"/>
     </row>
     <row r="22" ht="15.0" customHeight="1">
-      <c r="A22" s="54" t="s">
+      <c r="A22" s="104" t="s">
         <v>46</v>
       </c>
-      <c r="B22" s="40" t="s">
+      <c r="B22" s="105"/>
+      <c r="C22" s="106" t="s">
         <v>47</v>
       </c>
-      <c r="C22" s="55" t="s">
-        <v>6</v>
-      </c>
-      <c r="D22" s="44" t="s">
-        <v>6</v>
-      </c>
-      <c r="E22" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="F22" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="G22" s="42">
-        <f>SUM(F23:F26)</f>
-        <v>23</v>
-      </c>
-      <c r="H22" s="43" t="s">
-        <v>6</v>
-      </c>
-      <c r="I22" s="56">
-        <f>SUM(H23:H26)</f>
-        <v>26.5</v>
-      </c>
+      <c r="D22" s="107" t="s">
+        <v>34</v>
+      </c>
+      <c r="E22" s="108" t="s">
+        <v>48</v>
+      </c>
+      <c r="F22" s="106">
+        <v>3.0</v>
+      </c>
+      <c r="G22" s="109"/>
+      <c r="H22" s="110">
+        <v>3.0</v>
+      </c>
+      <c r="I22" s="109"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
-      <c r="M22" s="40">
-        <f t="shared" ref="M22:O22" si="2">SUM(M23:M29)</f>
-        <v>9.5</v>
-      </c>
-      <c r="N22" s="40">
-        <f t="shared" si="2"/>
-        <v>12</v>
-      </c>
-      <c r="O22" s="40">
-        <f t="shared" si="2"/>
-        <v>11.5</v>
-      </c>
-      <c r="P22" s="40">
-        <f t="shared" ref="P22:Q22" si="3">SUM(P23:P26)</f>
-        <v>10.5</v>
-      </c>
-      <c r="Q22" s="40">
-        <f t="shared" si="3"/>
-        <v>26.5</v>
-      </c>
-      <c r="R22" s="32"/>
-      <c r="S22" s="32"/>
-      <c r="T22" s="32"/>
-      <c r="U22" s="32"/>
-      <c r="V22" s="32"/>
-      <c r="W22" s="32"/>
-      <c r="X22" s="32"/>
-      <c r="Y22" s="32"/>
-      <c r="Z22" s="32"/>
+      <c r="M22" s="111">
+        <v>1.0</v>
+      </c>
+      <c r="N22" s="112" t="s">
+        <v>6</v>
+      </c>
+      <c r="O22" s="113">
+        <v>1.0</v>
+      </c>
+      <c r="P22" s="114">
+        <v>1.0</v>
+      </c>
+      <c r="Q22" s="115">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="R22" s="4"/>
+      <c r="S22" s="4"/>
+      <c r="T22" s="4"/>
+      <c r="U22" s="4"/>
+      <c r="V22" s="4"/>
+      <c r="W22" s="4"/>
+      <c r="X22" s="4"/>
+      <c r="Y22" s="4"/>
+      <c r="Z22" s="4"/>
     </row>
     <row r="23" ht="15.0" customHeight="1">
-      <c r="A23" s="57" t="s">
-        <v>48</v>
-      </c>
-      <c r="B23" s="58"/>
-      <c r="C23" s="59" t="s">
+      <c r="A23" s="104" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="116" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="117" t="s">
         <v>49</v>
       </c>
-      <c r="D23" s="60" t="s">
-        <v>35</v>
-      </c>
-      <c r="E23" s="61" t="s">
+      <c r="D23" s="117" t="s">
         <v>50</v>
       </c>
-      <c r="F23" s="59">
-        <v>3.0</v>
-      </c>
-      <c r="G23" s="62"/>
-      <c r="H23" s="63">
-        <v>3.0</v>
-      </c>
-      <c r="I23" s="62"/>
+      <c r="E23" s="118" t="s">
+        <v>20</v>
+      </c>
+      <c r="F23" s="119">
+        <v>4.0</v>
+      </c>
+      <c r="G23" s="117"/>
+      <c r="H23" s="120">
+        <v>5.5</v>
+      </c>
+      <c r="I23" s="117"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
-      <c r="M23" s="64">
+      <c r="M23" s="121">
+        <v>1.5</v>
+      </c>
+      <c r="N23" s="122">
         <v>1.0</v>
       </c>
-      <c r="N23" s="65" t="s">
-        <v>6</v>
-      </c>
-      <c r="O23" s="64">
-        <v>1.0</v>
-      </c>
-      <c r="P23" s="64">
-        <v>1.0</v>
-      </c>
-      <c r="Q23" s="64">
-        <v>3.0</v>
+      <c r="O23" s="122">
+        <v>1.5</v>
+      </c>
+      <c r="P23" s="123">
+        <v>1.5</v>
+      </c>
+      <c r="Q23" s="124">
+        <f t="shared" si="1"/>
+        <v>5.5</v>
       </c>
       <c r="R23" s="4"/>
       <c r="S23" s="4"/>
@@ -2660,46 +3305,47 @@
       <c r="Z23" s="4"/>
     </row>
     <row r="24" ht="15.0" customHeight="1">
-      <c r="A24" s="57" t="s">
-        <v>6</v>
-      </c>
-      <c r="B24" s="66" t="s">
-        <v>6</v>
-      </c>
-      <c r="C24" s="62" t="s">
+      <c r="A24" s="104" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" s="116" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="117" t="s">
         <v>51</v>
       </c>
-      <c r="D24" s="62" t="s">
+      <c r="D24" s="117" t="s">
         <v>52</v>
       </c>
-      <c r="E24" s="67" t="s">
+      <c r="E24" s="118" t="s">
         <v>20</v>
       </c>
-      <c r="F24" s="68">
+      <c r="F24" s="119">
+        <v>10.0</v>
+      </c>
+      <c r="G24" s="117"/>
+      <c r="H24" s="120">
+        <v>16.0</v>
+      </c>
+      <c r="I24" s="117"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="121">
         <v>4.0</v>
       </c>
-      <c r="G24" s="62"/>
-      <c r="H24" s="69">
-        <v>5.5</v>
-      </c>
-      <c r="I24" s="62"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="64">
-        <v>1.5</v>
-      </c>
-      <c r="N24" s="64">
-        <v>1.0</v>
-      </c>
-      <c r="O24" s="64">
-        <v>1.5</v>
-      </c>
-      <c r="P24" s="64">
-        <v>1.5</v>
-      </c>
-      <c r="Q24" s="64">
-        <v>5.5</v>
+      <c r="N24" s="122">
+        <v>4.0</v>
+      </c>
+      <c r="O24" s="122">
+        <v>4.0</v>
+      </c>
+      <c r="P24" s="123">
+        <v>4.0</v>
+      </c>
+      <c r="Q24" s="124">
+        <f t="shared" si="1"/>
+        <v>16</v>
       </c>
       <c r="R24" s="4"/>
       <c r="S24" s="4"/>
@@ -2712,46 +3358,47 @@
       <c r="Z24" s="4"/>
     </row>
     <row r="25" ht="15.0" customHeight="1">
-      <c r="A25" s="57" t="s">
-        <v>6</v>
-      </c>
-      <c r="B25" s="66" t="s">
-        <v>6</v>
-      </c>
-      <c r="C25" s="62" t="s">
+      <c r="A25" s="104" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" s="125" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="126" t="s">
         <v>53</v>
       </c>
-      <c r="D25" s="62" t="s">
+      <c r="D25" s="126" t="s">
+        <v>52</v>
+      </c>
+      <c r="E25" s="127" t="s">
         <v>54</v>
       </c>
-      <c r="E25" s="67" t="s">
-        <v>20</v>
-      </c>
-      <c r="F25" s="68">
-        <v>10.0</v>
-      </c>
-      <c r="G25" s="62"/>
-      <c r="H25" s="69">
-        <v>12.0</v>
-      </c>
-      <c r="I25" s="62"/>
+      <c r="F25" s="128">
+        <v>6.0</v>
+      </c>
+      <c r="G25" s="126"/>
+      <c r="H25" s="129">
+        <v>6.0</v>
+      </c>
+      <c r="I25" s="126"/>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
-      <c r="M25" s="64">
+      <c r="M25" s="130" t="s">
+        <v>6</v>
+      </c>
+      <c r="N25" s="131">
+        <v>2.0</v>
+      </c>
+      <c r="O25" s="132" t="s">
+        <v>6</v>
+      </c>
+      <c r="P25" s="133">
         <v>4.0</v>
       </c>
-      <c r="N25" s="64">
-        <v>4.0</v>
-      </c>
-      <c r="O25" s="64">
-        <v>4.0</v>
-      </c>
-      <c r="P25" s="64">
-        <v>4.0</v>
-      </c>
-      <c r="Q25" s="64">
-        <v>12.0</v>
+      <c r="Q25" s="134">
+        <f t="shared" si="1"/>
+        <v>6</v>
       </c>
       <c r="R25" s="4"/>
       <c r="S25" s="4"/>
@@ -2764,155 +3411,160 @@
       <c r="Z25" s="4"/>
     </row>
     <row r="26" ht="15.0" customHeight="1">
-      <c r="A26" s="57" t="s">
-        <v>6</v>
-      </c>
-      <c r="B26" s="66" t="s">
-        <v>6</v>
-      </c>
-      <c r="C26" s="62" t="s">
+      <c r="A26" s="104" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="D26" s="62" t="s">
-        <v>54</v>
-      </c>
-      <c r="E26" s="67" t="s">
+      <c r="C26" s="100" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="E26" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="F26" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="G26" s="51">
+        <f>SUM(F27:F28)</f>
+        <v>7</v>
+      </c>
+      <c r="H26" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="I26" s="101">
+        <v>9.0</v>
+      </c>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="102">
+        <f t="shared" ref="M26:P26" si="4">SUM(M27:M28)</f>
+        <v>1.5</v>
+      </c>
+      <c r="N26" s="102">
+        <f t="shared" si="4"/>
+        <v>2.5</v>
+      </c>
+      <c r="O26" s="102">
+        <f t="shared" si="4"/>
+        <v>2.5</v>
+      </c>
+      <c r="P26" s="103">
+        <f t="shared" si="4"/>
+        <v>2.5</v>
+      </c>
+      <c r="Q26" s="53">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="R26" s="40"/>
+      <c r="S26" s="40"/>
+      <c r="T26" s="40"/>
+      <c r="U26" s="40"/>
+      <c r="V26" s="40"/>
+      <c r="W26" s="40"/>
+      <c r="X26" s="40"/>
+      <c r="Y26" s="40"/>
+      <c r="Z26" s="40"/>
+    </row>
+    <row r="27" ht="15.0" customHeight="1">
+      <c r="A27" s="104" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27" s="135" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" s="109" t="s">
         <v>56</v>
       </c>
-      <c r="F26" s="68">
+      <c r="D27" s="109" t="s">
+        <v>34</v>
+      </c>
+      <c r="E27" s="136" t="s">
+        <v>20</v>
+      </c>
+      <c r="F27" s="137">
+        <v>4.0</v>
+      </c>
+      <c r="G27" s="109"/>
+      <c r="H27" s="138">
         <v>6.0</v>
       </c>
-      <c r="G26" s="62"/>
-      <c r="H26" s="69">
-        <v>6.0</v>
-      </c>
-      <c r="I26" s="62"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
-      <c r="L26" s="2"/>
-      <c r="M26" s="65" t="s">
-        <v>6</v>
-      </c>
-      <c r="N26" s="64">
-        <v>2.0</v>
-      </c>
-      <c r="O26" s="65" t="s">
-        <v>6</v>
-      </c>
-      <c r="P26" s="64">
-        <v>4.0</v>
-      </c>
-      <c r="Q26" s="64">
-        <v>6.0</v>
-      </c>
-      <c r="R26" s="4"/>
-      <c r="S26" s="4"/>
-      <c r="T26" s="4"/>
-      <c r="U26" s="4"/>
-      <c r="V26" s="4"/>
-      <c r="W26" s="4"/>
-      <c r="X26" s="4"/>
-      <c r="Y26" s="4"/>
-      <c r="Z26" s="4"/>
-    </row>
-    <row r="27" ht="15.0" customHeight="1">
-      <c r="A27" s="57" t="s">
-        <v>6</v>
-      </c>
-      <c r="B27" s="25" t="s">
+      <c r="I27" s="109"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="111">
+        <v>1.5</v>
+      </c>
+      <c r="N27" s="111">
+        <v>1.5</v>
+      </c>
+      <c r="O27" s="111">
+        <v>1.5</v>
+      </c>
+      <c r="P27" s="139">
+        <v>1.5</v>
+      </c>
+      <c r="Q27" s="115">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="R27" s="4"/>
+      <c r="S27" s="4"/>
+      <c r="T27" s="4"/>
+      <c r="U27" s="4"/>
+      <c r="V27" s="4"/>
+      <c r="W27" s="4"/>
+      <c r="X27" s="4"/>
+      <c r="Y27" s="4"/>
+      <c r="Z27" s="4"/>
+    </row>
+    <row r="28" ht="15.0" customHeight="1">
+      <c r="A28" s="104" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" s="140" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" s="141" t="s">
         <v>57</v>
       </c>
-      <c r="C27" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="D27" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="E27" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="F27" s="70" t="s">
-        <v>6</v>
-      </c>
-      <c r="G27" s="28">
-        <f>SUM(F28:F29)</f>
-        <v>7</v>
-      </c>
-      <c r="H27" s="71" t="s">
-        <v>6</v>
-      </c>
-      <c r="I27" s="30">
-        <v>9.0</v>
-      </c>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="31">
-        <v>1.5</v>
-      </c>
-      <c r="N27" s="31">
-        <v>2.5</v>
-      </c>
-      <c r="O27" s="31">
-        <v>2.5</v>
-      </c>
-      <c r="P27" s="31">
-        <v>2.5</v>
-      </c>
-      <c r="Q27" s="31">
-        <v>9.0</v>
-      </c>
-      <c r="R27" s="32"/>
-      <c r="S27" s="32"/>
-      <c r="T27" s="32"/>
-      <c r="U27" s="32"/>
-      <c r="V27" s="32"/>
-      <c r="W27" s="32"/>
-      <c r="X27" s="32"/>
-      <c r="Y27" s="32"/>
-      <c r="Z27" s="32"/>
-    </row>
-    <row r="28" ht="15.0" customHeight="1">
-      <c r="A28" s="57" t="s">
-        <v>6</v>
-      </c>
-      <c r="B28" s="72" t="s">
-        <v>6</v>
-      </c>
-      <c r="C28" s="62" t="s">
+      <c r="D28" s="141" t="s">
+        <v>34</v>
+      </c>
+      <c r="E28" s="142" t="s">
         <v>58</v>
       </c>
-      <c r="D28" s="62" t="s">
-        <v>35</v>
-      </c>
-      <c r="E28" s="67" t="s">
-        <v>20</v>
-      </c>
-      <c r="F28" s="68">
-        <v>4.0</v>
-      </c>
-      <c r="G28" s="62"/>
-      <c r="H28" s="69">
-        <v>6.0</v>
-      </c>
-      <c r="I28" s="62"/>
+      <c r="F28" s="143">
+        <v>3.0</v>
+      </c>
+      <c r="G28" s="126"/>
+      <c r="H28" s="129">
+        <v>3.0</v>
+      </c>
+      <c r="I28" s="126"/>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
-      <c r="M28" s="73">
-        <v>1.5</v>
-      </c>
-      <c r="N28" s="73">
-        <v>1.5</v>
-      </c>
-      <c r="O28" s="73">
-        <v>1.5</v>
-      </c>
-      <c r="P28" s="73">
-        <v>1.5</v>
-      </c>
-      <c r="Q28" s="73">
-        <v>6.0</v>
+      <c r="M28" s="144"/>
+      <c r="N28" s="144">
+        <v>1.0</v>
+      </c>
+      <c r="O28" s="144">
+        <v>1.0</v>
+      </c>
+      <c r="P28" s="145">
+        <v>1.0</v>
+      </c>
+      <c r="Q28" s="134">
+        <f t="shared" si="1"/>
+        <v>3</v>
       </c>
       <c r="R28" s="4"/>
       <c r="S28" s="4"/>
@@ -2925,161 +3577,169 @@
       <c r="Z28" s="4"/>
     </row>
     <row r="29" ht="15.0" customHeight="1">
-      <c r="A29" s="57" t="s">
-        <v>6</v>
-      </c>
-      <c r="B29" s="72" t="s">
-        <v>6</v>
-      </c>
-      <c r="C29" s="74" t="s">
+      <c r="A29" s="146" t="s">
         <v>59</v>
       </c>
-      <c r="D29" s="74" t="s">
-        <v>35</v>
-      </c>
-      <c r="E29" s="75" t="s">
+      <c r="B29" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="F29" s="76">
+      <c r="C29" s="100" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" s="33"/>
+      <c r="E29" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="F29" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="G29" s="51">
+        <f>SUM(F30:F34)</f>
+        <v>24</v>
+      </c>
+      <c r="H29" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="I29" s="101">
+        <f>SUM(H30:H34)</f>
+        <v>22.5</v>
+      </c>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="102">
+        <f>SUM(M23:M28)</f>
+        <v>8.5</v>
+      </c>
+      <c r="N29" s="102">
+        <f t="shared" ref="N29:P29" si="5">SUM(N30:N34)</f>
+        <v>0</v>
+      </c>
+      <c r="O29" s="102">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="P29" s="103">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="Q29" s="53">
+        <f t="shared" si="1"/>
+        <v>22.5</v>
+      </c>
+      <c r="R29" s="40"/>
+      <c r="S29" s="40"/>
+      <c r="T29" s="40"/>
+      <c r="U29" s="40"/>
+      <c r="V29" s="40"/>
+      <c r="W29" s="40"/>
+      <c r="X29" s="40"/>
+      <c r="Y29" s="40"/>
+      <c r="Z29" s="40"/>
+    </row>
+    <row r="30" ht="15.0" customHeight="1">
+      <c r="A30" s="147" t="s">
+        <v>61</v>
+      </c>
+      <c r="B30" s="57" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" s="55" t="s">
+        <v>62</v>
+      </c>
+      <c r="D30" s="148" t="s">
+        <v>63</v>
+      </c>
+      <c r="E30" s="149" t="s">
+        <v>64</v>
+      </c>
+      <c r="F30" s="60">
+        <v>6.0</v>
+      </c>
+      <c r="G30" s="57" t="s">
+        <v>6</v>
+      </c>
+      <c r="H30" s="59">
+        <v>6.0</v>
+      </c>
+      <c r="I30" s="57" t="s">
+        <v>6</v>
+      </c>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="150">
         <v>3.0</v>
       </c>
-      <c r="G29" s="62"/>
-      <c r="H29" s="69">
+      <c r="N30" s="151" t="s">
+        <v>6</v>
+      </c>
+      <c r="O30" s="151" t="s">
+        <v>6</v>
+      </c>
+      <c r="P30" s="152">
         <v>3.0</v>
       </c>
-      <c r="I29" s="62"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
-      <c r="L29" s="2"/>
-      <c r="M29" s="73"/>
-      <c r="N29" s="73">
-        <v>1.0</v>
-      </c>
-      <c r="O29" s="73">
-        <v>1.0</v>
-      </c>
-      <c r="P29" s="73">
-        <v>1.0</v>
-      </c>
-      <c r="Q29" s="73">
-        <v>3.0</v>
-      </c>
-      <c r="R29" s="4"/>
-      <c r="S29" s="4"/>
-      <c r="T29" s="4"/>
-      <c r="U29" s="4"/>
-      <c r="V29" s="4"/>
-      <c r="W29" s="4"/>
-      <c r="X29" s="4"/>
-      <c r="Y29" s="4"/>
-      <c r="Z29" s="4"/>
-    </row>
-    <row r="30" ht="15.0" customHeight="1">
-      <c r="A30" s="77" t="s">
-        <v>61</v>
-      </c>
-      <c r="B30" s="40" t="s">
-        <v>62</v>
-      </c>
-      <c r="C30" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="D30" s="44"/>
-      <c r="E30" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="F30" s="78" t="s">
-        <v>6</v>
-      </c>
-      <c r="G30" s="79">
-        <f>SUM(F31:F35)</f>
-        <v>24</v>
-      </c>
-      <c r="H30" s="80" t="s">
-        <v>6</v>
-      </c>
-      <c r="I30" s="81">
-        <f>SUM(H31:H35)</f>
-        <v>23</v>
-      </c>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="82">
-        <f>SUM(M24:M29)</f>
-        <v>8.5</v>
-      </c>
-      <c r="N30" s="82">
-        <f t="shared" ref="N30:Q30" si="4">SUM(N31:N35)</f>
-        <v>0</v>
-      </c>
-      <c r="O30" s="82">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="P30" s="82">
-        <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
-      <c r="Q30" s="82">
-        <f t="shared" si="4"/>
-        <v>23</v>
-      </c>
-      <c r="R30" s="32"/>
-      <c r="S30" s="32"/>
-      <c r="T30" s="32"/>
-      <c r="U30" s="32"/>
-      <c r="V30" s="32"/>
-      <c r="W30" s="32"/>
-      <c r="X30" s="32"/>
-      <c r="Y30" s="32"/>
-      <c r="Z30" s="32"/>
+      <c r="Q30" s="153">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="R30" s="4"/>
+      <c r="S30" s="4"/>
+      <c r="T30" s="4"/>
+      <c r="U30" s="4"/>
+      <c r="V30" s="4"/>
+      <c r="W30" s="4"/>
+      <c r="X30" s="4"/>
+      <c r="Y30" s="4"/>
+      <c r="Z30" s="4"/>
     </row>
     <row r="31" ht="15.0" customHeight="1">
-      <c r="A31" s="83" t="s">
-        <v>63</v>
-      </c>
-      <c r="B31" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="C31" s="33" t="s">
-        <v>64</v>
-      </c>
-      <c r="D31" s="48" t="s">
+      <c r="A31" s="147" t="s">
+        <v>6</v>
+      </c>
+      <c r="B31" s="66" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" s="88" t="s">
         <v>65</v>
       </c>
-      <c r="E31" s="84" t="s">
+      <c r="D31" s="65" t="s">
+        <v>37</v>
+      </c>
+      <c r="E31" s="154" t="s">
         <v>66</v>
       </c>
-      <c r="F31" s="38">
-        <v>6.0</v>
-      </c>
-      <c r="G31" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="H31" s="37">
-        <v>6.0</v>
-      </c>
-      <c r="I31" s="35" t="s">
+      <c r="F31" s="69">
+        <v>8.0</v>
+      </c>
+      <c r="G31" s="66" t="s">
+        <v>6</v>
+      </c>
+      <c r="H31" s="68">
+        <v>8.0</v>
+      </c>
+      <c r="I31" s="66" t="s">
         <v>6</v>
       </c>
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
       <c r="L31" s="2"/>
-      <c r="M31" s="85">
+      <c r="M31" s="155">
         <v>3.0</v>
       </c>
-      <c r="N31" s="86" t="s">
-        <v>6</v>
-      </c>
-      <c r="O31" s="86" t="s">
-        <v>6</v>
-      </c>
-      <c r="P31" s="85">
+      <c r="N31" s="156" t="s">
+        <v>6</v>
+      </c>
+      <c r="O31" s="155">
+        <v>2.0</v>
+      </c>
+      <c r="P31" s="157">
         <v>3.0</v>
       </c>
-      <c r="Q31" s="85">
-        <v>6.0</v>
+      <c r="Q31" s="158">
+        <f t="shared" si="1"/>
+        <v>8</v>
       </c>
       <c r="R31" s="4"/>
       <c r="S31" s="4"/>
@@ -3092,50 +3752,49 @@
       <c r="Z31" s="4"/>
     </row>
     <row r="32" ht="15.0" customHeight="1">
-      <c r="A32" s="83" t="s">
-        <v>6</v>
-      </c>
-      <c r="B32" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="C32" s="47" t="s">
+      <c r="A32" s="147" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32" s="66" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="88" t="s">
         <v>67</v>
       </c>
-      <c r="D32" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="E32" s="45" t="s">
+      <c r="D32" s="65" t="s">
+        <v>37</v>
+      </c>
+      <c r="E32" s="154" t="s">
         <v>68</v>
       </c>
-      <c r="F32" s="38">
-        <v>8.0</v>
-      </c>
-      <c r="G32" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="H32" s="37">
-        <v>8.0</v>
-      </c>
-      <c r="I32" s="35" t="s">
+      <c r="F32" s="69">
+        <v>4.0</v>
+      </c>
+      <c r="G32" s="66" t="s">
+        <v>6</v>
+      </c>
+      <c r="H32" s="68">
+        <v>3.0</v>
+      </c>
+      <c r="I32" s="66" t="s">
         <v>6</v>
       </c>
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
-      <c r="M32" s="85">
-        <v>3.0</v>
-      </c>
-      <c r="N32" s="86" t="s">
-        <v>6</v>
-      </c>
-      <c r="O32" s="85">
-        <v>2.0</v>
-      </c>
-      <c r="P32" s="85">
-        <v>3.0</v>
-      </c>
-      <c r="Q32" s="85">
-        <v>8.0</v>
+      <c r="M32" s="155"/>
+      <c r="N32" s="156" t="s">
+        <v>6</v>
+      </c>
+      <c r="O32" s="155">
+        <v>1.5</v>
+      </c>
+      <c r="P32" s="157">
+        <v>1.5</v>
+      </c>
+      <c r="Q32" s="158">
+        <f t="shared" si="1"/>
+        <v>3</v>
       </c>
       <c r="R32" s="4"/>
       <c r="S32" s="4"/>
@@ -3148,48 +3807,49 @@
       <c r="Z32" s="4"/>
     </row>
     <row r="33" ht="15.0" customHeight="1">
-      <c r="A33" s="83" t="s">
-        <v>6</v>
-      </c>
-      <c r="B33" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="C33" s="47" t="s">
+      <c r="A33" s="147" t="s">
+        <v>6</v>
+      </c>
+      <c r="B33" s="66" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" s="89" t="s">
         <v>69</v>
       </c>
-      <c r="D33" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="E33" s="45" t="s">
+      <c r="D33" s="89" t="s">
+        <v>37</v>
+      </c>
+      <c r="E33" s="89" t="s">
         <v>70</v>
       </c>
-      <c r="F33" s="38">
+      <c r="F33" s="69">
         <v>4.0</v>
       </c>
-      <c r="G33" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="H33" s="37">
-        <v>3.5</v>
-      </c>
-      <c r="I33" s="35" t="s">
+      <c r="G33" s="66" t="s">
+        <v>6</v>
+      </c>
+      <c r="H33" s="68">
+        <v>4.0</v>
+      </c>
+      <c r="I33" s="66" t="s">
         <v>6</v>
       </c>
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
-      <c r="M33" s="85"/>
-      <c r="N33" s="86" t="s">
-        <v>6</v>
-      </c>
-      <c r="O33" s="85">
-        <v>1.5</v>
-      </c>
-      <c r="P33" s="85">
-        <v>1.5</v>
-      </c>
-      <c r="Q33" s="85">
-        <v>3.5</v>
+      <c r="M33" s="155">
+        <v>2.0</v>
+      </c>
+      <c r="N33" s="156" t="s">
+        <v>6</v>
+      </c>
+      <c r="O33" s="155"/>
+      <c r="P33" s="157">
+        <v>2.0</v>
+      </c>
+      <c r="Q33" s="158">
+        <f t="shared" si="1"/>
+        <v>4</v>
       </c>
       <c r="R33" s="4"/>
       <c r="S33" s="4"/>
@@ -3202,48 +3862,51 @@
       <c r="Z33" s="4"/>
     </row>
     <row r="34" ht="15.0" customHeight="1">
-      <c r="A34" s="83" t="s">
-        <v>6</v>
-      </c>
-      <c r="B34" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="C34" s="48" t="s">
+      <c r="A34" s="147" t="s">
+        <v>6</v>
+      </c>
+      <c r="B34" s="159" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" s="160" t="s">
         <v>71</v>
       </c>
-      <c r="D34" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="E34" s="48" t="s">
+      <c r="D34" s="160" t="s">
+        <v>37</v>
+      </c>
+      <c r="E34" s="161" t="s">
         <v>72</v>
       </c>
-      <c r="F34" s="38">
-        <v>4.0</v>
-      </c>
-      <c r="G34" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="H34" s="37">
-        <v>4.0</v>
-      </c>
-      <c r="I34" s="35" t="s">
+      <c r="F34" s="72">
+        <v>2.0</v>
+      </c>
+      <c r="G34" s="78" t="s">
+        <v>6</v>
+      </c>
+      <c r="H34" s="162">
+        <v>1.5</v>
+      </c>
+      <c r="I34" s="78" t="s">
         <v>6</v>
       </c>
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
       <c r="L34" s="2"/>
-      <c r="M34" s="85">
-        <v>2.0</v>
-      </c>
-      <c r="N34" s="86" t="s">
-        <v>6</v>
-      </c>
-      <c r="O34" s="85"/>
-      <c r="P34" s="85">
-        <v>2.0</v>
-      </c>
-      <c r="Q34" s="85">
-        <v>4.0</v>
+      <c r="M34" s="163">
+        <v>0.5</v>
+      </c>
+      <c r="N34" s="164" t="s">
+        <v>6</v>
+      </c>
+      <c r="O34" s="163">
+        <v>0.5</v>
+      </c>
+      <c r="P34" s="165">
+        <v>0.5</v>
+      </c>
+      <c r="Q34" s="166">
+        <f t="shared" si="1"/>
+        <v>1.5</v>
       </c>
       <c r="R34" s="4"/>
       <c r="S34" s="4"/>
@@ -3256,267 +3919,269 @@
       <c r="Z34" s="4"/>
     </row>
     <row r="35" ht="15.0" customHeight="1">
-      <c r="A35" s="83" t="s">
-        <v>6</v>
-      </c>
-      <c r="B35" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="C35" s="48" t="s">
+      <c r="A35" s="147" t="s">
+        <v>6</v>
+      </c>
+      <c r="B35" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="C35" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="E35" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="F35" s="167" t="s">
+        <v>6</v>
+      </c>
+      <c r="G35" s="51">
+        <f>SUM(F36)</f>
+        <v>1</v>
+      </c>
+      <c r="H35" s="168" t="s">
+        <v>6</v>
+      </c>
+      <c r="I35" s="35">
+        <v>1.0</v>
+      </c>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="31">
+        <v>1.0</v>
+      </c>
+      <c r="N35" s="31">
+        <v>0.0</v>
+      </c>
+      <c r="O35" s="31">
+        <v>0.0</v>
+      </c>
+      <c r="P35" s="52">
+        <v>0.0</v>
+      </c>
+      <c r="Q35" s="53">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="R35" s="40"/>
+      <c r="S35" s="40"/>
+      <c r="T35" s="40"/>
+      <c r="U35" s="40"/>
+      <c r="V35" s="40"/>
+      <c r="W35" s="40"/>
+      <c r="X35" s="40"/>
+      <c r="Y35" s="40"/>
+      <c r="Z35" s="40"/>
+    </row>
+    <row r="36" ht="15.0" customHeight="1">
+      <c r="A36" s="147" t="s">
+        <v>6</v>
+      </c>
+      <c r="B36" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" s="169" t="s">
         <v>73</v>
       </c>
-      <c r="D35" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="E35" s="45" t="s">
+      <c r="D36" s="169" t="s">
+        <v>52</v>
+      </c>
+      <c r="E36" s="170" t="s">
+        <v>1</v>
+      </c>
+      <c r="F36" s="47">
+        <v>1.0</v>
+      </c>
+      <c r="G36" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="H36" s="46">
+        <v>1.0</v>
+      </c>
+      <c r="I36" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="171">
+        <v>1.0</v>
+      </c>
+      <c r="N36" s="172" t="s">
+        <v>6</v>
+      </c>
+      <c r="O36" s="172" t="s">
+        <v>6</v>
+      </c>
+      <c r="P36" s="173" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q36" s="174">
+        <v>1.0</v>
+      </c>
+      <c r="R36" s="4"/>
+      <c r="S36" s="4"/>
+      <c r="T36" s="4"/>
+      <c r="U36" s="4"/>
+      <c r="V36" s="4"/>
+      <c r="W36" s="4"/>
+      <c r="X36" s="4"/>
+      <c r="Y36" s="4"/>
+      <c r="Z36" s="4"/>
+    </row>
+    <row r="37" ht="15.0" customHeight="1">
+      <c r="A37" s="147" t="s">
+        <v>6</v>
+      </c>
+      <c r="B37" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="C37" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D37" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="E37" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="F37" s="167" t="s">
+        <v>6</v>
+      </c>
+      <c r="G37" s="51">
+        <f>SUM(F38:F40)</f>
+        <v>12</v>
+      </c>
+      <c r="H37" s="168" t="s">
+        <v>6</v>
+      </c>
+      <c r="I37" s="51">
+        <f>SUM(H38:H40)</f>
+        <v>14</v>
+      </c>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="31">
+        <v>3.0</v>
+      </c>
+      <c r="N37" s="31">
+        <v>2.0</v>
+      </c>
+      <c r="O37" s="31">
+        <v>3.0</v>
+      </c>
+      <c r="P37" s="52">
+        <v>6.0</v>
+      </c>
+      <c r="Q37" s="53">
+        <f>SUM(M37:P37)</f>
+        <v>14</v>
+      </c>
+      <c r="R37" s="40"/>
+      <c r="S37" s="40"/>
+      <c r="T37" s="40"/>
+      <c r="U37" s="40"/>
+      <c r="V37" s="40"/>
+      <c r="W37" s="40"/>
+      <c r="X37" s="40"/>
+      <c r="Y37" s="40"/>
+      <c r="Z37" s="40"/>
+    </row>
+    <row r="38" ht="15.0" customHeight="1">
+      <c r="A38" s="147"/>
+      <c r="B38" s="57"/>
+      <c r="C38" s="148" t="s">
         <v>74</v>
       </c>
-      <c r="F35" s="38">
+      <c r="D38" s="148" t="s">
+        <v>34</v>
+      </c>
+      <c r="E38" s="149" t="s">
+        <v>75</v>
+      </c>
+      <c r="F38" s="175">
+        <v>6.0</v>
+      </c>
+      <c r="G38" s="176"/>
+      <c r="H38" s="59">
+        <v>8.0</v>
+      </c>
+      <c r="I38" s="176"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="150">
+        <v>3.0</v>
+      </c>
+      <c r="N38" s="150">
         <v>2.0</v>
       </c>
-      <c r="G35" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="H35" s="87">
-        <v>1.5</v>
-      </c>
-      <c r="I35" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="J35" s="2"/>
-      <c r="K35" s="2"/>
-      <c r="L35" s="2"/>
-      <c r="M35" s="88">
-        <v>0.5</v>
-      </c>
-      <c r="N35" s="89" t="s">
-        <v>6</v>
-      </c>
-      <c r="O35" s="88">
-        <v>0.5</v>
-      </c>
-      <c r="P35" s="88">
-        <v>0.5</v>
-      </c>
-      <c r="Q35" s="88">
-        <v>1.5</v>
-      </c>
-      <c r="R35" s="4"/>
-      <c r="S35" s="4"/>
-      <c r="T35" s="4"/>
-      <c r="U35" s="4"/>
-      <c r="V35" s="4"/>
-      <c r="W35" s="4"/>
-      <c r="X35" s="4"/>
-      <c r="Y35" s="4"/>
-      <c r="Z35" s="4"/>
-    </row>
-    <row r="36" ht="15.0" customHeight="1">
-      <c r="A36" s="83" t="s">
-        <v>6</v>
-      </c>
-      <c r="B36" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="C36" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="D36" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="E36" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="F36" s="70" t="s">
-        <v>6</v>
-      </c>
-      <c r="G36" s="79">
-        <f>SUM(F37)</f>
-        <v>1</v>
-      </c>
-      <c r="H36" s="71" t="s">
-        <v>6</v>
-      </c>
-      <c r="I36" s="90">
-        <v>1.0</v>
-      </c>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
-      <c r="L36" s="1"/>
-      <c r="M36" s="91">
-        <v>1.0</v>
-      </c>
-      <c r="N36" s="82" t="s">
-        <v>6</v>
-      </c>
-      <c r="O36" s="82" t="s">
-        <v>6</v>
-      </c>
-      <c r="P36" s="82" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q36" s="91">
-        <v>1.0</v>
-      </c>
-      <c r="R36" s="32"/>
-      <c r="S36" s="32"/>
-      <c r="T36" s="32"/>
-      <c r="U36" s="32"/>
-      <c r="V36" s="32"/>
-      <c r="W36" s="32"/>
-      <c r="X36" s="32"/>
-      <c r="Y36" s="32"/>
-      <c r="Z36" s="32"/>
-    </row>
-    <row r="37" ht="15.0" customHeight="1">
-      <c r="A37" s="83" t="s">
-        <v>6</v>
-      </c>
-      <c r="B37" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="C37" s="48" t="s">
-        <v>75</v>
-      </c>
-      <c r="D37" s="48" t="s">
-        <v>54</v>
-      </c>
-      <c r="E37" s="84" t="s">
-        <v>1</v>
-      </c>
-      <c r="F37" s="38">
-        <v>1.0</v>
-      </c>
-      <c r="G37" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="H37" s="37">
-        <v>1.0</v>
-      </c>
-      <c r="I37" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="J37" s="2"/>
-      <c r="K37" s="2"/>
-      <c r="L37" s="2"/>
-      <c r="M37" s="85">
-        <v>1.0</v>
-      </c>
-      <c r="N37" s="86" t="s">
-        <v>6</v>
-      </c>
-      <c r="O37" s="86" t="s">
-        <v>6</v>
-      </c>
-      <c r="P37" s="86" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q37" s="85">
-        <v>1.0</v>
-      </c>
-      <c r="R37" s="4"/>
-      <c r="S37" s="4"/>
-      <c r="T37" s="4"/>
-      <c r="U37" s="4"/>
-      <c r="V37" s="4"/>
-      <c r="W37" s="4"/>
-      <c r="X37" s="4"/>
-      <c r="Y37" s="4"/>
-      <c r="Z37" s="4"/>
-    </row>
-    <row r="38" ht="15.0" customHeight="1">
-      <c r="A38" s="83" t="s">
-        <v>6</v>
-      </c>
-      <c r="B38" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="C38" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="D38" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="E38" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="F38" s="70" t="s">
-        <v>6</v>
-      </c>
-      <c r="G38" s="79">
-        <f>SUM(F39:F41)</f>
-        <v>12</v>
-      </c>
-      <c r="H38" s="71" t="s">
-        <v>6</v>
-      </c>
-      <c r="I38" s="90">
-        <v>10.0</v>
-      </c>
-      <c r="J38" s="1"/>
-      <c r="K38" s="1"/>
-      <c r="L38" s="1"/>
-      <c r="M38" s="91">
+      <c r="O38" s="150"/>
+      <c r="P38" s="152">
         <v>3.0</v>
       </c>
-      <c r="N38" s="91">
-        <v>2.0</v>
-      </c>
-      <c r="O38" s="82" t="s">
-        <v>6</v>
-      </c>
-      <c r="P38" s="91">
-        <v>5.0</v>
-      </c>
-      <c r="Q38" s="82">
-        <f>SUM(Q39:Q41)</f>
-        <v>10</v>
-      </c>
-      <c r="R38" s="32"/>
-      <c r="S38" s="32"/>
-      <c r="T38" s="32"/>
-      <c r="U38" s="32"/>
-      <c r="V38" s="32"/>
-      <c r="W38" s="32"/>
-      <c r="X38" s="32"/>
-      <c r="Y38" s="32"/>
-      <c r="Z38" s="32"/>
+      <c r="Q38" s="177">
+        <v>8.0</v>
+      </c>
+      <c r="R38" s="4"/>
+      <c r="S38" s="4"/>
+      <c r="T38" s="4"/>
+      <c r="U38" s="4"/>
+      <c r="V38" s="4"/>
+      <c r="W38" s="4"/>
+      <c r="X38" s="4"/>
+      <c r="Y38" s="4"/>
+      <c r="Z38" s="4"/>
     </row>
     <row r="39" ht="15.0" customHeight="1">
-      <c r="A39" s="83"/>
-      <c r="B39" s="92"/>
-      <c r="C39" s="93" t="s">
+      <c r="A39" s="147" t="s">
+        <v>6</v>
+      </c>
+      <c r="B39" s="66" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" s="89" t="s">
         <v>76</v>
       </c>
-      <c r="D39" s="93" t="s">
-        <v>35</v>
-      </c>
-      <c r="E39" s="94" t="s">
-        <v>77</v>
-      </c>
-      <c r="F39" s="95">
-        <v>6.0</v>
-      </c>
-      <c r="G39" s="96"/>
-      <c r="H39" s="97">
-        <v>8.0</v>
-      </c>
-      <c r="I39" s="96"/>
+      <c r="D39" s="65" t="s">
+        <v>34</v>
+      </c>
+      <c r="E39" s="178" t="s">
+        <v>43</v>
+      </c>
+      <c r="F39" s="179">
+        <v>4.0</v>
+      </c>
+      <c r="G39" s="66" t="s">
+        <v>6</v>
+      </c>
+      <c r="H39" s="68">
+        <v>4.0</v>
+      </c>
+      <c r="I39" s="66" t="s">
+        <v>6</v>
+      </c>
       <c r="J39" s="2"/>
       <c r="K39" s="2"/>
       <c r="L39" s="2"/>
-      <c r="M39" s="98">
-        <v>3.0</v>
-      </c>
-      <c r="N39" s="98">
+      <c r="M39" s="156" t="s">
+        <v>6</v>
+      </c>
+      <c r="N39" s="156" t="s">
+        <v>6</v>
+      </c>
+      <c r="O39" s="155">
         <v>2.0</v>
       </c>
-      <c r="O39" s="98"/>
-      <c r="P39" s="98">
-        <v>3.0</v>
-      </c>
-      <c r="Q39" s="98">
-        <v>8.0</v>
+      <c r="P39" s="157">
+        <v>2.0</v>
+      </c>
+      <c r="Q39" s="180">
+        <v>4.0</v>
       </c>
       <c r="R39" s="4"/>
       <c r="S39" s="4"/>
@@ -3529,48 +4194,50 @@
       <c r="Z39" s="4"/>
     </row>
     <row r="40" ht="15.0" customHeight="1">
-      <c r="A40" s="83" t="s">
-        <v>6</v>
-      </c>
-      <c r="B40" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="C40" s="48" t="s">
-        <v>78</v>
-      </c>
-      <c r="D40" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="E40" s="84" t="s">
-        <v>79</v>
-      </c>
-      <c r="F40" s="99">
-        <v>4.0</v>
-      </c>
-      <c r="G40" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="H40" s="37"/>
-      <c r="I40" s="35" t="s">
+      <c r="A40" s="147" t="s">
+        <v>6</v>
+      </c>
+      <c r="B40" s="78" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" s="160" t="s">
+        <v>57</v>
+      </c>
+      <c r="D40" s="160" t="s">
+        <v>34</v>
+      </c>
+      <c r="E40" s="181" t="s">
+        <v>43</v>
+      </c>
+      <c r="F40" s="182">
+        <v>2.0</v>
+      </c>
+      <c r="G40" s="78" t="s">
+        <v>6</v>
+      </c>
+      <c r="H40" s="80">
+        <v>2.0</v>
+      </c>
+      <c r="I40" s="78" t="s">
         <v>6</v>
       </c>
       <c r="J40" s="2"/>
       <c r="K40" s="2"/>
       <c r="L40" s="2"/>
-      <c r="M40" s="86" t="s">
-        <v>6</v>
-      </c>
-      <c r="N40" s="86" t="s">
-        <v>6</v>
-      </c>
-      <c r="O40" s="86" t="s">
-        <v>6</v>
-      </c>
-      <c r="P40" s="86" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q40" s="86" t="s">
-        <v>6</v>
+      <c r="M40" s="164" t="s">
+        <v>6</v>
+      </c>
+      <c r="N40" s="164" t="s">
+        <v>6</v>
+      </c>
+      <c r="O40" s="163">
+        <v>1.0</v>
+      </c>
+      <c r="P40" s="165">
+        <v>1.0</v>
+      </c>
+      <c r="Q40" s="183">
+        <v>2.0</v>
       </c>
       <c r="R40" s="4"/>
       <c r="S40" s="4"/>
@@ -3583,159 +4250,163 @@
       <c r="Z40" s="4"/>
     </row>
     <row r="41" ht="15.0" customHeight="1">
-      <c r="A41" s="83" t="s">
-        <v>6</v>
-      </c>
-      <c r="B41" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="C41" s="48" t="s">
-        <v>59</v>
-      </c>
-      <c r="D41" s="48" t="s">
-        <v>35</v>
-      </c>
-      <c r="E41" s="84" t="s">
-        <v>30</v>
-      </c>
-      <c r="F41" s="100">
-        <v>2.0</v>
-      </c>
-      <c r="G41" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="H41" s="37" t="s">
+      <c r="A41" s="184" t="s">
+        <v>77</v>
+      </c>
+      <c r="B41" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="C41" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D41" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="E41" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="F41" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="G41" s="51">
+        <f>SUM(F42:F43)</f>
+        <v>6</v>
+      </c>
+      <c r="H41" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="I41" s="51">
+        <f>SUM(H42:H43)</f>
+        <v>6</v>
+      </c>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="102">
+        <f t="shared" ref="M41:P41" si="6">SUM(M42:M43)</f>
+        <v>1.5</v>
+      </c>
+      <c r="N41" s="102">
+        <f t="shared" si="6"/>
+        <v>1.5</v>
+      </c>
+      <c r="O41" s="102">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P41" s="103">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="Q41" s="53">
+        <f t="shared" ref="Q41:Q75" si="7">SUM(M41:P41)</f>
+        <v>6</v>
+      </c>
+      <c r="R41" s="40"/>
+      <c r="S41" s="40"/>
+      <c r="T41" s="40"/>
+      <c r="U41" s="40"/>
+      <c r="V41" s="40"/>
+      <c r="W41" s="40"/>
+      <c r="X41" s="40"/>
+      <c r="Y41" s="40"/>
+      <c r="Z41" s="40"/>
+    </row>
+    <row r="42" ht="15.0" customHeight="1">
+      <c r="A42" s="184" t="s">
+        <v>78</v>
+      </c>
+      <c r="B42" s="185" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42" s="186" t="s">
+        <v>79</v>
+      </c>
+      <c r="D42" s="107" t="s">
+        <v>63</v>
+      </c>
+      <c r="E42" s="187" t="s">
         <v>80</v>
       </c>
-      <c r="I41" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="J41" s="2"/>
-      <c r="K41" s="2"/>
-      <c r="L41" s="2"/>
-      <c r="M41" s="86" t="s">
-        <v>6</v>
-      </c>
-      <c r="N41" s="86" t="s">
-        <v>6</v>
-      </c>
-      <c r="O41" s="86" t="s">
-        <v>6</v>
-      </c>
-      <c r="P41" s="85">
-        <v>2.0</v>
-      </c>
-      <c r="Q41" s="85">
-        <v>2.0</v>
-      </c>
-      <c r="R41" s="4"/>
-      <c r="S41" s="4"/>
-      <c r="T41" s="4"/>
-      <c r="U41" s="4"/>
-      <c r="V41" s="4"/>
-      <c r="W41" s="4"/>
-      <c r="X41" s="4"/>
-      <c r="Y41" s="4"/>
-      <c r="Z41" s="4"/>
-    </row>
-    <row r="42" ht="15.0" customHeight="1">
-      <c r="A42" s="101" t="s">
+      <c r="F42" s="188">
+        <v>3.0</v>
+      </c>
+      <c r="G42" s="189"/>
+      <c r="H42" s="190">
+        <v>3.0</v>
+      </c>
+      <c r="I42" s="189"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+      <c r="M42" s="191" t="s">
+        <v>6</v>
+      </c>
+      <c r="N42" s="111">
+        <v>1.5</v>
+      </c>
+      <c r="O42" s="191" t="s">
+        <v>6</v>
+      </c>
+      <c r="P42" s="139">
+        <v>1.5</v>
+      </c>
+      <c r="Q42" s="115">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="R42" s="4"/>
+      <c r="S42" s="4"/>
+      <c r="T42" s="4"/>
+      <c r="U42" s="4"/>
+      <c r="V42" s="4"/>
+      <c r="W42" s="4"/>
+      <c r="X42" s="4"/>
+      <c r="Y42" s="4"/>
+      <c r="Z42" s="4"/>
+    </row>
+    <row r="43" ht="15.0" customHeight="1">
+      <c r="A43" s="104" t="s">
+        <v>6</v>
+      </c>
+      <c r="B43" s="140" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" s="192" t="s">
         <v>81</v>
       </c>
-      <c r="B42" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="C42" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="D42" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="E42" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="F42" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="G42" s="79">
-        <f>SUM(F43:F45)</f>
-        <v>6</v>
-      </c>
-      <c r="H42" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="I42" s="90">
-        <v>6.0</v>
-      </c>
-      <c r="J42" s="1"/>
-      <c r="K42" s="1"/>
-      <c r="L42" s="1"/>
-      <c r="M42" s="91">
-        <v>1.5</v>
-      </c>
-      <c r="N42" s="91">
-        <v>1.5</v>
-      </c>
-      <c r="O42" s="82" t="s">
-        <v>6</v>
-      </c>
-      <c r="P42" s="91">
+      <c r="D43" s="141" t="s">
+        <v>37</v>
+      </c>
+      <c r="E43" s="193" t="s">
+        <v>82</v>
+      </c>
+      <c r="F43" s="141">
         <v>3.0</v>
       </c>
-      <c r="Q42" s="91">
-        <v>6.0</v>
-      </c>
-      <c r="R42" s="32"/>
-      <c r="S42" s="32"/>
-      <c r="T42" s="32"/>
-      <c r="U42" s="32"/>
-      <c r="V42" s="32"/>
-      <c r="W42" s="32"/>
-      <c r="X42" s="32"/>
-      <c r="Y42" s="32"/>
-      <c r="Z42" s="32"/>
-    </row>
-    <row r="43" ht="15.0" customHeight="1">
-      <c r="A43" s="101" t="s">
-        <v>82</v>
-      </c>
-      <c r="B43" s="102" t="s">
-        <v>6</v>
-      </c>
-      <c r="C43" s="103" t="s">
-        <v>83</v>
-      </c>
-      <c r="D43" s="74" t="s">
-        <v>65</v>
-      </c>
-      <c r="E43" s="104" t="s">
-        <v>84</v>
-      </c>
-      <c r="F43" s="74">
+      <c r="G43" s="141"/>
+      <c r="H43" s="194">
         <v>3.0</v>
       </c>
-      <c r="G43" s="74"/>
-      <c r="H43" s="105">
-        <v>3.0</v>
-      </c>
-      <c r="I43" s="62"/>
+      <c r="I43" s="126"/>
       <c r="J43" s="2"/>
       <c r="K43" s="2"/>
       <c r="L43" s="2"/>
-      <c r="M43" s="106" t="s">
-        <v>6</v>
-      </c>
-      <c r="N43" s="107">
+      <c r="M43" s="144">
         <v>1.5</v>
       </c>
-      <c r="O43" s="106" t="s">
-        <v>6</v>
-      </c>
-      <c r="P43" s="107">
+      <c r="N43" s="130" t="s">
+        <v>6</v>
+      </c>
+      <c r="O43" s="130" t="s">
+        <v>6</v>
+      </c>
+      <c r="P43" s="145">
         <v>1.5</v>
       </c>
-      <c r="Q43" s="107">
-        <v>3.0</v>
+      <c r="Q43" s="134">
+        <f t="shared" si="7"/>
+        <v>3</v>
       </c>
       <c r="R43" s="4"/>
       <c r="S43" s="4"/>
@@ -3748,96 +4419,106 @@
       <c r="Z43" s="4"/>
     </row>
     <row r="44" ht="15.0" customHeight="1">
-      <c r="A44" s="57" t="s">
-        <v>6</v>
-      </c>
-      <c r="B44" s="72" t="s">
-        <v>6</v>
-      </c>
-      <c r="C44" s="103" t="s">
-        <v>85</v>
-      </c>
-      <c r="D44" s="74" t="s">
-        <v>38</v>
-      </c>
-      <c r="E44" s="103" t="s">
-        <v>86</v>
-      </c>
-      <c r="F44" s="74">
-        <v>3.0</v>
-      </c>
-      <c r="G44" s="74"/>
-      <c r="H44" s="105">
-        <v>3.0</v>
-      </c>
-      <c r="I44" s="62"/>
-      <c r="J44" s="2"/>
-      <c r="K44" s="2"/>
-      <c r="L44" s="2"/>
-      <c r="M44" s="73">
-        <v>1.5</v>
-      </c>
-      <c r="N44" s="108" t="s">
-        <v>6</v>
-      </c>
-      <c r="O44" s="108" t="s">
-        <v>6</v>
-      </c>
-      <c r="P44" s="73">
-        <v>1.5</v>
-      </c>
-      <c r="Q44" s="73">
-        <v>3.0</v>
-      </c>
-      <c r="R44" s="4"/>
-      <c r="S44" s="4"/>
-      <c r="T44" s="4"/>
-      <c r="U44" s="4"/>
-      <c r="V44" s="4"/>
-      <c r="W44" s="4"/>
-      <c r="X44" s="4"/>
-      <c r="Y44" s="4"/>
-      <c r="Z44" s="4"/>
+      <c r="A44" s="104" t="s">
+        <v>6</v>
+      </c>
+      <c r="B44" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="C44" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D44" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="E44" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="F44" s="167" t="s">
+        <v>6</v>
+      </c>
+      <c r="G44" s="51">
+        <f>SUM(F45)</f>
+        <v>4</v>
+      </c>
+      <c r="H44" s="168" t="s">
+        <v>6</v>
+      </c>
+      <c r="I44" s="51">
+        <f>SUM(H45)</f>
+        <v>4</v>
+      </c>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="31">
+        <v>4.0</v>
+      </c>
+      <c r="N44" s="31">
+        <v>0.0</v>
+      </c>
+      <c r="O44" s="31">
+        <v>0.0</v>
+      </c>
+      <c r="P44" s="52">
+        <v>0.0</v>
+      </c>
+      <c r="Q44" s="53">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="R44" s="40"/>
+      <c r="S44" s="40"/>
+      <c r="T44" s="40"/>
+      <c r="U44" s="40"/>
+      <c r="V44" s="40"/>
+      <c r="W44" s="40"/>
+      <c r="X44" s="40"/>
+      <c r="Y44" s="40"/>
+      <c r="Z44" s="40"/>
     </row>
     <row r="45" ht="15.0" customHeight="1">
-      <c r="A45" s="57" t="s">
-        <v>6</v>
-      </c>
-      <c r="B45" s="109" t="s">
-        <v>6</v>
-      </c>
-      <c r="C45" s="110" t="s">
-        <v>6</v>
-      </c>
-      <c r="D45" s="111" t="s">
-        <v>6</v>
-      </c>
-      <c r="E45" s="109" t="s">
-        <v>6</v>
-      </c>
-      <c r="F45" s="62"/>
-      <c r="G45" s="62"/>
-      <c r="H45" s="112" t="s">
-        <v>6</v>
-      </c>
-      <c r="I45" s="62"/>
+      <c r="A45" s="104" t="s">
+        <v>6</v>
+      </c>
+      <c r="B45" s="195" t="s">
+        <v>6</v>
+      </c>
+      <c r="C45" s="196" t="s">
+        <v>83</v>
+      </c>
+      <c r="D45" s="197" t="s">
+        <v>63</v>
+      </c>
+      <c r="E45" s="198" t="s">
+        <v>1</v>
+      </c>
+      <c r="F45" s="199">
+        <v>4.0</v>
+      </c>
+      <c r="G45" s="200"/>
+      <c r="H45" s="201">
+        <v>4.0</v>
+      </c>
+      <c r="I45" s="200"/>
       <c r="J45" s="2"/>
       <c r="K45" s="2"/>
       <c r="L45" s="2"/>
-      <c r="M45" s="113" t="s">
-        <v>6</v>
-      </c>
-      <c r="N45" s="113" t="s">
-        <v>6</v>
-      </c>
-      <c r="O45" s="113" t="s">
-        <v>6</v>
-      </c>
-      <c r="P45" s="113" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q45" s="113" t="s">
-        <v>6</v>
+      <c r="M45" s="202">
+        <v>4.0</v>
+      </c>
+      <c r="N45" s="203" t="s">
+        <v>6</v>
+      </c>
+      <c r="O45" s="203" t="s">
+        <v>6</v>
+      </c>
+      <c r="P45" s="204" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q45" s="205">
+        <f t="shared" si="7"/>
+        <v>4</v>
       </c>
       <c r="R45" s="4"/>
       <c r="S45" s="4"/>
@@ -3850,103 +4531,102 @@
       <c r="Z45" s="4"/>
     </row>
     <row r="46" ht="15.0" customHeight="1">
-      <c r="A46" s="57" t="s">
-        <v>6</v>
-      </c>
-      <c r="B46" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="C46" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="D46" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="E46" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="F46" s="70" t="s">
-        <v>6</v>
-      </c>
-      <c r="G46" s="79">
+      <c r="A46" s="104" t="s">
+        <v>6</v>
+      </c>
+      <c r="B46" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="C46" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D46" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="E46" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="F46" s="167" t="s">
+        <v>6</v>
+      </c>
+      <c r="G46" s="51">
         <f>SUM(F47:F48)</f>
-        <v>4</v>
-      </c>
-      <c r="H46" s="71" t="s">
-        <v>6</v>
-      </c>
-      <c r="I46" s="90">
-        <v>4.0</v>
+        <v>6</v>
+      </c>
+      <c r="H46" s="168" t="s">
+        <v>6</v>
+      </c>
+      <c r="I46" s="51">
+        <f>SUM(H47:H48)</f>
+        <v>6</v>
       </c>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
-      <c r="M46" s="91">
+      <c r="M46" s="102">
+        <f t="shared" ref="M46:P46" si="8">SUM(M47:M48)</f>
+        <v>1.5</v>
+      </c>
+      <c r="N46" s="102">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="O46" s="102">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P46" s="103">
+        <f t="shared" si="8"/>
+        <v>4.5</v>
+      </c>
+      <c r="Q46" s="53">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="R46" s="40"/>
+      <c r="S46" s="40"/>
+      <c r="T46" s="40"/>
+      <c r="U46" s="40"/>
+      <c r="V46" s="40"/>
+      <c r="W46" s="40"/>
+      <c r="X46" s="40"/>
+      <c r="Y46" s="40"/>
+      <c r="Z46" s="40"/>
+    </row>
+    <row r="47" ht="15.0" customHeight="1">
+      <c r="A47" s="206"/>
+      <c r="B47" s="185"/>
+      <c r="C47" s="186" t="s">
+        <v>76</v>
+      </c>
+      <c r="D47" s="107" t="s">
+        <v>34</v>
+      </c>
+      <c r="E47" s="207" t="s">
+        <v>84</v>
+      </c>
+      <c r="F47" s="188">
         <v>4.0</v>
       </c>
-      <c r="N46" s="82" t="s">
-        <v>6</v>
-      </c>
-      <c r="O46" s="82" t="s">
-        <v>6</v>
-      </c>
-      <c r="P46" s="82" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q46" s="91">
+      <c r="G47" s="189"/>
+      <c r="H47" s="189">
         <v>4.0</v>
       </c>
-      <c r="R46" s="32"/>
-      <c r="S46" s="32"/>
-      <c r="T46" s="32"/>
-      <c r="U46" s="32"/>
-      <c r="V46" s="32"/>
-      <c r="W46" s="32"/>
-      <c r="X46" s="32"/>
-      <c r="Y46" s="32"/>
-      <c r="Z46" s="32"/>
-    </row>
-    <row r="47" ht="15.0" customHeight="1">
-      <c r="A47" s="57" t="s">
-        <v>6</v>
-      </c>
-      <c r="B47" s="72" t="s">
-        <v>6</v>
-      </c>
-      <c r="C47" s="103" t="s">
-        <v>87</v>
-      </c>
-      <c r="D47" s="74" t="s">
-        <v>65</v>
-      </c>
-      <c r="E47" s="104" t="s">
-        <v>1</v>
-      </c>
-      <c r="F47" s="74">
-        <v>4.0</v>
-      </c>
-      <c r="G47" s="74"/>
-      <c r="H47" s="105">
-        <v>4.0</v>
-      </c>
-      <c r="I47" s="62"/>
-      <c r="J47" s="2"/>
-      <c r="K47" s="2"/>
-      <c r="L47" s="2"/>
-      <c r="M47" s="73">
-        <v>4.0</v>
-      </c>
-      <c r="N47" s="108" t="s">
-        <v>6</v>
-      </c>
-      <c r="O47" s="108" t="s">
-        <v>6</v>
-      </c>
-      <c r="P47" s="108" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q47" s="108" t="s">
-        <v>6</v>
+      <c r="I47" s="189"/>
+      <c r="J47" s="208"/>
+      <c r="K47" s="208"/>
+      <c r="L47" s="208"/>
+      <c r="M47" s="111">
+        <v>1.0</v>
+      </c>
+      <c r="N47" s="111"/>
+      <c r="O47" s="111"/>
+      <c r="P47" s="139">
+        <v>3.0</v>
+      </c>
+      <c r="Q47" s="115">
+        <f t="shared" si="7"/>
+        <v>4</v>
       </c>
       <c r="R47" s="4"/>
       <c r="S47" s="4"/>
@@ -3959,44 +4639,39 @@
       <c r="Z47" s="4"/>
     </row>
     <row r="48" ht="15.0" customHeight="1">
-      <c r="A48" s="57" t="s">
-        <v>6</v>
-      </c>
-      <c r="B48" s="109" t="s">
-        <v>6</v>
-      </c>
-      <c r="C48" s="110" t="s">
-        <v>6</v>
-      </c>
-      <c r="D48" s="111" t="s">
-        <v>6</v>
-      </c>
-      <c r="E48" s="109"/>
-      <c r="F48" s="114" t="s">
-        <v>6</v>
-      </c>
-      <c r="G48" s="62"/>
-      <c r="H48" s="112" t="s">
-        <v>6</v>
-      </c>
-      <c r="I48" s="62"/>
+      <c r="A48" s="206"/>
+      <c r="B48" s="209"/>
+      <c r="C48" s="141" t="s">
+        <v>57</v>
+      </c>
+      <c r="D48" s="141" t="s">
+        <v>34</v>
+      </c>
+      <c r="E48" s="142" t="s">
+        <v>84</v>
+      </c>
+      <c r="F48" s="143">
+        <v>2.0</v>
+      </c>
+      <c r="G48" s="210"/>
+      <c r="H48" s="129">
+        <v>2.0</v>
+      </c>
+      <c r="I48" s="210"/>
       <c r="J48" s="2"/>
       <c r="K48" s="2"/>
       <c r="L48" s="2"/>
-      <c r="M48" s="113" t="s">
-        <v>6</v>
-      </c>
-      <c r="N48" s="113" t="s">
-        <v>6</v>
-      </c>
-      <c r="O48" s="113" t="s">
-        <v>6</v>
-      </c>
-      <c r="P48" s="113" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q48" s="113" t="s">
-        <v>6</v>
+      <c r="M48" s="144">
+        <v>0.5</v>
+      </c>
+      <c r="N48" s="130"/>
+      <c r="O48" s="144"/>
+      <c r="P48" s="145">
+        <v>1.5</v>
+      </c>
+      <c r="Q48" s="134">
+        <f t="shared" si="7"/>
+        <v>2</v>
       </c>
       <c r="R48" s="4"/>
       <c r="S48" s="4"/>
@@ -4008,96 +4683,107 @@
       <c r="Y48" s="4"/>
       <c r="Z48" s="4"/>
     </row>
-    <row r="49" ht="15.0" customHeight="1">
-      <c r="A49" s="57" t="s">
-        <v>6</v>
-      </c>
-      <c r="B49" s="115" t="s">
-        <v>57</v>
-      </c>
-      <c r="C49" s="115" t="s">
-        <v>6</v>
-      </c>
-      <c r="D49" s="116" t="s">
-        <v>6</v>
-      </c>
-      <c r="E49" s="115" t="s">
-        <v>6</v>
-      </c>
-      <c r="F49" s="117" t="s">
-        <v>6</v>
-      </c>
-      <c r="G49" s="79">
-        <f>SUM(F50:F52)</f>
-        <v>6</v>
-      </c>
-      <c r="H49" s="118" t="s">
-        <v>6</v>
-      </c>
-      <c r="I49" s="119">
-        <v>6.0</v>
-      </c>
-      <c r="J49" s="1"/>
-      <c r="K49" s="1"/>
-      <c r="L49" s="1"/>
-      <c r="M49" s="120">
+    <row r="49" ht="15.75" customHeight="1">
+      <c r="A49" s="211" t="s">
+        <v>85</v>
+      </c>
+      <c r="B49" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="C49" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D49" s="33"/>
+      <c r="E49" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="F49" s="167" t="s">
+        <v>6</v>
+      </c>
+      <c r="G49" s="51">
+        <f>SUM(F50:F51)</f>
+        <v>6</v>
+      </c>
+      <c r="H49" s="168" t="s">
+        <v>6</v>
+      </c>
+      <c r="I49" s="51">
+        <f>SUM(H50:H51)</f>
+        <v>3</v>
+      </c>
+      <c r="J49" s="7"/>
+      <c r="K49" s="7"/>
+      <c r="L49" s="7"/>
+      <c r="M49" s="102">
+        <f t="shared" ref="M49:P49" si="9">SUM(M50:M51)</f>
         <v>1.5</v>
       </c>
-      <c r="N49" s="121" t="s">
-        <v>6</v>
-      </c>
-      <c r="O49" s="121" t="s">
-        <v>6</v>
-      </c>
-      <c r="P49" s="120">
-        <v>4.5</v>
-      </c>
-      <c r="Q49" s="120">
-        <v>6.0</v>
-      </c>
-      <c r="R49" s="32"/>
-      <c r="S49" s="32"/>
-      <c r="T49" s="32"/>
-      <c r="U49" s="32"/>
-      <c r="V49" s="32"/>
-      <c r="W49" s="32"/>
-      <c r="X49" s="32"/>
-      <c r="Y49" s="32"/>
-      <c r="Z49" s="32"/>
-    </row>
-    <row r="50" ht="15.0" customHeight="1">
-      <c r="A50" s="122"/>
-      <c r="B50" s="123"/>
-      <c r="C50" s="74" t="s">
-        <v>78</v>
-      </c>
-      <c r="D50" s="62" t="s">
-        <v>35</v>
-      </c>
-      <c r="E50" s="75" t="s">
-        <v>88</v>
-      </c>
-      <c r="F50" s="124">
-        <v>4.0</v>
-      </c>
-      <c r="G50" s="125"/>
-      <c r="H50" s="126">
-        <v>4.0</v>
-      </c>
-      <c r="I50" s="127"/>
-      <c r="J50" s="2"/>
-      <c r="K50" s="2"/>
-      <c r="L50" s="2"/>
-      <c r="M50" s="107">
-        <v>1.0</v>
-      </c>
-      <c r="N50" s="107"/>
-      <c r="O50" s="107"/>
-      <c r="P50" s="107">
+      <c r="N49" s="102">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O49" s="102">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="P49" s="103">
+        <f t="shared" si="9"/>
+        <v>1.5</v>
+      </c>
+      <c r="Q49" s="53">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="R49" s="40"/>
+      <c r="S49" s="40"/>
+      <c r="T49" s="40"/>
+      <c r="U49" s="40"/>
+      <c r="V49" s="40"/>
+      <c r="W49" s="40"/>
+      <c r="X49" s="40"/>
+      <c r="Y49" s="40"/>
+      <c r="Z49" s="40"/>
+    </row>
+    <row r="50" ht="15.75" customHeight="1">
+      <c r="A50" s="146" t="s">
+        <v>86</v>
+      </c>
+      <c r="B50" s="57" t="s">
+        <v>6</v>
+      </c>
+      <c r="C50" s="212" t="s">
+        <v>79</v>
+      </c>
+      <c r="D50" s="148" t="s">
+        <v>63</v>
+      </c>
+      <c r="E50" s="213" t="s">
+        <v>87</v>
+      </c>
+      <c r="F50" s="60">
         <v>3.0</v>
       </c>
-      <c r="Q50" s="107">
-        <v>4.0</v>
+      <c r="G50" s="57"/>
+      <c r="H50" s="59">
+        <v>3.0</v>
+      </c>
+      <c r="I50" s="57" t="s">
+        <v>6</v>
+      </c>
+      <c r="J50" s="4"/>
+      <c r="K50" s="4"/>
+      <c r="L50" s="4"/>
+      <c r="M50" s="150">
+        <v>1.5</v>
+      </c>
+      <c r="N50" s="151"/>
+      <c r="O50" s="151"/>
+      <c r="P50" s="152">
+        <v>1.5</v>
+      </c>
+      <c r="Q50" s="153">
+        <f t="shared" si="7"/>
+        <v>3</v>
       </c>
       <c r="R50" s="4"/>
       <c r="S50" s="4"/>
@@ -4109,39 +4795,40 @@
       <c r="Y50" s="4"/>
       <c r="Z50" s="4"/>
     </row>
-    <row r="51" ht="15.0" customHeight="1">
-      <c r="A51" s="122"/>
-      <c r="B51" s="123"/>
-      <c r="C51" s="74" t="s">
-        <v>59</v>
-      </c>
-      <c r="D51" s="74" t="s">
-        <v>35</v>
-      </c>
-      <c r="E51" s="75" t="s">
+    <row r="51" ht="15.75" customHeight="1">
+      <c r="A51" s="147" t="s">
+        <v>6</v>
+      </c>
+      <c r="B51" s="78" t="s">
+        <v>6</v>
+      </c>
+      <c r="C51" s="95" t="s">
+        <v>81</v>
+      </c>
+      <c r="D51" s="160" t="s">
+        <v>37</v>
+      </c>
+      <c r="E51" s="96" t="s">
         <v>88</v>
       </c>
-      <c r="F51" s="124">
-        <v>2.0</v>
-      </c>
-      <c r="G51" s="125"/>
-      <c r="H51" s="126">
-        <v>2.0</v>
-      </c>
-      <c r="I51" s="127"/>
-      <c r="J51" s="2"/>
-      <c r="K51" s="2"/>
-      <c r="L51" s="2"/>
-      <c r="M51" s="107">
-        <v>0.5</v>
-      </c>
-      <c r="N51" s="106"/>
-      <c r="O51" s="107"/>
-      <c r="P51" s="107">
-        <v>1.5</v>
-      </c>
-      <c r="Q51" s="107">
-        <v>2.0</v>
+      <c r="F51" s="72">
+        <v>3.0</v>
+      </c>
+      <c r="G51" s="78"/>
+      <c r="H51" s="80"/>
+      <c r="I51" s="78" t="s">
+        <v>6</v>
+      </c>
+      <c r="J51" s="4"/>
+      <c r="K51" s="4"/>
+      <c r="L51" s="4"/>
+      <c r="M51" s="163"/>
+      <c r="N51" s="164"/>
+      <c r="O51" s="163"/>
+      <c r="P51" s="165"/>
+      <c r="Q51" s="166">
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="R51" s="4"/>
       <c r="S51" s="4"/>
@@ -4153,138 +4840,161 @@
       <c r="Y51" s="4"/>
       <c r="Z51" s="4"/>
     </row>
-    <row r="52" ht="15.0" customHeight="1">
-      <c r="A52" s="128" t="s">
-        <v>6</v>
-      </c>
-      <c r="B52" s="109" t="s">
-        <v>6</v>
-      </c>
-      <c r="C52" s="110"/>
-      <c r="D52" s="111"/>
-      <c r="E52" s="110"/>
-      <c r="F52" s="129"/>
-      <c r="G52" s="62"/>
-      <c r="H52" s="112" t="s">
-        <v>6</v>
-      </c>
-      <c r="I52" s="62"/>
-      <c r="J52" s="2"/>
-      <c r="K52" s="2"/>
-      <c r="L52" s="2"/>
-      <c r="M52" s="113" t="s">
-        <v>6</v>
-      </c>
-      <c r="N52" s="113" t="s">
-        <v>6</v>
-      </c>
-      <c r="O52" s="113" t="s">
-        <v>6</v>
-      </c>
-      <c r="P52" s="113" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q52" s="113" t="s">
-        <v>6</v>
-      </c>
-      <c r="R52" s="4"/>
-      <c r="S52" s="4"/>
-      <c r="T52" s="4"/>
-      <c r="U52" s="4"/>
-      <c r="V52" s="4"/>
-      <c r="W52" s="4"/>
-      <c r="X52" s="4"/>
-      <c r="Y52" s="4"/>
-      <c r="Z52" s="4"/>
+    <row r="52" ht="15.75" customHeight="1">
+      <c r="A52" s="147" t="s">
+        <v>6</v>
+      </c>
+      <c r="B52" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="C52" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D52" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="E52" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="F52" s="167" t="s">
+        <v>6</v>
+      </c>
+      <c r="G52" s="51">
+        <f>SUM(F53:F56)</f>
+        <v>16</v>
+      </c>
+      <c r="H52" s="168" t="s">
+        <v>6</v>
+      </c>
+      <c r="I52" s="51">
+        <f>SUM(H53:H56)</f>
+        <v>13</v>
+      </c>
+      <c r="J52" s="40"/>
+      <c r="K52" s="40"/>
+      <c r="L52" s="40"/>
+      <c r="M52" s="102">
+        <f>SUM(M53:M56)</f>
+        <v>6</v>
+      </c>
+      <c r="N52" s="102">
+        <f>SUM(N53:N59)</f>
+        <v>0</v>
+      </c>
+      <c r="O52" s="102">
+        <f t="shared" ref="O52:P52" si="10">SUM(O53:O56)</f>
+        <v>0</v>
+      </c>
+      <c r="P52" s="103">
+        <f t="shared" si="10"/>
+        <v>7</v>
+      </c>
+      <c r="Q52" s="39">
+        <f t="shared" si="7"/>
+        <v>13</v>
+      </c>
+      <c r="R52" s="40"/>
+      <c r="S52" s="40"/>
+      <c r="T52" s="40"/>
+      <c r="U52" s="40"/>
+      <c r="V52" s="40"/>
+      <c r="W52" s="40"/>
+      <c r="X52" s="40"/>
+      <c r="Y52" s="40"/>
+      <c r="Z52" s="40"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="A53" s="77" t="s">
+      <c r="A53" s="147" t="s">
+        <v>6</v>
+      </c>
+      <c r="B53" s="57" t="s">
+        <v>6</v>
+      </c>
+      <c r="C53" s="212" t="s">
+        <v>83</v>
+      </c>
+      <c r="D53" s="148" t="s">
+        <v>63</v>
+      </c>
+      <c r="E53" s="213" t="s">
+        <v>1</v>
+      </c>
+      <c r="F53" s="148">
+        <v>4.0</v>
+      </c>
+      <c r="G53" s="57" t="s">
+        <v>6</v>
+      </c>
+      <c r="H53" s="59">
+        <v>4.0</v>
+      </c>
+      <c r="I53" s="57" t="s">
+        <v>6</v>
+      </c>
+      <c r="J53" s="4"/>
+      <c r="K53" s="4"/>
+      <c r="L53" s="4"/>
+      <c r="M53" s="150">
+        <v>4.0</v>
+      </c>
+      <c r="N53" s="151"/>
+      <c r="O53" s="151"/>
+      <c r="P53" s="214"/>
+      <c r="Q53" s="153">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="R53" s="4"/>
+      <c r="S53" s="4"/>
+      <c r="T53" s="4"/>
+      <c r="U53" s="4"/>
+      <c r="V53" s="4"/>
+      <c r="W53" s="4"/>
+      <c r="X53" s="4"/>
+      <c r="Y53" s="4"/>
+      <c r="Z53" s="4"/>
+    </row>
+    <row r="54" ht="15.75" customHeight="1">
+      <c r="A54" s="147" t="s">
+        <v>6</v>
+      </c>
+      <c r="B54" s="66" t="s">
+        <v>6</v>
+      </c>
+      <c r="C54" s="88" t="s">
         <v>89</v>
       </c>
-      <c r="B53" s="40" t="s">
-        <v>62</v>
-      </c>
-      <c r="C53" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="D53" s="44"/>
-      <c r="E53" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="F53" s="78" t="s">
-        <v>6</v>
-      </c>
-      <c r="G53" s="79">
-        <f>SUM(F54:F58)</f>
-        <v>6</v>
-      </c>
-      <c r="H53" s="80" t="s">
-        <v>6</v>
-      </c>
-      <c r="I53" s="81">
-        <v>0.0</v>
-      </c>
-      <c r="J53" s="7"/>
-      <c r="K53" s="7"/>
-      <c r="L53" s="7"/>
-      <c r="M53" s="82" t="s">
-        <v>6</v>
-      </c>
-      <c r="N53" s="82" t="s">
-        <v>6</v>
-      </c>
-      <c r="O53" s="82" t="s">
-        <v>6</v>
-      </c>
-      <c r="P53" s="82" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q53" s="82">
-        <f>SUM(Q54:Q58)</f>
-        <v>0</v>
-      </c>
-      <c r="R53" s="32"/>
-      <c r="S53" s="32"/>
-      <c r="T53" s="32"/>
-      <c r="U53" s="32"/>
-      <c r="V53" s="32"/>
-      <c r="W53" s="32"/>
-      <c r="X53" s="32"/>
-      <c r="Y53" s="32"/>
-      <c r="Z53" s="32"/>
-    </row>
-    <row r="54" ht="15.75" customHeight="1">
-      <c r="A54" s="77" t="s">
+      <c r="D54" s="89" t="s">
+        <v>40</v>
+      </c>
+      <c r="E54" s="90" t="s">
         <v>90</v>
       </c>
-      <c r="B54" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="C54" s="47" t="s">
-        <v>83</v>
-      </c>
-      <c r="D54" s="48" t="s">
-        <v>65</v>
-      </c>
-      <c r="E54" s="130" t="s">
-        <v>91</v>
-      </c>
-      <c r="F54" s="38">
-        <v>3.0</v>
-      </c>
-      <c r="G54" s="35"/>
-      <c r="H54" s="37"/>
-      <c r="I54" s="35" t="s">
+      <c r="F54" s="89">
+        <v>2.0</v>
+      </c>
+      <c r="G54" s="66" t="s">
+        <v>6</v>
+      </c>
+      <c r="H54" s="68">
+        <v>1.0</v>
+      </c>
+      <c r="I54" s="66" t="s">
         <v>6</v>
       </c>
       <c r="J54" s="4"/>
       <c r="K54" s="4"/>
       <c r="L54" s="4"/>
-      <c r="M54" s="85"/>
-      <c r="N54" s="86"/>
-      <c r="O54" s="86"/>
-      <c r="P54" s="85"/>
-      <c r="Q54" s="85"/>
+      <c r="M54" s="155">
+        <v>1.0</v>
+      </c>
+      <c r="N54" s="156"/>
+      <c r="O54" s="156"/>
+      <c r="P54" s="215"/>
+      <c r="Q54" s="158">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
       <c r="R54" s="4"/>
       <c r="S54" s="4"/>
       <c r="T54" s="4"/>
@@ -4296,37 +5006,48 @@
       <c r="Z54" s="4"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="A55" s="83" t="s">
-        <v>6</v>
-      </c>
-      <c r="B55" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="C55" s="47" t="s">
-        <v>85</v>
-      </c>
-      <c r="D55" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="E55" s="130" t="s">
+      <c r="A55" s="147" t="s">
+        <v>6</v>
+      </c>
+      <c r="B55" s="66" t="s">
+        <v>6</v>
+      </c>
+      <c r="C55" s="88" t="s">
         <v>91</v>
       </c>
-      <c r="F55" s="38">
-        <v>3.0</v>
-      </c>
-      <c r="G55" s="35"/>
-      <c r="H55" s="37"/>
-      <c r="I55" s="35" t="s">
+      <c r="D55" s="89" t="s">
+        <v>63</v>
+      </c>
+      <c r="E55" s="90" t="s">
+        <v>87</v>
+      </c>
+      <c r="F55" s="89">
+        <v>2.0</v>
+      </c>
+      <c r="G55" s="66" t="s">
+        <v>6</v>
+      </c>
+      <c r="H55" s="68">
+        <v>2.0</v>
+      </c>
+      <c r="I55" s="66" t="s">
         <v>6</v>
       </c>
       <c r="J55" s="4"/>
       <c r="K55" s="4"/>
       <c r="L55" s="4"/>
-      <c r="M55" s="85"/>
-      <c r="N55" s="86"/>
-      <c r="O55" s="85"/>
-      <c r="P55" s="85"/>
-      <c r="Q55" s="85"/>
+      <c r="M55" s="155">
+        <v>1.0</v>
+      </c>
+      <c r="N55" s="156"/>
+      <c r="O55" s="156"/>
+      <c r="P55" s="157">
+        <v>1.0</v>
+      </c>
+      <c r="Q55" s="158">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
       <c r="R55" s="4"/>
       <c r="S55" s="4"/>
       <c r="T55" s="4"/>
@@ -4338,29 +5059,46 @@
       <c r="Z55" s="4"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="A56" s="83" t="s">
-        <v>6</v>
-      </c>
-      <c r="B56" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="C56" s="47"/>
-      <c r="D56" s="34"/>
-      <c r="E56" s="45"/>
-      <c r="F56" s="38"/>
-      <c r="G56" s="35"/>
-      <c r="H56" s="37"/>
-      <c r="I56" s="35" t="s">
+      <c r="A56" s="147" t="s">
+        <v>6</v>
+      </c>
+      <c r="B56" s="78" t="s">
+        <v>6</v>
+      </c>
+      <c r="C56" s="95" t="s">
+        <v>92</v>
+      </c>
+      <c r="D56" s="160" t="s">
+        <v>63</v>
+      </c>
+      <c r="E56" s="96" t="s">
+        <v>32</v>
+      </c>
+      <c r="F56" s="160">
+        <v>8.0</v>
+      </c>
+      <c r="G56" s="78" t="s">
+        <v>6</v>
+      </c>
+      <c r="H56" s="80">
+        <v>6.0</v>
+      </c>
+      <c r="I56" s="78" t="s">
         <v>6</v>
       </c>
       <c r="J56" s="4"/>
       <c r="K56" s="4"/>
       <c r="L56" s="4"/>
-      <c r="M56" s="85"/>
-      <c r="N56" s="86"/>
-      <c r="O56" s="85"/>
-      <c r="P56" s="85"/>
-      <c r="Q56" s="85"/>
+      <c r="M56" s="164"/>
+      <c r="N56" s="164"/>
+      <c r="O56" s="164"/>
+      <c r="P56" s="165">
+        <v>6.0</v>
+      </c>
+      <c r="Q56" s="166">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
       <c r="R56" s="4"/>
       <c r="S56" s="4"/>
       <c r="T56" s="4"/>
@@ -4372,63 +5110,111 @@
       <c r="Z56" s="4"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="A57" s="83" t="s">
-        <v>6</v>
-      </c>
-      <c r="B57" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="C57" s="33"/>
-      <c r="D57" s="34"/>
-      <c r="E57" s="35"/>
-      <c r="F57" s="36"/>
-      <c r="G57" s="35"/>
-      <c r="H57" s="46"/>
-      <c r="I57" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="J57" s="4"/>
-      <c r="K57" s="4"/>
-      <c r="L57" s="4"/>
-      <c r="M57" s="85"/>
-      <c r="N57" s="86"/>
-      <c r="O57" s="85"/>
-      <c r="P57" s="85"/>
-      <c r="Q57" s="85"/>
-      <c r="R57" s="4"/>
-      <c r="S57" s="4"/>
-      <c r="T57" s="4"/>
-      <c r="U57" s="4"/>
-      <c r="V57" s="4"/>
-      <c r="W57" s="4"/>
-      <c r="X57" s="4"/>
-      <c r="Y57" s="4"/>
-      <c r="Z57" s="4"/>
+      <c r="A57" s="147" t="s">
+        <v>6</v>
+      </c>
+      <c r="B57" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="C57" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D57" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="E57" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="F57" s="167" t="s">
+        <v>6</v>
+      </c>
+      <c r="G57" s="51">
+        <f>SUM(F58:F59)</f>
+        <v>6</v>
+      </c>
+      <c r="H57" s="168" t="s">
+        <v>6</v>
+      </c>
+      <c r="I57" s="51">
+        <f>SUM(H58:H59)</f>
+        <v>6</v>
+      </c>
+      <c r="J57" s="40"/>
+      <c r="K57" s="40"/>
+      <c r="L57" s="40"/>
+      <c r="M57" s="102">
+        <f t="shared" ref="M57:P57" si="11">SUM(M58:M59)</f>
+        <v>0</v>
+      </c>
+      <c r="N57" s="102">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="O57" s="102">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="P57" s="103">
+        <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
+      <c r="Q57" s="39">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="R57" s="40"/>
+      <c r="S57" s="40"/>
+      <c r="T57" s="40"/>
+      <c r="U57" s="40"/>
+      <c r="V57" s="40"/>
+      <c r="W57" s="40"/>
+      <c r="X57" s="40"/>
+      <c r="Y57" s="40"/>
+      <c r="Z57" s="40"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="83" t="s">
-        <v>6</v>
-      </c>
-      <c r="B58" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="C58" s="50"/>
-      <c r="D58" s="51"/>
-      <c r="E58" s="18"/>
-      <c r="F58" s="52"/>
-      <c r="G58" s="35"/>
-      <c r="H58" s="53"/>
-      <c r="I58" s="35" t="s">
+      <c r="A58" s="147" t="s">
+        <v>6</v>
+      </c>
+      <c r="B58" s="57" t="s">
+        <v>6</v>
+      </c>
+      <c r="C58" s="148" t="s">
+        <v>76</v>
+      </c>
+      <c r="D58" s="56" t="s">
+        <v>34</v>
+      </c>
+      <c r="E58" s="149" t="s">
+        <v>43</v>
+      </c>
+      <c r="F58" s="175">
+        <v>4.0</v>
+      </c>
+      <c r="G58" s="57" t="s">
+        <v>6</v>
+      </c>
+      <c r="H58" s="59">
+        <v>4.0</v>
+      </c>
+      <c r="I58" s="57" t="s">
         <v>6</v>
       </c>
       <c r="J58" s="4"/>
       <c r="K58" s="4"/>
       <c r="L58" s="4"/>
-      <c r="M58" s="88"/>
-      <c r="N58" s="89"/>
-      <c r="O58" s="88"/>
-      <c r="P58" s="88"/>
-      <c r="Q58" s="88"/>
+      <c r="M58" s="150"/>
+      <c r="N58" s="150"/>
+      <c r="O58" s="150">
+        <v>1.0</v>
+      </c>
+      <c r="P58" s="152">
+        <v>3.0</v>
+      </c>
+      <c r="Q58" s="153">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
       <c r="R58" s="4"/>
       <c r="S58" s="4"/>
       <c r="T58" s="4"/>
@@ -4440,134 +5226,164 @@
       <c r="Z58" s="4"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="A59" s="83" t="s">
-        <v>6</v>
-      </c>
-      <c r="B59" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="C59" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="D59" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="E59" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="F59" s="70" t="s">
-        <v>6</v>
-      </c>
-      <c r="G59" s="79">
-        <f>SUM(F60:F64)</f>
-        <v>16</v>
-      </c>
-      <c r="H59" s="71" t="s">
-        <v>6</v>
-      </c>
-      <c r="I59" s="81">
-        <v>0.0</v>
-      </c>
-      <c r="J59" s="32"/>
-      <c r="K59" s="32"/>
-      <c r="L59" s="32"/>
-      <c r="M59" s="82"/>
-      <c r="N59" s="82"/>
-      <c r="O59" s="82"/>
-      <c r="P59" s="82"/>
-      <c r="Q59" s="91"/>
-      <c r="R59" s="32"/>
-      <c r="S59" s="32"/>
-      <c r="T59" s="32"/>
-      <c r="U59" s="32"/>
-      <c r="V59" s="32"/>
-      <c r="W59" s="32"/>
-      <c r="X59" s="32"/>
-      <c r="Y59" s="32"/>
-      <c r="Z59" s="32"/>
+      <c r="A59" s="147" t="s">
+        <v>6</v>
+      </c>
+      <c r="B59" s="78" t="s">
+        <v>6</v>
+      </c>
+      <c r="C59" s="160" t="s">
+        <v>57</v>
+      </c>
+      <c r="D59" s="160" t="s">
+        <v>34</v>
+      </c>
+      <c r="E59" s="181" t="s">
+        <v>43</v>
+      </c>
+      <c r="F59" s="182">
+        <v>2.0</v>
+      </c>
+      <c r="G59" s="78" t="s">
+        <v>6</v>
+      </c>
+      <c r="H59" s="80">
+        <v>2.0</v>
+      </c>
+      <c r="I59" s="78" t="s">
+        <v>6</v>
+      </c>
+      <c r="J59" s="4"/>
+      <c r="K59" s="4"/>
+      <c r="L59" s="4"/>
+      <c r="M59" s="164"/>
+      <c r="N59" s="164"/>
+      <c r="O59" s="163">
+        <v>1.0</v>
+      </c>
+      <c r="P59" s="165">
+        <v>1.0</v>
+      </c>
+      <c r="Q59" s="166">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="R59" s="4"/>
+      <c r="S59" s="4"/>
+      <c r="T59" s="4"/>
+      <c r="U59" s="4"/>
+      <c r="V59" s="4"/>
+      <c r="W59" s="4"/>
+      <c r="X59" s="4"/>
+      <c r="Y59" s="4"/>
+      <c r="Z59" s="4"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="A60" s="83" t="s">
-        <v>6</v>
-      </c>
-      <c r="B60" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="C60" s="47" t="s">
-        <v>87</v>
-      </c>
-      <c r="D60" s="48" t="s">
-        <v>65</v>
-      </c>
-      <c r="E60" s="130" t="s">
-        <v>1</v>
-      </c>
-      <c r="F60" s="48">
-        <v>4.0</v>
-      </c>
-      <c r="G60" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="H60" s="46" t="s">
-        <v>6</v>
-      </c>
-      <c r="I60" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="J60" s="4"/>
-      <c r="K60" s="4"/>
-      <c r="L60" s="4"/>
-      <c r="M60" s="85"/>
-      <c r="N60" s="86"/>
-      <c r="O60" s="86"/>
-      <c r="P60" s="86"/>
-      <c r="Q60" s="85"/>
-      <c r="R60" s="4"/>
-      <c r="S60" s="4"/>
-      <c r="T60" s="4"/>
-      <c r="U60" s="4"/>
-      <c r="V60" s="4"/>
-      <c r="W60" s="4"/>
-      <c r="X60" s="4"/>
-      <c r="Y60" s="4"/>
-      <c r="Z60" s="4"/>
+      <c r="A60" s="216" t="s">
+        <v>93</v>
+      </c>
+      <c r="B60" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="C60" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D60" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="E60" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="F60" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="G60" s="51">
+        <f>SUM(F61)</f>
+        <v>3</v>
+      </c>
+      <c r="H60" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="I60" s="51">
+        <f>SUM(H61)</f>
+        <v>0</v>
+      </c>
+      <c r="J60" s="40"/>
+      <c r="K60" s="40"/>
+      <c r="L60" s="40"/>
+      <c r="M60" s="102">
+        <f t="shared" ref="M60:P60" si="12">SUM(M61:M62)</f>
+        <v>0</v>
+      </c>
+      <c r="N60" s="102">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="O60" s="102">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="P60" s="103">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="Q60" s="39">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R60" s="40"/>
+      <c r="S60" s="40"/>
+      <c r="T60" s="40"/>
+      <c r="U60" s="40"/>
+      <c r="V60" s="40"/>
+      <c r="W60" s="40"/>
+      <c r="X60" s="40"/>
+      <c r="Y60" s="40"/>
+      <c r="Z60" s="40"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="A61" s="83" t="s">
-        <v>6</v>
-      </c>
-      <c r="B61" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="C61" s="47" t="s">
-        <v>92</v>
-      </c>
-      <c r="D61" s="48" t="s">
-        <v>41</v>
-      </c>
-      <c r="E61" s="130" t="s">
-        <v>93</v>
-      </c>
-      <c r="F61" s="48">
-        <v>2.0</v>
-      </c>
-      <c r="G61" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="H61" s="46" t="s">
-        <v>6</v>
-      </c>
-      <c r="I61" s="35" t="s">
-        <v>6</v>
-      </c>
+      <c r="A61" s="184" t="s">
+        <v>94</v>
+      </c>
+      <c r="B61" s="185" t="s">
+        <v>6</v>
+      </c>
+      <c r="C61" s="186" t="s">
+        <v>81</v>
+      </c>
+      <c r="D61" s="107" t="s">
+        <v>37</v>
+      </c>
+      <c r="E61" s="207" t="s">
+        <v>88</v>
+      </c>
+      <c r="F61" s="188">
+        <v>3.0</v>
+      </c>
+      <c r="G61" s="189"/>
+      <c r="H61" s="190" t="s">
+        <v>6</v>
+      </c>
+      <c r="I61" s="189"/>
       <c r="J61" s="4"/>
       <c r="K61" s="4"/>
       <c r="L61" s="4"/>
-      <c r="M61" s="86"/>
-      <c r="N61" s="86"/>
-      <c r="O61" s="86"/>
-      <c r="P61" s="86"/>
-      <c r="Q61" s="86"/>
+      <c r="M61" s="191" t="s">
+        <v>6</v>
+      </c>
+      <c r="N61" s="191" t="s">
+        <v>6</v>
+      </c>
+      <c r="O61" s="191" t="s">
+        <v>6</v>
+      </c>
+      <c r="P61" s="217" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q61" s="115">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="R61" s="4"/>
       <c r="S61" s="4"/>
       <c r="T61" s="4"/>
@@ -4579,41 +5395,48 @@
       <c r="Z61" s="4"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="A62" s="83" t="s">
-        <v>6</v>
-      </c>
-      <c r="B62" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="C62" s="47" t="s">
-        <v>94</v>
-      </c>
-      <c r="D62" s="48" t="s">
-        <v>65</v>
-      </c>
-      <c r="E62" s="130" t="s">
-        <v>95</v>
-      </c>
-      <c r="F62" s="48">
-        <v>2.0</v>
-      </c>
-      <c r="G62" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="H62" s="46" t="s">
-        <v>6</v>
-      </c>
-      <c r="I62" s="35" t="s">
-        <v>6</v>
-      </c>
+      <c r="A62" s="104" t="s">
+        <v>6</v>
+      </c>
+      <c r="B62" s="140" t="s">
+        <v>6</v>
+      </c>
+      <c r="C62" s="209" t="s">
+        <v>6</v>
+      </c>
+      <c r="D62" s="126" t="s">
+        <v>6</v>
+      </c>
+      <c r="E62" s="209" t="s">
+        <v>6</v>
+      </c>
+      <c r="F62" s="218" t="s">
+        <v>6</v>
+      </c>
+      <c r="G62" s="126"/>
+      <c r="H62" s="219" t="s">
+        <v>6</v>
+      </c>
+      <c r="I62" s="126"/>
       <c r="J62" s="4"/>
       <c r="K62" s="4"/>
       <c r="L62" s="4"/>
-      <c r="M62" s="89"/>
-      <c r="N62" s="89"/>
-      <c r="O62" s="89"/>
-      <c r="P62" s="89"/>
-      <c r="Q62" s="89"/>
+      <c r="M62" s="130" t="s">
+        <v>6</v>
+      </c>
+      <c r="N62" s="130" t="s">
+        <v>6</v>
+      </c>
+      <c r="O62" s="130" t="s">
+        <v>6</v>
+      </c>
+      <c r="P62" s="220" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q62" s="134">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="R62" s="4"/>
       <c r="S62" s="4"/>
       <c r="T62" s="4"/>
@@ -4625,79 +5448,97 @@
       <c r="Z62" s="4"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="A63" s="83" t="s">
-        <v>6</v>
-      </c>
-      <c r="B63" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="C63" s="47" t="s">
-        <v>96</v>
-      </c>
-      <c r="D63" s="48" t="s">
-        <v>65</v>
-      </c>
-      <c r="E63" s="130" t="s">
-        <v>95</v>
-      </c>
-      <c r="F63" s="48">
-        <v>8.0</v>
-      </c>
-      <c r="G63" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="H63" s="46" t="s">
-        <v>6</v>
-      </c>
-      <c r="I63" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="J63" s="4"/>
-      <c r="K63" s="4"/>
-      <c r="L63" s="4"/>
-      <c r="M63" s="86"/>
-      <c r="N63" s="86"/>
-      <c r="O63" s="86"/>
-      <c r="P63" s="85"/>
-      <c r="Q63" s="85"/>
-      <c r="R63" s="4"/>
-      <c r="S63" s="4"/>
-      <c r="T63" s="4"/>
-      <c r="U63" s="4"/>
-      <c r="V63" s="4"/>
-      <c r="W63" s="4"/>
-      <c r="X63" s="4"/>
-      <c r="Y63" s="4"/>
-      <c r="Z63" s="4"/>
+      <c r="A63" s="104" t="s">
+        <v>6</v>
+      </c>
+      <c r="B63" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="C63" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D63" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="E63" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="F63" s="167" t="s">
+        <v>6</v>
+      </c>
+      <c r="G63" s="51">
+        <f>SUM(F64:F68)</f>
+        <v>14</v>
+      </c>
+      <c r="H63" s="168" t="s">
+        <v>6</v>
+      </c>
+      <c r="I63" s="51">
+        <f>SUM(H64:H68)</f>
+        <v>0</v>
+      </c>
+      <c r="J63" s="40"/>
+      <c r="K63" s="40"/>
+      <c r="L63" s="40"/>
+      <c r="M63" s="221">
+        <f t="shared" ref="M63:P63" si="13">SUM(M64:M68)</f>
+        <v>0</v>
+      </c>
+      <c r="N63" s="221">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="O63" s="221">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="P63" s="222">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Q63" s="39">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R63" s="40"/>
+      <c r="S63" s="40"/>
+      <c r="T63" s="40"/>
+      <c r="U63" s="40"/>
+      <c r="V63" s="40"/>
+      <c r="W63" s="40"/>
+      <c r="X63" s="40"/>
+      <c r="Y63" s="40"/>
+      <c r="Z63" s="40"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="A64" s="83" t="s">
-        <v>6</v>
-      </c>
-      <c r="B64" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="C64" s="131"/>
-      <c r="D64" s="48"/>
-      <c r="E64" s="34"/>
-      <c r="F64" s="52"/>
-      <c r="G64" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="H64" s="53" t="s">
-        <v>6</v>
-      </c>
-      <c r="I64" s="35" t="s">
-        <v>6</v>
-      </c>
+      <c r="A64" s="104"/>
+      <c r="B64" s="135"/>
+      <c r="C64" s="186" t="s">
+        <v>83</v>
+      </c>
+      <c r="D64" s="107" t="s">
+        <v>63</v>
+      </c>
+      <c r="E64" s="207" t="s">
+        <v>1</v>
+      </c>
+      <c r="F64" s="188">
+        <v>6.0</v>
+      </c>
+      <c r="G64" s="189"/>
+      <c r="H64" s="190"/>
+      <c r="I64" s="189"/>
       <c r="J64" s="4"/>
       <c r="K64" s="4"/>
       <c r="L64" s="4"/>
-      <c r="M64" s="89"/>
-      <c r="N64" s="89"/>
-      <c r="O64" s="89"/>
-      <c r="P64" s="89"/>
-      <c r="Q64" s="89"/>
+      <c r="M64" s="191"/>
+      <c r="N64" s="191"/>
+      <c r="O64" s="191"/>
+      <c r="P64" s="217"/>
+      <c r="Q64" s="115">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="R64" s="4"/>
       <c r="S64" s="4"/>
       <c r="T64" s="4"/>
@@ -4709,88 +5550,79 @@
       <c r="Z64" s="4"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="A65" s="83" t="s">
-        <v>6</v>
-      </c>
-      <c r="B65" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="C65" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="D65" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="E65" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="F65" s="70" t="s">
-        <v>6</v>
-      </c>
-      <c r="G65" s="79">
-        <f>SUM(F66:F69)</f>
-        <v>14</v>
-      </c>
-      <c r="H65" s="71" t="s">
-        <v>6</v>
-      </c>
-      <c r="I65" s="81">
-        <v>0.0</v>
-      </c>
-      <c r="J65" s="32"/>
-      <c r="K65" s="32"/>
-      <c r="L65" s="32"/>
-      <c r="M65" s="82"/>
-      <c r="N65" s="82"/>
-      <c r="O65" s="82"/>
-      <c r="P65" s="82"/>
-      <c r="Q65" s="82"/>
-      <c r="R65" s="32"/>
-      <c r="S65" s="32"/>
-      <c r="T65" s="32"/>
-      <c r="U65" s="32"/>
-      <c r="V65" s="32"/>
-      <c r="W65" s="32"/>
-      <c r="X65" s="32"/>
-      <c r="Y65" s="32"/>
-      <c r="Z65" s="32"/>
+      <c r="A65" s="104"/>
+      <c r="B65" s="223"/>
+      <c r="C65" s="224" t="s">
+        <v>95</v>
+      </c>
+      <c r="D65" s="225" t="s">
+        <v>63</v>
+      </c>
+      <c r="E65" s="226" t="s">
+        <v>1</v>
+      </c>
+      <c r="F65" s="227">
+        <v>8.0</v>
+      </c>
+      <c r="G65" s="228"/>
+      <c r="H65" s="229"/>
+      <c r="I65" s="228"/>
+      <c r="J65" s="4"/>
+      <c r="K65" s="4"/>
+      <c r="L65" s="4"/>
+      <c r="M65" s="230"/>
+      <c r="N65" s="230"/>
+      <c r="O65" s="230"/>
+      <c r="P65" s="231"/>
+      <c r="Q65" s="124">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R65" s="4"/>
+      <c r="S65" s="4"/>
+      <c r="T65" s="4"/>
+      <c r="U65" s="4"/>
+      <c r="V65" s="4"/>
+      <c r="W65" s="4"/>
+      <c r="X65" s="4"/>
+      <c r="Y65" s="4"/>
+      <c r="Z65" s="4"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="A66" s="83" t="s">
-        <v>6</v>
-      </c>
-      <c r="B66" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="C66" s="48" t="s">
-        <v>78</v>
-      </c>
-      <c r="D66" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="E66" s="84" t="s">
-        <v>50</v>
-      </c>
-      <c r="F66" s="100">
-        <v>4.0</v>
-      </c>
-      <c r="G66" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="H66" s="46" t="s">
-        <v>6</v>
-      </c>
-      <c r="I66" s="35" t="s">
-        <v>6</v>
-      </c>
+      <c r="A66" s="104" t="s">
+        <v>6</v>
+      </c>
+      <c r="B66" s="223" t="s">
+        <v>6</v>
+      </c>
+      <c r="C66" s="232"/>
+      <c r="D66" s="225"/>
+      <c r="E66" s="226"/>
+      <c r="F66" s="227"/>
+      <c r="G66" s="117"/>
+      <c r="H66" s="229" t="s">
+        <v>6</v>
+      </c>
+      <c r="I66" s="117"/>
       <c r="J66" s="4"/>
       <c r="K66" s="4"/>
       <c r="L66" s="4"/>
-      <c r="M66" s="98"/>
-      <c r="N66" s="98"/>
-      <c r="O66" s="98"/>
-      <c r="P66" s="98"/>
-      <c r="Q66" s="98"/>
+      <c r="M66" s="230" t="s">
+        <v>6</v>
+      </c>
+      <c r="N66" s="230" t="s">
+        <v>6</v>
+      </c>
+      <c r="O66" s="230" t="s">
+        <v>6</v>
+      </c>
+      <c r="P66" s="231" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q66" s="124">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="R66" s="4"/>
       <c r="S66" s="4"/>
       <c r="T66" s="4"/>
@@ -4802,41 +5634,40 @@
       <c r="Z66" s="4"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="A67" s="83" t="s">
-        <v>6</v>
-      </c>
-      <c r="B67" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="C67" s="48" t="s">
-        <v>59</v>
-      </c>
-      <c r="D67" s="48" t="s">
-        <v>35</v>
-      </c>
-      <c r="E67" s="84" t="s">
-        <v>50</v>
-      </c>
-      <c r="F67" s="100">
-        <v>2.0</v>
-      </c>
-      <c r="G67" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="H67" s="46" t="s">
-        <v>6</v>
-      </c>
-      <c r="I67" s="35" t="s">
-        <v>6</v>
-      </c>
+      <c r="A67" s="104" t="s">
+        <v>6</v>
+      </c>
+      <c r="B67" s="223" t="s">
+        <v>6</v>
+      </c>
+      <c r="C67" s="232"/>
+      <c r="D67" s="225"/>
+      <c r="E67" s="226"/>
+      <c r="F67" s="227"/>
+      <c r="G67" s="117"/>
+      <c r="H67" s="229" t="s">
+        <v>6</v>
+      </c>
+      <c r="I67" s="117"/>
       <c r="J67" s="4"/>
       <c r="K67" s="4"/>
       <c r="L67" s="4"/>
-      <c r="M67" s="86"/>
-      <c r="N67" s="86"/>
-      <c r="O67" s="86"/>
-      <c r="P67" s="86"/>
-      <c r="Q67" s="86"/>
+      <c r="M67" s="230" t="s">
+        <v>6</v>
+      </c>
+      <c r="N67" s="230" t="s">
+        <v>6</v>
+      </c>
+      <c r="O67" s="230" t="s">
+        <v>6</v>
+      </c>
+      <c r="P67" s="231" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q67" s="124">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="R67" s="4"/>
       <c r="S67" s="4"/>
       <c r="T67" s="4"/>
@@ -4848,31 +5679,40 @@
       <c r="Z67" s="4"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
-      <c r="A68" s="83"/>
-      <c r="B68" s="92"/>
-      <c r="C68" s="132" t="s">
-        <v>97</v>
-      </c>
-      <c r="D68" s="133" t="s">
-        <v>98</v>
-      </c>
-      <c r="E68" s="134" t="s">
-        <v>50</v>
-      </c>
-      <c r="F68" s="135">
-        <v>4.0</v>
-      </c>
-      <c r="G68" s="35"/>
-      <c r="H68" s="136"/>
-      <c r="I68" s="35"/>
+      <c r="A68" s="104" t="s">
+        <v>6</v>
+      </c>
+      <c r="B68" s="223" t="s">
+        <v>6</v>
+      </c>
+      <c r="C68" s="232"/>
+      <c r="D68" s="225"/>
+      <c r="E68" s="226"/>
+      <c r="F68" s="227"/>
+      <c r="G68" s="117"/>
+      <c r="H68" s="229" t="s">
+        <v>6</v>
+      </c>
+      <c r="I68" s="117"/>
       <c r="J68" s="4"/>
       <c r="K68" s="4"/>
       <c r="L68" s="4"/>
-      <c r="M68" s="86"/>
-      <c r="N68" s="86"/>
-      <c r="O68" s="86"/>
-      <c r="P68" s="86"/>
-      <c r="Q68" s="86"/>
+      <c r="M68" s="230" t="s">
+        <v>6</v>
+      </c>
+      <c r="N68" s="230" t="s">
+        <v>6</v>
+      </c>
+      <c r="O68" s="230" t="s">
+        <v>6</v>
+      </c>
+      <c r="P68" s="231" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q68" s="124">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="R68" s="4"/>
       <c r="S68" s="4"/>
       <c r="T68" s="4"/>
@@ -4884,41 +5724,48 @@
       <c r="Z68" s="4"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
-      <c r="A69" s="83" t="s">
-        <v>6</v>
-      </c>
-      <c r="B69" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="C69" s="50" t="s">
-        <v>99</v>
-      </c>
-      <c r="D69" s="51" t="s">
-        <v>98</v>
-      </c>
-      <c r="E69" s="137" t="s">
-        <v>50</v>
-      </c>
-      <c r="F69" s="138">
-        <v>4.0</v>
-      </c>
-      <c r="G69" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="H69" s="53" t="s">
-        <v>6</v>
-      </c>
-      <c r="I69" s="35" t="s">
-        <v>6</v>
-      </c>
+      <c r="A69" s="104" t="s">
+        <v>6</v>
+      </c>
+      <c r="B69" s="233" t="s">
+        <v>6</v>
+      </c>
+      <c r="C69" s="234" t="s">
+        <v>6</v>
+      </c>
+      <c r="D69" s="235" t="s">
+        <v>6</v>
+      </c>
+      <c r="E69" s="233" t="s">
+        <v>6</v>
+      </c>
+      <c r="F69" s="236" t="s">
+        <v>6</v>
+      </c>
+      <c r="G69" s="126"/>
+      <c r="H69" s="237" t="s">
+        <v>6</v>
+      </c>
+      <c r="I69" s="126"/>
       <c r="J69" s="4"/>
       <c r="K69" s="4"/>
       <c r="L69" s="4"/>
-      <c r="M69" s="86"/>
-      <c r="N69" s="86"/>
-      <c r="O69" s="86"/>
-      <c r="P69" s="86"/>
-      <c r="Q69" s="86"/>
+      <c r="M69" s="130" t="s">
+        <v>6</v>
+      </c>
+      <c r="N69" s="130" t="s">
+        <v>6</v>
+      </c>
+      <c r="O69" s="130" t="s">
+        <v>6</v>
+      </c>
+      <c r="P69" s="220" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q69" s="134">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="R69" s="4"/>
       <c r="S69" s="4"/>
       <c r="T69" s="4"/>
@@ -4930,100 +5777,102 @@
       <c r="Z69" s="4"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
-      <c r="A70" s="101" t="s">
-        <v>100</v>
-      </c>
-      <c r="B70" s="25"/>
-      <c r="C70" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="D70" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="E70" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="F70" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="G70" s="139">
-        <v>0.0</v>
-      </c>
-      <c r="H70" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="I70" s="81">
-        <v>0.0</v>
-      </c>
-      <c r="J70" s="32"/>
-      <c r="K70" s="32"/>
-      <c r="L70" s="32"/>
-      <c r="M70" s="82" t="s">
-        <v>6</v>
-      </c>
-      <c r="N70" s="82" t="s">
-        <v>6</v>
-      </c>
-      <c r="O70" s="82" t="s">
-        <v>6</v>
-      </c>
-      <c r="P70" s="82" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q70" s="82">
-        <v>0.0</v>
-      </c>
-      <c r="R70" s="32"/>
-      <c r="S70" s="32"/>
-      <c r="T70" s="32"/>
-      <c r="U70" s="32"/>
-      <c r="V70" s="32"/>
-      <c r="W70" s="32"/>
-      <c r="X70" s="32"/>
-      <c r="Y70" s="32"/>
-      <c r="Z70" s="32"/>
+      <c r="A70" s="104" t="s">
+        <v>6</v>
+      </c>
+      <c r="B70" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="C70" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D70" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="E70" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="F70" s="167" t="s">
+        <v>6</v>
+      </c>
+      <c r="G70" s="51">
+        <f>SUM(F71:F74)</f>
+        <v>18</v>
+      </c>
+      <c r="H70" s="168" t="s">
+        <v>6</v>
+      </c>
+      <c r="I70" s="238">
+        <f>SUM(H71:H74)</f>
+        <v>0</v>
+      </c>
+      <c r="J70" s="40"/>
+      <c r="K70" s="40"/>
+      <c r="L70" s="40"/>
+      <c r="M70" s="221">
+        <f t="shared" ref="M70:P70" si="14">SUM(M71:M75)</f>
+        <v>0</v>
+      </c>
+      <c r="N70" s="221">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="O70" s="221">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="P70" s="222">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Q70" s="39">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R70" s="40"/>
+      <c r="S70" s="40"/>
+      <c r="T70" s="40"/>
+      <c r="U70" s="40"/>
+      <c r="V70" s="40"/>
+      <c r="W70" s="40"/>
+      <c r="X70" s="40"/>
+      <c r="Y70" s="40"/>
+      <c r="Z70" s="40"/>
     </row>
     <row r="71" ht="15.75" customHeight="1">
-      <c r="A71" s="101" t="s">
-        <v>101</v>
-      </c>
-      <c r="B71" s="102" t="s">
-        <v>6</v>
-      </c>
-      <c r="C71" s="102" t="s">
-        <v>6</v>
-      </c>
-      <c r="D71" s="62" t="s">
-        <v>6</v>
-      </c>
-      <c r="E71" s="72" t="s">
-        <v>6</v>
-      </c>
-      <c r="F71" s="140" t="s">
-        <v>6</v>
-      </c>
-      <c r="G71" s="62"/>
-      <c r="H71" s="141" t="s">
-        <v>6</v>
-      </c>
-      <c r="I71" s="62"/>
+      <c r="A71" s="206" t="s">
+        <v>6</v>
+      </c>
+      <c r="B71" s="239" t="s">
+        <v>6</v>
+      </c>
+      <c r="C71" s="107" t="s">
+        <v>57</v>
+      </c>
+      <c r="D71" s="107" t="s">
+        <v>34</v>
+      </c>
+      <c r="E71" s="207" t="s">
+        <v>48</v>
+      </c>
+      <c r="F71" s="240">
+        <v>4.0</v>
+      </c>
+      <c r="G71" s="109"/>
+      <c r="H71" s="241" t="s">
+        <v>6</v>
+      </c>
+      <c r="I71" s="109"/>
       <c r="J71" s="4"/>
       <c r="K71" s="4"/>
       <c r="L71" s="4"/>
-      <c r="M71" s="106" t="s">
-        <v>6</v>
-      </c>
-      <c r="N71" s="106" t="s">
-        <v>6</v>
-      </c>
-      <c r="O71" s="106" t="s">
-        <v>6</v>
-      </c>
-      <c r="P71" s="106" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q71" s="106" t="s">
-        <v>6</v>
+      <c r="M71" s="191"/>
+      <c r="N71" s="191"/>
+      <c r="O71" s="191"/>
+      <c r="P71" s="217"/>
+      <c r="Q71" s="115">
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="R71" s="4"/>
       <c r="S71" s="4"/>
@@ -5036,46 +5885,33 @@
       <c r="Z71" s="4"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
-      <c r="A72" s="57" t="s">
-        <v>6</v>
-      </c>
-      <c r="B72" s="72" t="s">
-        <v>6</v>
-      </c>
-      <c r="C72" s="102" t="s">
-        <v>6</v>
-      </c>
-      <c r="D72" s="62" t="s">
-        <v>6</v>
-      </c>
-      <c r="E72" s="102" t="s">
-        <v>6</v>
-      </c>
-      <c r="F72" s="140" t="s">
-        <v>6</v>
-      </c>
-      <c r="G72" s="62"/>
-      <c r="H72" s="141" t="s">
-        <v>6</v>
-      </c>
-      <c r="I72" s="62"/>
+      <c r="A72" s="242"/>
+      <c r="B72" s="223"/>
+      <c r="C72" s="224" t="s">
+        <v>96</v>
+      </c>
+      <c r="D72" s="225" t="s">
+        <v>34</v>
+      </c>
+      <c r="E72" s="226" t="s">
+        <v>48</v>
+      </c>
+      <c r="F72" s="227">
+        <v>6.0</v>
+      </c>
+      <c r="G72" s="117"/>
+      <c r="H72" s="229"/>
+      <c r="I72" s="117"/>
       <c r="J72" s="4"/>
       <c r="K72" s="4"/>
       <c r="L72" s="4"/>
-      <c r="M72" s="108" t="s">
-        <v>6</v>
-      </c>
-      <c r="N72" s="108" t="s">
-        <v>6</v>
-      </c>
-      <c r="O72" s="108" t="s">
-        <v>6</v>
-      </c>
-      <c r="P72" s="108" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q72" s="108" t="s">
-        <v>6</v>
+      <c r="M72" s="230"/>
+      <c r="N72" s="230"/>
+      <c r="O72" s="230"/>
+      <c r="P72" s="231"/>
+      <c r="Q72" s="124">
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="R72" s="4"/>
       <c r="S72" s="4"/>
@@ -5088,46 +5924,33 @@
       <c r="Z72" s="4"/>
     </row>
     <row r="73" ht="15.75" customHeight="1">
-      <c r="A73" s="57" t="s">
-        <v>6</v>
-      </c>
-      <c r="B73" s="72" t="s">
-        <v>6</v>
-      </c>
-      <c r="C73" s="102" t="s">
-        <v>6</v>
-      </c>
-      <c r="D73" s="62" t="s">
-        <v>6</v>
-      </c>
-      <c r="E73" s="72" t="s">
-        <v>6</v>
-      </c>
-      <c r="F73" s="140" t="s">
-        <v>6</v>
-      </c>
-      <c r="G73" s="62"/>
-      <c r="H73" s="141" t="s">
-        <v>6</v>
-      </c>
-      <c r="I73" s="62"/>
+      <c r="A73" s="242"/>
+      <c r="B73" s="223"/>
+      <c r="C73" s="243" t="s">
+        <v>97</v>
+      </c>
+      <c r="D73" s="117" t="s">
+        <v>98</v>
+      </c>
+      <c r="E73" s="226" t="s">
+        <v>48</v>
+      </c>
+      <c r="F73" s="227">
+        <v>4.0</v>
+      </c>
+      <c r="G73" s="117"/>
+      <c r="H73" s="229"/>
+      <c r="I73" s="117"/>
       <c r="J73" s="4"/>
       <c r="K73" s="4"/>
       <c r="L73" s="4"/>
-      <c r="M73" s="108" t="s">
-        <v>6</v>
-      </c>
-      <c r="N73" s="108" t="s">
-        <v>6</v>
-      </c>
-      <c r="O73" s="108" t="s">
-        <v>6</v>
-      </c>
-      <c r="P73" s="108" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q73" s="108" t="s">
-        <v>6</v>
+      <c r="M73" s="230"/>
+      <c r="N73" s="230"/>
+      <c r="O73" s="230"/>
+      <c r="P73" s="231"/>
+      <c r="Q73" s="124">
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="R73" s="4"/>
       <c r="S73" s="4"/>
@@ -5140,46 +5963,33 @@
       <c r="Z73" s="4"/>
     </row>
     <row r="74" ht="15.75" customHeight="1">
-      <c r="A74" s="57" t="s">
-        <v>6</v>
-      </c>
-      <c r="B74" s="109" t="s">
-        <v>6</v>
-      </c>
-      <c r="C74" s="110" t="s">
-        <v>6</v>
-      </c>
-      <c r="D74" s="111" t="s">
-        <v>6</v>
-      </c>
-      <c r="E74" s="109" t="s">
-        <v>6</v>
-      </c>
-      <c r="F74" s="114" t="s">
-        <v>6</v>
-      </c>
-      <c r="G74" s="62"/>
-      <c r="H74" s="112" t="s">
-        <v>6</v>
-      </c>
-      <c r="I74" s="62"/>
+      <c r="A74" s="242"/>
+      <c r="B74" s="223"/>
+      <c r="C74" s="243" t="s">
+        <v>99</v>
+      </c>
+      <c r="D74" s="117" t="s">
+        <v>98</v>
+      </c>
+      <c r="E74" s="226" t="s">
+        <v>48</v>
+      </c>
+      <c r="F74" s="227">
+        <v>4.0</v>
+      </c>
+      <c r="G74" s="117"/>
+      <c r="H74" s="229"/>
+      <c r="I74" s="117"/>
       <c r="J74" s="4"/>
       <c r="K74" s="4"/>
       <c r="L74" s="4"/>
-      <c r="M74" s="113" t="s">
-        <v>6</v>
-      </c>
-      <c r="N74" s="113" t="s">
-        <v>6</v>
-      </c>
-      <c r="O74" s="113" t="s">
-        <v>6</v>
-      </c>
-      <c r="P74" s="113" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q74" s="113" t="s">
-        <v>6</v>
+      <c r="M74" s="230"/>
+      <c r="N74" s="230"/>
+      <c r="O74" s="230"/>
+      <c r="P74" s="231"/>
+      <c r="Q74" s="124">
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="R74" s="4"/>
       <c r="S74" s="4"/>
@@ -5192,153 +6002,113 @@
       <c r="Z74" s="4"/>
     </row>
     <row r="75" ht="15.75" customHeight="1">
-      <c r="A75" s="57" t="s">
-        <v>6</v>
-      </c>
-      <c r="B75" s="25"/>
-      <c r="C75" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="D75" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="E75" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="F75" s="70" t="s">
-        <v>6</v>
-      </c>
-      <c r="G75" s="139">
-        <v>0.0</v>
-      </c>
-      <c r="H75" s="71" t="s">
-        <v>6</v>
-      </c>
-      <c r="I75" s="81">
-        <v>0.0</v>
-      </c>
-      <c r="J75" s="32"/>
-      <c r="K75" s="32"/>
-      <c r="L75" s="32"/>
-      <c r="M75" s="82" t="s">
-        <v>6</v>
-      </c>
-      <c r="N75" s="82" t="s">
-        <v>6</v>
-      </c>
-      <c r="O75" s="82" t="s">
-        <v>6</v>
-      </c>
-      <c r="P75" s="82" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q75" s="82">
-        <v>0.0</v>
-      </c>
-      <c r="R75" s="32"/>
-      <c r="S75" s="32"/>
-      <c r="T75" s="32"/>
-      <c r="U75" s="32"/>
-      <c r="V75" s="32"/>
-      <c r="W75" s="32"/>
-      <c r="X75" s="32"/>
-      <c r="Y75" s="32"/>
-      <c r="Z75" s="32"/>
+      <c r="A75" s="242"/>
+      <c r="B75" s="140"/>
+      <c r="C75" s="192"/>
+      <c r="D75" s="126"/>
+      <c r="E75" s="244"/>
+      <c r="F75" s="245"/>
+      <c r="G75" s="246"/>
+      <c r="H75" s="219"/>
+      <c r="I75" s="246"/>
+      <c r="J75" s="4"/>
+      <c r="K75" s="4"/>
+      <c r="L75" s="4"/>
+      <c r="M75" s="247"/>
+      <c r="N75" s="247"/>
+      <c r="O75" s="247"/>
+      <c r="P75" s="248"/>
+      <c r="Q75" s="249">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R75" s="4"/>
+      <c r="S75" s="4"/>
+      <c r="T75" s="4"/>
+      <c r="U75" s="4"/>
+      <c r="V75" s="4"/>
+      <c r="W75" s="4"/>
+      <c r="X75" s="4"/>
+      <c r="Y75" s="4"/>
+      <c r="Z75" s="4"/>
     </row>
     <row r="76" ht="15.75" customHeight="1">
-      <c r="A76" s="57" t="s">
-        <v>6</v>
-      </c>
-      <c r="B76" s="72" t="s">
-        <v>6</v>
-      </c>
-      <c r="C76" s="102" t="s">
-        <v>6</v>
-      </c>
-      <c r="D76" s="62" t="s">
-        <v>6</v>
-      </c>
-      <c r="E76" s="72" t="s">
-        <v>6</v>
-      </c>
-      <c r="F76" s="140" t="s">
-        <v>6</v>
-      </c>
-      <c r="G76" s="62"/>
-      <c r="H76" s="141" t="s">
-        <v>6</v>
-      </c>
-      <c r="I76" s="62"/>
-      <c r="J76" s="4"/>
-      <c r="K76" s="4"/>
-      <c r="L76" s="4"/>
-      <c r="M76" s="108" t="s">
-        <v>6</v>
-      </c>
-      <c r="N76" s="108" t="s">
-        <v>6</v>
-      </c>
-      <c r="O76" s="108" t="s">
-        <v>6</v>
-      </c>
-      <c r="P76" s="108" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q76" s="108" t="s">
-        <v>6</v>
-      </c>
-      <c r="R76" s="4"/>
-      <c r="S76" s="4"/>
-      <c r="T76" s="4"/>
-      <c r="U76" s="4"/>
-      <c r="V76" s="4"/>
-      <c r="W76" s="4"/>
-      <c r="X76" s="4"/>
-      <c r="Y76" s="4"/>
-      <c r="Z76" s="4"/>
+      <c r="A76" s="250" t="s">
+        <v>5</v>
+      </c>
+      <c r="B76" s="251" t="s">
+        <v>6</v>
+      </c>
+      <c r="C76" s="252" t="s">
+        <v>6</v>
+      </c>
+      <c r="D76" s="252" t="s">
+        <v>6</v>
+      </c>
+      <c r="E76" s="253" t="s">
+        <v>6</v>
+      </c>
+      <c r="F76" s="252"/>
+      <c r="G76" s="254">
+        <f>SUM(G6,G8,G13,G21,G26,G29,G35,G37,G41,G44,G46,G49,G52,G57,G60,G63,G70)</f>
+        <v>186</v>
+      </c>
+      <c r="H76" s="255"/>
+      <c r="I76" s="254">
+        <f>SUM(I6,I8,I13,I21,I26,I29,I35,I37,I41,I44,I46,I49,I52,I57,I60,I63,I70)</f>
+        <v>151</v>
+      </c>
+      <c r="J76" s="40"/>
+      <c r="K76" s="40"/>
+      <c r="L76" s="40"/>
+      <c r="M76" s="256">
+        <f t="shared" ref="M76:Q76" si="15">SUM(M6,M8,M13,M21,M26,M29,M35,M37,M41,M44,M46,M49,M52,M57,M60,M63,M70)</f>
+        <v>42.75</v>
+      </c>
+      <c r="N76" s="254">
+        <f t="shared" si="15"/>
+        <v>19.25</v>
+      </c>
+      <c r="O76" s="254">
+        <f t="shared" si="15"/>
+        <v>29.75</v>
+      </c>
+      <c r="P76" s="257">
+        <f t="shared" si="15"/>
+        <v>59.25</v>
+      </c>
+      <c r="Q76" s="258">
+        <f t="shared" si="15"/>
+        <v>151</v>
+      </c>
+      <c r="R76" s="40"/>
+      <c r="S76" s="40"/>
+      <c r="T76" s="40"/>
+      <c r="U76" s="40"/>
+      <c r="V76" s="40"/>
+      <c r="W76" s="40"/>
+      <c r="X76" s="40"/>
+      <c r="Y76" s="40"/>
+      <c r="Z76" s="40"/>
     </row>
     <row r="77" ht="15.75" customHeight="1">
-      <c r="A77" s="57" t="s">
-        <v>6</v>
-      </c>
-      <c r="B77" s="72" t="s">
-        <v>6</v>
-      </c>
-      <c r="C77" s="102" t="s">
-        <v>6</v>
-      </c>
-      <c r="D77" s="62" t="s">
-        <v>6</v>
-      </c>
-      <c r="E77" s="72" t="s">
-        <v>6</v>
-      </c>
-      <c r="F77" s="140" t="s">
-        <v>6</v>
-      </c>
-      <c r="G77" s="62"/>
-      <c r="H77" s="141" t="s">
-        <v>6</v>
-      </c>
-      <c r="I77" s="62"/>
+      <c r="A77" s="259"/>
+      <c r="B77" s="4"/>
+      <c r="C77" s="4"/>
+      <c r="D77" s="4"/>
+      <c r="E77" s="4"/>
+      <c r="F77" s="4"/>
+      <c r="G77" s="4"/>
+      <c r="H77" s="4"/>
+      <c r="I77" s="4"/>
       <c r="J77" s="4"/>
       <c r="K77" s="4"/>
       <c r="L77" s="4"/>
-      <c r="M77" s="108" t="s">
-        <v>6</v>
-      </c>
-      <c r="N77" s="108" t="s">
-        <v>6</v>
-      </c>
-      <c r="O77" s="108" t="s">
-        <v>6</v>
-      </c>
-      <c r="P77" s="108" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q77" s="108" t="s">
-        <v>6</v>
-      </c>
+      <c r="M77" s="4"/>
+      <c r="N77" s="4"/>
+      <c r="O77" s="4"/>
+      <c r="P77" s="4"/>
+      <c r="Q77" s="4"/>
       <c r="R77" s="4"/>
       <c r="S77" s="4"/>
       <c r="T77" s="4"/>
@@ -5350,47 +6120,23 @@
       <c r="Z77" s="4"/>
     </row>
     <row r="78" ht="15.75" customHeight="1">
-      <c r="A78" s="57" t="s">
-        <v>6</v>
-      </c>
-      <c r="B78" s="72" t="s">
-        <v>6</v>
-      </c>
-      <c r="C78" s="102" t="s">
-        <v>6</v>
-      </c>
-      <c r="D78" s="62" t="s">
-        <v>6</v>
-      </c>
-      <c r="E78" s="72" t="s">
-        <v>6</v>
-      </c>
-      <c r="F78" s="140" t="s">
-        <v>6</v>
-      </c>
-      <c r="G78" s="62"/>
-      <c r="H78" s="141" t="s">
-        <v>6</v>
-      </c>
-      <c r="I78" s="62"/>
+      <c r="A78" s="260"/>
+      <c r="B78" s="4"/>
+      <c r="C78" s="4"/>
+      <c r="D78" s="4"/>
+      <c r="E78" s="4"/>
+      <c r="F78" s="4"/>
+      <c r="G78" s="4"/>
+      <c r="H78" s="4"/>
+      <c r="I78" s="4"/>
       <c r="J78" s="4"/>
       <c r="K78" s="4"/>
       <c r="L78" s="4"/>
-      <c r="M78" s="108" t="s">
-        <v>6</v>
-      </c>
-      <c r="N78" s="108" t="s">
-        <v>6</v>
-      </c>
-      <c r="O78" s="108" t="s">
-        <v>6</v>
-      </c>
-      <c r="P78" s="108" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q78" s="108" t="s">
-        <v>6</v>
-      </c>
+      <c r="M78" s="4"/>
+      <c r="N78" s="4"/>
+      <c r="O78" s="4"/>
+      <c r="P78" s="4"/>
+      <c r="Q78" s="4"/>
       <c r="R78" s="4"/>
       <c r="S78" s="4"/>
       <c r="T78" s="4"/>
@@ -5402,47 +6148,23 @@
       <c r="Z78" s="4"/>
     </row>
     <row r="79" ht="15.75" customHeight="1">
-      <c r="A79" s="57" t="s">
-        <v>6</v>
-      </c>
-      <c r="B79" s="72" t="s">
-        <v>6</v>
-      </c>
-      <c r="C79" s="102" t="s">
-        <v>6</v>
-      </c>
-      <c r="D79" s="62" t="s">
-        <v>6</v>
-      </c>
-      <c r="E79" s="72" t="s">
-        <v>6</v>
-      </c>
-      <c r="F79" s="140" t="s">
-        <v>6</v>
-      </c>
-      <c r="G79" s="62"/>
-      <c r="H79" s="141" t="s">
-        <v>6</v>
-      </c>
-      <c r="I79" s="62"/>
+      <c r="A79" s="260"/>
+      <c r="B79" s="4"/>
+      <c r="C79" s="4"/>
+      <c r="D79" s="4"/>
+      <c r="E79" s="4"/>
+      <c r="F79" s="4"/>
+      <c r="G79" s="4"/>
+      <c r="H79" s="4"/>
+      <c r="I79" s="4"/>
       <c r="J79" s="4"/>
       <c r="K79" s="4"/>
       <c r="L79" s="4"/>
-      <c r="M79" s="108" t="s">
-        <v>6</v>
-      </c>
-      <c r="N79" s="108" t="s">
-        <v>6</v>
-      </c>
-      <c r="O79" s="108" t="s">
-        <v>6</v>
-      </c>
-      <c r="P79" s="108" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q79" s="108" t="s">
-        <v>6</v>
-      </c>
+      <c r="M79" s="4"/>
+      <c r="N79" s="4"/>
+      <c r="O79" s="4"/>
+      <c r="P79" s="4"/>
+      <c r="Q79" s="4"/>
       <c r="R79" s="4"/>
       <c r="S79" s="4"/>
       <c r="T79" s="4"/>
@@ -5454,47 +6176,18 @@
       <c r="Z79" s="4"/>
     </row>
     <row r="80" ht="15.75" customHeight="1">
-      <c r="A80" s="57" t="s">
-        <v>6</v>
-      </c>
-      <c r="B80" s="109" t="s">
-        <v>6</v>
-      </c>
-      <c r="C80" s="110" t="s">
-        <v>6</v>
-      </c>
-      <c r="D80" s="111" t="s">
-        <v>6</v>
-      </c>
-      <c r="E80" s="109" t="s">
-        <v>6</v>
-      </c>
-      <c r="F80" s="114" t="s">
-        <v>6</v>
-      </c>
-      <c r="G80" s="62"/>
-      <c r="H80" s="112" t="s">
-        <v>6</v>
-      </c>
-      <c r="I80" s="62"/>
+      <c r="A80" s="260"/>
+      <c r="B80" s="4"/>
+      <c r="C80" s="4"/>
+      <c r="D80" s="4"/>
+      <c r="E80" s="4"/>
+      <c r="F80" s="4"/>
+      <c r="G80" s="4"/>
+      <c r="H80" s="4"/>
+      <c r="I80" s="4"/>
       <c r="J80" s="4"/>
       <c r="K80" s="4"/>
       <c r="L80" s="4"/>
-      <c r="M80" s="113" t="s">
-        <v>6</v>
-      </c>
-      <c r="N80" s="113" t="s">
-        <v>6</v>
-      </c>
-      <c r="O80" s="113" t="s">
-        <v>6</v>
-      </c>
-      <c r="P80" s="113" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q80" s="113" t="s">
-        <v>6</v>
-      </c>
       <c r="R80" s="4"/>
       <c r="S80" s="4"/>
       <c r="T80" s="4"/>
@@ -5506,87 +6199,51 @@
       <c r="Z80" s="4"/>
     </row>
     <row r="81" ht="15.75" customHeight="1">
-      <c r="A81" s="57" t="s">
-        <v>6</v>
-      </c>
-      <c r="B81" s="115"/>
-      <c r="C81" s="115" t="s">
-        <v>6</v>
-      </c>
-      <c r="D81" s="116" t="s">
-        <v>6</v>
-      </c>
-      <c r="E81" s="115" t="s">
-        <v>6</v>
-      </c>
-      <c r="F81" s="117" t="s">
-        <v>6</v>
-      </c>
-      <c r="G81" s="142">
-        <v>0.0</v>
-      </c>
-      <c r="H81" s="118" t="s">
-        <v>6</v>
-      </c>
-      <c r="I81" s="143">
-        <v>0.0</v>
-      </c>
-      <c r="J81" s="32"/>
-      <c r="K81" s="32"/>
-      <c r="L81" s="32"/>
-      <c r="M81" s="121" t="s">
-        <v>6</v>
-      </c>
-      <c r="N81" s="121" t="s">
-        <v>6</v>
-      </c>
-      <c r="O81" s="121" t="s">
-        <v>6</v>
-      </c>
-      <c r="P81" s="121" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q81" s="121">
-        <v>0.0</v>
-      </c>
-      <c r="R81" s="32"/>
-      <c r="S81" s="32"/>
-      <c r="T81" s="32"/>
-      <c r="U81" s="32"/>
-      <c r="V81" s="32"/>
-      <c r="W81" s="32"/>
-      <c r="X81" s="32"/>
-      <c r="Y81" s="32"/>
-      <c r="Z81" s="32"/>
+      <c r="A81" s="260"/>
+      <c r="B81" s="4"/>
+      <c r="C81" s="4"/>
+      <c r="D81" s="4"/>
+      <c r="E81" s="4"/>
+      <c r="F81" s="4"/>
+      <c r="G81" s="4"/>
+      <c r="H81" s="4"/>
+      <c r="I81" s="4"/>
+      <c r="J81" s="4"/>
+      <c r="K81" s="4"/>
+      <c r="L81" s="4"/>
+      <c r="M81" s="4"/>
+      <c r="N81" s="4"/>
+      <c r="O81" s="4"/>
+      <c r="P81" s="4"/>
+      <c r="Q81" s="4"/>
+      <c r="R81" s="4"/>
+      <c r="S81" s="4"/>
+      <c r="T81" s="4"/>
+      <c r="U81" s="4"/>
+      <c r="V81" s="4"/>
+      <c r="W81" s="4"/>
+      <c r="X81" s="4"/>
+      <c r="Y81" s="4"/>
+      <c r="Z81" s="4"/>
     </row>
     <row r="82" ht="15.75" customHeight="1">
-      <c r="A82" s="122" t="s">
-        <v>6</v>
-      </c>
-      <c r="B82" s="144" t="s">
-        <v>6</v>
-      </c>
-      <c r="C82" s="74" t="s">
-        <v>78</v>
-      </c>
-      <c r="D82" s="62" t="s">
-        <v>35</v>
-      </c>
-      <c r="E82" s="67"/>
-      <c r="F82" s="145"/>
-      <c r="G82" s="62"/>
-      <c r="H82" s="146" t="s">
-        <v>6</v>
-      </c>
-      <c r="I82" s="62"/>
+      <c r="A82" s="260"/>
+      <c r="B82" s="4"/>
+      <c r="C82" s="4"/>
+      <c r="D82" s="4"/>
+      <c r="E82" s="4"/>
+      <c r="F82" s="4"/>
+      <c r="G82" s="4"/>
+      <c r="H82" s="4"/>
+      <c r="I82" s="4"/>
       <c r="J82" s="4"/>
       <c r="K82" s="4"/>
       <c r="L82" s="4"/>
-      <c r="M82" s="106"/>
-      <c r="N82" s="106"/>
-      <c r="O82" s="106"/>
-      <c r="P82" s="106"/>
-      <c r="Q82" s="106"/>
+      <c r="M82" s="4"/>
+      <c r="N82" s="4"/>
+      <c r="O82" s="4"/>
+      <c r="P82" s="4"/>
+      <c r="Q82" s="4"/>
       <c r="R82" s="4"/>
       <c r="S82" s="4"/>
       <c r="T82" s="4"/>
@@ -5598,33 +6255,23 @@
       <c r="Z82" s="4"/>
     </row>
     <row r="83" ht="15.75" customHeight="1">
-      <c r="A83" s="128" t="s">
-        <v>6</v>
-      </c>
-      <c r="B83" s="109" t="s">
-        <v>6</v>
-      </c>
-      <c r="C83" s="74" t="s">
-        <v>59</v>
-      </c>
-      <c r="D83" s="74" t="s">
-        <v>35</v>
-      </c>
-      <c r="E83" s="75"/>
-      <c r="F83" s="129"/>
-      <c r="G83" s="62"/>
-      <c r="H83" s="112" t="s">
-        <v>6</v>
-      </c>
-      <c r="I83" s="62"/>
+      <c r="A83" s="260"/>
+      <c r="B83" s="4"/>
+      <c r="C83" s="4"/>
+      <c r="D83" s="4"/>
+      <c r="E83" s="4"/>
+      <c r="F83" s="4"/>
+      <c r="G83" s="4"/>
+      <c r="H83" s="4"/>
+      <c r="I83" s="4"/>
       <c r="J83" s="4"/>
       <c r="K83" s="4"/>
       <c r="L83" s="4"/>
-      <c r="M83" s="106"/>
-      <c r="N83" s="106"/>
-      <c r="O83" s="106"/>
-      <c r="P83" s="106"/>
-      <c r="Q83" s="106"/>
+      <c r="M83" s="4"/>
+      <c r="N83" s="4"/>
+      <c r="O83" s="4"/>
+      <c r="P83" s="4"/>
+      <c r="Q83" s="4"/>
       <c r="R83" s="4"/>
       <c r="S83" s="4"/>
       <c r="T83" s="4"/>
@@ -5636,68 +6283,35 @@
       <c r="Z83" s="4"/>
     </row>
     <row r="84" ht="15.75" customHeight="1">
-      <c r="A84" s="147" t="s">
-        <v>5</v>
-      </c>
-      <c r="B84" s="148" t="s">
-        <v>6</v>
-      </c>
-      <c r="C84" s="149" t="s">
-        <v>6</v>
-      </c>
-      <c r="D84" s="149" t="s">
-        <v>6</v>
-      </c>
-      <c r="E84" s="150" t="s">
-        <v>6</v>
-      </c>
-      <c r="F84" s="149">
-        <v>0.0</v>
-      </c>
-      <c r="G84" s="150">
-        <v>0.0</v>
-      </c>
-      <c r="H84" s="151">
-        <v>0.0</v>
-      </c>
-      <c r="I84" s="152">
-        <v>0.0</v>
-      </c>
-      <c r="J84" s="32"/>
-      <c r="K84" s="32"/>
-      <c r="L84" s="32"/>
-      <c r="M84" s="153">
-        <f>SUM(M81,M75,M70,M65,M59,M53,M49,M46,M42,M36,M30,M27,M22,M13,M8,M6)</f>
-        <v>33.75</v>
-      </c>
-      <c r="N84" s="153">
-        <f t="shared" ref="N84:O84" si="5">SUM(N81,N75,N70,N65,N59,N53,N49,N46,N42,N38,N36,N30,N27,N22,N13,N8,N6)</f>
-        <v>24.25</v>
-      </c>
-      <c r="O84" s="153">
-        <f t="shared" si="5"/>
-        <v>28.25</v>
-      </c>
-      <c r="P84" s="153">
-        <f>SUM(P81,P75,P70,P65,P59,P53,P49,P46,P42,P38,P36,P30,P22,P13,P8,P6)</f>
-        <v>43.25</v>
-      </c>
-      <c r="Q84" s="153">
-        <f>SUM(Q75,Q81,Q70,Q65,Q59,Q53,Q49,Q46,Q42,Q38,Q36,Q30,Q27,Q22,Q13,Q8,Q6)</f>
-        <v>117.5</v>
-      </c>
-      <c r="R84" s="32"/>
-      <c r="S84" s="32"/>
-      <c r="T84" s="32"/>
-      <c r="U84" s="32"/>
-      <c r="V84" s="32"/>
-      <c r="W84" s="32"/>
-      <c r="X84" s="32"/>
-      <c r="Y84" s="32"/>
-      <c r="Z84" s="32"/>
+      <c r="A84" s="260"/>
+      <c r="B84" s="4"/>
+      <c r="C84" s="4"/>
+      <c r="D84" s="4"/>
+      <c r="E84" s="4"/>
+      <c r="F84" s="4"/>
+      <c r="G84" s="4"/>
+      <c r="H84" s="4"/>
+      <c r="I84" s="4"/>
+      <c r="J84" s="4"/>
+      <c r="K84" s="4"/>
+      <c r="L84" s="4"/>
+      <c r="M84" s="4"/>
+      <c r="N84" s="4"/>
+      <c r="O84" s="4"/>
+      <c r="P84" s="4"/>
+      <c r="Q84" s="4"/>
+      <c r="R84" s="4"/>
+      <c r="S84" s="4"/>
+      <c r="T84" s="4"/>
+      <c r="U84" s="4"/>
+      <c r="V84" s="4"/>
+      <c r="W84" s="4"/>
+      <c r="X84" s="4"/>
+      <c r="Y84" s="4"/>
+      <c r="Z84" s="4"/>
     </row>
     <row r="85" ht="15.75" customHeight="1">
-      <c r="A85" s="154"/>
+      <c r="A85" s="260"/>
       <c r="B85" s="4"/>
       <c r="C85" s="4"/>
       <c r="D85" s="4"/>
@@ -5725,7 +6339,7 @@
       <c r="Z85" s="4"/>
     </row>
     <row r="86" ht="15.75" customHeight="1">
-      <c r="A86" s="155"/>
+      <c r="A86" s="260"/>
       <c r="B86" s="4"/>
       <c r="C86" s="4"/>
       <c r="D86" s="4"/>
@@ -5753,7 +6367,7 @@
       <c r="Z86" s="4"/>
     </row>
     <row r="87" ht="15.75" customHeight="1">
-      <c r="A87" s="155"/>
+      <c r="A87" s="260"/>
       <c r="B87" s="4"/>
       <c r="C87" s="4"/>
       <c r="D87" s="4"/>
@@ -5781,7 +6395,7 @@
       <c r="Z87" s="4"/>
     </row>
     <row r="88" ht="15.75" customHeight="1">
-      <c r="A88" s="155"/>
+      <c r="A88" s="260"/>
       <c r="B88" s="4"/>
       <c r="C88" s="4"/>
       <c r="D88" s="4"/>
@@ -5793,6 +6407,11 @@
       <c r="J88" s="4"/>
       <c r="K88" s="4"/>
       <c r="L88" s="4"/>
+      <c r="M88" s="4"/>
+      <c r="N88" s="4"/>
+      <c r="O88" s="4"/>
+      <c r="P88" s="4"/>
+      <c r="Q88" s="4"/>
       <c r="R88" s="4"/>
       <c r="S88" s="4"/>
       <c r="T88" s="4"/>
@@ -5804,7 +6423,7 @@
       <c r="Z88" s="4"/>
     </row>
     <row r="89" ht="15.75" customHeight="1">
-      <c r="A89" s="155"/>
+      <c r="A89" s="260"/>
       <c r="B89" s="4"/>
       <c r="C89" s="4"/>
       <c r="D89" s="4"/>
@@ -5832,7 +6451,7 @@
       <c r="Z89" s="4"/>
     </row>
     <row r="90" ht="15.75" customHeight="1">
-      <c r="A90" s="155"/>
+      <c r="A90" s="260"/>
       <c r="B90" s="4"/>
       <c r="C90" s="4"/>
       <c r="D90" s="4"/>
@@ -5860,7 +6479,7 @@
       <c r="Z90" s="4"/>
     </row>
     <row r="91" ht="15.75" customHeight="1">
-      <c r="A91" s="155"/>
+      <c r="A91" s="260"/>
       <c r="B91" s="4"/>
       <c r="C91" s="4"/>
       <c r="D91" s="4"/>
@@ -5888,7 +6507,7 @@
       <c r="Z91" s="4"/>
     </row>
     <row r="92" ht="15.75" customHeight="1">
-      <c r="A92" s="155"/>
+      <c r="A92" s="260"/>
       <c r="B92" s="4"/>
       <c r="C92" s="4"/>
       <c r="D92" s="4"/>
@@ -5916,7 +6535,7 @@
       <c r="Z92" s="4"/>
     </row>
     <row r="93" ht="15.75" customHeight="1">
-      <c r="A93" s="155"/>
+      <c r="A93" s="260"/>
       <c r="B93" s="4"/>
       <c r="C93" s="4"/>
       <c r="D93" s="4"/>
@@ -5944,7 +6563,7 @@
       <c r="Z93" s="4"/>
     </row>
     <row r="94" ht="15.75" customHeight="1">
-      <c r="A94" s="155"/>
+      <c r="A94" s="260"/>
       <c r="B94" s="4"/>
       <c r="C94" s="4"/>
       <c r="D94" s="4"/>
@@ -5972,7 +6591,7 @@
       <c r="Z94" s="4"/>
     </row>
     <row r="95" ht="15.75" customHeight="1">
-      <c r="A95" s="155"/>
+      <c r="A95" s="260"/>
       <c r="B95" s="4"/>
       <c r="C95" s="4"/>
       <c r="D95" s="4"/>
@@ -6000,7 +6619,7 @@
       <c r="Z95" s="4"/>
     </row>
     <row r="96" ht="15.75" customHeight="1">
-      <c r="A96" s="155"/>
+      <c r="A96" s="260"/>
       <c r="B96" s="4"/>
       <c r="C96" s="4"/>
       <c r="D96" s="4"/>
@@ -6028,7 +6647,7 @@
       <c r="Z96" s="4"/>
     </row>
     <row r="97" ht="15.75" customHeight="1">
-      <c r="A97" s="155"/>
+      <c r="A97" s="260"/>
       <c r="B97" s="4"/>
       <c r="C97" s="4"/>
       <c r="D97" s="4"/>
@@ -6056,7 +6675,7 @@
       <c r="Z97" s="4"/>
     </row>
     <row r="98" ht="15.75" customHeight="1">
-      <c r="A98" s="155"/>
+      <c r="A98" s="260"/>
       <c r="B98" s="4"/>
       <c r="C98" s="4"/>
       <c r="D98" s="4"/>
@@ -6084,7 +6703,7 @@
       <c r="Z98" s="4"/>
     </row>
     <row r="99" ht="15.75" customHeight="1">
-      <c r="A99" s="155"/>
+      <c r="A99" s="260"/>
       <c r="B99" s="4"/>
       <c r="C99" s="4"/>
       <c r="D99" s="4"/>
@@ -6112,7 +6731,7 @@
       <c r="Z99" s="4"/>
     </row>
     <row r="100" ht="15.75" customHeight="1">
-      <c r="A100" s="155"/>
+      <c r="A100" s="260"/>
       <c r="B100" s="4"/>
       <c r="C100" s="4"/>
       <c r="D100" s="4"/>
@@ -6140,7 +6759,7 @@
       <c r="Z100" s="4"/>
     </row>
     <row r="101" ht="15.75" customHeight="1">
-      <c r="A101" s="155"/>
+      <c r="A101" s="260"/>
       <c r="B101" s="4"/>
       <c r="C101" s="4"/>
       <c r="D101" s="4"/>
@@ -6168,7 +6787,7 @@
       <c r="Z101" s="4"/>
     </row>
     <row r="102" ht="15.75" customHeight="1">
-      <c r="A102" s="155"/>
+      <c r="A102" s="260"/>
       <c r="B102" s="4"/>
       <c r="C102" s="4"/>
       <c r="D102" s="4"/>
@@ -6196,7 +6815,7 @@
       <c r="Z102" s="4"/>
     </row>
     <row r="103" ht="15.75" customHeight="1">
-      <c r="A103" s="155"/>
+      <c r="A103" s="260"/>
       <c r="B103" s="4"/>
       <c r="C103" s="4"/>
       <c r="D103" s="4"/>
@@ -6224,7 +6843,7 @@
       <c r="Z103" s="4"/>
     </row>
     <row r="104" ht="15.75" customHeight="1">
-      <c r="A104" s="155"/>
+      <c r="A104" s="260"/>
       <c r="B104" s="4"/>
       <c r="C104" s="4"/>
       <c r="D104" s="4"/>
@@ -6252,7 +6871,7 @@
       <c r="Z104" s="4"/>
     </row>
     <row r="105" ht="15.75" customHeight="1">
-      <c r="A105" s="155"/>
+      <c r="A105" s="260"/>
       <c r="B105" s="4"/>
       <c r="C105" s="4"/>
       <c r="D105" s="4"/>
@@ -6280,7 +6899,7 @@
       <c r="Z105" s="4"/>
     </row>
     <row r="106" ht="15.75" customHeight="1">
-      <c r="A106" s="155"/>
+      <c r="A106" s="260"/>
       <c r="B106" s="4"/>
       <c r="C106" s="4"/>
       <c r="D106" s="4"/>
@@ -6308,7 +6927,7 @@
       <c r="Z106" s="4"/>
     </row>
     <row r="107" ht="15.75" customHeight="1">
-      <c r="A107" s="155"/>
+      <c r="A107" s="260"/>
       <c r="B107" s="4"/>
       <c r="C107" s="4"/>
       <c r="D107" s="4"/>
@@ -6336,7 +6955,7 @@
       <c r="Z107" s="4"/>
     </row>
     <row r="108" ht="15.75" customHeight="1">
-      <c r="A108" s="155"/>
+      <c r="A108" s="260"/>
       <c r="B108" s="4"/>
       <c r="C108" s="4"/>
       <c r="D108" s="4"/>
@@ -6364,7 +6983,7 @@
       <c r="Z108" s="4"/>
     </row>
     <row r="109" ht="15.75" customHeight="1">
-      <c r="A109" s="155"/>
+      <c r="A109" s="260"/>
       <c r="B109" s="4"/>
       <c r="C109" s="4"/>
       <c r="D109" s="4"/>
@@ -6392,7 +7011,7 @@
       <c r="Z109" s="4"/>
     </row>
     <row r="110" ht="15.75" customHeight="1">
-      <c r="A110" s="155"/>
+      <c r="A110" s="261"/>
       <c r="B110" s="4"/>
       <c r="C110" s="4"/>
       <c r="D110" s="4"/>
@@ -6420,7 +7039,7 @@
       <c r="Z110" s="4"/>
     </row>
     <row r="111" ht="15.75" customHeight="1">
-      <c r="A111" s="155"/>
+      <c r="A111" s="4"/>
       <c r="B111" s="4"/>
       <c r="C111" s="4"/>
       <c r="D111" s="4"/>
@@ -6448,7 +7067,7 @@
       <c r="Z111" s="4"/>
     </row>
     <row r="112" ht="15.75" customHeight="1">
-      <c r="A112" s="155"/>
+      <c r="A112" s="4"/>
       <c r="B112" s="4"/>
       <c r="C112" s="4"/>
       <c r="D112" s="4"/>
@@ -6476,7 +7095,7 @@
       <c r="Z112" s="4"/>
     </row>
     <row r="113" ht="15.75" customHeight="1">
-      <c r="A113" s="155"/>
+      <c r="A113" s="4"/>
       <c r="B113" s="4"/>
       <c r="C113" s="4"/>
       <c r="D113" s="4"/>
@@ -6504,7 +7123,7 @@
       <c r="Z113" s="4"/>
     </row>
     <row r="114" ht="15.75" customHeight="1">
-      <c r="A114" s="155"/>
+      <c r="A114" s="4"/>
       <c r="B114" s="4"/>
       <c r="C114" s="4"/>
       <c r="D114" s="4"/>
@@ -6532,7 +7151,7 @@
       <c r="Z114" s="4"/>
     </row>
     <row r="115" ht="15.75" customHeight="1">
-      <c r="A115" s="155"/>
+      <c r="A115" s="4"/>
       <c r="B115" s="4"/>
       <c r="C115" s="4"/>
       <c r="D115" s="4"/>
@@ -6560,7 +7179,7 @@
       <c r="Z115" s="4"/>
     </row>
     <row r="116" ht="15.75" customHeight="1">
-      <c r="A116" s="155"/>
+      <c r="A116" s="4"/>
       <c r="B116" s="4"/>
       <c r="C116" s="4"/>
       <c r="D116" s="4"/>
@@ -6588,7 +7207,7 @@
       <c r="Z116" s="4"/>
     </row>
     <row r="117" ht="15.75" customHeight="1">
-      <c r="A117" s="155"/>
+      <c r="A117" s="4"/>
       <c r="B117" s="4"/>
       <c r="C117" s="4"/>
       <c r="D117" s="4"/>
@@ -6616,7 +7235,7 @@
       <c r="Z117" s="4"/>
     </row>
     <row r="118" ht="15.75" customHeight="1">
-      <c r="A118" s="156"/>
+      <c r="A118" s="4"/>
       <c r="B118" s="4"/>
       <c r="C118" s="4"/>
       <c r="D118" s="4"/>
@@ -6952,15 +7571,33 @@
       <c r="Z129" s="4"/>
     </row>
     <row r="130" ht="15.75" customHeight="1">
-      <c r="A130" s="4"/>
-      <c r="B130" s="4"/>
-      <c r="C130" s="4"/>
-      <c r="D130" s="4"/>
-      <c r="E130" s="4"/>
-      <c r="F130" s="4"/>
-      <c r="G130" s="4"/>
-      <c r="H130" s="4"/>
-      <c r="I130" s="4"/>
+      <c r="A130" s="251" t="s">
+        <v>5</v>
+      </c>
+      <c r="B130" s="251" t="s">
+        <v>6</v>
+      </c>
+      <c r="C130" s="252" t="s">
+        <v>6</v>
+      </c>
+      <c r="D130" s="252" t="s">
+        <v>6</v>
+      </c>
+      <c r="E130" s="253" t="s">
+        <v>6</v>
+      </c>
+      <c r="F130" s="252">
+        <v>0.0</v>
+      </c>
+      <c r="G130" s="253">
+        <v>0.0</v>
+      </c>
+      <c r="H130" s="252">
+        <v>0.0</v>
+      </c>
+      <c r="I130" s="262">
+        <v>0.0</v>
+      </c>
       <c r="J130" s="4"/>
       <c r="K130" s="4"/>
       <c r="L130" s="4"/>
@@ -7176,33 +7813,15 @@
       <c r="Z137" s="4"/>
     </row>
     <row r="138" ht="15.75" customHeight="1">
-      <c r="A138" s="148" t="s">
-        <v>5</v>
-      </c>
-      <c r="B138" s="148" t="s">
-        <v>6</v>
-      </c>
-      <c r="C138" s="149" t="s">
-        <v>6</v>
-      </c>
-      <c r="D138" s="149" t="s">
-        <v>6</v>
-      </c>
-      <c r="E138" s="150" t="s">
-        <v>6</v>
-      </c>
-      <c r="F138" s="149">
-        <v>0.0</v>
-      </c>
-      <c r="G138" s="150">
-        <v>0.0</v>
-      </c>
-      <c r="H138" s="149">
-        <v>0.0</v>
-      </c>
-      <c r="I138" s="157">
-        <v>0.0</v>
-      </c>
+      <c r="A138" s="4"/>
+      <c r="B138" s="4"/>
+      <c r="C138" s="4"/>
+      <c r="D138" s="4"/>
+      <c r="E138" s="4"/>
+      <c r="F138" s="4"/>
+      <c r="G138" s="4"/>
+      <c r="H138" s="4"/>
+      <c r="I138" s="4"/>
       <c r="J138" s="4"/>
       <c r="K138" s="4"/>
       <c r="L138" s="4"/>
@@ -30797,234 +31416,10 @@
       <c r="Y980" s="4"/>
       <c r="Z980" s="4"/>
     </row>
-    <row r="981" ht="15.75" customHeight="1">
-      <c r="A981" s="4"/>
-      <c r="B981" s="4"/>
-      <c r="C981" s="4"/>
-      <c r="D981" s="4"/>
-      <c r="E981" s="4"/>
-      <c r="F981" s="4"/>
-      <c r="G981" s="4"/>
-      <c r="H981" s="4"/>
-      <c r="I981" s="4"/>
-      <c r="J981" s="4"/>
-      <c r="K981" s="4"/>
-      <c r="L981" s="4"/>
-      <c r="M981" s="4"/>
-      <c r="N981" s="4"/>
-      <c r="O981" s="4"/>
-      <c r="P981" s="4"/>
-      <c r="Q981" s="4"/>
-      <c r="R981" s="4"/>
-      <c r="S981" s="4"/>
-      <c r="T981" s="4"/>
-      <c r="U981" s="4"/>
-      <c r="V981" s="4"/>
-      <c r="W981" s="4"/>
-      <c r="X981" s="4"/>
-      <c r="Y981" s="4"/>
-      <c r="Z981" s="4"/>
-    </row>
-    <row r="982" ht="15.75" customHeight="1">
-      <c r="A982" s="4"/>
-      <c r="B982" s="4"/>
-      <c r="C982" s="4"/>
-      <c r="D982" s="4"/>
-      <c r="E982" s="4"/>
-      <c r="F982" s="4"/>
-      <c r="G982" s="4"/>
-      <c r="H982" s="4"/>
-      <c r="I982" s="4"/>
-      <c r="J982" s="4"/>
-      <c r="K982" s="4"/>
-      <c r="L982" s="4"/>
-      <c r="M982" s="4"/>
-      <c r="N982" s="4"/>
-      <c r="O982" s="4"/>
-      <c r="P982" s="4"/>
-      <c r="Q982" s="4"/>
-      <c r="R982" s="4"/>
-      <c r="S982" s="4"/>
-      <c r="T982" s="4"/>
-      <c r="U982" s="4"/>
-      <c r="V982" s="4"/>
-      <c r="W982" s="4"/>
-      <c r="X982" s="4"/>
-      <c r="Y982" s="4"/>
-      <c r="Z982" s="4"/>
-    </row>
-    <row r="983" ht="15.75" customHeight="1">
-      <c r="A983" s="4"/>
-      <c r="B983" s="4"/>
-      <c r="C983" s="4"/>
-      <c r="D983" s="4"/>
-      <c r="E983" s="4"/>
-      <c r="F983" s="4"/>
-      <c r="G983" s="4"/>
-      <c r="H983" s="4"/>
-      <c r="I983" s="4"/>
-      <c r="J983" s="4"/>
-      <c r="K983" s="4"/>
-      <c r="L983" s="4"/>
-      <c r="M983" s="4"/>
-      <c r="N983" s="4"/>
-      <c r="O983" s="4"/>
-      <c r="P983" s="4"/>
-      <c r="Q983" s="4"/>
-      <c r="R983" s="4"/>
-      <c r="S983" s="4"/>
-      <c r="T983" s="4"/>
-      <c r="U983" s="4"/>
-      <c r="V983" s="4"/>
-      <c r="W983" s="4"/>
-      <c r="X983" s="4"/>
-      <c r="Y983" s="4"/>
-      <c r="Z983" s="4"/>
-    </row>
-    <row r="984" ht="15.75" customHeight="1">
-      <c r="A984" s="4"/>
-      <c r="B984" s="4"/>
-      <c r="C984" s="4"/>
-      <c r="D984" s="4"/>
-      <c r="E984" s="4"/>
-      <c r="F984" s="4"/>
-      <c r="G984" s="4"/>
-      <c r="H984" s="4"/>
-      <c r="I984" s="4"/>
-      <c r="J984" s="4"/>
-      <c r="K984" s="4"/>
-      <c r="L984" s="4"/>
-      <c r="M984" s="4"/>
-      <c r="N984" s="4"/>
-      <c r="O984" s="4"/>
-      <c r="P984" s="4"/>
-      <c r="Q984" s="4"/>
-      <c r="R984" s="4"/>
-      <c r="S984" s="4"/>
-      <c r="T984" s="4"/>
-      <c r="U984" s="4"/>
-      <c r="V984" s="4"/>
-      <c r="W984" s="4"/>
-      <c r="X984" s="4"/>
-      <c r="Y984" s="4"/>
-      <c r="Z984" s="4"/>
-    </row>
-    <row r="985" ht="15.75" customHeight="1">
-      <c r="A985" s="4"/>
-      <c r="B985" s="4"/>
-      <c r="C985" s="4"/>
-      <c r="D985" s="4"/>
-      <c r="E985" s="4"/>
-      <c r="F985" s="4"/>
-      <c r="G985" s="4"/>
-      <c r="H985" s="4"/>
-      <c r="I985" s="4"/>
-      <c r="J985" s="4"/>
-      <c r="K985" s="4"/>
-      <c r="L985" s="4"/>
-      <c r="M985" s="4"/>
-      <c r="N985" s="4"/>
-      <c r="O985" s="4"/>
-      <c r="P985" s="4"/>
-      <c r="Q985" s="4"/>
-      <c r="R985" s="4"/>
-      <c r="S985" s="4"/>
-      <c r="T985" s="4"/>
-      <c r="U985" s="4"/>
-      <c r="V985" s="4"/>
-      <c r="W985" s="4"/>
-      <c r="X985" s="4"/>
-      <c r="Y985" s="4"/>
-      <c r="Z985" s="4"/>
-    </row>
-    <row r="986" ht="15.75" customHeight="1">
-      <c r="A986" s="4"/>
-      <c r="B986" s="4"/>
-      <c r="C986" s="4"/>
-      <c r="D986" s="4"/>
-      <c r="E986" s="4"/>
-      <c r="F986" s="4"/>
-      <c r="G986" s="4"/>
-      <c r="H986" s="4"/>
-      <c r="I986" s="4"/>
-      <c r="J986" s="4"/>
-      <c r="K986" s="4"/>
-      <c r="L986" s="4"/>
-      <c r="M986" s="4"/>
-      <c r="N986" s="4"/>
-      <c r="O986" s="4"/>
-      <c r="P986" s="4"/>
-      <c r="Q986" s="4"/>
-      <c r="R986" s="4"/>
-      <c r="S986" s="4"/>
-      <c r="T986" s="4"/>
-      <c r="U986" s="4"/>
-      <c r="V986" s="4"/>
-      <c r="W986" s="4"/>
-      <c r="X986" s="4"/>
-      <c r="Y986" s="4"/>
-      <c r="Z986" s="4"/>
-    </row>
-    <row r="987" ht="15.75" customHeight="1">
-      <c r="A987" s="4"/>
-      <c r="B987" s="4"/>
-      <c r="C987" s="4"/>
-      <c r="D987" s="4"/>
-      <c r="E987" s="4"/>
-      <c r="F987" s="4"/>
-      <c r="G987" s="4"/>
-      <c r="H987" s="4"/>
-      <c r="I987" s="4"/>
-      <c r="J987" s="4"/>
-      <c r="K987" s="4"/>
-      <c r="L987" s="4"/>
-      <c r="M987" s="4"/>
-      <c r="N987" s="4"/>
-      <c r="O987" s="4"/>
-      <c r="P987" s="4"/>
-      <c r="Q987" s="4"/>
-      <c r="R987" s="4"/>
-      <c r="S987" s="4"/>
-      <c r="T987" s="4"/>
-      <c r="U987" s="4"/>
-      <c r="V987" s="4"/>
-      <c r="W987" s="4"/>
-      <c r="X987" s="4"/>
-      <c r="Y987" s="4"/>
-      <c r="Z987" s="4"/>
-    </row>
-    <row r="988" ht="15.75" customHeight="1">
-      <c r="A988" s="4"/>
-      <c r="B988" s="4"/>
-      <c r="C988" s="4"/>
-      <c r="D988" s="4"/>
-      <c r="E988" s="4"/>
-      <c r="F988" s="4"/>
-      <c r="G988" s="4"/>
-      <c r="H988" s="4"/>
-      <c r="I988" s="4"/>
-      <c r="J988" s="4"/>
-      <c r="K988" s="4"/>
-      <c r="L988" s="4"/>
-      <c r="M988" s="4"/>
-      <c r="N988" s="4"/>
-      <c r="O988" s="4"/>
-      <c r="P988" s="4"/>
-      <c r="Q988" s="4"/>
-      <c r="R988" s="4"/>
-      <c r="S988" s="4"/>
-      <c r="T988" s="4"/>
-      <c r="U988" s="4"/>
-      <c r="V988" s="4"/>
-      <c r="W988" s="4"/>
-      <c r="X988" s="4"/>
-      <c r="Y988" s="4"/>
-      <c r="Z988" s="4"/>
-    </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{1A6911CB-204D-41E4-93B8-C35F3605E52C}" filter="1" showAutoFilter="1">
-      <autoFilter ref="$A$2:$I$84"/>
+    <customSheetView guid="{80E05015-D7FE-4065-A8EB-96C524F604A6}" filter="1" showAutoFilter="1">
+      <autoFilter ref="$A$2:$I$76"/>
       <extLst>
         <ext uri="GoogleSheetsCustomDataVersion1">
           <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" filterViewId="58594963"/>

--- a/Team_10_Estimated_Efforts.xlsx
+++ b/Team_10_Estimated_Efforts.xlsx
@@ -6,22 +6,22 @@
     <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="Z_80E05015_D7FE_4065_A8EB_96C524F604A6_.wvu.FilterData">Sheet1!$A$2:$I$76</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_EC252330_FE26_4A13_B804_79012C576422_.wvu.FilterData">Sheet1!$A$2:$I$70</definedName>
   </definedNames>
   <calcPr/>
   <customWorkbookViews>
-    <customWorkbookView activeSheetId="0" maximized="1" tabRatio="600" windowHeight="0" windowWidth="0" guid="{80E05015-D7FE-4065-A8EB-96C524F604A6}" name="Filter 1"/>
+    <customWorkbookView activeSheetId="0" maximized="1" tabRatio="600" windowHeight="0" windowWidth="0" guid="{EC252330-FE26-4A13-B804-79012C576422}" name="Filter 1"/>
   </customWorkbookViews>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mh5Llrx+6KPSUZFkLSSEGYaJUM8qQ=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mhNXYaH7wzzgyBN6W1aplAH52bfsw=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="101">
   <si>
     <t>Task Name: (Dependencies top to bottom)</t>
   </si>
@@ -175,7 +175,7 @@
     <t>Developers, Requirements Engineer</t>
   </si>
   <si>
-    <t>Joshua, Kendal</t>
+    <t>Kendal, Alec</t>
   </si>
   <si>
     <t>Forming</t>
@@ -315,6 +315,9 @@
     <t>Prepare for Next Iteration</t>
   </si>
   <si>
+    <t>Joshua, Kendal</t>
+  </si>
+  <si>
     <t>Implemenation</t>
   </si>
   <si>
@@ -371,9 +374,6 @@
     <t>Add unit testing framework</t>
   </si>
   <si>
-    <t>Kendal, Alec</t>
-  </si>
-  <si>
     <t>Implement database connection</t>
   </si>
   <si>
@@ -384,6 +384,9 @@
   </si>
   <si>
     <t>Iteration 5:</t>
+  </si>
+  <si>
+    <t> 3</t>
   </si>
   <si>
     <t>Implement backend database interface</t>
@@ -405,7 +408,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="20">
+  <fonts count="17">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -449,27 +452,13 @@
       <name val="Arial"/>
     </font>
     <font>
-      <b/>
-      <sz val="12.0"/>
-      <name val="Arial"/>
-    </font>
-    <font>
       <sz val="2.0"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="12.0"/>
-      <name val="Arial"/>
-    </font>
-    <font>
       <b/>
       <color theme="1"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10.0"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -485,10 +474,11 @@
       <name val="Arial"/>
     </font>
     <font>
+      <b/>
+      <sz val="12.0"/>
       <name val="Arial"/>
     </font>
     <font>
-      <strike/>
       <sz val="12.0"/>
       <name val="Arial"/>
     </font>
@@ -548,7 +538,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="60">
+  <borders count="56">
     <border/>
     <border>
       <left style="hair">
@@ -1012,45 +1002,6 @@
       <top/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="dotted">
-        <color rgb="FF999999"/>
-      </top>
-      <bottom/>
-    </border>
-    <border>
-      <left style="hair">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="dotted">
-        <color rgb="FF999999"/>
-      </top>
-      <bottom/>
-    </border>
-    <border>
-      <left style="hair">
-        <color rgb="FF000000"/>
-      </left>
-      <top style="dotted">
-        <color rgb="FF999999"/>
-      </top>
-      <bottom/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FFF6B26B"/>
-      </left>
-      <right style="hair">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="dotted">
-        <color rgb="FF999999"/>
-      </top>
-      <bottom/>
-    </border>
-    <border>
       <left style="hair">
         <color rgb="FF000000"/>
       </left>
@@ -1114,7 +1065,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="263">
+  <cellXfs count="237">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1148,10 +1099,10 @@
     <xf borderId="3" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="5" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="5" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="6" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -1166,10 +1117,10 @@
     <xf borderId="8" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="9" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="9" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="10" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="10" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="11" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
@@ -1187,171 +1138,168 @@
     <xf borderId="7" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="12" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="12" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="13" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="13" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="14" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="14" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="15" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="15" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="16" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="16" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="13" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="13" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="17" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="17" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="17" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="13" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="13" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="12" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="12" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="17" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="17" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="12" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="12" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="14" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="14" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="15" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="18" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="18" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="19" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="19" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="19" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="19" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="19" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="18" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="18" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="19" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="19" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="18" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="18" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="20" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="20" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="21" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="17" fillId="4" fontId="12" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="12" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="14" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="17" fillId="4" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="14" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="15" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="22" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="22" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="23" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="23" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="23" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="23" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="23" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="22" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="22" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="23" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="23" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="22" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="22" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="24" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="24" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="25" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="26" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="26" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="27" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="27" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="27" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="27" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="27" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="26" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="26" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="27" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="27" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="26" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="26" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="28" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="28" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="29" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="30" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="30" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="31" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="31" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="32" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="30" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="30" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="33" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="33" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="33" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="33" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="33" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="30" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="30" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="33" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="33" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="34" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="34" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="35" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="35" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="36" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -1366,90 +1314,72 @@
     <xf borderId="39" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="24" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="24" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="27" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="27" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="27" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="27" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="27" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="28" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="28" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="27" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="27" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="6" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="33" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="33" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="33" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="33" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="33" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" shrinkToFit="0" wrapText="1"/>
+    <xf borderId="16" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="31" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="17" fillId="4" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="16" fillId="5" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="17" fillId="4" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="40" fillId="4" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="40" fillId="4" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf borderId="13" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="14" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="41" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="42" fillId="5" fontId="15" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="42" fillId="5" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="42" fillId="5" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="42" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="23" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="42" fillId="5" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="42" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="23" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="42" fillId="5" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="42" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0"/>
     </xf>
-    <xf borderId="22" fillId="5" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="22" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="23" fillId="5" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="23" fillId="5" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="23" fillId="5" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="23" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="43" fillId="5" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="43" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="25" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="27" fillId="5" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="27" fillId="5" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="27" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -1464,19 +1394,19 @@
     <xf borderId="27" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="26" fillId="5" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="26" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="27" fillId="5" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="27" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="44" fillId="5" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="44" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="29" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="33" fillId="5" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="33" fillId="5" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="33" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -1491,18 +1421,18 @@
     <xf borderId="33" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="30" fillId="5" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="33" fillId="5" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="30" fillId="5" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="33" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="33" fillId="5" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="45" fillId="5" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="33" fillId="5" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="45" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="32" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="23" fillId="5" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="23" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="23" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -1514,10 +1444,10 @@
     <xf borderId="23" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="24" fillId="5" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="24" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="33" fillId="5" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="33" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="33" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -1529,10 +1459,10 @@
     <xf borderId="30" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="30" fillId="5" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="30" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="31" fillId="5" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="31" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="41" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -1547,46 +1477,40 @@
     <xf borderId="23" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="22" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="22" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="22" fillId="3" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="24" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="22" fillId="3" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="24" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="25" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="27" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="26" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="26" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="26" fillId="3" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="28" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="26" fillId="3" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="28" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="29" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="46" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="46" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="33" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="33" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="46" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="46" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="30" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="30" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="30" fillId="3" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="31" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="30" fillId="3" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="31" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="32" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -1604,22 +1528,19 @@
     <xf borderId="19" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="18" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="18" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="18" fillId="3" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="20" fillId="3" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="21" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="18" fillId="3" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="20" fillId="3" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="21" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="22" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="43" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="43" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="25" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="27" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
@@ -1627,209 +1548,167 @@
     <xf borderId="26" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="29" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
     <xf borderId="33" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="30" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="32" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
     <xf borderId="41" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="23" fillId="5" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="23" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="23" fillId="5" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="23" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="23" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="22" fillId="5" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="22" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="43" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="23" fillId="5" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="23" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="22" fillId="5" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="33" fillId="5" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="22" fillId="5" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="33" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="33" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="33" fillId="5" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="19" fillId="5" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="19" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="19" fillId="5" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="19" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="19" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="19" fillId="5" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="19" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="18" fillId="5" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="18" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="47" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="19" fillId="5" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="19" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="18" fillId="5" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="18" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="18" fillId="5" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="20" fillId="5" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="18" fillId="5" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="20" fillId="5" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="21" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="41" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="23" fillId="5" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="33" fillId="5" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="33" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="45" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="41" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="23" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="23" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="23" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="23" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="24" fillId="3" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="28" fillId="3" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="12" fillId="4" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="24" fillId="3" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="28" fillId="3" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="41" fillId="5" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf borderId="23" fillId="5" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="24" fillId="5" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="30" fillId="5" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="22" fillId="5" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="24" fillId="5" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="13" fillId="4" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="14" fillId="4" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="24" fillId="5" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="27" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="33" fillId="5" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="31" fillId="5" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="13" fillId="4" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="14" fillId="4" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="27" fillId="5" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="27" fillId="5" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="27" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="27" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="27" fillId="5" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="27" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="26" fillId="5" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="26" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="44" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="27" fillId="5" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" shrinkToFit="0" wrapText="1"/>
+    <xf borderId="27" fillId="5" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="26" fillId="5" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="28" fillId="5" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="27" fillId="5" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf borderId="26" fillId="5" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="46" fillId="5" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="46" fillId="5" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="46" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="37" fillId="5" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="46" fillId="5" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" shrinkToFit="0" wrapText="1"/>
+    <xf borderId="26" fillId="5" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="28" fillId="5" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="12" fillId="4" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="48" fillId="5" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="48" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="34" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="48" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" shrinkToFit="0" wrapText="1"/>
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="49" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="27" fillId="5" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="27" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="50" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf borderId="28" fillId="5" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="50" fillId="6" fontId="14" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
+    <xf borderId="6" fillId="6" fontId="14" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="7" fillId="6" fontId="14" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="8" fillId="6" fontId="14" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="12" fillId="6" fontId="15" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="7" fillId="6" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="30" fillId="5" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="50" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="51" fillId="6" fontId="15" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="52" fillId="6" fontId="15" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="15" fillId="6" fontId="15" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="53" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="51" fillId="5" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="52" fillId="5" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="53" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="54" fillId="6" fontId="17" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="6" fillId="6" fontId="17" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="7" fillId="6" fontId="17" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="8" fillId="6" fontId="17" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="12" fillId="6" fontId="18" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="7" fillId="6" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf borderId="55" fillId="6" fontId="18" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="56" fillId="6" fontId="18" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="15" fillId="6" fontId="18" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="57" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="54" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="58" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="55" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="59" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="12" fillId="6" fontId="19" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="12" fillId="6" fontId="16" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -2426,7 +2305,7 @@
       <c r="F8" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="G8" s="51">
+      <c r="G8" s="35">
         <f>SUM(F9:F12)</f>
         <v>9</v>
       </c>
@@ -2448,10 +2327,10 @@
       <c r="O8" s="31">
         <v>2.25</v>
       </c>
-      <c r="P8" s="52">
+      <c r="P8" s="51">
         <v>2.25</v>
       </c>
-      <c r="Q8" s="53">
+      <c r="Q8" s="52">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
@@ -2469,46 +2348,46 @@
       <c r="A9" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="54" t="s">
+      <c r="B9" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="55" t="s">
+      <c r="C9" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="56" t="s">
+      <c r="D9" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="57" t="s">
+      <c r="E9" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="58">
+      <c r="F9" s="57">
         <v>1.0</v>
       </c>
-      <c r="G9" s="57" t="s">
+      <c r="G9" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="59">
+      <c r="H9" s="58">
         <v>1.0</v>
       </c>
-      <c r="I9" s="57" t="s">
+      <c r="I9" s="56" t="s">
         <v>6</v>
       </c>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
-      <c r="M9" s="60">
+      <c r="M9" s="59">
         <v>0.25</v>
       </c>
-      <c r="N9" s="60">
+      <c r="N9" s="59">
         <v>0.25</v>
       </c>
-      <c r="O9" s="60">
+      <c r="O9" s="59">
         <v>0.25</v>
       </c>
-      <c r="P9" s="61">
+      <c r="P9" s="60">
         <v>0.25</v>
       </c>
-      <c r="Q9" s="62">
+      <c r="Q9" s="61">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -2526,46 +2405,46 @@
       <c r="A10" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="63" t="s">
+      <c r="B10" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="64" t="s">
+      <c r="C10" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="65" t="s">
+      <c r="D10" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="66" t="s">
+      <c r="E10" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="F10" s="67">
+      <c r="F10" s="66">
         <v>4.0</v>
       </c>
-      <c r="G10" s="66" t="s">
+      <c r="G10" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="H10" s="68">
+      <c r="H10" s="67">
         <v>4.0</v>
       </c>
-      <c r="I10" s="66" t="s">
+      <c r="I10" s="65" t="s">
         <v>6</v>
       </c>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
-      <c r="M10" s="69">
+      <c r="M10" s="68">
         <v>1.0</v>
       </c>
-      <c r="N10" s="69">
+      <c r="N10" s="68">
         <v>1.0</v>
       </c>
-      <c r="O10" s="69">
+      <c r="O10" s="68">
         <v>1.0</v>
       </c>
-      <c r="P10" s="70">
+      <c r="P10" s="69">
         <v>1.0</v>
       </c>
-      <c r="Q10" s="71">
+      <c r="Q10" s="70">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
@@ -2583,46 +2462,46 @@
       <c r="A11" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="63" t="s">
+      <c r="B11" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="64" t="s">
+      <c r="C11" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="65" t="s">
+      <c r="D11" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="66" t="s">
+      <c r="E11" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="67">
+      <c r="F11" s="66">
         <v>2.0</v>
       </c>
-      <c r="G11" s="66" t="s">
+      <c r="G11" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="H11" s="68">
+      <c r="H11" s="67">
         <v>2.0</v>
       </c>
-      <c r="I11" s="66" t="s">
+      <c r="I11" s="65" t="s">
         <v>6</v>
       </c>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
-      <c r="M11" s="72">
+      <c r="M11" s="71">
         <v>0.5</v>
       </c>
-      <c r="N11" s="72">
+      <c r="N11" s="71">
         <v>0.5</v>
       </c>
-      <c r="O11" s="72">
+      <c r="O11" s="71">
         <v>0.5</v>
       </c>
-      <c r="P11" s="73">
+      <c r="P11" s="72">
         <v>0.5</v>
       </c>
-      <c r="Q11" s="74">
+      <c r="Q11" s="73">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -2638,44 +2517,44 @@
     </row>
     <row r="12" ht="15.0" customHeight="1">
       <c r="A12" s="21"/>
-      <c r="B12" s="75"/>
-      <c r="C12" s="76" t="s">
+      <c r="B12" s="74"/>
+      <c r="C12" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="77" t="s">
+      <c r="D12" s="76" t="s">
         <v>23</v>
       </c>
-      <c r="E12" s="78" t="s">
+      <c r="E12" s="77" t="s">
         <v>20</v>
       </c>
-      <c r="F12" s="79">
+      <c r="F12" s="78">
         <v>2.0</v>
       </c>
-      <c r="G12" s="78" t="s">
+      <c r="G12" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="H12" s="80">
+      <c r="H12" s="79">
         <v>2.0</v>
       </c>
-      <c r="I12" s="78" t="s">
+      <c r="I12" s="77" t="s">
         <v>6</v>
       </c>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
-      <c r="M12" s="81">
+      <c r="M12" s="80">
         <v>0.5</v>
       </c>
-      <c r="N12" s="81">
+      <c r="N12" s="80">
         <v>0.5</v>
       </c>
-      <c r="O12" s="81">
+      <c r="O12" s="80">
         <v>0.5</v>
       </c>
-      <c r="P12" s="82">
+      <c r="P12" s="81">
         <v>0.5</v>
       </c>
-      <c r="Q12" s="83">
+      <c r="Q12" s="82">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -2708,39 +2587,39 @@
       <c r="F13" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="G13" s="51">
+      <c r="G13" s="35">
         <f>SUM(F14:F20)</f>
         <v>27</v>
       </c>
       <c r="H13" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="I13" s="51">
+      <c r="I13" s="35">
         <f>SUM(H14:H20)</f>
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
-      <c r="M13" s="84">
+      <c r="M13" s="83">
         <f t="shared" ref="M13:P13" si="2">SUM(M14:M20)</f>
-        <v>4.5</v>
-      </c>
-      <c r="N13" s="84">
+        <v>7</v>
+      </c>
+      <c r="N13" s="83">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="O13" s="84">
+      <c r="O13" s="83">
         <f t="shared" si="2"/>
-        <v>8.5</v>
-      </c>
-      <c r="P13" s="85">
+        <v>11</v>
+      </c>
+      <c r="P13" s="84">
         <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="Q13" s="86">
+        <v>15</v>
+      </c>
+      <c r="Q13" s="85">
         <f t="shared" si="1"/>
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="R13" s="40"/>
       <c r="S13" s="40"/>
@@ -2756,46 +2635,46 @@
       <c r="A14" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="54" t="s">
+      <c r="B14" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="55" t="s">
+      <c r="C14" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="56" t="s">
+      <c r="D14" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="57" t="s">
+      <c r="E14" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="F14" s="58">
+      <c r="F14" s="57">
         <v>2.0</v>
       </c>
-      <c r="G14" s="57" t="s">
+      <c r="G14" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="H14" s="59">
+      <c r="H14" s="58">
         <v>3.0</v>
       </c>
-      <c r="I14" s="57" t="s">
+      <c r="I14" s="56" t="s">
         <v>6</v>
       </c>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
-      <c r="M14" s="58" t="s">
+      <c r="M14" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="N14" s="58" t="s">
+      <c r="N14" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="O14" s="60">
+      <c r="O14" s="59">
         <v>3.0</v>
       </c>
-      <c r="P14" s="87" t="s">
+      <c r="P14" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="Q14" s="62">
+      <c r="Q14" s="61">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
@@ -2811,34 +2690,34 @@
     </row>
     <row r="15" ht="15.0" customHeight="1">
       <c r="A15" s="21"/>
-      <c r="B15" s="63"/>
-      <c r="C15" s="88" t="s">
+      <c r="B15" s="62"/>
+      <c r="C15" s="87" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="89" t="s">
+      <c r="D15" s="88" t="s">
         <v>19</v>
       </c>
-      <c r="E15" s="90" t="s">
+      <c r="E15" s="89" t="s">
         <v>3</v>
       </c>
-      <c r="F15" s="69">
+      <c r="F15" s="68">
         <v>2.0</v>
       </c>
-      <c r="G15" s="66"/>
-      <c r="H15" s="68">
+      <c r="G15" s="65"/>
+      <c r="H15" s="67">
         <v>2.0</v>
       </c>
-      <c r="I15" s="66"/>
+      <c r="I15" s="65"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
-      <c r="M15" s="67"/>
-      <c r="N15" s="67"/>
-      <c r="O15" s="69">
+      <c r="M15" s="66"/>
+      <c r="N15" s="66"/>
+      <c r="O15" s="68">
         <v>2.0</v>
       </c>
-      <c r="P15" s="91"/>
-      <c r="Q15" s="71">
+      <c r="P15" s="90"/>
+      <c r="Q15" s="70">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -2856,46 +2735,46 @@
       <c r="A16" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="63" t="s">
+      <c r="B16" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="64" t="s">
+      <c r="C16" s="63" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="65" t="s">
+      <c r="D16" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="E16" s="90" t="s">
+      <c r="E16" s="89" t="s">
         <v>32</v>
       </c>
-      <c r="F16" s="67">
+      <c r="F16" s="66">
         <v>4.0</v>
       </c>
-      <c r="G16" s="66" t="s">
+      <c r="G16" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="H16" s="68">
+      <c r="H16" s="67">
         <v>4.0</v>
       </c>
-      <c r="I16" s="66" t="s">
+      <c r="I16" s="65" t="s">
         <v>6</v>
       </c>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
-      <c r="M16" s="67" t="s">
+      <c r="M16" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="N16" s="67" t="s">
+      <c r="N16" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="O16" s="67" t="s">
+      <c r="O16" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="P16" s="70">
+      <c r="P16" s="69">
         <v>4.0</v>
       </c>
-      <c r="Q16" s="71">
+      <c r="Q16" s="70">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
@@ -2913,46 +2792,46 @@
       <c r="A17" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="63" t="s">
+      <c r="B17" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="64" t="s">
+      <c r="C17" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="65" t="s">
+      <c r="D17" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="E17" s="90" t="s">
+      <c r="E17" s="89" t="s">
         <v>35</v>
       </c>
-      <c r="F17" s="69">
+      <c r="F17" s="68">
         <v>8.0</v>
       </c>
-      <c r="G17" s="66" t="s">
+      <c r="G17" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="H17" s="68">
+      <c r="H17" s="67">
         <v>11.0</v>
       </c>
-      <c r="I17" s="66" t="s">
+      <c r="I17" s="65" t="s">
         <v>6</v>
       </c>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
-      <c r="M17" s="69">
+      <c r="M17" s="68">
         <v>3.0</v>
       </c>
-      <c r="N17" s="69">
+      <c r="N17" s="68">
         <v>3.0</v>
       </c>
-      <c r="O17" s="69">
+      <c r="O17" s="68">
         <v>2.0</v>
       </c>
-      <c r="P17" s="70">
+      <c r="P17" s="69">
         <v>3.0</v>
       </c>
-      <c r="Q17" s="71">
+      <c r="Q17" s="70">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
@@ -2970,46 +2849,46 @@
       <c r="A18" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="63" t="s">
+      <c r="B18" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="64" t="s">
+      <c r="C18" s="63" t="s">
         <v>36</v>
       </c>
-      <c r="D18" s="65" t="s">
+      <c r="D18" s="64" t="s">
         <v>37</v>
       </c>
-      <c r="E18" s="92" t="s">
+      <c r="E18" s="87" t="s">
         <v>38</v>
       </c>
-      <c r="F18" s="67">
+      <c r="F18" s="66">
         <v>3.0</v>
       </c>
-      <c r="G18" s="66" t="s">
+      <c r="G18" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="H18" s="68">
+      <c r="H18" s="67">
         <v>3.0</v>
       </c>
-      <c r="I18" s="66" t="s">
+      <c r="I18" s="65" t="s">
         <v>6</v>
       </c>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
-      <c r="M18" s="69">
+      <c r="M18" s="68">
         <v>1.5</v>
       </c>
-      <c r="N18" s="67" t="s">
+      <c r="N18" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="O18" s="69">
+      <c r="O18" s="68">
         <v>1.5</v>
       </c>
-      <c r="P18" s="91" t="s">
+      <c r="P18" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="Q18" s="71">
+      <c r="Q18" s="70">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
@@ -3027,48 +2906,48 @@
       <c r="A19" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="63" t="s">
+      <c r="B19" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="88" t="s">
+      <c r="C19" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="D19" s="65" t="s">
+      <c r="D19" s="64" t="s">
         <v>40</v>
       </c>
-      <c r="E19" s="90" t="s">
+      <c r="E19" s="89" t="s">
         <v>32</v>
       </c>
-      <c r="F19" s="69">
+      <c r="F19" s="68">
         <v>3.0</v>
       </c>
-      <c r="G19" s="66" t="s">
+      <c r="G19" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="H19" s="93" t="s">
-        <v>6</v>
-      </c>
-      <c r="I19" s="66" t="s">
+      <c r="H19" s="67">
+        <v>8.0</v>
+      </c>
+      <c r="I19" s="65" t="s">
         <v>6</v>
       </c>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
-      <c r="M19" s="67" t="s">
+      <c r="M19" s="68">
+        <v>2.5</v>
+      </c>
+      <c r="N19" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="N19" s="67" t="s">
+      <c r="O19" s="68">
+        <v>2.5</v>
+      </c>
+      <c r="P19" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="O19" s="67" t="s">
-        <v>6</v>
-      </c>
-      <c r="P19" s="91" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q19" s="71">
+      <c r="Q19" s="70">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R19" s="4"/>
       <c r="S19" s="4"/>
@@ -3081,51 +2960,51 @@
       <c r="Z19" s="4"/>
     </row>
     <row r="20" ht="15.0" customHeight="1">
-      <c r="A20" s="94" t="s">
+      <c r="A20" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="B20" s="75" t="s">
+      <c r="B20" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="95" t="s">
+      <c r="C20" s="92" t="s">
         <v>41</v>
       </c>
-      <c r="D20" s="77" t="s">
+      <c r="D20" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="E20" s="96" t="s">
+      <c r="E20" s="93" t="s">
         <v>43</v>
       </c>
-      <c r="F20" s="72">
+      <c r="F20" s="71">
         <v>5.0</v>
       </c>
-      <c r="G20" s="78" t="s">
+      <c r="G20" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="H20" s="97" t="s">
-        <v>6</v>
-      </c>
-      <c r="I20" s="78" t="s">
+      <c r="H20" s="79">
+        <v>5.0</v>
+      </c>
+      <c r="I20" s="77" t="s">
         <v>6</v>
       </c>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
-      <c r="M20" s="79" t="s">
+      <c r="M20" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="N20" s="79" t="s">
+      <c r="N20" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="O20" s="79" t="s">
+      <c r="O20" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="P20" s="98" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q20" s="74">
+      <c r="P20" s="72">
+        <v>8.0</v>
+      </c>
+      <c r="Q20" s="73">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="R20" s="4"/>
       <c r="S20" s="4"/>
@@ -3138,13 +3017,13 @@
       <c r="Z20" s="4"/>
     </row>
     <row r="21" ht="15.0" customHeight="1">
-      <c r="A21" s="99" t="s">
+      <c r="A21" s="94" t="s">
         <v>44</v>
       </c>
       <c r="B21" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="C21" s="100" t="s">
+      <c r="C21" s="95" t="s">
         <v>6</v>
       </c>
       <c r="D21" s="33" t="s">
@@ -3156,37 +3035,37 @@
       <c r="F21" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="G21" s="51">
+      <c r="G21" s="35">
         <f>SUM(F22:F25)</f>
         <v>23</v>
       </c>
       <c r="H21" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="I21" s="101">
+      <c r="I21" s="96">
         <f>SUM(H22:H25)</f>
         <v>30.5</v>
       </c>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
-      <c r="M21" s="102">
+      <c r="M21" s="31">
         <f t="shared" ref="M21:P21" si="3">SUM(M22:M25)</f>
         <v>6.5</v>
       </c>
-      <c r="N21" s="102">
+      <c r="N21" s="31">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="O21" s="102">
+      <c r="O21" s="31">
         <f t="shared" si="3"/>
         <v>6.5</v>
       </c>
-      <c r="P21" s="103">
+      <c r="P21" s="51">
         <f t="shared" si="3"/>
         <v>10.5</v>
       </c>
-      <c r="Q21" s="53">
+      <c r="Q21" s="52">
         <f t="shared" si="1"/>
         <v>30.5</v>
       </c>
@@ -3201,43 +3080,43 @@
       <c r="Z21" s="40"/>
     </row>
     <row r="22" ht="15.0" customHeight="1">
-      <c r="A22" s="104" t="s">
+      <c r="A22" s="97" t="s">
         <v>46</v>
       </c>
-      <c r="B22" s="105"/>
-      <c r="C22" s="106" t="s">
+      <c r="B22" s="98"/>
+      <c r="C22" s="99" t="s">
         <v>47</v>
       </c>
-      <c r="D22" s="107" t="s">
+      <c r="D22" s="100" t="s">
         <v>34</v>
       </c>
-      <c r="E22" s="108" t="s">
+      <c r="E22" s="101" t="s">
         <v>48</v>
       </c>
-      <c r="F22" s="106">
+      <c r="F22" s="99">
         <v>3.0</v>
       </c>
-      <c r="G22" s="109"/>
-      <c r="H22" s="110">
+      <c r="G22" s="102"/>
+      <c r="H22" s="103">
         <v>3.0</v>
       </c>
-      <c r="I22" s="109"/>
+      <c r="I22" s="102"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
-      <c r="M22" s="111">
+      <c r="M22" s="104">
         <v>1.0</v>
       </c>
-      <c r="N22" s="112" t="s">
+      <c r="N22" s="105" t="s">
         <v>6</v>
       </c>
-      <c r="O22" s="113">
+      <c r="O22" s="106">
         <v>1.0</v>
       </c>
-      <c r="P22" s="114">
+      <c r="P22" s="107">
         <v>1.0</v>
       </c>
-      <c r="Q22" s="115">
+      <c r="Q22" s="108">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
@@ -3252,45 +3131,45 @@
       <c r="Z22" s="4"/>
     </row>
     <row r="23" ht="15.0" customHeight="1">
-      <c r="A23" s="104" t="s">
+      <c r="A23" s="97" t="s">
         <v>6</v>
       </c>
-      <c r="B23" s="116" t="s">
+      <c r="B23" s="109" t="s">
         <v>6</v>
       </c>
-      <c r="C23" s="117" t="s">
+      <c r="C23" s="110" t="s">
         <v>49</v>
       </c>
-      <c r="D23" s="117" t="s">
+      <c r="D23" s="110" t="s">
         <v>50</v>
       </c>
-      <c r="E23" s="118" t="s">
+      <c r="E23" s="111" t="s">
         <v>20</v>
       </c>
-      <c r="F23" s="119">
+      <c r="F23" s="112">
         <v>4.0</v>
       </c>
-      <c r="G23" s="117"/>
-      <c r="H23" s="120">
+      <c r="G23" s="110"/>
+      <c r="H23" s="113">
         <v>5.5</v>
       </c>
-      <c r="I23" s="117"/>
+      <c r="I23" s="110"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
-      <c r="M23" s="121">
+      <c r="M23" s="114">
         <v>1.5</v>
       </c>
-      <c r="N23" s="122">
+      <c r="N23" s="115">
         <v>1.0</v>
       </c>
-      <c r="O23" s="122">
+      <c r="O23" s="115">
         <v>1.5</v>
       </c>
-      <c r="P23" s="123">
+      <c r="P23" s="116">
         <v>1.5</v>
       </c>
-      <c r="Q23" s="124">
+      <c r="Q23" s="117">
         <f t="shared" si="1"/>
         <v>5.5</v>
       </c>
@@ -3305,45 +3184,45 @@
       <c r="Z23" s="4"/>
     </row>
     <row r="24" ht="15.0" customHeight="1">
-      <c r="A24" s="104" t="s">
+      <c r="A24" s="97" t="s">
         <v>6</v>
       </c>
-      <c r="B24" s="116" t="s">
+      <c r="B24" s="109" t="s">
         <v>6</v>
       </c>
-      <c r="C24" s="117" t="s">
+      <c r="C24" s="110" t="s">
         <v>51</v>
       </c>
-      <c r="D24" s="117" t="s">
+      <c r="D24" s="110" t="s">
         <v>52</v>
       </c>
-      <c r="E24" s="118" t="s">
+      <c r="E24" s="111" t="s">
         <v>20</v>
       </c>
-      <c r="F24" s="119">
+      <c r="F24" s="112">
         <v>10.0</v>
       </c>
-      <c r="G24" s="117"/>
-      <c r="H24" s="120">
+      <c r="G24" s="110"/>
+      <c r="H24" s="113">
         <v>16.0</v>
       </c>
-      <c r="I24" s="117"/>
+      <c r="I24" s="110"/>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
-      <c r="M24" s="121">
+      <c r="M24" s="114">
         <v>4.0</v>
       </c>
-      <c r="N24" s="122">
+      <c r="N24" s="115">
         <v>4.0</v>
       </c>
-      <c r="O24" s="122">
+      <c r="O24" s="115">
         <v>4.0</v>
       </c>
-      <c r="P24" s="123">
+      <c r="P24" s="116">
         <v>4.0</v>
       </c>
-      <c r="Q24" s="124">
+      <c r="Q24" s="117">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
@@ -3358,45 +3237,45 @@
       <c r="Z24" s="4"/>
     </row>
     <row r="25" ht="15.0" customHeight="1">
-      <c r="A25" s="104" t="s">
+      <c r="A25" s="97" t="s">
         <v>6</v>
       </c>
-      <c r="B25" s="125" t="s">
+      <c r="B25" s="118" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="126" t="s">
+      <c r="C25" s="119" t="s">
         <v>53</v>
       </c>
-      <c r="D25" s="126" t="s">
+      <c r="D25" s="119" t="s">
         <v>52</v>
       </c>
-      <c r="E25" s="127" t="s">
+      <c r="E25" s="120" t="s">
         <v>54</v>
       </c>
-      <c r="F25" s="128">
+      <c r="F25" s="121">
         <v>6.0</v>
       </c>
-      <c r="G25" s="126"/>
-      <c r="H25" s="129">
+      <c r="G25" s="119"/>
+      <c r="H25" s="122">
         <v>6.0</v>
       </c>
-      <c r="I25" s="126"/>
+      <c r="I25" s="119"/>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
-      <c r="M25" s="130" t="s">
+      <c r="M25" s="123" t="s">
         <v>6</v>
       </c>
-      <c r="N25" s="131">
+      <c r="N25" s="124">
         <v>2.0</v>
       </c>
-      <c r="O25" s="132" t="s">
+      <c r="O25" s="125" t="s">
         <v>6</v>
       </c>
-      <c r="P25" s="133">
+      <c r="P25" s="126">
         <v>4.0</v>
       </c>
-      <c r="Q25" s="134">
+      <c r="Q25" s="127">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
@@ -3411,13 +3290,13 @@
       <c r="Z25" s="4"/>
     </row>
     <row r="26" ht="15.0" customHeight="1">
-      <c r="A26" s="104" t="s">
+      <c r="A26" s="97" t="s">
         <v>6</v>
       </c>
       <c r="B26" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="C26" s="100" t="s">
+      <c r="C26" s="95" t="s">
         <v>6</v>
       </c>
       <c r="D26" s="33" t="s">
@@ -3429,36 +3308,36 @@
       <c r="F26" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="G26" s="51">
+      <c r="G26" s="35">
         <f>SUM(F27:F28)</f>
         <v>7</v>
       </c>
       <c r="H26" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="I26" s="101">
+      <c r="I26" s="96">
         <v>9.0</v>
       </c>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
-      <c r="M26" s="102">
+      <c r="M26" s="31">
         <f t="shared" ref="M26:P26" si="4">SUM(M27:M28)</f>
         <v>1.5</v>
       </c>
-      <c r="N26" s="102">
+      <c r="N26" s="31">
         <f t="shared" si="4"/>
         <v>2.5</v>
       </c>
-      <c r="O26" s="102">
+      <c r="O26" s="31">
         <f t="shared" si="4"/>
         <v>2.5</v>
       </c>
-      <c r="P26" s="103">
+      <c r="P26" s="51">
         <f t="shared" si="4"/>
         <v>2.5</v>
       </c>
-      <c r="Q26" s="53">
+      <c r="Q26" s="52">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
@@ -3473,45 +3352,45 @@
       <c r="Z26" s="40"/>
     </row>
     <row r="27" ht="15.0" customHeight="1">
-      <c r="A27" s="104" t="s">
+      <c r="A27" s="97" t="s">
         <v>6</v>
       </c>
-      <c r="B27" s="135" t="s">
+      <c r="B27" s="128" t="s">
         <v>6</v>
       </c>
-      <c r="C27" s="109" t="s">
+      <c r="C27" s="102" t="s">
         <v>56</v>
       </c>
-      <c r="D27" s="109" t="s">
+      <c r="D27" s="102" t="s">
         <v>34</v>
       </c>
-      <c r="E27" s="136" t="s">
+      <c r="E27" s="129" t="s">
         <v>20</v>
       </c>
-      <c r="F27" s="137">
+      <c r="F27" s="130">
         <v>4.0</v>
       </c>
-      <c r="G27" s="109"/>
-      <c r="H27" s="138">
+      <c r="G27" s="102"/>
+      <c r="H27" s="131">
         <v>6.0</v>
       </c>
-      <c r="I27" s="109"/>
+      <c r="I27" s="102"/>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
-      <c r="M27" s="111">
+      <c r="M27" s="104">
         <v>1.5</v>
       </c>
-      <c r="N27" s="111">
+      <c r="N27" s="104">
         <v>1.5</v>
       </c>
-      <c r="O27" s="111">
+      <c r="O27" s="104">
         <v>1.5</v>
       </c>
-      <c r="P27" s="139">
+      <c r="P27" s="132">
         <v>1.5</v>
       </c>
-      <c r="Q27" s="115">
+      <c r="Q27" s="108">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
@@ -3526,43 +3405,43 @@
       <c r="Z27" s="4"/>
     </row>
     <row r="28" ht="15.0" customHeight="1">
-      <c r="A28" s="104" t="s">
+      <c r="A28" s="97" t="s">
         <v>6</v>
       </c>
-      <c r="B28" s="140" t="s">
+      <c r="B28" s="133" t="s">
         <v>6</v>
       </c>
-      <c r="C28" s="141" t="s">
+      <c r="C28" s="134" t="s">
         <v>57</v>
       </c>
-      <c r="D28" s="141" t="s">
+      <c r="D28" s="134" t="s">
         <v>34</v>
       </c>
-      <c r="E28" s="142" t="s">
+      <c r="E28" s="135" t="s">
         <v>58</v>
       </c>
-      <c r="F28" s="143">
+      <c r="F28" s="136">
         <v>3.0</v>
       </c>
-      <c r="G28" s="126"/>
-      <c r="H28" s="129">
+      <c r="G28" s="119"/>
+      <c r="H28" s="122">
         <v>3.0</v>
       </c>
-      <c r="I28" s="126"/>
+      <c r="I28" s="119"/>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
-      <c r="M28" s="144"/>
-      <c r="N28" s="144">
+      <c r="M28" s="137"/>
+      <c r="N28" s="137">
         <v>1.0</v>
       </c>
-      <c r="O28" s="144">
+      <c r="O28" s="137">
         <v>1.0</v>
       </c>
-      <c r="P28" s="145">
+      <c r="P28" s="138">
         <v>1.0</v>
       </c>
-      <c r="Q28" s="134">
+      <c r="Q28" s="127">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
@@ -3577,13 +3456,13 @@
       <c r="Z28" s="4"/>
     </row>
     <row r="29" ht="15.0" customHeight="1">
-      <c r="A29" s="146" t="s">
+      <c r="A29" s="139" t="s">
         <v>59</v>
       </c>
       <c r="B29" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="C29" s="100" t="s">
+      <c r="C29" s="95" t="s">
         <v>6</v>
       </c>
       <c r="D29" s="33"/>
@@ -3593,37 +3472,37 @@
       <c r="F29" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="G29" s="51">
+      <c r="G29" s="35">
         <f>SUM(F30:F34)</f>
         <v>24</v>
       </c>
       <c r="H29" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="I29" s="101">
+      <c r="I29" s="96">
         <f>SUM(H30:H34)</f>
         <v>22.5</v>
       </c>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
-      <c r="M29" s="102">
+      <c r="M29" s="31">
         <f>SUM(M23:M28)</f>
         <v>8.5</v>
       </c>
-      <c r="N29" s="102">
+      <c r="N29" s="31">
         <f t="shared" ref="N29:P29" si="5">SUM(N30:N34)</f>
         <v>0</v>
       </c>
-      <c r="O29" s="102">
+      <c r="O29" s="31">
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="P29" s="103">
+      <c r="P29" s="51">
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="Q29" s="53">
+      <c r="Q29" s="52">
         <f t="shared" si="1"/>
         <v>22.5</v>
       </c>
@@ -3638,49 +3517,49 @@
       <c r="Z29" s="40"/>
     </row>
     <row r="30" ht="15.0" customHeight="1">
-      <c r="A30" s="147" t="s">
+      <c r="A30" s="140" t="s">
         <v>61</v>
       </c>
-      <c r="B30" s="57" t="s">
+      <c r="B30" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="C30" s="55" t="s">
+      <c r="C30" s="54" t="s">
         <v>62</v>
       </c>
-      <c r="D30" s="148" t="s">
+      <c r="D30" s="141" t="s">
         <v>63</v>
       </c>
-      <c r="E30" s="149" t="s">
+      <c r="E30" s="142" t="s">
         <v>64</v>
       </c>
-      <c r="F30" s="60">
+      <c r="F30" s="59">
         <v>6.0</v>
       </c>
-      <c r="G30" s="57" t="s">
+      <c r="G30" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="H30" s="59">
+      <c r="H30" s="58">
         <v>6.0</v>
       </c>
-      <c r="I30" s="57" t="s">
+      <c r="I30" s="56" t="s">
         <v>6</v>
       </c>
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
-      <c r="M30" s="150">
+      <c r="M30" s="143">
         <v>3.0</v>
       </c>
-      <c r="N30" s="151" t="s">
+      <c r="N30" s="144" t="s">
         <v>6</v>
       </c>
-      <c r="O30" s="151" t="s">
+      <c r="O30" s="144" t="s">
         <v>6</v>
       </c>
-      <c r="P30" s="152">
+      <c r="P30" s="145">
         <v>3.0</v>
       </c>
-      <c r="Q30" s="153">
+      <c r="Q30" s="146">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
@@ -3695,49 +3574,49 @@
       <c r="Z30" s="4"/>
     </row>
     <row r="31" ht="15.0" customHeight="1">
-      <c r="A31" s="147" t="s">
+      <c r="A31" s="140" t="s">
         <v>6</v>
       </c>
-      <c r="B31" s="66" t="s">
+      <c r="B31" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="C31" s="88" t="s">
+      <c r="C31" s="87" t="s">
         <v>65</v>
       </c>
-      <c r="D31" s="65" t="s">
+      <c r="D31" s="64" t="s">
         <v>37</v>
       </c>
-      <c r="E31" s="154" t="s">
+      <c r="E31" s="89" t="s">
         <v>66</v>
       </c>
-      <c r="F31" s="69">
+      <c r="F31" s="68">
         <v>8.0</v>
       </c>
-      <c r="G31" s="66" t="s">
+      <c r="G31" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="H31" s="68">
+      <c r="H31" s="67">
         <v>8.0</v>
       </c>
-      <c r="I31" s="66" t="s">
+      <c r="I31" s="65" t="s">
         <v>6</v>
       </c>
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
       <c r="L31" s="2"/>
-      <c r="M31" s="155">
+      <c r="M31" s="147">
         <v>3.0</v>
       </c>
-      <c r="N31" s="156" t="s">
+      <c r="N31" s="148" t="s">
         <v>6</v>
       </c>
-      <c r="O31" s="155">
+      <c r="O31" s="147">
         <v>2.0</v>
       </c>
-      <c r="P31" s="157">
+      <c r="P31" s="149">
         <v>3.0</v>
       </c>
-      <c r="Q31" s="158">
+      <c r="Q31" s="150">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
@@ -3752,47 +3631,47 @@
       <c r="Z31" s="4"/>
     </row>
     <row r="32" ht="15.0" customHeight="1">
-      <c r="A32" s="147" t="s">
+      <c r="A32" s="140" t="s">
         <v>6</v>
       </c>
-      <c r="B32" s="66" t="s">
+      <c r="B32" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="C32" s="88" t="s">
+      <c r="C32" s="87" t="s">
         <v>67</v>
       </c>
-      <c r="D32" s="65" t="s">
+      <c r="D32" s="64" t="s">
         <v>37</v>
       </c>
-      <c r="E32" s="154" t="s">
+      <c r="E32" s="89" t="s">
         <v>68</v>
       </c>
-      <c r="F32" s="69">
+      <c r="F32" s="68">
         <v>4.0</v>
       </c>
-      <c r="G32" s="66" t="s">
+      <c r="G32" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="H32" s="68">
+      <c r="H32" s="67">
         <v>3.0</v>
       </c>
-      <c r="I32" s="66" t="s">
+      <c r="I32" s="65" t="s">
         <v>6</v>
       </c>
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
-      <c r="M32" s="155"/>
-      <c r="N32" s="156" t="s">
+      <c r="M32" s="147"/>
+      <c r="N32" s="148" t="s">
         <v>6</v>
       </c>
-      <c r="O32" s="155">
+      <c r="O32" s="147">
         <v>1.5</v>
       </c>
-      <c r="P32" s="157">
+      <c r="P32" s="149">
         <v>1.5</v>
       </c>
-      <c r="Q32" s="158">
+      <c r="Q32" s="150">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
@@ -3807,47 +3686,47 @@
       <c r="Z32" s="4"/>
     </row>
     <row r="33" ht="15.0" customHeight="1">
-      <c r="A33" s="147" t="s">
+      <c r="A33" s="140" t="s">
         <v>6</v>
       </c>
-      <c r="B33" s="66" t="s">
+      <c r="B33" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="C33" s="89" t="s">
+      <c r="C33" s="88" t="s">
         <v>69</v>
       </c>
-      <c r="D33" s="89" t="s">
+      <c r="D33" s="88" t="s">
         <v>37</v>
       </c>
-      <c r="E33" s="89" t="s">
+      <c r="E33" s="88" t="s">
         <v>70</v>
       </c>
-      <c r="F33" s="69">
+      <c r="F33" s="68">
         <v>4.0</v>
       </c>
-      <c r="G33" s="66" t="s">
+      <c r="G33" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="H33" s="68">
+      <c r="H33" s="67">
         <v>4.0</v>
       </c>
-      <c r="I33" s="66" t="s">
+      <c r="I33" s="65" t="s">
         <v>6</v>
       </c>
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
-      <c r="M33" s="155">
+      <c r="M33" s="147">
         <v>2.0</v>
       </c>
-      <c r="N33" s="156" t="s">
+      <c r="N33" s="148" t="s">
         <v>6</v>
       </c>
-      <c r="O33" s="155"/>
-      <c r="P33" s="157">
+      <c r="O33" s="147"/>
+      <c r="P33" s="149">
         <v>2.0</v>
       </c>
-      <c r="Q33" s="158">
+      <c r="Q33" s="150">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
@@ -3862,49 +3741,49 @@
       <c r="Z33" s="4"/>
     </row>
     <row r="34" ht="15.0" customHeight="1">
-      <c r="A34" s="147" t="s">
+      <c r="A34" s="140" t="s">
         <v>6</v>
       </c>
-      <c r="B34" s="159" t="s">
+      <c r="B34" s="151" t="s">
         <v>6</v>
       </c>
-      <c r="C34" s="160" t="s">
+      <c r="C34" s="152" t="s">
         <v>71</v>
       </c>
-      <c r="D34" s="160" t="s">
+      <c r="D34" s="152" t="s">
         <v>37</v>
       </c>
-      <c r="E34" s="161" t="s">
+      <c r="E34" s="93" t="s">
         <v>72</v>
       </c>
-      <c r="F34" s="72">
+      <c r="F34" s="71">
         <v>2.0</v>
       </c>
-      <c r="G34" s="78" t="s">
+      <c r="G34" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="H34" s="162">
+      <c r="H34" s="153">
         <v>1.5</v>
       </c>
-      <c r="I34" s="78" t="s">
+      <c r="I34" s="77" t="s">
         <v>6</v>
       </c>
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
       <c r="L34" s="2"/>
-      <c r="M34" s="163">
+      <c r="M34" s="154">
         <v>0.5</v>
       </c>
-      <c r="N34" s="164" t="s">
+      <c r="N34" s="155" t="s">
         <v>6</v>
       </c>
-      <c r="O34" s="163">
+      <c r="O34" s="154">
         <v>0.5</v>
       </c>
-      <c r="P34" s="165">
+      <c r="P34" s="156">
         <v>0.5</v>
       </c>
-      <c r="Q34" s="166">
+      <c r="Q34" s="157">
         <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
@@ -3919,7 +3798,7 @@
       <c r="Z34" s="4"/>
     </row>
     <row r="35" ht="15.0" customHeight="1">
-      <c r="A35" s="147" t="s">
+      <c r="A35" s="140" t="s">
         <v>6</v>
       </c>
       <c r="B35" s="31" t="s">
@@ -3934,14 +3813,14 @@
       <c r="E35" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="F35" s="167" t="s">
+      <c r="F35" s="158" t="s">
         <v>6</v>
       </c>
-      <c r="G35" s="51">
+      <c r="G35" s="35">
         <f>SUM(F36)</f>
         <v>1</v>
       </c>
-      <c r="H35" s="168" t="s">
+      <c r="H35" s="159" t="s">
         <v>6</v>
       </c>
       <c r="I35" s="35">
@@ -3959,10 +3838,10 @@
       <c r="O35" s="31">
         <v>0.0</v>
       </c>
-      <c r="P35" s="52">
+      <c r="P35" s="51">
         <v>0.0</v>
       </c>
-      <c r="Q35" s="53">
+      <c r="Q35" s="52">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -3977,19 +3856,19 @@
       <c r="Z35" s="40"/>
     </row>
     <row r="36" ht="15.0" customHeight="1">
-      <c r="A36" s="147" t="s">
+      <c r="A36" s="140" t="s">
         <v>6</v>
       </c>
       <c r="B36" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="C36" s="169" t="s">
+      <c r="C36" s="160" t="s">
         <v>73</v>
       </c>
-      <c r="D36" s="169" t="s">
+      <c r="D36" s="160" t="s">
         <v>52</v>
       </c>
-      <c r="E36" s="170" t="s">
+      <c r="E36" s="161" t="s">
         <v>1</v>
       </c>
       <c r="F36" s="47">
@@ -4007,19 +3886,19 @@
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
       <c r="L36" s="2"/>
-      <c r="M36" s="171">
+      <c r="M36" s="162">
         <v>1.0</v>
       </c>
-      <c r="N36" s="172" t="s">
+      <c r="N36" s="163" t="s">
         <v>6</v>
       </c>
-      <c r="O36" s="172" t="s">
+      <c r="O36" s="163" t="s">
         <v>6</v>
       </c>
-      <c r="P36" s="173" t="s">
+      <c r="P36" s="164" t="s">
         <v>6</v>
       </c>
-      <c r="Q36" s="174">
+      <c r="Q36" s="165">
         <v>1.0</v>
       </c>
       <c r="R36" s="4"/>
@@ -4033,7 +3912,7 @@
       <c r="Z36" s="4"/>
     </row>
     <row r="37" ht="15.0" customHeight="1">
-      <c r="A37" s="147" t="s">
+      <c r="A37" s="140" t="s">
         <v>6</v>
       </c>
       <c r="B37" s="31" t="s">
@@ -4048,17 +3927,17 @@
       <c r="E37" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="F37" s="167" t="s">
+      <c r="F37" s="158" t="s">
         <v>6</v>
       </c>
-      <c r="G37" s="51">
+      <c r="G37" s="35">
         <f>SUM(F38:F40)</f>
         <v>12</v>
       </c>
-      <c r="H37" s="168" t="s">
+      <c r="H37" s="159" t="s">
         <v>6</v>
       </c>
-      <c r="I37" s="51">
+      <c r="I37" s="35">
         <f>SUM(H38:H40)</f>
         <v>14</v>
       </c>
@@ -4074,10 +3953,10 @@
       <c r="O37" s="31">
         <v>3.0</v>
       </c>
-      <c r="P37" s="52">
+      <c r="P37" s="51">
         <v>6.0</v>
       </c>
-      <c r="Q37" s="53">
+      <c r="Q37" s="52">
         <f>SUM(M37:P37)</f>
         <v>14</v>
       </c>
@@ -4092,39 +3971,39 @@
       <c r="Z37" s="40"/>
     </row>
     <row r="38" ht="15.0" customHeight="1">
-      <c r="A38" s="147"/>
-      <c r="B38" s="57"/>
-      <c r="C38" s="148" t="s">
+      <c r="A38" s="140"/>
+      <c r="B38" s="56"/>
+      <c r="C38" s="141" t="s">
         <v>74</v>
       </c>
-      <c r="D38" s="148" t="s">
+      <c r="D38" s="141" t="s">
         <v>34</v>
       </c>
-      <c r="E38" s="149" t="s">
+      <c r="E38" s="142" t="s">
         <v>75</v>
       </c>
-      <c r="F38" s="175">
+      <c r="F38" s="166">
         <v>6.0</v>
       </c>
-      <c r="G38" s="176"/>
-      <c r="H38" s="59">
+      <c r="G38" s="167"/>
+      <c r="H38" s="58">
         <v>8.0</v>
       </c>
-      <c r="I38" s="176"/>
+      <c r="I38" s="167"/>
       <c r="J38" s="2"/>
       <c r="K38" s="2"/>
       <c r="L38" s="2"/>
-      <c r="M38" s="150">
+      <c r="M38" s="143">
         <v>3.0</v>
       </c>
-      <c r="N38" s="150">
+      <c r="N38" s="143">
         <v>2.0</v>
       </c>
-      <c r="O38" s="150"/>
-      <c r="P38" s="152">
+      <c r="O38" s="143"/>
+      <c r="P38" s="145">
         <v>3.0</v>
       </c>
-      <c r="Q38" s="177">
+      <c r="Q38" s="146">
         <v>8.0</v>
       </c>
       <c r="R38" s="4"/>
@@ -4138,49 +4017,49 @@
       <c r="Z38" s="4"/>
     </row>
     <row r="39" ht="15.0" customHeight="1">
-      <c r="A39" s="147" t="s">
+      <c r="A39" s="140" t="s">
         <v>6</v>
       </c>
-      <c r="B39" s="66" t="s">
+      <c r="B39" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="C39" s="89" t="s">
+      <c r="C39" s="88" t="s">
         <v>76</v>
       </c>
-      <c r="D39" s="65" t="s">
+      <c r="D39" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="E39" s="178" t="s">
-        <v>43</v>
-      </c>
-      <c r="F39" s="179">
+      <c r="E39" s="168" t="s">
+        <v>77</v>
+      </c>
+      <c r="F39" s="169">
         <v>4.0</v>
       </c>
-      <c r="G39" s="66" t="s">
+      <c r="G39" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="H39" s="68">
+      <c r="H39" s="67">
         <v>4.0</v>
       </c>
-      <c r="I39" s="66" t="s">
+      <c r="I39" s="65" t="s">
         <v>6</v>
       </c>
       <c r="J39" s="2"/>
       <c r="K39" s="2"/>
       <c r="L39" s="2"/>
-      <c r="M39" s="156" t="s">
+      <c r="M39" s="148" t="s">
         <v>6</v>
       </c>
-      <c r="N39" s="156" t="s">
+      <c r="N39" s="148" t="s">
         <v>6</v>
       </c>
-      <c r="O39" s="155">
+      <c r="O39" s="147">
         <v>2.0</v>
       </c>
-      <c r="P39" s="157">
+      <c r="P39" s="149">
         <v>2.0</v>
       </c>
-      <c r="Q39" s="180">
+      <c r="Q39" s="150">
         <v>4.0</v>
       </c>
       <c r="R39" s="4"/>
@@ -4194,49 +4073,49 @@
       <c r="Z39" s="4"/>
     </row>
     <row r="40" ht="15.0" customHeight="1">
-      <c r="A40" s="147" t="s">
+      <c r="A40" s="140" t="s">
         <v>6</v>
       </c>
-      <c r="B40" s="78" t="s">
+      <c r="B40" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="C40" s="160" t="s">
+      <c r="C40" s="152" t="s">
         <v>57</v>
       </c>
-      <c r="D40" s="160" t="s">
+      <c r="D40" s="152" t="s">
         <v>34</v>
       </c>
-      <c r="E40" s="181" t="s">
-        <v>43</v>
-      </c>
-      <c r="F40" s="182">
+      <c r="E40" s="170" t="s">
+        <v>77</v>
+      </c>
+      <c r="F40" s="171">
         <v>2.0</v>
       </c>
-      <c r="G40" s="78" t="s">
+      <c r="G40" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="H40" s="80">
+      <c r="H40" s="79">
         <v>2.0</v>
       </c>
-      <c r="I40" s="78" t="s">
+      <c r="I40" s="77" t="s">
         <v>6</v>
       </c>
       <c r="J40" s="2"/>
       <c r="K40" s="2"/>
       <c r="L40" s="2"/>
-      <c r="M40" s="164" t="s">
+      <c r="M40" s="155" t="s">
         <v>6</v>
       </c>
-      <c r="N40" s="164" t="s">
+      <c r="N40" s="155" t="s">
         <v>6</v>
       </c>
-      <c r="O40" s="163">
+      <c r="O40" s="154">
         <v>1.0</v>
       </c>
-      <c r="P40" s="165">
+      <c r="P40" s="156">
         <v>1.0</v>
       </c>
-      <c r="Q40" s="183">
+      <c r="Q40" s="157">
         <v>2.0</v>
       </c>
       <c r="R40" s="4"/>
@@ -4250,8 +4129,8 @@
       <c r="Z40" s="4"/>
     </row>
     <row r="41" ht="15.0" customHeight="1">
-      <c r="A41" s="184" t="s">
-        <v>77</v>
+      <c r="A41" s="172" t="s">
+        <v>78</v>
       </c>
       <c r="B41" s="31" t="s">
         <v>60</v>
@@ -4268,38 +4147,38 @@
       <c r="F41" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="G41" s="51">
+      <c r="G41" s="35">
         <f>SUM(F42:F43)</f>
         <v>6</v>
       </c>
       <c r="H41" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="I41" s="51">
+      <c r="I41" s="35">
         <f>SUM(H42:H43)</f>
         <v>6</v>
       </c>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
-      <c r="M41" s="102">
+      <c r="M41" s="31">
         <f t="shared" ref="M41:P41" si="6">SUM(M42:M43)</f>
         <v>1.5</v>
       </c>
-      <c r="N41" s="102">
+      <c r="N41" s="31">
         <f t="shared" si="6"/>
         <v>1.5</v>
       </c>
-      <c r="O41" s="102">
+      <c r="O41" s="31">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P41" s="103">
+      <c r="P41" s="51">
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
-      <c r="Q41" s="53">
-        <f t="shared" ref="Q41:Q75" si="7">SUM(M41:P41)</f>
+      <c r="Q41" s="52">
+        <f t="shared" ref="Q41:Q69" si="7">SUM(M41:P41)</f>
         <v>6</v>
       </c>
       <c r="R41" s="40"/>
@@ -4313,45 +4192,45 @@
       <c r="Z41" s="40"/>
     </row>
     <row r="42" ht="15.0" customHeight="1">
-      <c r="A42" s="184" t="s">
-        <v>78</v>
-      </c>
-      <c r="B42" s="185" t="s">
+      <c r="A42" s="172" t="s">
+        <v>79</v>
+      </c>
+      <c r="B42" s="173" t="s">
         <v>6</v>
       </c>
-      <c r="C42" s="186" t="s">
-        <v>79</v>
-      </c>
-      <c r="D42" s="107" t="s">
+      <c r="C42" s="174" t="s">
+        <v>80</v>
+      </c>
+      <c r="D42" s="100" t="s">
         <v>63</v>
       </c>
-      <c r="E42" s="187" t="s">
-        <v>80</v>
-      </c>
-      <c r="F42" s="188">
+      <c r="E42" s="175" t="s">
+        <v>81</v>
+      </c>
+      <c r="F42" s="176">
         <v>3.0</v>
       </c>
-      <c r="G42" s="189"/>
-      <c r="H42" s="190">
+      <c r="G42" s="177"/>
+      <c r="H42" s="178">
         <v>3.0</v>
       </c>
-      <c r="I42" s="189"/>
+      <c r="I42" s="177"/>
       <c r="J42" s="2"/>
       <c r="K42" s="2"/>
       <c r="L42" s="2"/>
-      <c r="M42" s="191" t="s">
+      <c r="M42" s="179" t="s">
         <v>6</v>
       </c>
-      <c r="N42" s="111">
+      <c r="N42" s="104">
         <v>1.5</v>
       </c>
-      <c r="O42" s="191" t="s">
+      <c r="O42" s="179" t="s">
         <v>6</v>
       </c>
-      <c r="P42" s="139">
+      <c r="P42" s="132">
         <v>1.5</v>
       </c>
-      <c r="Q42" s="115">
+      <c r="Q42" s="108">
         <f t="shared" si="7"/>
         <v>3</v>
       </c>
@@ -4366,45 +4245,45 @@
       <c r="Z42" s="4"/>
     </row>
     <row r="43" ht="15.0" customHeight="1">
-      <c r="A43" s="104" t="s">
+      <c r="A43" s="97" t="s">
         <v>6</v>
       </c>
-      <c r="B43" s="140" t="s">
+      <c r="B43" s="133" t="s">
         <v>6</v>
       </c>
-      <c r="C43" s="192" t="s">
-        <v>81</v>
-      </c>
-      <c r="D43" s="141" t="s">
+      <c r="C43" s="180" t="s">
+        <v>82</v>
+      </c>
+      <c r="D43" s="134" t="s">
         <v>37</v>
       </c>
-      <c r="E43" s="193" t="s">
-        <v>82</v>
-      </c>
-      <c r="F43" s="141">
+      <c r="E43" s="180" t="s">
+        <v>83</v>
+      </c>
+      <c r="F43" s="134">
         <v>3.0</v>
       </c>
-      <c r="G43" s="141"/>
-      <c r="H43" s="194">
+      <c r="G43" s="134"/>
+      <c r="H43" s="181">
         <v>3.0</v>
       </c>
-      <c r="I43" s="126"/>
+      <c r="I43" s="119"/>
       <c r="J43" s="2"/>
       <c r="K43" s="2"/>
       <c r="L43" s="2"/>
-      <c r="M43" s="144">
+      <c r="M43" s="137">
         <v>1.5</v>
       </c>
-      <c r="N43" s="130" t="s">
+      <c r="N43" s="123" t="s">
         <v>6</v>
       </c>
-      <c r="O43" s="130" t="s">
+      <c r="O43" s="123" t="s">
         <v>6</v>
       </c>
-      <c r="P43" s="145">
+      <c r="P43" s="138">
         <v>1.5</v>
       </c>
-      <c r="Q43" s="134">
+      <c r="Q43" s="127">
         <f t="shared" si="7"/>
         <v>3</v>
       </c>
@@ -4419,7 +4298,7 @@
       <c r="Z43" s="4"/>
     </row>
     <row r="44" ht="15.0" customHeight="1">
-      <c r="A44" s="104" t="s">
+      <c r="A44" s="97" t="s">
         <v>6</v>
       </c>
       <c r="B44" s="31" t="s">
@@ -4434,17 +4313,17 @@
       <c r="E44" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="F44" s="167" t="s">
+      <c r="F44" s="158" t="s">
         <v>6</v>
       </c>
-      <c r="G44" s="51">
+      <c r="G44" s="35">
         <f>SUM(F45)</f>
         <v>4</v>
       </c>
-      <c r="H44" s="168" t="s">
+      <c r="H44" s="159" t="s">
         <v>6</v>
       </c>
-      <c r="I44" s="51">
+      <c r="I44" s="35">
         <f>SUM(H45)</f>
         <v>4</v>
       </c>
@@ -4460,10 +4339,10 @@
       <c r="O44" s="31">
         <v>0.0</v>
       </c>
-      <c r="P44" s="52">
+      <c r="P44" s="51">
         <v>0.0</v>
       </c>
-      <c r="Q44" s="53">
+      <c r="Q44" s="52">
         <f t="shared" si="7"/>
         <v>4</v>
       </c>
@@ -4478,45 +4357,45 @@
       <c r="Z44" s="40"/>
     </row>
     <row r="45" ht="15.0" customHeight="1">
-      <c r="A45" s="104" t="s">
+      <c r="A45" s="97" t="s">
         <v>6</v>
       </c>
-      <c r="B45" s="195" t="s">
+      <c r="B45" s="182" t="s">
         <v>6</v>
       </c>
-      <c r="C45" s="196" t="s">
-        <v>83</v>
-      </c>
-      <c r="D45" s="197" t="s">
+      <c r="C45" s="183" t="s">
+        <v>84</v>
+      </c>
+      <c r="D45" s="184" t="s">
         <v>63</v>
       </c>
-      <c r="E45" s="198" t="s">
+      <c r="E45" s="185" t="s">
         <v>1</v>
       </c>
-      <c r="F45" s="199">
+      <c r="F45" s="186">
         <v>4.0</v>
       </c>
-      <c r="G45" s="200"/>
-      <c r="H45" s="201">
+      <c r="G45" s="187"/>
+      <c r="H45" s="188">
         <v>4.0</v>
       </c>
-      <c r="I45" s="200"/>
+      <c r="I45" s="187"/>
       <c r="J45" s="2"/>
       <c r="K45" s="2"/>
       <c r="L45" s="2"/>
-      <c r="M45" s="202">
+      <c r="M45" s="189">
         <v>4.0</v>
       </c>
-      <c r="N45" s="203" t="s">
+      <c r="N45" s="190" t="s">
         <v>6</v>
       </c>
-      <c r="O45" s="203" t="s">
+      <c r="O45" s="190" t="s">
         <v>6</v>
       </c>
-      <c r="P45" s="204" t="s">
+      <c r="P45" s="191" t="s">
         <v>6</v>
       </c>
-      <c r="Q45" s="205">
+      <c r="Q45" s="192">
         <f t="shared" si="7"/>
         <v>4</v>
       </c>
@@ -4531,7 +4410,7 @@
       <c r="Z45" s="4"/>
     </row>
     <row r="46" ht="15.0" customHeight="1">
-      <c r="A46" s="104" t="s">
+      <c r="A46" s="97" t="s">
         <v>6</v>
       </c>
       <c r="B46" s="31" t="s">
@@ -4546,40 +4425,40 @@
       <c r="E46" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="F46" s="167" t="s">
+      <c r="F46" s="158" t="s">
         <v>6</v>
       </c>
-      <c r="G46" s="51">
+      <c r="G46" s="35">
         <f>SUM(F47:F48)</f>
         <v>6</v>
       </c>
-      <c r="H46" s="168" t="s">
+      <c r="H46" s="159" t="s">
         <v>6</v>
       </c>
-      <c r="I46" s="51">
+      <c r="I46" s="35">
         <f>SUM(H47:H48)</f>
         <v>6</v>
       </c>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
-      <c r="M46" s="102">
+      <c r="M46" s="31">
         <f t="shared" ref="M46:P46" si="8">SUM(M47:M48)</f>
         <v>1.5</v>
       </c>
-      <c r="N46" s="102">
+      <c r="N46" s="31">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="O46" s="102">
+      <c r="O46" s="31">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="P46" s="103">
+      <c r="P46" s="51">
         <f t="shared" si="8"/>
         <v>4.5</v>
       </c>
-      <c r="Q46" s="53">
+      <c r="Q46" s="52">
         <f t="shared" si="7"/>
         <v>6</v>
       </c>
@@ -4594,37 +4473,37 @@
       <c r="Z46" s="40"/>
     </row>
     <row r="47" ht="15.0" customHeight="1">
-      <c r="A47" s="206"/>
-      <c r="B47" s="185"/>
-      <c r="C47" s="186" t="s">
+      <c r="A47" s="193"/>
+      <c r="B47" s="173"/>
+      <c r="C47" s="174" t="s">
         <v>76</v>
       </c>
-      <c r="D47" s="107" t="s">
+      <c r="D47" s="100" t="s">
         <v>34</v>
       </c>
-      <c r="E47" s="207" t="s">
-        <v>84</v>
-      </c>
-      <c r="F47" s="188">
+      <c r="E47" s="175" t="s">
+        <v>85</v>
+      </c>
+      <c r="F47" s="176">
         <v>4.0</v>
       </c>
-      <c r="G47" s="189"/>
-      <c r="H47" s="189">
+      <c r="G47" s="177"/>
+      <c r="H47" s="177">
         <v>4.0</v>
       </c>
-      <c r="I47" s="189"/>
-      <c r="J47" s="208"/>
-      <c r="K47" s="208"/>
-      <c r="L47" s="208"/>
-      <c r="M47" s="111">
+      <c r="I47" s="177"/>
+      <c r="J47" s="2"/>
+      <c r="K47" s="2"/>
+      <c r="L47" s="2"/>
+      <c r="M47" s="104">
         <v>1.0</v>
       </c>
-      <c r="N47" s="111"/>
-      <c r="O47" s="111"/>
-      <c r="P47" s="139">
+      <c r="N47" s="104"/>
+      <c r="O47" s="104"/>
+      <c r="P47" s="132">
         <v>3.0</v>
       </c>
-      <c r="Q47" s="115">
+      <c r="Q47" s="108">
         <f t="shared" si="7"/>
         <v>4</v>
       </c>
@@ -4639,37 +4518,37 @@
       <c r="Z47" s="4"/>
     </row>
     <row r="48" ht="15.0" customHeight="1">
-      <c r="A48" s="206"/>
-      <c r="B48" s="209"/>
-      <c r="C48" s="141" t="s">
+      <c r="A48" s="193"/>
+      <c r="B48" s="194"/>
+      <c r="C48" s="134" t="s">
         <v>57</v>
       </c>
-      <c r="D48" s="141" t="s">
+      <c r="D48" s="134" t="s">
         <v>34</v>
       </c>
-      <c r="E48" s="142" t="s">
-        <v>84</v>
-      </c>
-      <c r="F48" s="143">
+      <c r="E48" s="135" t="s">
+        <v>85</v>
+      </c>
+      <c r="F48" s="136">
         <v>2.0</v>
       </c>
-      <c r="G48" s="210"/>
-      <c r="H48" s="129">
+      <c r="G48" s="195"/>
+      <c r="H48" s="122">
         <v>2.0</v>
       </c>
-      <c r="I48" s="210"/>
+      <c r="I48" s="195"/>
       <c r="J48" s="2"/>
       <c r="K48" s="2"/>
       <c r="L48" s="2"/>
-      <c r="M48" s="144">
+      <c r="M48" s="137">
         <v>0.5</v>
       </c>
-      <c r="N48" s="130"/>
-      <c r="O48" s="144"/>
-      <c r="P48" s="145">
+      <c r="N48" s="123"/>
+      <c r="O48" s="137"/>
+      <c r="P48" s="138">
         <v>1.5</v>
       </c>
-      <c r="Q48" s="134">
+      <c r="Q48" s="127">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
@@ -4684,8 +4563,8 @@
       <c r="Z48" s="4"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="211" t="s">
-        <v>85</v>
+      <c r="A49" s="139" t="s">
+        <v>86</v>
       </c>
       <c r="B49" s="31" t="s">
         <v>60</v>
@@ -4697,40 +4576,40 @@
       <c r="E49" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="F49" s="167" t="s">
+      <c r="F49" s="158" t="s">
         <v>6</v>
       </c>
-      <c r="G49" s="51">
+      <c r="G49" s="35">
         <f>SUM(F50:F51)</f>
         <v>6</v>
       </c>
-      <c r="H49" s="168" t="s">
+      <c r="H49" s="159" t="s">
         <v>6</v>
       </c>
-      <c r="I49" s="51">
+      <c r="I49" s="35">
         <f>SUM(H50:H51)</f>
         <v>3</v>
       </c>
       <c r="J49" s="7"/>
       <c r="K49" s="7"/>
       <c r="L49" s="7"/>
-      <c r="M49" s="102">
+      <c r="M49" s="31">
         <f t="shared" ref="M49:P49" si="9">SUM(M50:M51)</f>
         <v>1.5</v>
       </c>
-      <c r="N49" s="102">
+      <c r="N49" s="31">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="O49" s="102">
+      <c r="O49" s="31">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="P49" s="103">
+      <c r="P49" s="51">
         <f t="shared" si="9"/>
         <v>1.5</v>
       </c>
-      <c r="Q49" s="53">
+      <c r="Q49" s="52">
         <f t="shared" si="7"/>
         <v>3</v>
       </c>
@@ -4745,43 +4624,43 @@
       <c r="Z49" s="40"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="A50" s="146" t="s">
-        <v>86</v>
-      </c>
-      <c r="B50" s="57" t="s">
+      <c r="A50" s="139" t="s">
+        <v>87</v>
+      </c>
+      <c r="B50" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="C50" s="212" t="s">
-        <v>79</v>
-      </c>
-      <c r="D50" s="148" t="s">
+      <c r="C50" s="196" t="s">
+        <v>80</v>
+      </c>
+      <c r="D50" s="141" t="s">
         <v>63</v>
       </c>
-      <c r="E50" s="213" t="s">
-        <v>87</v>
-      </c>
-      <c r="F50" s="60">
+      <c r="E50" s="197" t="s">
+        <v>88</v>
+      </c>
+      <c r="F50" s="59">
         <v>3.0</v>
       </c>
-      <c r="G50" s="57"/>
-      <c r="H50" s="59">
+      <c r="G50" s="56"/>
+      <c r="H50" s="58">
         <v>3.0</v>
       </c>
-      <c r="I50" s="57" t="s">
+      <c r="I50" s="56" t="s">
         <v>6</v>
       </c>
       <c r="J50" s="4"/>
       <c r="K50" s="4"/>
       <c r="L50" s="4"/>
-      <c r="M50" s="150">
+      <c r="M50" s="143">
         <v>1.5</v>
       </c>
-      <c r="N50" s="151"/>
-      <c r="O50" s="151"/>
-      <c r="P50" s="152">
+      <c r="N50" s="144"/>
+      <c r="O50" s="144"/>
+      <c r="P50" s="145">
         <v>1.5</v>
       </c>
-      <c r="Q50" s="153">
+      <c r="Q50" s="146">
         <f t="shared" si="7"/>
         <v>3</v>
       </c>
@@ -4796,37 +4675,37 @@
       <c r="Z50" s="4"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="A51" s="147" t="s">
+      <c r="A51" s="140" t="s">
         <v>6</v>
       </c>
-      <c r="B51" s="78" t="s">
+      <c r="B51" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="C51" s="95" t="s">
-        <v>81</v>
-      </c>
-      <c r="D51" s="160" t="s">
+      <c r="C51" s="92" t="s">
+        <v>82</v>
+      </c>
+      <c r="D51" s="152" t="s">
         <v>37</v>
       </c>
-      <c r="E51" s="96" t="s">
-        <v>88</v>
-      </c>
-      <c r="F51" s="72">
+      <c r="E51" s="93" t="s">
+        <v>89</v>
+      </c>
+      <c r="F51" s="71">
         <v>3.0</v>
       </c>
-      <c r="G51" s="78"/>
-      <c r="H51" s="80"/>
-      <c r="I51" s="78" t="s">
+      <c r="G51" s="77"/>
+      <c r="H51" s="79"/>
+      <c r="I51" s="77" t="s">
         <v>6</v>
       </c>
       <c r="J51" s="4"/>
       <c r="K51" s="4"/>
       <c r="L51" s="4"/>
-      <c r="M51" s="163"/>
-      <c r="N51" s="164"/>
-      <c r="O51" s="163"/>
-      <c r="P51" s="165"/>
-      <c r="Q51" s="166">
+      <c r="M51" s="154"/>
+      <c r="N51" s="155"/>
+      <c r="O51" s="154"/>
+      <c r="P51" s="156"/>
+      <c r="Q51" s="157">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -4841,7 +4720,7 @@
       <c r="Z51" s="4"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="A52" s="147" t="s">
+      <c r="A52" s="140" t="s">
         <v>6</v>
       </c>
       <c r="B52" s="31" t="s">
@@ -4856,36 +4735,36 @@
       <c r="E52" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="F52" s="167" t="s">
+      <c r="F52" s="158" t="s">
         <v>6</v>
       </c>
-      <c r="G52" s="51">
+      <c r="G52" s="35">
         <f>SUM(F53:F56)</f>
         <v>16</v>
       </c>
-      <c r="H52" s="168" t="s">
+      <c r="H52" s="159" t="s">
         <v>6</v>
       </c>
-      <c r="I52" s="51">
+      <c r="I52" s="35">
         <f>SUM(H53:H56)</f>
         <v>13</v>
       </c>
       <c r="J52" s="40"/>
       <c r="K52" s="40"/>
       <c r="L52" s="40"/>
-      <c r="M52" s="102">
+      <c r="M52" s="31">
         <f>SUM(M53:M56)</f>
         <v>6</v>
       </c>
-      <c r="N52" s="102">
+      <c r="N52" s="31">
         <f>SUM(N53:N59)</f>
         <v>0</v>
       </c>
-      <c r="O52" s="102">
+      <c r="O52" s="31">
         <f t="shared" ref="O52:P52" si="10">SUM(O53:O56)</f>
         <v>0</v>
       </c>
-      <c r="P52" s="103">
+      <c r="P52" s="51">
         <f t="shared" si="10"/>
         <v>7</v>
       </c>
@@ -4904,43 +4783,43 @@
       <c r="Z52" s="40"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="A53" s="147" t="s">
+      <c r="A53" s="140" t="s">
         <v>6</v>
       </c>
-      <c r="B53" s="57" t="s">
+      <c r="B53" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="C53" s="212" t="s">
-        <v>83</v>
-      </c>
-      <c r="D53" s="148" t="s">
+      <c r="C53" s="196" t="s">
+        <v>84</v>
+      </c>
+      <c r="D53" s="141" t="s">
         <v>63</v>
       </c>
-      <c r="E53" s="213" t="s">
+      <c r="E53" s="197" t="s">
         <v>1</v>
       </c>
-      <c r="F53" s="148">
+      <c r="F53" s="141">
         <v>4.0</v>
       </c>
-      <c r="G53" s="57" t="s">
+      <c r="G53" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="H53" s="59">
+      <c r="H53" s="58">
         <v>4.0</v>
       </c>
-      <c r="I53" s="57" t="s">
+      <c r="I53" s="56" t="s">
         <v>6</v>
       </c>
       <c r="J53" s="4"/>
       <c r="K53" s="4"/>
       <c r="L53" s="4"/>
-      <c r="M53" s="150">
+      <c r="M53" s="143">
         <v>4.0</v>
       </c>
-      <c r="N53" s="151"/>
-      <c r="O53" s="151"/>
-      <c r="P53" s="214"/>
-      <c r="Q53" s="153">
+      <c r="N53" s="144"/>
+      <c r="O53" s="144"/>
+      <c r="P53" s="198"/>
+      <c r="Q53" s="146">
         <f t="shared" si="7"/>
         <v>4</v>
       </c>
@@ -4955,43 +4834,43 @@
       <c r="Z53" s="4"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
-      <c r="A54" s="147" t="s">
+      <c r="A54" s="140" t="s">
         <v>6</v>
       </c>
-      <c r="B54" s="66" t="s">
+      <c r="B54" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="C54" s="88" t="s">
-        <v>89</v>
-      </c>
-      <c r="D54" s="89" t="s">
+      <c r="C54" s="87" t="s">
+        <v>90</v>
+      </c>
+      <c r="D54" s="88" t="s">
         <v>40</v>
       </c>
-      <c r="E54" s="90" t="s">
-        <v>90</v>
-      </c>
-      <c r="F54" s="89">
+      <c r="E54" s="89" t="s">
+        <v>43</v>
+      </c>
+      <c r="F54" s="88">
         <v>2.0</v>
       </c>
-      <c r="G54" s="66" t="s">
+      <c r="G54" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="H54" s="68">
+      <c r="H54" s="67">
         <v>1.0</v>
       </c>
-      <c r="I54" s="66" t="s">
+      <c r="I54" s="65" t="s">
         <v>6</v>
       </c>
       <c r="J54" s="4"/>
       <c r="K54" s="4"/>
       <c r="L54" s="4"/>
-      <c r="M54" s="155">
+      <c r="M54" s="147">
         <v>1.0</v>
       </c>
-      <c r="N54" s="156"/>
-      <c r="O54" s="156"/>
-      <c r="P54" s="215"/>
-      <c r="Q54" s="158">
+      <c r="N54" s="148"/>
+      <c r="O54" s="148"/>
+      <c r="P54" s="199"/>
+      <c r="Q54" s="150">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
@@ -5006,45 +4885,45 @@
       <c r="Z54" s="4"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="A55" s="147" t="s">
+      <c r="A55" s="140" t="s">
         <v>6</v>
       </c>
-      <c r="B55" s="66" t="s">
+      <c r="B55" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="C55" s="88" t="s">
+      <c r="C55" s="87" t="s">
         <v>91</v>
       </c>
-      <c r="D55" s="89" t="s">
+      <c r="D55" s="88" t="s">
         <v>63</v>
       </c>
-      <c r="E55" s="90" t="s">
-        <v>87</v>
-      </c>
-      <c r="F55" s="89">
+      <c r="E55" s="89" t="s">
+        <v>88</v>
+      </c>
+      <c r="F55" s="88">
         <v>2.0</v>
       </c>
-      <c r="G55" s="66" t="s">
+      <c r="G55" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="H55" s="68">
+      <c r="H55" s="67">
         <v>2.0</v>
       </c>
-      <c r="I55" s="66" t="s">
+      <c r="I55" s="65" t="s">
         <v>6</v>
       </c>
       <c r="J55" s="4"/>
       <c r="K55" s="4"/>
       <c r="L55" s="4"/>
-      <c r="M55" s="155">
+      <c r="M55" s="147">
         <v>1.0</v>
       </c>
-      <c r="N55" s="156"/>
-      <c r="O55" s="156"/>
-      <c r="P55" s="157">
+      <c r="N55" s="148"/>
+      <c r="O55" s="148"/>
+      <c r="P55" s="149">
         <v>1.0</v>
       </c>
-      <c r="Q55" s="158">
+      <c r="Q55" s="150">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
@@ -5059,43 +4938,43 @@
       <c r="Z55" s="4"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="A56" s="147" t="s">
+      <c r="A56" s="140" t="s">
         <v>6</v>
       </c>
-      <c r="B56" s="78" t="s">
+      <c r="B56" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="C56" s="95" t="s">
+      <c r="C56" s="92" t="s">
         <v>92</v>
       </c>
-      <c r="D56" s="160" t="s">
+      <c r="D56" s="152" t="s">
         <v>63</v>
       </c>
-      <c r="E56" s="96" t="s">
+      <c r="E56" s="93" t="s">
         <v>32</v>
       </c>
-      <c r="F56" s="160">
+      <c r="F56" s="152">
         <v>8.0</v>
       </c>
-      <c r="G56" s="78" t="s">
+      <c r="G56" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="H56" s="80">
+      <c r="H56" s="79">
         <v>6.0</v>
       </c>
-      <c r="I56" s="78" t="s">
+      <c r="I56" s="77" t="s">
         <v>6</v>
       </c>
       <c r="J56" s="4"/>
       <c r="K56" s="4"/>
       <c r="L56" s="4"/>
-      <c r="M56" s="164"/>
-      <c r="N56" s="164"/>
-      <c r="O56" s="164"/>
-      <c r="P56" s="165">
+      <c r="M56" s="155"/>
+      <c r="N56" s="155"/>
+      <c r="O56" s="155"/>
+      <c r="P56" s="156">
         <v>6.0</v>
       </c>
-      <c r="Q56" s="166">
+      <c r="Q56" s="157">
         <f t="shared" si="7"/>
         <v>6</v>
       </c>
@@ -5110,7 +4989,7 @@
       <c r="Z56" s="4"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="A57" s="147" t="s">
+      <c r="A57" s="140" t="s">
         <v>6</v>
       </c>
       <c r="B57" s="31" t="s">
@@ -5125,36 +5004,36 @@
       <c r="E57" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="F57" s="167" t="s">
+      <c r="F57" s="158" t="s">
         <v>6</v>
       </c>
-      <c r="G57" s="51">
+      <c r="G57" s="35">
         <f>SUM(F58:F59)</f>
         <v>6</v>
       </c>
-      <c r="H57" s="168" t="s">
+      <c r="H57" s="159" t="s">
         <v>6</v>
       </c>
-      <c r="I57" s="51">
+      <c r="I57" s="35">
         <f>SUM(H58:H59)</f>
         <v>6</v>
       </c>
       <c r="J57" s="40"/>
       <c r="K57" s="40"/>
       <c r="L57" s="40"/>
-      <c r="M57" s="102">
+      <c r="M57" s="31">
         <f t="shared" ref="M57:P57" si="11">SUM(M58:M59)</f>
         <v>0</v>
       </c>
-      <c r="N57" s="102">
+      <c r="N57" s="31">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="O57" s="102">
+      <c r="O57" s="31">
         <f t="shared" si="11"/>
         <v>2</v>
       </c>
-      <c r="P57" s="103">
+      <c r="P57" s="51">
         <f t="shared" si="11"/>
         <v>4</v>
       </c>
@@ -5173,45 +5052,45 @@
       <c r="Z57" s="40"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="147" t="s">
+      <c r="A58" s="140" t="s">
         <v>6</v>
       </c>
-      <c r="B58" s="57" t="s">
+      <c r="B58" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="C58" s="148" t="s">
+      <c r="C58" s="141" t="s">
         <v>76</v>
       </c>
-      <c r="D58" s="56" t="s">
+      <c r="D58" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="E58" s="149" t="s">
-        <v>43</v>
-      </c>
-      <c r="F58" s="175">
+      <c r="E58" s="142" t="s">
+        <v>77</v>
+      </c>
+      <c r="F58" s="166">
         <v>4.0</v>
       </c>
-      <c r="G58" s="57" t="s">
+      <c r="G58" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="H58" s="59">
+      <c r="H58" s="58">
         <v>4.0</v>
       </c>
-      <c r="I58" s="57" t="s">
+      <c r="I58" s="56" t="s">
         <v>6</v>
       </c>
       <c r="J58" s="4"/>
       <c r="K58" s="4"/>
       <c r="L58" s="4"/>
-      <c r="M58" s="150"/>
-      <c r="N58" s="150"/>
-      <c r="O58" s="150">
+      <c r="M58" s="143"/>
+      <c r="N58" s="143"/>
+      <c r="O58" s="143">
         <v>1.0</v>
       </c>
-      <c r="P58" s="152">
+      <c r="P58" s="145">
         <v>3.0</v>
       </c>
-      <c r="Q58" s="153">
+      <c r="Q58" s="146">
         <f t="shared" si="7"/>
         <v>4</v>
       </c>
@@ -5226,45 +5105,45 @@
       <c r="Z58" s="4"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="A59" s="147" t="s">
+      <c r="A59" s="140" t="s">
         <v>6</v>
       </c>
-      <c r="B59" s="78" t="s">
+      <c r="B59" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="C59" s="160" t="s">
+      <c r="C59" s="152" t="s">
         <v>57</v>
       </c>
-      <c r="D59" s="160" t="s">
+      <c r="D59" s="152" t="s">
         <v>34</v>
       </c>
-      <c r="E59" s="181" t="s">
-        <v>43</v>
-      </c>
-      <c r="F59" s="182">
+      <c r="E59" s="170" t="s">
+        <v>77</v>
+      </c>
+      <c r="F59" s="171">
         <v>2.0</v>
       </c>
-      <c r="G59" s="78" t="s">
+      <c r="G59" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="H59" s="80">
+      <c r="H59" s="79">
         <v>2.0</v>
       </c>
-      <c r="I59" s="78" t="s">
+      <c r="I59" s="77" t="s">
         <v>6</v>
       </c>
       <c r="J59" s="4"/>
       <c r="K59" s="4"/>
       <c r="L59" s="4"/>
-      <c r="M59" s="164"/>
-      <c r="N59" s="164"/>
-      <c r="O59" s="163">
+      <c r="M59" s="155"/>
+      <c r="N59" s="155"/>
+      <c r="O59" s="154">
         <v>1.0</v>
       </c>
-      <c r="P59" s="165">
+      <c r="P59" s="156">
         <v>1.0</v>
       </c>
-      <c r="Q59" s="166">
+      <c r="Q59" s="157">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
@@ -5279,7 +5158,7 @@
       <c r="Z59" s="4"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="A60" s="216" t="s">
+      <c r="A60" s="172" t="s">
         <v>93</v>
       </c>
       <c r="B60" s="31" t="s">
@@ -5297,39 +5176,38 @@
       <c r="F60" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="G60" s="51">
+      <c r="G60" s="35">
         <f>SUM(F61)</f>
         <v>3</v>
       </c>
       <c r="H60" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="I60" s="51">
-        <f>SUM(H61)</f>
-        <v>0</v>
+      <c r="I60" s="200">
+        <v>3.0</v>
       </c>
       <c r="J60" s="40"/>
       <c r="K60" s="40"/>
       <c r="L60" s="40"/>
-      <c r="M60" s="102">
-        <f t="shared" ref="M60:P60" si="12">SUM(M61:M62)</f>
-        <v>0</v>
-      </c>
-      <c r="N60" s="102">
+      <c r="M60" s="31">
+        <f t="shared" ref="M60:P60" si="12">SUM(M61)</f>
+        <v>1</v>
+      </c>
+      <c r="N60" s="31">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="O60" s="102">
+      <c r="O60" s="31">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="P60" s="103">
+        <v>1</v>
+      </c>
+      <c r="P60" s="51">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q60" s="39">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R60" s="40"/>
       <c r="S60" s="40"/>
@@ -5342,47 +5220,47 @@
       <c r="Z60" s="40"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="A61" s="184" t="s">
+      <c r="A61" s="172" t="s">
         <v>94</v>
       </c>
-      <c r="B61" s="185" t="s">
+      <c r="B61" s="173" t="s">
         <v>6</v>
       </c>
-      <c r="C61" s="186" t="s">
-        <v>81</v>
-      </c>
-      <c r="D61" s="107" t="s">
+      <c r="C61" s="174" t="s">
+        <v>82</v>
+      </c>
+      <c r="D61" s="100" t="s">
         <v>37</v>
       </c>
-      <c r="E61" s="207" t="s">
-        <v>88</v>
-      </c>
-      <c r="F61" s="188">
+      <c r="E61" s="175" t="s">
+        <v>89</v>
+      </c>
+      <c r="F61" s="176">
         <v>3.0</v>
       </c>
-      <c r="G61" s="189"/>
-      <c r="H61" s="190" t="s">
-        <v>6</v>
-      </c>
-      <c r="I61" s="189"/>
+      <c r="G61" s="177"/>
+      <c r="H61" s="201" t="s">
+        <v>95</v>
+      </c>
+      <c r="I61" s="177"/>
       <c r="J61" s="4"/>
       <c r="K61" s="4"/>
       <c r="L61" s="4"/>
-      <c r="M61" s="191" t="s">
+      <c r="M61" s="202">
+        <v>1.0</v>
+      </c>
+      <c r="N61" s="179" t="s">
         <v>6</v>
       </c>
-      <c r="N61" s="191" t="s">
-        <v>6</v>
-      </c>
-      <c r="O61" s="191" t="s">
-        <v>6</v>
-      </c>
-      <c r="P61" s="217" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q61" s="115">
+      <c r="O61" s="202">
+        <v>1.0</v>
+      </c>
+      <c r="P61" s="203">
+        <v>1.0</v>
+      </c>
+      <c r="Q61" s="108">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R61" s="4"/>
       <c r="S61" s="4"/>
@@ -5395,149 +5273,145 @@
       <c r="Z61" s="4"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="A62" s="104" t="s">
+      <c r="A62" s="97" t="s">
         <v>6</v>
       </c>
-      <c r="B62" s="140" t="s">
+      <c r="B62" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="C62" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="C62" s="209" t="s">
+      <c r="D62" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="D62" s="126" t="s">
+      <c r="E62" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="E62" s="209" t="s">
+      <c r="F62" s="158" t="s">
         <v>6</v>
       </c>
-      <c r="F62" s="218" t="s">
+      <c r="G62" s="35">
+        <f>SUM(F63:F64)</f>
+        <v>14</v>
+      </c>
+      <c r="H62" s="159" t="s">
         <v>6</v>
       </c>
-      <c r="G62" s="126"/>
-      <c r="H62" s="219" t="s">
-        <v>6</v>
-      </c>
-      <c r="I62" s="126"/>
-      <c r="J62" s="4"/>
-      <c r="K62" s="4"/>
-      <c r="L62" s="4"/>
-      <c r="M62" s="130" t="s">
-        <v>6</v>
-      </c>
-      <c r="N62" s="130" t="s">
-        <v>6</v>
-      </c>
-      <c r="O62" s="130" t="s">
-        <v>6</v>
-      </c>
-      <c r="P62" s="220" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q62" s="134">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="R62" s="4"/>
-      <c r="S62" s="4"/>
-      <c r="T62" s="4"/>
-      <c r="U62" s="4"/>
-      <c r="V62" s="4"/>
-      <c r="W62" s="4"/>
-      <c r="X62" s="4"/>
-      <c r="Y62" s="4"/>
-      <c r="Z62" s="4"/>
-    </row>
-    <row r="63" ht="15.75" customHeight="1">
-      <c r="A63" s="104" t="s">
-        <v>6</v>
-      </c>
-      <c r="B63" s="31" t="s">
-        <v>45</v>
-      </c>
-      <c r="C63" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="D63" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="E63" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="F63" s="167" t="s">
-        <v>6</v>
-      </c>
-      <c r="G63" s="51">
-        <f>SUM(F64:F68)</f>
-        <v>14</v>
-      </c>
-      <c r="H63" s="168" t="s">
-        <v>6</v>
-      </c>
-      <c r="I63" s="51">
-        <f>SUM(H64:H68)</f>
-        <v>0</v>
-      </c>
-      <c r="J63" s="40"/>
-      <c r="K63" s="40"/>
-      <c r="L63" s="40"/>
-      <c r="M63" s="221">
-        <f t="shared" ref="M63:P63" si="13">SUM(M64:M68)</f>
-        <v>0</v>
-      </c>
-      <c r="N63" s="221">
+      <c r="I62" s="35">
+        <f>SUM(H63:H64)</f>
+        <v>17</v>
+      </c>
+      <c r="J62" s="40"/>
+      <c r="K62" s="40"/>
+      <c r="L62" s="40"/>
+      <c r="M62" s="204">
+        <f t="shared" ref="M62:P62" si="13">SUM(M63:M64)</f>
+        <v>16</v>
+      </c>
+      <c r="N62" s="204">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="O63" s="221">
+      <c r="O62" s="204">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="P63" s="222">
+      <c r="P62" s="205">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="Q63" s="39">
+        <v>1</v>
+      </c>
+      <c r="Q62" s="39">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="R63" s="40"/>
-      <c r="S63" s="40"/>
-      <c r="T63" s="40"/>
-      <c r="U63" s="40"/>
-      <c r="V63" s="40"/>
-      <c r="W63" s="40"/>
-      <c r="X63" s="40"/>
-      <c r="Y63" s="40"/>
-      <c r="Z63" s="40"/>
+        <v>17</v>
+      </c>
+      <c r="R62" s="40"/>
+      <c r="S62" s="40"/>
+      <c r="T62" s="40"/>
+      <c r="U62" s="40"/>
+      <c r="V62" s="40"/>
+      <c r="W62" s="40"/>
+      <c r="X62" s="40"/>
+      <c r="Y62" s="40"/>
+      <c r="Z62" s="40"/>
+    </row>
+    <row r="63" ht="15.75" customHeight="1">
+      <c r="A63" s="97"/>
+      <c r="B63" s="128"/>
+      <c r="C63" s="174" t="s">
+        <v>84</v>
+      </c>
+      <c r="D63" s="100" t="s">
+        <v>63</v>
+      </c>
+      <c r="E63" s="175" t="s">
+        <v>1</v>
+      </c>
+      <c r="F63" s="176">
+        <v>6.0</v>
+      </c>
+      <c r="G63" s="177"/>
+      <c r="H63" s="201">
+        <v>8.0</v>
+      </c>
+      <c r="I63" s="177"/>
+      <c r="J63" s="4"/>
+      <c r="K63" s="4"/>
+      <c r="L63" s="4"/>
+      <c r="M63" s="202">
+        <v>8.0</v>
+      </c>
+      <c r="N63" s="179"/>
+      <c r="O63" s="179"/>
+      <c r="P63" s="206"/>
+      <c r="Q63" s="108">
+        <f t="shared" si="7"/>
+        <v>8</v>
+      </c>
+      <c r="R63" s="4"/>
+      <c r="S63" s="4"/>
+      <c r="T63" s="4"/>
+      <c r="U63" s="4"/>
+      <c r="V63" s="4"/>
+      <c r="W63" s="4"/>
+      <c r="X63" s="4"/>
+      <c r="Y63" s="4"/>
+      <c r="Z63" s="4"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="A64" s="104"/>
-      <c r="B64" s="135"/>
-      <c r="C64" s="186" t="s">
-        <v>83</v>
-      </c>
-      <c r="D64" s="107" t="s">
+      <c r="A64" s="97"/>
+      <c r="B64" s="207"/>
+      <c r="C64" s="208" t="s">
+        <v>96</v>
+      </c>
+      <c r="D64" s="209" t="s">
         <v>63</v>
       </c>
-      <c r="E64" s="207" t="s">
+      <c r="E64" s="210" t="s">
         <v>1</v>
       </c>
-      <c r="F64" s="188">
-        <v>6.0</v>
-      </c>
-      <c r="G64" s="189"/>
-      <c r="H64" s="190"/>
-      <c r="I64" s="189"/>
+      <c r="F64" s="211">
+        <v>8.0</v>
+      </c>
+      <c r="G64" s="212"/>
+      <c r="H64" s="213">
+        <v>9.0</v>
+      </c>
+      <c r="I64" s="212"/>
       <c r="J64" s="4"/>
       <c r="K64" s="4"/>
       <c r="L64" s="4"/>
-      <c r="M64" s="191"/>
-      <c r="N64" s="191"/>
-      <c r="O64" s="191"/>
-      <c r="P64" s="217"/>
-      <c r="Q64" s="115">
+      <c r="M64" s="214">
+        <v>8.0</v>
+      </c>
+      <c r="N64" s="215"/>
+      <c r="O64" s="215"/>
+      <c r="P64" s="216">
+        <v>1.0</v>
+      </c>
+      <c r="Q64" s="117">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="R64" s="4"/>
       <c r="S64" s="4"/>
@@ -5550,78 +5424,106 @@
       <c r="Z64" s="4"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="A65" s="104"/>
-      <c r="B65" s="223"/>
-      <c r="C65" s="224" t="s">
-        <v>95</v>
-      </c>
-      <c r="D65" s="225" t="s">
-        <v>63</v>
-      </c>
-      <c r="E65" s="226" t="s">
-        <v>1</v>
-      </c>
-      <c r="F65" s="227">
-        <v>8.0</v>
-      </c>
-      <c r="G65" s="228"/>
-      <c r="H65" s="229"/>
-      <c r="I65" s="228"/>
-      <c r="J65" s="4"/>
-      <c r="K65" s="4"/>
-      <c r="L65" s="4"/>
-      <c r="M65" s="230"/>
-      <c r="N65" s="230"/>
-      <c r="O65" s="230"/>
-      <c r="P65" s="231"/>
-      <c r="Q65" s="124">
+      <c r="A65" s="97" t="s">
+        <v>6</v>
+      </c>
+      <c r="B65" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="C65" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D65" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="E65" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="F65" s="158" t="s">
+        <v>6</v>
+      </c>
+      <c r="G65" s="35">
+        <f>SUM(F66:F69)</f>
+        <v>18</v>
+      </c>
+      <c r="H65" s="159" t="s">
+        <v>6</v>
+      </c>
+      <c r="I65" s="217">
+        <f>SUM(H66:H69)</f>
+        <v>18</v>
+      </c>
+      <c r="J65" s="40"/>
+      <c r="K65" s="40"/>
+      <c r="L65" s="40"/>
+      <c r="M65" s="204">
+        <f t="shared" ref="M65:P65" si="14">SUM(M66:M69)</f>
+        <v>6</v>
+      </c>
+      <c r="N65" s="204">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="O65" s="204">
+        <f t="shared" si="14"/>
+        <v>6</v>
+      </c>
+      <c r="P65" s="205">
+        <f t="shared" si="14"/>
+        <v>6</v>
+      </c>
+      <c r="Q65" s="39">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="R65" s="4"/>
-      <c r="S65" s="4"/>
-      <c r="T65" s="4"/>
-      <c r="U65" s="4"/>
-      <c r="V65" s="4"/>
-      <c r="W65" s="4"/>
-      <c r="X65" s="4"/>
-      <c r="Y65" s="4"/>
-      <c r="Z65" s="4"/>
+        <v>18</v>
+      </c>
+      <c r="R65" s="40"/>
+      <c r="S65" s="40"/>
+      <c r="T65" s="40"/>
+      <c r="U65" s="40"/>
+      <c r="V65" s="40"/>
+      <c r="W65" s="40"/>
+      <c r="X65" s="40"/>
+      <c r="Y65" s="40"/>
+      <c r="Z65" s="40"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="A66" s="104" t="s">
+      <c r="A66" s="193" t="s">
         <v>6</v>
       </c>
-      <c r="B66" s="223" t="s">
+      <c r="B66" s="218" t="s">
         <v>6</v>
       </c>
-      <c r="C66" s="232"/>
-      <c r="D66" s="225"/>
-      <c r="E66" s="226"/>
-      <c r="F66" s="227"/>
-      <c r="G66" s="117"/>
-      <c r="H66" s="229" t="s">
-        <v>6</v>
-      </c>
-      <c r="I66" s="117"/>
+      <c r="C66" s="100" t="s">
+        <v>57</v>
+      </c>
+      <c r="D66" s="100" t="s">
+        <v>34</v>
+      </c>
+      <c r="E66" s="175" t="s">
+        <v>48</v>
+      </c>
+      <c r="F66" s="219">
+        <v>4.0</v>
+      </c>
+      <c r="G66" s="102"/>
+      <c r="H66" s="220">
+        <v>4.0</v>
+      </c>
+      <c r="I66" s="102"/>
       <c r="J66" s="4"/>
       <c r="K66" s="4"/>
       <c r="L66" s="4"/>
-      <c r="M66" s="230" t="s">
-        <v>6</v>
-      </c>
-      <c r="N66" s="230" t="s">
-        <v>6</v>
-      </c>
-      <c r="O66" s="230" t="s">
-        <v>6</v>
-      </c>
-      <c r="P66" s="231" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q66" s="124">
+      <c r="M66" s="179"/>
+      <c r="N66" s="179"/>
+      <c r="O66" s="202">
+        <v>2.0</v>
+      </c>
+      <c r="P66" s="203">
+        <v>2.0</v>
+      </c>
+      <c r="Q66" s="108">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R66" s="4"/>
       <c r="S66" s="4"/>
@@ -5634,39 +5536,41 @@
       <c r="Z66" s="4"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="A67" s="104" t="s">
-        <v>6</v>
-      </c>
-      <c r="B67" s="223" t="s">
-        <v>6</v>
-      </c>
-      <c r="C67" s="232"/>
-      <c r="D67" s="225"/>
-      <c r="E67" s="226"/>
-      <c r="F67" s="227"/>
-      <c r="G67" s="117"/>
-      <c r="H67" s="229" t="s">
-        <v>6</v>
-      </c>
-      <c r="I67" s="117"/>
+      <c r="A67" s="221"/>
+      <c r="B67" s="207"/>
+      <c r="C67" s="208" t="s">
+        <v>97</v>
+      </c>
+      <c r="D67" s="209" t="s">
+        <v>34</v>
+      </c>
+      <c r="E67" s="210" t="s">
+        <v>48</v>
+      </c>
+      <c r="F67" s="211">
+        <v>6.0</v>
+      </c>
+      <c r="G67" s="110"/>
+      <c r="H67" s="213">
+        <v>6.0</v>
+      </c>
+      <c r="I67" s="110"/>
       <c r="J67" s="4"/>
       <c r="K67" s="4"/>
       <c r="L67" s="4"/>
-      <c r="M67" s="230" t="s">
+      <c r="M67" s="214">
+        <v>2.0</v>
+      </c>
+      <c r="N67" s="215"/>
+      <c r="O67" s="214">
+        <v>2.0</v>
+      </c>
+      <c r="P67" s="216">
+        <v>2.0</v>
+      </c>
+      <c r="Q67" s="117">
+        <f t="shared" si="7"/>
         <v>6</v>
-      </c>
-      <c r="N67" s="230" t="s">
-        <v>6</v>
-      </c>
-      <c r="O67" s="230" t="s">
-        <v>6</v>
-      </c>
-      <c r="P67" s="231" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q67" s="124">
-        <f t="shared" si="7"/>
-        <v>0</v>
       </c>
       <c r="R67" s="4"/>
       <c r="S67" s="4"/>
@@ -5679,39 +5583,39 @@
       <c r="Z67" s="4"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
-      <c r="A68" s="104" t="s">
-        <v>6</v>
-      </c>
-      <c r="B68" s="223" t="s">
-        <v>6</v>
-      </c>
-      <c r="C68" s="232"/>
-      <c r="D68" s="225"/>
-      <c r="E68" s="226"/>
-      <c r="F68" s="227"/>
-      <c r="G68" s="117"/>
-      <c r="H68" s="229" t="s">
-        <v>6</v>
-      </c>
-      <c r="I68" s="117"/>
+      <c r="A68" s="221"/>
+      <c r="B68" s="207"/>
+      <c r="C68" s="222" t="s">
+        <v>98</v>
+      </c>
+      <c r="D68" s="110" t="s">
+        <v>99</v>
+      </c>
+      <c r="E68" s="210" t="s">
+        <v>48</v>
+      </c>
+      <c r="F68" s="211">
+        <v>4.0</v>
+      </c>
+      <c r="G68" s="110"/>
+      <c r="H68" s="213">
+        <v>4.0</v>
+      </c>
+      <c r="I68" s="110"/>
       <c r="J68" s="4"/>
       <c r="K68" s="4"/>
       <c r="L68" s="4"/>
-      <c r="M68" s="230" t="s">
-        <v>6</v>
-      </c>
-      <c r="N68" s="230" t="s">
-        <v>6</v>
-      </c>
-      <c r="O68" s="230" t="s">
-        <v>6</v>
-      </c>
-      <c r="P68" s="231" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q68" s="124">
+      <c r="M68" s="214">
+        <v>2.0</v>
+      </c>
+      <c r="N68" s="215"/>
+      <c r="O68" s="214">
+        <v>2.0</v>
+      </c>
+      <c r="P68" s="223"/>
+      <c r="Q68" s="117">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R68" s="4"/>
       <c r="S68" s="4"/>
@@ -5724,47 +5628,39 @@
       <c r="Z68" s="4"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
-      <c r="A69" s="104" t="s">
-        <v>6</v>
-      </c>
-      <c r="B69" s="233" t="s">
-        <v>6</v>
-      </c>
-      <c r="C69" s="234" t="s">
-        <v>6</v>
-      </c>
-      <c r="D69" s="235" t="s">
-        <v>6</v>
-      </c>
-      <c r="E69" s="233" t="s">
-        <v>6</v>
-      </c>
-      <c r="F69" s="236" t="s">
-        <v>6</v>
-      </c>
-      <c r="G69" s="126"/>
-      <c r="H69" s="237" t="s">
-        <v>6</v>
-      </c>
-      <c r="I69" s="126"/>
+      <c r="A69" s="221"/>
+      <c r="B69" s="207"/>
+      <c r="C69" s="222" t="s">
+        <v>100</v>
+      </c>
+      <c r="D69" s="110" t="s">
+        <v>99</v>
+      </c>
+      <c r="E69" s="210" t="s">
+        <v>48</v>
+      </c>
+      <c r="F69" s="211">
+        <v>4.0</v>
+      </c>
+      <c r="G69" s="110"/>
+      <c r="H69" s="213">
+        <v>4.0</v>
+      </c>
+      <c r="I69" s="110"/>
       <c r="J69" s="4"/>
       <c r="K69" s="4"/>
       <c r="L69" s="4"/>
-      <c r="M69" s="130" t="s">
-        <v>6</v>
-      </c>
-      <c r="N69" s="130" t="s">
-        <v>6</v>
-      </c>
-      <c r="O69" s="130" t="s">
-        <v>6</v>
-      </c>
-      <c r="P69" s="220" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q69" s="134">
+      <c r="M69" s="214">
+        <v>2.0</v>
+      </c>
+      <c r="N69" s="215"/>
+      <c r="O69" s="214"/>
+      <c r="P69" s="216">
+        <v>2.0</v>
+      </c>
+      <c r="Q69" s="117">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R69" s="4"/>
       <c r="S69" s="4"/>
@@ -5777,57 +5673,53 @@
       <c r="Z69" s="4"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
-      <c r="A70" s="104" t="s">
+      <c r="A70" s="224" t="s">
+        <v>5</v>
+      </c>
+      <c r="B70" s="225" t="s">
         <v>6</v>
       </c>
-      <c r="B70" s="31" t="s">
-        <v>55</v>
-      </c>
-      <c r="C70" s="32" t="s">
+      <c r="C70" s="226" t="s">
         <v>6</v>
       </c>
-      <c r="D70" s="33" t="s">
+      <c r="D70" s="226" t="s">
         <v>6</v>
       </c>
-      <c r="E70" s="32" t="s">
+      <c r="E70" s="227" t="s">
         <v>6</v>
       </c>
-      <c r="F70" s="167" t="s">
-        <v>6</v>
-      </c>
-      <c r="G70" s="51">
-        <f>SUM(F71:F74)</f>
-        <v>18</v>
-      </c>
-      <c r="H70" s="168" t="s">
-        <v>6</v>
-      </c>
-      <c r="I70" s="238">
-        <f>SUM(H71:H74)</f>
-        <v>0</v>
+      <c r="F70" s="226"/>
+      <c r="G70" s="228">
+        <f>SUM(G6,G8,G13,G21,G26,G29,G35,G37,G41,G44,G46,G49,G52,G57,G60,G62,G65)</f>
+        <v>186</v>
+      </c>
+      <c r="H70" s="229"/>
+      <c r="I70" s="228">
+        <f>SUM(I6,I8,I13,I21,I26,I29,I35,I37,I41,I44,I46,I49,I52,I57,I60,I62,I65)</f>
+        <v>202</v>
       </c>
       <c r="J70" s="40"/>
       <c r="K70" s="40"/>
       <c r="L70" s="40"/>
-      <c r="M70" s="221">
-        <f t="shared" ref="M70:P70" si="14">SUM(M71:M75)</f>
-        <v>0</v>
-      </c>
-      <c r="N70" s="221">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="O70" s="221">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="P70" s="222">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="Q70" s="39">
-        <f t="shared" si="7"/>
-        <v>0</v>
+      <c r="M70" s="230">
+        <f t="shared" ref="M70:Q70" si="15">SUM(M6,M8,M13,M21,M26,M29,M35,M37,M41,M44,M46,M49,M52,M57,M60,M62,M65)</f>
+        <v>68.25</v>
+      </c>
+      <c r="N70" s="228">
+        <f t="shared" si="15"/>
+        <v>19.25</v>
+      </c>
+      <c r="O70" s="228">
+        <f t="shared" si="15"/>
+        <v>39.25</v>
+      </c>
+      <c r="P70" s="231">
+        <f t="shared" si="15"/>
+        <v>75.25</v>
+      </c>
+      <c r="Q70" s="232">
+        <f t="shared" si="15"/>
+        <v>202</v>
       </c>
       <c r="R70" s="40"/>
       <c r="S70" s="40"/>
@@ -5840,40 +5732,31 @@
       <c r="Z70" s="40"/>
     </row>
     <row r="71" ht="15.75" customHeight="1">
-      <c r="A71" s="206" t="s">
-        <v>6</v>
-      </c>
-      <c r="B71" s="239" t="s">
-        <v>6</v>
-      </c>
-      <c r="C71" s="107" t="s">
-        <v>57</v>
-      </c>
-      <c r="D71" s="107" t="s">
-        <v>34</v>
-      </c>
-      <c r="E71" s="207" t="s">
-        <v>48</v>
-      </c>
-      <c r="F71" s="240">
-        <v>4.0</v>
-      </c>
-      <c r="G71" s="109"/>
-      <c r="H71" s="241" t="s">
-        <v>6</v>
-      </c>
-      <c r="I71" s="109"/>
+      <c r="A71" s="233"/>
+      <c r="B71" s="4"/>
+      <c r="C71" s="4"/>
+      <c r="D71" s="4"/>
+      <c r="E71" s="4"/>
+      <c r="F71" s="4"/>
+      <c r="G71" s="4"/>
+      <c r="H71" s="4"/>
+      <c r="I71" s="4"/>
       <c r="J71" s="4"/>
       <c r="K71" s="4"/>
       <c r="L71" s="4"/>
-      <c r="M71" s="191"/>
-      <c r="N71" s="191"/>
-      <c r="O71" s="191"/>
-      <c r="P71" s="217"/>
-      <c r="Q71" s="115">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
+      <c r="M71" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="N71" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="O71" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="P71" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q71" s="4"/>
       <c r="R71" s="4"/>
       <c r="S71" s="4"/>
       <c r="T71" s="4"/>
@@ -5885,34 +5768,23 @@
       <c r="Z71" s="4"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
-      <c r="A72" s="242"/>
-      <c r="B72" s="223"/>
-      <c r="C72" s="224" t="s">
-        <v>96</v>
-      </c>
-      <c r="D72" s="225" t="s">
-        <v>34</v>
-      </c>
-      <c r="E72" s="226" t="s">
-        <v>48</v>
-      </c>
-      <c r="F72" s="227">
-        <v>6.0</v>
-      </c>
-      <c r="G72" s="117"/>
-      <c r="H72" s="229"/>
-      <c r="I72" s="117"/>
+      <c r="A72" s="234"/>
+      <c r="B72" s="4"/>
+      <c r="C72" s="4"/>
+      <c r="D72" s="4"/>
+      <c r="E72" s="4"/>
+      <c r="F72" s="4"/>
+      <c r="G72" s="4"/>
+      <c r="H72" s="4"/>
+      <c r="I72" s="4"/>
       <c r="J72" s="4"/>
       <c r="K72" s="4"/>
       <c r="L72" s="4"/>
-      <c r="M72" s="230"/>
-      <c r="N72" s="230"/>
-      <c r="O72" s="230"/>
-      <c r="P72" s="231"/>
-      <c r="Q72" s="124">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
+      <c r="M72" s="4"/>
+      <c r="N72" s="4"/>
+      <c r="O72" s="4"/>
+      <c r="P72" s="4"/>
+      <c r="Q72" s="4"/>
       <c r="R72" s="4"/>
       <c r="S72" s="4"/>
       <c r="T72" s="4"/>
@@ -5924,34 +5796,23 @@
       <c r="Z72" s="4"/>
     </row>
     <row r="73" ht="15.75" customHeight="1">
-      <c r="A73" s="242"/>
-      <c r="B73" s="223"/>
-      <c r="C73" s="243" t="s">
-        <v>97</v>
-      </c>
-      <c r="D73" s="117" t="s">
-        <v>98</v>
-      </c>
-      <c r="E73" s="226" t="s">
-        <v>48</v>
-      </c>
-      <c r="F73" s="227">
-        <v>4.0</v>
-      </c>
-      <c r="G73" s="117"/>
-      <c r="H73" s="229"/>
-      <c r="I73" s="117"/>
+      <c r="A73" s="234"/>
+      <c r="B73" s="4"/>
+      <c r="C73" s="4"/>
+      <c r="D73" s="4"/>
+      <c r="E73" s="4"/>
+      <c r="F73" s="4"/>
+      <c r="G73" s="4"/>
+      <c r="H73" s="4"/>
+      <c r="I73" s="4"/>
       <c r="J73" s="4"/>
       <c r="K73" s="4"/>
       <c r="L73" s="4"/>
-      <c r="M73" s="230"/>
-      <c r="N73" s="230"/>
-      <c r="O73" s="230"/>
-      <c r="P73" s="231"/>
-      <c r="Q73" s="124">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
+      <c r="M73" s="4"/>
+      <c r="N73" s="4"/>
+      <c r="O73" s="4"/>
+      <c r="P73" s="4"/>
+      <c r="Q73" s="4"/>
       <c r="R73" s="4"/>
       <c r="S73" s="4"/>
       <c r="T73" s="4"/>
@@ -5963,34 +5824,18 @@
       <c r="Z73" s="4"/>
     </row>
     <row r="74" ht="15.75" customHeight="1">
-      <c r="A74" s="242"/>
-      <c r="B74" s="223"/>
-      <c r="C74" s="243" t="s">
-        <v>99</v>
-      </c>
-      <c r="D74" s="117" t="s">
-        <v>98</v>
-      </c>
-      <c r="E74" s="226" t="s">
-        <v>48</v>
-      </c>
-      <c r="F74" s="227">
-        <v>4.0</v>
-      </c>
-      <c r="G74" s="117"/>
-      <c r="H74" s="229"/>
-      <c r="I74" s="117"/>
+      <c r="A74" s="234"/>
+      <c r="B74" s="4"/>
+      <c r="C74" s="4"/>
+      <c r="D74" s="4"/>
+      <c r="E74" s="4"/>
+      <c r="F74" s="4"/>
+      <c r="G74" s="4"/>
+      <c r="H74" s="4"/>
+      <c r="I74" s="4"/>
       <c r="J74" s="4"/>
       <c r="K74" s="4"/>
       <c r="L74" s="4"/>
-      <c r="M74" s="230"/>
-      <c r="N74" s="230"/>
-      <c r="O74" s="230"/>
-      <c r="P74" s="231"/>
-      <c r="Q74" s="124">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
       <c r="R74" s="4"/>
       <c r="S74" s="4"/>
       <c r="T74" s="4"/>
@@ -6002,26 +5847,23 @@
       <c r="Z74" s="4"/>
     </row>
     <row r="75" ht="15.75" customHeight="1">
-      <c r="A75" s="242"/>
-      <c r="B75" s="140"/>
-      <c r="C75" s="192"/>
-      <c r="D75" s="126"/>
-      <c r="E75" s="244"/>
-      <c r="F75" s="245"/>
-      <c r="G75" s="246"/>
-      <c r="H75" s="219"/>
-      <c r="I75" s="246"/>
+      <c r="A75" s="234"/>
+      <c r="B75" s="4"/>
+      <c r="C75" s="4"/>
+      <c r="D75" s="4"/>
+      <c r="E75" s="4"/>
+      <c r="F75" s="4"/>
+      <c r="G75" s="4"/>
+      <c r="H75" s="4"/>
+      <c r="I75" s="4"/>
       <c r="J75" s="4"/>
       <c r="K75" s="4"/>
       <c r="L75" s="4"/>
-      <c r="M75" s="247"/>
-      <c r="N75" s="247"/>
-      <c r="O75" s="247"/>
-      <c r="P75" s="248"/>
-      <c r="Q75" s="249">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
+      <c r="M75" s="4"/>
+      <c r="N75" s="4"/>
+      <c r="O75" s="4"/>
+      <c r="P75" s="4"/>
+      <c r="Q75" s="4"/>
       <c r="R75" s="4"/>
       <c r="S75" s="4"/>
       <c r="T75" s="4"/>
@@ -6033,66 +5875,35 @@
       <c r="Z75" s="4"/>
     </row>
     <row r="76" ht="15.75" customHeight="1">
-      <c r="A76" s="250" t="s">
-        <v>5</v>
-      </c>
-      <c r="B76" s="251" t="s">
-        <v>6</v>
-      </c>
-      <c r="C76" s="252" t="s">
-        <v>6</v>
-      </c>
-      <c r="D76" s="252" t="s">
-        <v>6</v>
-      </c>
-      <c r="E76" s="253" t="s">
-        <v>6</v>
-      </c>
-      <c r="F76" s="252"/>
-      <c r="G76" s="254">
-        <f>SUM(G6,G8,G13,G21,G26,G29,G35,G37,G41,G44,G46,G49,G52,G57,G60,G63,G70)</f>
-        <v>186</v>
-      </c>
-      <c r="H76" s="255"/>
-      <c r="I76" s="254">
-        <f>SUM(I6,I8,I13,I21,I26,I29,I35,I37,I41,I44,I46,I49,I52,I57,I60,I63,I70)</f>
-        <v>151</v>
-      </c>
-      <c r="J76" s="40"/>
-      <c r="K76" s="40"/>
-      <c r="L76" s="40"/>
-      <c r="M76" s="256">
-        <f t="shared" ref="M76:Q76" si="15">SUM(M6,M8,M13,M21,M26,M29,M35,M37,M41,M44,M46,M49,M52,M57,M60,M63,M70)</f>
-        <v>42.75</v>
-      </c>
-      <c r="N76" s="254">
-        <f t="shared" si="15"/>
-        <v>19.25</v>
-      </c>
-      <c r="O76" s="254">
-        <f t="shared" si="15"/>
-        <v>29.75</v>
-      </c>
-      <c r="P76" s="257">
-        <f t="shared" si="15"/>
-        <v>59.25</v>
-      </c>
-      <c r="Q76" s="258">
-        <f t="shared" si="15"/>
-        <v>151</v>
-      </c>
-      <c r="R76" s="40"/>
-      <c r="S76" s="40"/>
-      <c r="T76" s="40"/>
-      <c r="U76" s="40"/>
-      <c r="V76" s="40"/>
-      <c r="W76" s="40"/>
-      <c r="X76" s="40"/>
-      <c r="Y76" s="40"/>
-      <c r="Z76" s="40"/>
+      <c r="A76" s="234"/>
+      <c r="B76" s="4"/>
+      <c r="C76" s="4"/>
+      <c r="D76" s="4"/>
+      <c r="E76" s="4"/>
+      <c r="F76" s="4"/>
+      <c r="G76" s="4"/>
+      <c r="H76" s="4"/>
+      <c r="I76" s="4"/>
+      <c r="J76" s="4"/>
+      <c r="K76" s="4"/>
+      <c r="L76" s="4"/>
+      <c r="M76" s="4"/>
+      <c r="N76" s="4"/>
+      <c r="O76" s="4"/>
+      <c r="P76" s="4"/>
+      <c r="Q76" s="4"/>
+      <c r="R76" s="4"/>
+      <c r="S76" s="4"/>
+      <c r="T76" s="4"/>
+      <c r="U76" s="4"/>
+      <c r="V76" s="4"/>
+      <c r="W76" s="4"/>
+      <c r="X76" s="4"/>
+      <c r="Y76" s="4"/>
+      <c r="Z76" s="4"/>
     </row>
     <row r="77" ht="15.75" customHeight="1">
-      <c r="A77" s="259"/>
+      <c r="A77" s="234"/>
       <c r="B77" s="4"/>
       <c r="C77" s="4"/>
       <c r="D77" s="4"/>
@@ -6120,7 +5931,7 @@
       <c r="Z77" s="4"/>
     </row>
     <row r="78" ht="15.75" customHeight="1">
-      <c r="A78" s="260"/>
+      <c r="A78" s="234"/>
       <c r="B78" s="4"/>
       <c r="C78" s="4"/>
       <c r="D78" s="4"/>
@@ -6148,7 +5959,7 @@
       <c r="Z78" s="4"/>
     </row>
     <row r="79" ht="15.75" customHeight="1">
-      <c r="A79" s="260"/>
+      <c r="A79" s="234"/>
       <c r="B79" s="4"/>
       <c r="C79" s="4"/>
       <c r="D79" s="4"/>
@@ -6176,7 +5987,7 @@
       <c r="Z79" s="4"/>
     </row>
     <row r="80" ht="15.75" customHeight="1">
-      <c r="A80" s="260"/>
+      <c r="A80" s="234"/>
       <c r="B80" s="4"/>
       <c r="C80" s="4"/>
       <c r="D80" s="4"/>
@@ -6188,6 +5999,11 @@
       <c r="J80" s="4"/>
       <c r="K80" s="4"/>
       <c r="L80" s="4"/>
+      <c r="M80" s="4"/>
+      <c r="N80" s="4"/>
+      <c r="O80" s="4"/>
+      <c r="P80" s="4"/>
+      <c r="Q80" s="4"/>
       <c r="R80" s="4"/>
       <c r="S80" s="4"/>
       <c r="T80" s="4"/>
@@ -6199,7 +6015,7 @@
       <c r="Z80" s="4"/>
     </row>
     <row r="81" ht="15.75" customHeight="1">
-      <c r="A81" s="260"/>
+      <c r="A81" s="234"/>
       <c r="B81" s="4"/>
       <c r="C81" s="4"/>
       <c r="D81" s="4"/>
@@ -6227,7 +6043,7 @@
       <c r="Z81" s="4"/>
     </row>
     <row r="82" ht="15.75" customHeight="1">
-      <c r="A82" s="260"/>
+      <c r="A82" s="234"/>
       <c r="B82" s="4"/>
       <c r="C82" s="4"/>
       <c r="D82" s="4"/>
@@ -6255,7 +6071,7 @@
       <c r="Z82" s="4"/>
     </row>
     <row r="83" ht="15.75" customHeight="1">
-      <c r="A83" s="260"/>
+      <c r="A83" s="234"/>
       <c r="B83" s="4"/>
       <c r="C83" s="4"/>
       <c r="D83" s="4"/>
@@ -6283,7 +6099,7 @@
       <c r="Z83" s="4"/>
     </row>
     <row r="84" ht="15.75" customHeight="1">
-      <c r="A84" s="260"/>
+      <c r="A84" s="234"/>
       <c r="B84" s="4"/>
       <c r="C84" s="4"/>
       <c r="D84" s="4"/>
@@ -6311,7 +6127,7 @@
       <c r="Z84" s="4"/>
     </row>
     <row r="85" ht="15.75" customHeight="1">
-      <c r="A85" s="260"/>
+      <c r="A85" s="234"/>
       <c r="B85" s="4"/>
       <c r="C85" s="4"/>
       <c r="D85" s="4"/>
@@ -6339,7 +6155,7 @@
       <c r="Z85" s="4"/>
     </row>
     <row r="86" ht="15.75" customHeight="1">
-      <c r="A86" s="260"/>
+      <c r="A86" s="234"/>
       <c r="B86" s="4"/>
       <c r="C86" s="4"/>
       <c r="D86" s="4"/>
@@ -6367,7 +6183,7 @@
       <c r="Z86" s="4"/>
     </row>
     <row r="87" ht="15.75" customHeight="1">
-      <c r="A87" s="260"/>
+      <c r="A87" s="234"/>
       <c r="B87" s="4"/>
       <c r="C87" s="4"/>
       <c r="D87" s="4"/>
@@ -6395,7 +6211,7 @@
       <c r="Z87" s="4"/>
     </row>
     <row r="88" ht="15.75" customHeight="1">
-      <c r="A88" s="260"/>
+      <c r="A88" s="234"/>
       <c r="B88" s="4"/>
       <c r="C88" s="4"/>
       <c r="D88" s="4"/>
@@ -6423,7 +6239,7 @@
       <c r="Z88" s="4"/>
     </row>
     <row r="89" ht="15.75" customHeight="1">
-      <c r="A89" s="260"/>
+      <c r="A89" s="234"/>
       <c r="B89" s="4"/>
       <c r="C89" s="4"/>
       <c r="D89" s="4"/>
@@ -6451,7 +6267,7 @@
       <c r="Z89" s="4"/>
     </row>
     <row r="90" ht="15.75" customHeight="1">
-      <c r="A90" s="260"/>
+      <c r="A90" s="234"/>
       <c r="B90" s="4"/>
       <c r="C90" s="4"/>
       <c r="D90" s="4"/>
@@ -6479,7 +6295,7 @@
       <c r="Z90" s="4"/>
     </row>
     <row r="91" ht="15.75" customHeight="1">
-      <c r="A91" s="260"/>
+      <c r="A91" s="234"/>
       <c r="B91" s="4"/>
       <c r="C91" s="4"/>
       <c r="D91" s="4"/>
@@ -6507,7 +6323,7 @@
       <c r="Z91" s="4"/>
     </row>
     <row r="92" ht="15.75" customHeight="1">
-      <c r="A92" s="260"/>
+      <c r="A92" s="234"/>
       <c r="B92" s="4"/>
       <c r="C92" s="4"/>
       <c r="D92" s="4"/>
@@ -6535,7 +6351,7 @@
       <c r="Z92" s="4"/>
     </row>
     <row r="93" ht="15.75" customHeight="1">
-      <c r="A93" s="260"/>
+      <c r="A93" s="234"/>
       <c r="B93" s="4"/>
       <c r="C93" s="4"/>
       <c r="D93" s="4"/>
@@ -6563,7 +6379,7 @@
       <c r="Z93" s="4"/>
     </row>
     <row r="94" ht="15.75" customHeight="1">
-      <c r="A94" s="260"/>
+      <c r="A94" s="234"/>
       <c r="B94" s="4"/>
       <c r="C94" s="4"/>
       <c r="D94" s="4"/>
@@ -6591,7 +6407,7 @@
       <c r="Z94" s="4"/>
     </row>
     <row r="95" ht="15.75" customHeight="1">
-      <c r="A95" s="260"/>
+      <c r="A95" s="234"/>
       <c r="B95" s="4"/>
       <c r="C95" s="4"/>
       <c r="D95" s="4"/>
@@ -6619,7 +6435,7 @@
       <c r="Z95" s="4"/>
     </row>
     <row r="96" ht="15.75" customHeight="1">
-      <c r="A96" s="260"/>
+      <c r="A96" s="234"/>
       <c r="B96" s="4"/>
       <c r="C96" s="4"/>
       <c r="D96" s="4"/>
@@ -6647,7 +6463,7 @@
       <c r="Z96" s="4"/>
     </row>
     <row r="97" ht="15.75" customHeight="1">
-      <c r="A97" s="260"/>
+      <c r="A97" s="234"/>
       <c r="B97" s="4"/>
       <c r="C97" s="4"/>
       <c r="D97" s="4"/>
@@ -6675,7 +6491,7 @@
       <c r="Z97" s="4"/>
     </row>
     <row r="98" ht="15.75" customHeight="1">
-      <c r="A98" s="260"/>
+      <c r="A98" s="234"/>
       <c r="B98" s="4"/>
       <c r="C98" s="4"/>
       <c r="D98" s="4"/>
@@ -6703,7 +6519,7 @@
       <c r="Z98" s="4"/>
     </row>
     <row r="99" ht="15.75" customHeight="1">
-      <c r="A99" s="260"/>
+      <c r="A99" s="234"/>
       <c r="B99" s="4"/>
       <c r="C99" s="4"/>
       <c r="D99" s="4"/>
@@ -6731,7 +6547,7 @@
       <c r="Z99" s="4"/>
     </row>
     <row r="100" ht="15.75" customHeight="1">
-      <c r="A100" s="260"/>
+      <c r="A100" s="234"/>
       <c r="B100" s="4"/>
       <c r="C100" s="4"/>
       <c r="D100" s="4"/>
@@ -6759,7 +6575,7 @@
       <c r="Z100" s="4"/>
     </row>
     <row r="101" ht="15.75" customHeight="1">
-      <c r="A101" s="260"/>
+      <c r="A101" s="234"/>
       <c r="B101" s="4"/>
       <c r="C101" s="4"/>
       <c r="D101" s="4"/>
@@ -6787,7 +6603,7 @@
       <c r="Z101" s="4"/>
     </row>
     <row r="102" ht="15.75" customHeight="1">
-      <c r="A102" s="260"/>
+      <c r="A102" s="234"/>
       <c r="B102" s="4"/>
       <c r="C102" s="4"/>
       <c r="D102" s="4"/>
@@ -6815,7 +6631,7 @@
       <c r="Z102" s="4"/>
     </row>
     <row r="103" ht="15.75" customHeight="1">
-      <c r="A103" s="260"/>
+      <c r="A103" s="234"/>
       <c r="B103" s="4"/>
       <c r="C103" s="4"/>
       <c r="D103" s="4"/>
@@ -6843,7 +6659,7 @@
       <c r="Z103" s="4"/>
     </row>
     <row r="104" ht="15.75" customHeight="1">
-      <c r="A104" s="260"/>
+      <c r="A104" s="235"/>
       <c r="B104" s="4"/>
       <c r="C104" s="4"/>
       <c r="D104" s="4"/>
@@ -6871,7 +6687,7 @@
       <c r="Z104" s="4"/>
     </row>
     <row r="105" ht="15.75" customHeight="1">
-      <c r="A105" s="260"/>
+      <c r="A105" s="4"/>
       <c r="B105" s="4"/>
       <c r="C105" s="4"/>
       <c r="D105" s="4"/>
@@ -6899,7 +6715,7 @@
       <c r="Z105" s="4"/>
     </row>
     <row r="106" ht="15.75" customHeight="1">
-      <c r="A106" s="260"/>
+      <c r="A106" s="4"/>
       <c r="B106" s="4"/>
       <c r="C106" s="4"/>
       <c r="D106" s="4"/>
@@ -6927,7 +6743,7 @@
       <c r="Z106" s="4"/>
     </row>
     <row r="107" ht="15.75" customHeight="1">
-      <c r="A107" s="260"/>
+      <c r="A107" s="4"/>
       <c r="B107" s="4"/>
       <c r="C107" s="4"/>
       <c r="D107" s="4"/>
@@ -6955,7 +6771,7 @@
       <c r="Z107" s="4"/>
     </row>
     <row r="108" ht="15.75" customHeight="1">
-      <c r="A108" s="260"/>
+      <c r="A108" s="4"/>
       <c r="B108" s="4"/>
       <c r="C108" s="4"/>
       <c r="D108" s="4"/>
@@ -6983,7 +6799,7 @@
       <c r="Z108" s="4"/>
     </row>
     <row r="109" ht="15.75" customHeight="1">
-      <c r="A109" s="260"/>
+      <c r="A109" s="4"/>
       <c r="B109" s="4"/>
       <c r="C109" s="4"/>
       <c r="D109" s="4"/>
@@ -7011,7 +6827,7 @@
       <c r="Z109" s="4"/>
     </row>
     <row r="110" ht="15.75" customHeight="1">
-      <c r="A110" s="261"/>
+      <c r="A110" s="4"/>
       <c r="B110" s="4"/>
       <c r="C110" s="4"/>
       <c r="D110" s="4"/>
@@ -7403,15 +7219,33 @@
       <c r="Z123" s="4"/>
     </row>
     <row r="124" ht="15.75" customHeight="1">
-      <c r="A124" s="4"/>
-      <c r="B124" s="4"/>
-      <c r="C124" s="4"/>
-      <c r="D124" s="4"/>
-      <c r="E124" s="4"/>
-      <c r="F124" s="4"/>
-      <c r="G124" s="4"/>
-      <c r="H124" s="4"/>
-      <c r="I124" s="4"/>
+      <c r="A124" s="225" t="s">
+        <v>5</v>
+      </c>
+      <c r="B124" s="225" t="s">
+        <v>6</v>
+      </c>
+      <c r="C124" s="226" t="s">
+        <v>6</v>
+      </c>
+      <c r="D124" s="226" t="s">
+        <v>6</v>
+      </c>
+      <c r="E124" s="227" t="s">
+        <v>6</v>
+      </c>
+      <c r="F124" s="226">
+        <v>0.0</v>
+      </c>
+      <c r="G124" s="227">
+        <v>0.0</v>
+      </c>
+      <c r="H124" s="226">
+        <v>0.0</v>
+      </c>
+      <c r="I124" s="236">
+        <v>0.0</v>
+      </c>
       <c r="J124" s="4"/>
       <c r="K124" s="4"/>
       <c r="L124" s="4"/>
@@ -7571,33 +7405,15 @@
       <c r="Z129" s="4"/>
     </row>
     <row r="130" ht="15.75" customHeight="1">
-      <c r="A130" s="251" t="s">
-        <v>5</v>
-      </c>
-      <c r="B130" s="251" t="s">
-        <v>6</v>
-      </c>
-      <c r="C130" s="252" t="s">
-        <v>6</v>
-      </c>
-      <c r="D130" s="252" t="s">
-        <v>6</v>
-      </c>
-      <c r="E130" s="253" t="s">
-        <v>6</v>
-      </c>
-      <c r="F130" s="252">
-        <v>0.0</v>
-      </c>
-      <c r="G130" s="253">
-        <v>0.0</v>
-      </c>
-      <c r="H130" s="252">
-        <v>0.0</v>
-      </c>
-      <c r="I130" s="262">
-        <v>0.0</v>
-      </c>
+      <c r="A130" s="4"/>
+      <c r="B130" s="4"/>
+      <c r="C130" s="4"/>
+      <c r="D130" s="4"/>
+      <c r="E130" s="4"/>
+      <c r="F130" s="4"/>
+      <c r="G130" s="4"/>
+      <c r="H130" s="4"/>
+      <c r="I130" s="4"/>
       <c r="J130" s="4"/>
       <c r="K130" s="4"/>
       <c r="L130" s="4"/>
@@ -31248,178 +31064,10 @@
       <c r="Y974" s="4"/>
       <c r="Z974" s="4"/>
     </row>
-    <row r="975" ht="15.75" customHeight="1">
-      <c r="A975" s="4"/>
-      <c r="B975" s="4"/>
-      <c r="C975" s="4"/>
-      <c r="D975" s="4"/>
-      <c r="E975" s="4"/>
-      <c r="F975" s="4"/>
-      <c r="G975" s="4"/>
-      <c r="H975" s="4"/>
-      <c r="I975" s="4"/>
-      <c r="J975" s="4"/>
-      <c r="K975" s="4"/>
-      <c r="L975" s="4"/>
-      <c r="M975" s="4"/>
-      <c r="N975" s="4"/>
-      <c r="O975" s="4"/>
-      <c r="P975" s="4"/>
-      <c r="Q975" s="4"/>
-      <c r="R975" s="4"/>
-      <c r="S975" s="4"/>
-      <c r="T975" s="4"/>
-      <c r="U975" s="4"/>
-      <c r="V975" s="4"/>
-      <c r="W975" s="4"/>
-      <c r="X975" s="4"/>
-      <c r="Y975" s="4"/>
-      <c r="Z975" s="4"/>
-    </row>
-    <row r="976" ht="15.75" customHeight="1">
-      <c r="A976" s="4"/>
-      <c r="B976" s="4"/>
-      <c r="C976" s="4"/>
-      <c r="D976" s="4"/>
-      <c r="E976" s="4"/>
-      <c r="F976" s="4"/>
-      <c r="G976" s="4"/>
-      <c r="H976" s="4"/>
-      <c r="I976" s="4"/>
-      <c r="J976" s="4"/>
-      <c r="K976" s="4"/>
-      <c r="L976" s="4"/>
-      <c r="M976" s="4"/>
-      <c r="N976" s="4"/>
-      <c r="O976" s="4"/>
-      <c r="P976" s="4"/>
-      <c r="Q976" s="4"/>
-      <c r="R976" s="4"/>
-      <c r="S976" s="4"/>
-      <c r="T976" s="4"/>
-      <c r="U976" s="4"/>
-      <c r="V976" s="4"/>
-      <c r="W976" s="4"/>
-      <c r="X976" s="4"/>
-      <c r="Y976" s="4"/>
-      <c r="Z976" s="4"/>
-    </row>
-    <row r="977" ht="15.75" customHeight="1">
-      <c r="A977" s="4"/>
-      <c r="B977" s="4"/>
-      <c r="C977" s="4"/>
-      <c r="D977" s="4"/>
-      <c r="E977" s="4"/>
-      <c r="F977" s="4"/>
-      <c r="G977" s="4"/>
-      <c r="H977" s="4"/>
-      <c r="I977" s="4"/>
-      <c r="J977" s="4"/>
-      <c r="K977" s="4"/>
-      <c r="L977" s="4"/>
-      <c r="M977" s="4"/>
-      <c r="N977" s="4"/>
-      <c r="O977" s="4"/>
-      <c r="P977" s="4"/>
-      <c r="Q977" s="4"/>
-      <c r="R977" s="4"/>
-      <c r="S977" s="4"/>
-      <c r="T977" s="4"/>
-      <c r="U977" s="4"/>
-      <c r="V977" s="4"/>
-      <c r="W977" s="4"/>
-      <c r="X977" s="4"/>
-      <c r="Y977" s="4"/>
-      <c r="Z977" s="4"/>
-    </row>
-    <row r="978" ht="15.75" customHeight="1">
-      <c r="A978" s="4"/>
-      <c r="B978" s="4"/>
-      <c r="C978" s="4"/>
-      <c r="D978" s="4"/>
-      <c r="E978" s="4"/>
-      <c r="F978" s="4"/>
-      <c r="G978" s="4"/>
-      <c r="H978" s="4"/>
-      <c r="I978" s="4"/>
-      <c r="J978" s="4"/>
-      <c r="K978" s="4"/>
-      <c r="L978" s="4"/>
-      <c r="M978" s="4"/>
-      <c r="N978" s="4"/>
-      <c r="O978" s="4"/>
-      <c r="P978" s="4"/>
-      <c r="Q978" s="4"/>
-      <c r="R978" s="4"/>
-      <c r="S978" s="4"/>
-      <c r="T978" s="4"/>
-      <c r="U978" s="4"/>
-      <c r="V978" s="4"/>
-      <c r="W978" s="4"/>
-      <c r="X978" s="4"/>
-      <c r="Y978" s="4"/>
-      <c r="Z978" s="4"/>
-    </row>
-    <row r="979" ht="15.75" customHeight="1">
-      <c r="A979" s="4"/>
-      <c r="B979" s="4"/>
-      <c r="C979" s="4"/>
-      <c r="D979" s="4"/>
-      <c r="E979" s="4"/>
-      <c r="F979" s="4"/>
-      <c r="G979" s="4"/>
-      <c r="H979" s="4"/>
-      <c r="I979" s="4"/>
-      <c r="J979" s="4"/>
-      <c r="K979" s="4"/>
-      <c r="L979" s="4"/>
-      <c r="M979" s="4"/>
-      <c r="N979" s="4"/>
-      <c r="O979" s="4"/>
-      <c r="P979" s="4"/>
-      <c r="Q979" s="4"/>
-      <c r="R979" s="4"/>
-      <c r="S979" s="4"/>
-      <c r="T979" s="4"/>
-      <c r="U979" s="4"/>
-      <c r="V979" s="4"/>
-      <c r="W979" s="4"/>
-      <c r="X979" s="4"/>
-      <c r="Y979" s="4"/>
-      <c r="Z979" s="4"/>
-    </row>
-    <row r="980" ht="15.75" customHeight="1">
-      <c r="A980" s="4"/>
-      <c r="B980" s="4"/>
-      <c r="C980" s="4"/>
-      <c r="D980" s="4"/>
-      <c r="E980" s="4"/>
-      <c r="F980" s="4"/>
-      <c r="G980" s="4"/>
-      <c r="H980" s="4"/>
-      <c r="I980" s="4"/>
-      <c r="J980" s="4"/>
-      <c r="K980" s="4"/>
-      <c r="L980" s="4"/>
-      <c r="M980" s="4"/>
-      <c r="N980" s="4"/>
-      <c r="O980" s="4"/>
-      <c r="P980" s="4"/>
-      <c r="Q980" s="4"/>
-      <c r="R980" s="4"/>
-      <c r="S980" s="4"/>
-      <c r="T980" s="4"/>
-      <c r="U980" s="4"/>
-      <c r="V980" s="4"/>
-      <c r="W980" s="4"/>
-      <c r="X980" s="4"/>
-      <c r="Y980" s="4"/>
-      <c r="Z980" s="4"/>
-    </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{80E05015-D7FE-4065-A8EB-96C524F604A6}" filter="1" showAutoFilter="1">
-      <autoFilter ref="$A$2:$I$76"/>
+    <customSheetView guid="{EC252330-FE26-4A13-B804-79012C576422}" filter="1" showAutoFilter="1">
+      <autoFilter ref="$A$2:$I$70"/>
       <extLst>
         <ext uri="GoogleSheetsCustomDataVersion1">
           <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" filterViewId="58594963"/>
